--- a/socialstyrelsen/statistik-covid19-avlidna_latest.xlsx
+++ b/socialstyrelsen/statistik-covid19-avlidna_latest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\S\Delad\021-Statistik Covid\Excelfiler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projekt\Covid19_intensivvard\Upprepade leveranser\Output\Arbetsmapp\MALL_UT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,19 +24,23 @@
     <sheet name="Kommun" sheetId="18" r:id="rId10"/>
     <sheet name="Dödsdag" sheetId="12" r:id="rId11"/>
     <sheet name="Vecka" sheetId="21" r:id="rId12"/>
+    <sheet name="Avlidna - Vecka" sheetId="22" r:id="rId13"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId14"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Kommun!$A$7:$H$322</definedName>
     <definedName name="innehållsförteckning" localSheetId="6">#REF!</definedName>
     <definedName name="innehållsförteckning" localSheetId="1">Definitioner!#REF!</definedName>
     <definedName name="innehållsförteckning">'Om statistiken'!$B$15</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="867">
   <si>
     <t>Diabetes</t>
   </si>
@@ -2853,6 +2857,18 @@
   <si>
     <t>Vecka 47</t>
   </si>
+  <si>
+    <t>Avlidna-statistiken</t>
+  </si>
+  <si>
+    <t>Nya kolumner för Särskilt boende och Hemtjänst läggs till i Vecko-fliken</t>
+  </si>
+  <si>
+    <t>Källa: dödsorsaksintyg</t>
+  </si>
+  <si>
+    <t>Särsklit boende</t>
+  </si>
 </sst>
 </file>
 
@@ -2866,7 +2882,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0\ _k_r_-;\-* #,##0\ _k_r_-;_-* &quot;-&quot;\ _k_r_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -3111,6 +3127,14 @@
       <family val="1"/>
       <charset val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3132,7 +3156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -3728,6 +3752,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3779,7 +3814,7 @@
     <xf numFmtId="167" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="316">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4606,6 +4641,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="18"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="53" xfId="18" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" xfId="18" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="18" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="18" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="Diagramrubrik" xfId="17"/>
@@ -4698,7 +4771,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5060,7 +5132,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5162,7 +5233,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5459,7 +5529,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5561,7 +5630,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5851,7 +5919,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5953,7 +6020,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6255,7 +6321,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8828,6 +8893,1004 @@
           <c:tx>
             <c:strRef>
               <c:f>Vecka!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7094017094017096E-2"/>
+              <c:y val="0.13112002354845834"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685813880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.617590536225707E-2"/>
+          <c:y val="0.1881575858294095"/>
+          <c:w val="0.91443390089059362"/>
+          <c:h val="0.61537394300213577"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Totalt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="38"/>
+              <c:pt idx="0">
+                <c:v>Uppgift saknas</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Vecka 10</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Vecka 11</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Vecka 12</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Vecka 13</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>Vecka 14</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>Vecka 15</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>Vecka 16</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>Vecka 17</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>Vecka 18</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>Vecka 19</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>Vecka 20</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>Vecka 21</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>Vecka 22</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>Vecka 23</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>Vecka 24</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>Vecka 25</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>Vecka 26</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>Vecka 27</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>Vecka 28</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>Vecka 29</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>Vecka 30</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>Vecka 31</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>Vecka 32</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>Vecka 33</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>Vecka 34</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>Vecka 35</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>Vecka 36</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>Vecka 37</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>Vecka 38</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>Vecka 39</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>Vecka 40</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>Vecka 41</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>Vecka 42</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>Vecka 43</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>Vecka 44</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>Vecka 45</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>Vecka 46</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="38"/>
+              <c:pt idx="0">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>44</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>186</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>468</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>737</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>727</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>595</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>553</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>498</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>379</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>340</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>258</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>252</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>224</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>184</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>130</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>81</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>75</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>60</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>28</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>52</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>41</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B3B6-492D-A459-DCAA46804C21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="49"/>
+        <c:axId val="685813880"/>
+        <c:axId val="685813224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="685813880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685813224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="685813224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>"Antal"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7094017094017096E-2"/>
+              <c:y val="0.13112002354845834"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685813880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.617590536225707E-2"/>
+          <c:y val="0.1881575858294095"/>
+          <c:w val="0.91443390089059362"/>
+          <c:h val="0.61537394300213577"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Särsklit boende</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="38"/>
+              <c:pt idx="0">
+                <c:v>Uppgift saknas</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Vecka 10</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Vecka 11</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Vecka 12</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Vecka 13</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>Vecka 14</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>Vecka 15</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>Vecka 16</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>Vecka 17</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>Vecka 18</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>Vecka 19</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>Vecka 20</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>Vecka 21</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>Vecka 22</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>Vecka 23</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>Vecka 24</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>Vecka 25</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>Vecka 26</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>Vecka 27</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>Vecka 28</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>Vecka 29</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>Vecka 30</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>Vecka 31</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>Vecka 32</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>Vecka 33</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>Vecka 34</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>Vecka 35</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>Vecka 36</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>Vecka 37</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>Vecka 38</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>Vecka 39</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>Vecka 40</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>Vecka 41</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>Vecka 42</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>Vecka 43</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>Vecka 44</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>Vecka 45</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>Vecka 46</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="38"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>53</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>195</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>319</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>395</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>292</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>289</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>249</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>190</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>164</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>98</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>95</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>99</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>81</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>62</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>41</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>35</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>37</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7743-41D7-9164-69ADA24A0AF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="49"/>
+        <c:axId val="685813880"/>
+        <c:axId val="685813224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="685813880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685813224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="685813224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>"Antal"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9191,6 +10254,86 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12761,6 +13904,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -14681,6 +16830,161 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rektangel med rundade hörn 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057525" y="381000"/>
+          <a:ext cx="1168400" cy="377825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DAD7CB"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40005" dist="22860" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1000" b="1" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Om Statistiken</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -14836,6 +17140,714 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00451</cdr:x>
+      <cdr:y>0.06812</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97699</cdr:x>
+      <cdr:y>0.13481</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="textruta 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="30177" y="277724"/>
+          <a:ext cx="6502492" cy="271849"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fld id="{DB3DDABD-4108-495D-B1C2-117387D5C966}" type="TxLink">
+            <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century Gothic"/>
+            </a:rPr>
+            <a:pPr/>
+            <a:t>Nya kolumner för Särskilt boende och Hemtjänst läggs till i Vecko-fliken</a:t>
+          </a:fld>
+          <a:endParaRPr lang="sv-SE" sz="800" b="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00485</cdr:x>
+      <cdr:y>0.01246</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.07914</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="textruta 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="50800" y="50800"/>
+          <a:ext cx="6654091" cy="271849"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1000" b="1"/>
+            <a:t>Antal avlidna i covid-19 enligt inkommet dödsorsaksintyg</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00332</cdr:x>
+      <cdr:y>0.88914</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="textruta 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="22199" y="3819526"/>
+          <a:ext cx="3187345" cy="476249"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="sv-SE" sz="700"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.9357</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99858</cdr:x>
+      <cdr:y>0.9954</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="textruta 4"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="4019550"/>
+          <a:ext cx="8503258" cy="256463"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fld id="{5A2EA673-8583-43EF-AEED-72A77018A174}" type="TxLink">
+            <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century Gothic"/>
+            </a:rPr>
+            <a:pPr/>
+            <a:t>Källa: dödsorsaksintyg</a:t>
+          </a:fld>
+          <a:endParaRPr lang="sv-SE" sz="1900" smtClean="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00451</cdr:x>
+      <cdr:y>0.06812</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97699</cdr:x>
+      <cdr:y>0.13481</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="textruta 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="30177" y="277724"/>
+          <a:ext cx="6502492" cy="271849"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fld id="{DB3DDABD-4108-495D-B1C2-117387D5C966}" type="TxLink">
+            <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century Gothic"/>
+            </a:rPr>
+            <a:pPr/>
+            <a:t>Nya kolumner för Särskilt boende och Hemtjänst läggs till i Vecko-fliken</a:t>
+          </a:fld>
+          <a:endParaRPr lang="sv-SE" sz="800" b="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00485</cdr:x>
+      <cdr:y>0.01246</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.07914</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="textruta 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="50800" y="50800"/>
+          <a:ext cx="6654091" cy="271849"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1000" b="1"/>
+            <a:t>Antal avlidna, på särsklit boende, i covid-19 enligt inkommet dödsorsaksintyg</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00332</cdr:x>
+      <cdr:y>0.88914</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="textruta 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="22199" y="3819526"/>
+          <a:ext cx="3187345" cy="476249"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="sv-SE" sz="700"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.9357</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99858</cdr:x>
+      <cdr:y>0.9954</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="textruta 4"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="4019550"/>
+          <a:ext cx="8503258" cy="256463"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fld id="{5A2EA673-8583-43EF-AEED-72A77018A174}" type="TxLink">
+            <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century Gothic"/>
+            </a:rPr>
+            <a:pPr/>
+            <a:t>Källa: dödsorsaksintyg</a:t>
+          </a:fld>
+          <a:endParaRPr lang="sv-SE" sz="1900" smtClean="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17252,6 +20264,455 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Om statistiken"/>
+      <sheetName val="Avliden - vecka"/>
+      <sheetName val="Smittade 70+ - vecka"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Totalt</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>Särsklit boende</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Antal</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Uppgift saknas</v>
+          </cell>
+          <cell r="B10">
+            <v>11</v>
+          </cell>
+          <cell r="D10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Vecka 10</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>X</v>
+          </cell>
+          <cell r="D11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Vecka 11</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>X</v>
+          </cell>
+          <cell r="D12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Vecka 12</v>
+          </cell>
+          <cell r="B13">
+            <v>44</v>
+          </cell>
+          <cell r="D13">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Vecka 13</v>
+          </cell>
+          <cell r="B14">
+            <v>186</v>
+          </cell>
+          <cell r="D14">
+            <v>53</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Vecka 14</v>
+          </cell>
+          <cell r="B15">
+            <v>468</v>
+          </cell>
+          <cell r="D15">
+            <v>195</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Vecka 15</v>
+          </cell>
+          <cell r="B16">
+            <v>737</v>
+          </cell>
+          <cell r="D16">
+            <v>319</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Vecka 16</v>
+          </cell>
+          <cell r="B17">
+            <v>727</v>
+          </cell>
+          <cell r="D17">
+            <v>395</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Vecka 17</v>
+          </cell>
+          <cell r="B18">
+            <v>595</v>
+          </cell>
+          <cell r="D18">
+            <v>292</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Vecka 18</v>
+          </cell>
+          <cell r="B19">
+            <v>553</v>
+          </cell>
+          <cell r="D19">
+            <v>289</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Vecka 19</v>
+          </cell>
+          <cell r="B20">
+            <v>498</v>
+          </cell>
+          <cell r="D20">
+            <v>249</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Vecka 20</v>
+          </cell>
+          <cell r="B21">
+            <v>379</v>
+          </cell>
+          <cell r="D21">
+            <v>190</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Vecka 21</v>
+          </cell>
+          <cell r="B22">
+            <v>340</v>
+          </cell>
+          <cell r="D22">
+            <v>164</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Vecka 22</v>
+          </cell>
+          <cell r="B23">
+            <v>258</v>
+          </cell>
+          <cell r="D23">
+            <v>98</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Vecka 23</v>
+          </cell>
+          <cell r="B24">
+            <v>252</v>
+          </cell>
+          <cell r="D24">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Vecka 24</v>
+          </cell>
+          <cell r="B25">
+            <v>224</v>
+          </cell>
+          <cell r="D25">
+            <v>99</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Vecka 25</v>
+          </cell>
+          <cell r="B26">
+            <v>184</v>
+          </cell>
+          <cell r="D26">
+            <v>81</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Vecka 26</v>
+          </cell>
+          <cell r="B27">
+            <v>130</v>
+          </cell>
+          <cell r="D27">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Vecka 27</v>
+          </cell>
+          <cell r="B28">
+            <v>81</v>
+          </cell>
+          <cell r="D28">
+            <v>41</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Vecka 28</v>
+          </cell>
+          <cell r="B29">
+            <v>75</v>
+          </cell>
+          <cell r="D29">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Vecka 29</v>
+          </cell>
+          <cell r="B30">
+            <v>60</v>
+          </cell>
+          <cell r="D30">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Vecka 30</v>
+          </cell>
+          <cell r="B31">
+            <v>28</v>
+          </cell>
+          <cell r="D31">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Vecka 31</v>
+          </cell>
+          <cell r="B32">
+            <v>24</v>
+          </cell>
+          <cell r="D32">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Vecka 32</v>
+          </cell>
+          <cell r="B33">
+            <v>24</v>
+          </cell>
+          <cell r="D33">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Vecka 33</v>
+          </cell>
+          <cell r="B34">
+            <v>15</v>
+          </cell>
+          <cell r="D34">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Vecka 34</v>
+          </cell>
+          <cell r="B35">
+            <v>15</v>
+          </cell>
+          <cell r="D35">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Vecka 35</v>
+          </cell>
+          <cell r="B36">
+            <v>12</v>
+          </cell>
+          <cell r="D36">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Vecka 36</v>
+          </cell>
+          <cell r="B37">
+            <v>8</v>
+          </cell>
+          <cell r="D37">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Vecka 37</v>
+          </cell>
+          <cell r="B38">
+            <v>13</v>
+          </cell>
+          <cell r="D38">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Vecka 38</v>
+          </cell>
+          <cell r="B39">
+            <v>6</v>
+          </cell>
+          <cell r="D39">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Vecka 39</v>
+          </cell>
+          <cell r="B40">
+            <v>11</v>
+          </cell>
+          <cell r="D40">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>Vecka 40</v>
+          </cell>
+          <cell r="B41">
+            <v>12</v>
+          </cell>
+          <cell r="D41">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>Vecka 41</v>
+          </cell>
+          <cell r="B42">
+            <v>17</v>
+          </cell>
+          <cell r="D42">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>Vecka 42</v>
+          </cell>
+          <cell r="B43">
+            <v>16</v>
+          </cell>
+          <cell r="D43">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>Vecka 43</v>
+          </cell>
+          <cell r="B44">
+            <v>25</v>
+          </cell>
+          <cell r="D44">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>Vecka 44</v>
+          </cell>
+          <cell r="B45">
+            <v>52</v>
+          </cell>
+          <cell r="D45">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>Vecka 45</v>
+          </cell>
+          <cell r="B46">
+            <v>41</v>
+          </cell>
+          <cell r="D46">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>Vecka 46</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>X</v>
+          </cell>
+          <cell r="D47">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Socialstyrelsen">
   <a:themeElements>
@@ -18367,7 +21828,9 @@
   </sheetPr>
   <dimension ref="A1:K325"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -30967,6 +34430,992 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" style="315" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="302" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="302" customWidth="1"/>
+    <col min="4" max="6" width="9.33203125" style="302"/>
+    <col min="7" max="7" width="7.83203125" style="302" customWidth="1"/>
+    <col min="8" max="16384" width="9.33203125" style="302"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="20" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="303" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="304" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A5" s="301" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="301"/>
+      <c r="C5" s="301"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="305"/>
+      <c r="B6" s="306" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="306"/>
+      <c r="D6" s="306"/>
+      <c r="E6" s="306"/>
+      <c r="F6" s="306"/>
+      <c r="G6" s="306"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="307" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="308" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="309"/>
+      <c r="D7" s="308" t="s">
+        <v>866</v>
+      </c>
+      <c r="E7" s="309"/>
+      <c r="F7" s="308" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="309"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="295"/>
+      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="310" t="s">
+        <v>578</v>
+      </c>
+      <c r="B9" s="311">
+        <v>6262</v>
+      </c>
+      <c r="C9" s="311">
+        <v>100</v>
+      </c>
+      <c r="D9" s="311">
+        <v>2905</v>
+      </c>
+      <c r="E9" s="311">
+        <v>46.39</v>
+      </c>
+      <c r="F9" s="311">
+        <v>1652</v>
+      </c>
+      <c r="G9" s="311">
+        <v>26.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="312">
+        <v>10</v>
+      </c>
+      <c r="B10" s="313" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="313"/>
+      <c r="D10" s="313">
+        <v>0</v>
+      </c>
+      <c r="E10" s="313">
+        <v>0</v>
+      </c>
+      <c r="F10" s="313">
+        <v>0</v>
+      </c>
+      <c r="G10" s="313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="312">
+        <v>11</v>
+      </c>
+      <c r="B11" s="313" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" s="313"/>
+      <c r="D11" s="313">
+        <v>0</v>
+      </c>
+      <c r="E11" s="313">
+        <v>0</v>
+      </c>
+      <c r="F11" s="313">
+        <v>0</v>
+      </c>
+      <c r="G11" s="313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="312">
+        <v>12</v>
+      </c>
+      <c r="B12" s="313">
+        <v>44</v>
+      </c>
+      <c r="C12" s="313">
+        <v>0.7</v>
+      </c>
+      <c r="D12" s="313">
+        <v>13</v>
+      </c>
+      <c r="E12" s="313">
+        <v>29.55</v>
+      </c>
+      <c r="F12" s="313">
+        <v>14</v>
+      </c>
+      <c r="G12" s="313">
+        <v>31.82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="312">
+        <v>13</v>
+      </c>
+      <c r="B13" s="313">
+        <v>186</v>
+      </c>
+      <c r="C13" s="313">
+        <v>2.97</v>
+      </c>
+      <c r="D13" s="313">
+        <v>53</v>
+      </c>
+      <c r="E13" s="313">
+        <v>28.49</v>
+      </c>
+      <c r="F13" s="313">
+        <v>41</v>
+      </c>
+      <c r="G13" s="313">
+        <v>22.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="312">
+        <v>14</v>
+      </c>
+      <c r="B14" s="313">
+        <v>468</v>
+      </c>
+      <c r="C14" s="313">
+        <v>7.47</v>
+      </c>
+      <c r="D14" s="313">
+        <v>195</v>
+      </c>
+      <c r="E14" s="313">
+        <v>41.67</v>
+      </c>
+      <c r="F14" s="313">
+        <v>120</v>
+      </c>
+      <c r="G14" s="313">
+        <v>25.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="312">
+        <v>15</v>
+      </c>
+      <c r="B15" s="313">
+        <v>737</v>
+      </c>
+      <c r="C15" s="313">
+        <v>11.77</v>
+      </c>
+      <c r="D15" s="313">
+        <v>319</v>
+      </c>
+      <c r="E15" s="313">
+        <v>43.28</v>
+      </c>
+      <c r="F15" s="313">
+        <v>198</v>
+      </c>
+      <c r="G15" s="313">
+        <v>26.87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="312">
+        <v>16</v>
+      </c>
+      <c r="B16" s="313">
+        <v>728</v>
+      </c>
+      <c r="C16" s="313">
+        <v>11.63</v>
+      </c>
+      <c r="D16" s="313">
+        <v>395</v>
+      </c>
+      <c r="E16" s="313">
+        <v>54.26</v>
+      </c>
+      <c r="F16" s="313">
+        <v>168</v>
+      </c>
+      <c r="G16" s="313">
+        <v>23.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="312">
+        <v>17</v>
+      </c>
+      <c r="B17" s="313">
+        <v>595</v>
+      </c>
+      <c r="C17" s="313">
+        <v>9.5</v>
+      </c>
+      <c r="D17" s="313">
+        <v>292</v>
+      </c>
+      <c r="E17" s="313">
+        <v>49.08</v>
+      </c>
+      <c r="F17" s="313">
+        <v>149</v>
+      </c>
+      <c r="G17" s="313">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="312">
+        <v>18</v>
+      </c>
+      <c r="B18" s="313">
+        <v>553</v>
+      </c>
+      <c r="C18" s="313">
+        <v>8.83</v>
+      </c>
+      <c r="D18" s="313">
+        <v>289</v>
+      </c>
+      <c r="E18" s="313">
+        <v>52.26</v>
+      </c>
+      <c r="F18" s="313">
+        <v>138</v>
+      </c>
+      <c r="G18" s="313">
+        <v>24.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="312">
+        <v>19</v>
+      </c>
+      <c r="B19" s="313">
+        <v>498</v>
+      </c>
+      <c r="C19" s="313">
+        <v>7.95</v>
+      </c>
+      <c r="D19" s="313">
+        <v>249</v>
+      </c>
+      <c r="E19" s="313">
+        <v>50</v>
+      </c>
+      <c r="F19" s="313">
+        <v>123</v>
+      </c>
+      <c r="G19" s="313">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="312">
+        <v>20</v>
+      </c>
+      <c r="B20" s="313">
+        <v>380</v>
+      </c>
+      <c r="C20" s="313">
+        <v>6.07</v>
+      </c>
+      <c r="D20" s="313">
+        <v>190</v>
+      </c>
+      <c r="E20" s="313">
+        <v>50</v>
+      </c>
+      <c r="F20" s="313">
+        <v>102</v>
+      </c>
+      <c r="G20" s="313">
+        <v>26.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="312">
+        <v>21</v>
+      </c>
+      <c r="B21" s="313">
+        <v>340</v>
+      </c>
+      <c r="C21" s="313">
+        <v>5.43</v>
+      </c>
+      <c r="D21" s="313">
+        <v>164</v>
+      </c>
+      <c r="E21" s="313">
+        <v>48.24</v>
+      </c>
+      <c r="F21" s="313">
+        <v>93</v>
+      </c>
+      <c r="G21" s="313">
+        <v>27.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="312">
+        <v>22</v>
+      </c>
+      <c r="B22" s="313">
+        <v>258</v>
+      </c>
+      <c r="C22" s="313">
+        <v>4.12</v>
+      </c>
+      <c r="D22" s="313">
+        <v>98</v>
+      </c>
+      <c r="E22" s="313">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="F22" s="313">
+        <v>93</v>
+      </c>
+      <c r="G22" s="313">
+        <v>36.049999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="312">
+        <v>23</v>
+      </c>
+      <c r="B23" s="313">
+        <v>252</v>
+      </c>
+      <c r="C23" s="313">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="D23" s="313">
+        <v>95</v>
+      </c>
+      <c r="E23" s="313">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="F23" s="313">
+        <v>88</v>
+      </c>
+      <c r="G23" s="313">
+        <v>34.92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="312">
+        <v>24</v>
+      </c>
+      <c r="B24" s="313">
+        <v>226</v>
+      </c>
+      <c r="C24" s="313">
+        <v>3.61</v>
+      </c>
+      <c r="D24" s="313">
+        <v>99</v>
+      </c>
+      <c r="E24" s="313">
+        <v>43.81</v>
+      </c>
+      <c r="F24" s="313">
+        <v>64</v>
+      </c>
+      <c r="G24" s="313">
+        <v>28.32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="312">
+        <v>25</v>
+      </c>
+      <c r="B25" s="313">
+        <v>184</v>
+      </c>
+      <c r="C25" s="313">
+        <v>2.94</v>
+      </c>
+      <c r="D25" s="313">
+        <v>81</v>
+      </c>
+      <c r="E25" s="313">
+        <v>44.02</v>
+      </c>
+      <c r="F25" s="313">
+        <v>55</v>
+      </c>
+      <c r="G25" s="313">
+        <v>29.89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="312">
+        <v>26</v>
+      </c>
+      <c r="B26" s="313">
+        <v>131</v>
+      </c>
+      <c r="C26" s="313">
+        <v>2.09</v>
+      </c>
+      <c r="D26" s="313">
+        <v>63</v>
+      </c>
+      <c r="E26" s="313">
+        <v>48.09</v>
+      </c>
+      <c r="F26" s="313">
+        <v>37</v>
+      </c>
+      <c r="G26" s="313">
+        <v>28.24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="312">
+        <v>27</v>
+      </c>
+      <c r="B27" s="313">
+        <v>81</v>
+      </c>
+      <c r="C27" s="313">
+        <v>1.29</v>
+      </c>
+      <c r="D27" s="313">
+        <v>41</v>
+      </c>
+      <c r="E27" s="313">
+        <v>50.62</v>
+      </c>
+      <c r="F27" s="313">
+        <v>19</v>
+      </c>
+      <c r="G27" s="313">
+        <v>23.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="312">
+        <v>28</v>
+      </c>
+      <c r="B28" s="313">
+        <v>76</v>
+      </c>
+      <c r="C28" s="313">
+        <v>1.21</v>
+      </c>
+      <c r="D28" s="313">
+        <v>35</v>
+      </c>
+      <c r="E28" s="313">
+        <v>46.05</v>
+      </c>
+      <c r="F28" s="313">
+        <v>17</v>
+      </c>
+      <c r="G28" s="313">
+        <v>22.37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="312">
+        <v>29</v>
+      </c>
+      <c r="B29" s="313">
+        <v>61</v>
+      </c>
+      <c r="C29" s="313">
+        <v>0.97</v>
+      </c>
+      <c r="D29" s="313">
+        <v>25</v>
+      </c>
+      <c r="E29" s="313">
+        <v>40.98</v>
+      </c>
+      <c r="F29" s="313">
+        <v>18</v>
+      </c>
+      <c r="G29" s="313">
+        <v>29.51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="312">
+        <v>30</v>
+      </c>
+      <c r="B30" s="313">
+        <v>28</v>
+      </c>
+      <c r="C30" s="313">
+        <v>0.45</v>
+      </c>
+      <c r="D30" s="313">
+        <v>13</v>
+      </c>
+      <c r="E30" s="313">
+        <v>46.43</v>
+      </c>
+      <c r="F30" s="313">
+        <v>4</v>
+      </c>
+      <c r="G30" s="313">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="312">
+        <v>31</v>
+      </c>
+      <c r="B31" s="313">
+        <v>24</v>
+      </c>
+      <c r="C31" s="313">
+        <v>0.38</v>
+      </c>
+      <c r="D31" s="313">
+        <v>5</v>
+      </c>
+      <c r="E31" s="313">
+        <v>20.83</v>
+      </c>
+      <c r="F31" s="313">
+        <v>7</v>
+      </c>
+      <c r="G31" s="313">
+        <v>29.17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="312">
+        <v>32</v>
+      </c>
+      <c r="B32" s="313">
+        <v>24</v>
+      </c>
+      <c r="C32" s="313">
+        <v>0.38</v>
+      </c>
+      <c r="D32" s="313">
+        <v>10</v>
+      </c>
+      <c r="E32" s="313">
+        <v>41.67</v>
+      </c>
+      <c r="F32" s="313">
+        <v>9</v>
+      </c>
+      <c r="G32" s="313">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="312">
+        <v>33</v>
+      </c>
+      <c r="B33" s="313">
+        <v>15</v>
+      </c>
+      <c r="C33" s="313">
+        <v>0.24</v>
+      </c>
+      <c r="D33" s="313">
+        <v>7</v>
+      </c>
+      <c r="E33" s="313">
+        <v>46.67</v>
+      </c>
+      <c r="F33" s="313" t="s">
+        <v>291</v>
+      </c>
+      <c r="H33" s="313"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="312">
+        <v>34</v>
+      </c>
+      <c r="B34" s="313">
+        <v>15</v>
+      </c>
+      <c r="C34" s="313">
+        <v>0.24</v>
+      </c>
+      <c r="D34" s="313">
+        <v>4</v>
+      </c>
+      <c r="E34" s="313">
+        <v>26.67</v>
+      </c>
+      <c r="F34" s="313">
+        <v>5</v>
+      </c>
+      <c r="G34" s="313">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="312">
+        <v>35</v>
+      </c>
+      <c r="B35" s="313">
+        <v>12</v>
+      </c>
+      <c r="C35" s="313">
+        <v>0.19</v>
+      </c>
+      <c r="D35" s="313" t="s">
+        <v>291</v>
+      </c>
+      <c r="E35" s="313"/>
+      <c r="F35" s="313">
+        <v>5</v>
+      </c>
+      <c r="G35" s="313">
+        <v>41.67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="312">
+        <v>36</v>
+      </c>
+      <c r="B36" s="313">
+        <v>8</v>
+      </c>
+      <c r="C36" s="313">
+        <v>0.13</v>
+      </c>
+      <c r="D36" s="313">
+        <v>0</v>
+      </c>
+      <c r="E36" s="313">
+        <v>0</v>
+      </c>
+      <c r="F36" s="313">
+        <v>4</v>
+      </c>
+      <c r="G36" s="313">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="312">
+        <v>37</v>
+      </c>
+      <c r="B37" s="313">
+        <v>13</v>
+      </c>
+      <c r="C37" s="313">
+        <v>0.21</v>
+      </c>
+      <c r="D37" s="313">
+        <v>4</v>
+      </c>
+      <c r="E37" s="313">
+        <v>30.77</v>
+      </c>
+      <c r="F37" s="313">
+        <v>4</v>
+      </c>
+      <c r="G37" s="313">
+        <v>30.77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="312">
+        <v>38</v>
+      </c>
+      <c r="B38" s="313">
+        <v>6</v>
+      </c>
+      <c r="C38" s="313">
+        <v>0.1</v>
+      </c>
+      <c r="D38" s="313" t="s">
+        <v>291</v>
+      </c>
+      <c r="E38" s="313"/>
+      <c r="F38" s="313" t="s">
+        <v>291</v>
+      </c>
+      <c r="G38" s="313"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="312">
+        <v>39</v>
+      </c>
+      <c r="B39" s="313">
+        <v>11</v>
+      </c>
+      <c r="C39" s="313">
+        <v>0.18</v>
+      </c>
+      <c r="D39" s="313" t="s">
+        <v>291</v>
+      </c>
+      <c r="E39" s="313"/>
+      <c r="F39" s="313" t="s">
+        <v>291</v>
+      </c>
+      <c r="G39" s="313"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="312">
+        <v>40</v>
+      </c>
+      <c r="B40" s="313">
+        <v>12</v>
+      </c>
+      <c r="C40" s="313">
+        <v>0.19</v>
+      </c>
+      <c r="D40" s="313">
+        <v>6</v>
+      </c>
+      <c r="E40" s="313">
+        <v>50</v>
+      </c>
+      <c r="F40" s="313" t="s">
+        <v>291</v>
+      </c>
+      <c r="G40" s="313"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="312">
+        <v>41</v>
+      </c>
+      <c r="B41" s="313">
+        <v>17</v>
+      </c>
+      <c r="C41" s="313">
+        <v>0.27</v>
+      </c>
+      <c r="D41" s="313">
+        <v>7</v>
+      </c>
+      <c r="E41" s="313">
+        <v>41.18</v>
+      </c>
+      <c r="F41" s="313">
+        <v>4</v>
+      </c>
+      <c r="G41" s="313">
+        <v>23.53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="312">
+        <v>42</v>
+      </c>
+      <c r="B42" s="313">
+        <v>16</v>
+      </c>
+      <c r="C42" s="313">
+        <v>0.26</v>
+      </c>
+      <c r="D42" s="313">
+        <v>7</v>
+      </c>
+      <c r="E42" s="313">
+        <v>43.75</v>
+      </c>
+      <c r="F42" s="313">
+        <v>6</v>
+      </c>
+      <c r="G42" s="313">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="312">
+        <v>43</v>
+      </c>
+      <c r="B43" s="313">
+        <v>25</v>
+      </c>
+      <c r="C43" s="313">
+        <v>0.4</v>
+      </c>
+      <c r="D43" s="313">
+        <v>15</v>
+      </c>
+      <c r="E43" s="313">
+        <v>60</v>
+      </c>
+      <c r="F43" s="313">
+        <v>6</v>
+      </c>
+      <c r="G43" s="313">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="312">
+        <v>44</v>
+      </c>
+      <c r="B44" s="313">
+        <v>61</v>
+      </c>
+      <c r="C44" s="313">
+        <v>0.97</v>
+      </c>
+      <c r="D44" s="313">
+        <v>40</v>
+      </c>
+      <c r="E44" s="313">
+        <v>65.569999999999993</v>
+      </c>
+      <c r="F44" s="313">
+        <v>11</v>
+      </c>
+      <c r="G44" s="313">
+        <v>18.03</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="312">
+        <v>45</v>
+      </c>
+      <c r="B45" s="313">
+        <v>105</v>
+      </c>
+      <c r="C45" s="313">
+        <v>1.68</v>
+      </c>
+      <c r="D45" s="313">
+        <v>47</v>
+      </c>
+      <c r="E45" s="313">
+        <v>44.76</v>
+      </c>
+      <c r="F45" s="313">
+        <v>25</v>
+      </c>
+      <c r="G45" s="313">
+        <v>23.81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="312">
+        <v>46</v>
+      </c>
+      <c r="B46" s="313">
+        <v>65</v>
+      </c>
+      <c r="C46" s="313">
+        <v>1.04</v>
+      </c>
+      <c r="D46" s="313">
+        <v>35</v>
+      </c>
+      <c r="E46" s="313">
+        <v>53.85</v>
+      </c>
+      <c r="F46" s="313">
+        <v>17</v>
+      </c>
+      <c r="G46" s="313">
+        <v>26.15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A47" s="312">
+        <v>47</v>
+      </c>
+      <c r="B47" s="313" t="s">
+        <v>291</v>
+      </c>
+      <c r="C47" s="313"/>
+      <c r="D47" s="313" t="s">
+        <v>291</v>
+      </c>
+      <c r="E47" s="313"/>
+      <c r="F47" s="313">
+        <v>0</v>
+      </c>
+      <c r="G47" s="313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="13.5" thickTop="1">
+      <c r="A48" s="314"/>
+      <c r="B48" s="314"/>
+      <c r="C48" s="314"/>
+      <c r="D48" s="314"/>
+      <c r="E48" s="314"/>
+      <c r="F48" s="314"/>
+      <c r="G48" s="314"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -48646,6 +53095,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100361443839E954C488E1554F766430BDE" ma:contentTypeVersion="37" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="ec0867efc9d878e75742a5b73fddae48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd3acd59-a8d8-42b1-950d-eec6c247243c" xmlns:ns3="343f6c91-b5b3-4dff-89ad-5fc55ccc8930" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f4ea334ff345e29c5775f0a2fd1174f" ns2:_="" ns3:_="">
     <xsd:import namespace="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
@@ -48978,7 +53436,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
@@ -49016,16 +53474,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BDD971-BADF-427E-9579-B824215A28B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -49044,7 +53501,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -49059,12 +53516,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/socialstyrelsen/statistik-covid19-avlidna_latest.xlsx
+++ b/socialstyrelsen/statistik-covid19-avlidna_latest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\S\Delad\021-Statistik Covid\Excelfiler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3287,7 +3287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -4062,6 +4062,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC1C1C1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC1C1C1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC1C1C1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4113,7 +4128,7 @@
     <xf numFmtId="167" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="350">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4881,6 +4896,42 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4899,12 +4950,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4913,36 +4958,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5078,6 +5093,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="34">
@@ -20943,7 +20961,7 @@
     <row r="19" spans="1:11">
       <c r="A19" s="146"/>
       <c r="B19" s="138" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C19" s="2">
         <v>87</v>
@@ -20969,7 +20987,7 @@
     <row r="20" spans="1:11">
       <c r="A20" s="146"/>
       <c r="B20" s="138" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C20" s="2">
         <v>85</v>
@@ -20995,7 +21013,7 @@
     <row r="21" spans="1:11">
       <c r="A21" s="146"/>
       <c r="B21" s="138" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C21" s="2">
         <v>81</v>
@@ -21021,7 +21039,7 @@
     <row r="22" spans="1:11">
       <c r="A22" s="146"/>
       <c r="B22" s="138" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C22" s="2">
         <v>77</v>
@@ -21073,7 +21091,7 @@
     <row r="24" spans="1:11">
       <c r="A24" s="146"/>
       <c r="B24" s="138" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C24" s="2">
         <v>68</v>
@@ -21099,7 +21117,7 @@
     <row r="25" spans="1:11">
       <c r="A25" s="146"/>
       <c r="B25" s="138" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C25" s="2">
         <v>61</v>
@@ -21125,7 +21143,7 @@
     <row r="26" spans="1:11">
       <c r="A26" s="146"/>
       <c r="B26" s="138" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C26" s="2">
         <v>57</v>
@@ -21229,7 +21247,7 @@
     <row r="30" spans="1:11">
       <c r="A30" s="146"/>
       <c r="B30" s="138" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C30" s="2">
         <v>24</v>
@@ -21281,7 +21299,7 @@
     <row r="32" spans="1:11">
       <c r="A32" s="146"/>
       <c r="B32" s="138" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2">
         <v>21</v>
@@ -21307,7 +21325,7 @@
     <row r="33" spans="1:11">
       <c r="A33" s="146"/>
       <c r="B33" s="138" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C33" s="2">
         <v>20</v>
@@ -21543,7 +21561,7 @@
     <row r="42" spans="1:11">
       <c r="A42" s="146"/>
       <c r="B42" s="138" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C42" s="2">
         <v>10</v>
@@ -21569,7 +21587,7 @@
     <row r="43" spans="1:11">
       <c r="A43" s="146"/>
       <c r="B43" s="138" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C43" s="2">
         <v>7</v>
@@ -21753,7 +21771,7 @@
     <row r="50" spans="1:11">
       <c r="A50" s="146"/>
       <c r="B50" s="138" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C50" s="2">
         <v>17</v>
@@ -21779,7 +21797,7 @@
     <row r="51" spans="1:11">
       <c r="A51" s="146"/>
       <c r="B51" s="138" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C51" s="2">
         <v>16</v>
@@ -21805,7 +21823,7 @@
     <row r="52" spans="1:11">
       <c r="A52" s="146"/>
       <c r="B52" s="138" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C52" s="2">
         <v>15</v>
@@ -21963,7 +21981,7 @@
     <row r="58" spans="1:11">
       <c r="A58" s="146"/>
       <c r="B58" s="138" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C58" s="2">
         <v>31</v>
@@ -21989,7 +22007,7 @@
     <row r="59" spans="1:11">
       <c r="A59" s="146"/>
       <c r="B59" s="138" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C59" s="2">
         <v>26</v>
@@ -22067,7 +22085,7 @@
     <row r="62" spans="1:11">
       <c r="A62" s="146"/>
       <c r="B62" s="138" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C62" s="2">
         <v>9</v>
@@ -22093,7 +22111,7 @@
     <row r="63" spans="1:11">
       <c r="A63" s="146"/>
       <c r="B63" s="138" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C63" s="2">
         <v>8</v>
@@ -22139,7 +22157,7 @@
     <row r="65" spans="1:11">
       <c r="A65" s="146"/>
       <c r="B65" s="138" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>572</v>
@@ -22165,7 +22183,7 @@
     <row r="66" spans="1:11">
       <c r="A66" s="146"/>
       <c r="B66" s="138" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>572</v>
@@ -22191,7 +22209,7 @@
     <row r="67" spans="1:11">
       <c r="A67" s="146"/>
       <c r="B67" s="138" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>572</v>
@@ -22217,7 +22235,7 @@
     <row r="68" spans="1:11" ht="14.25" thickBot="1">
       <c r="A68" s="146"/>
       <c r="B68" s="138" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>572</v>
@@ -22323,7 +22341,7 @@
     <row r="72" spans="1:11">
       <c r="A72" s="146"/>
       <c r="B72" s="138" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C72" s="2">
         <v>39</v>
@@ -22349,7 +22367,7 @@
     <row r="73" spans="1:11">
       <c r="A73" s="146"/>
       <c r="B73" s="138" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C73" s="2">
         <v>32</v>
@@ -22375,7 +22393,7 @@
     <row r="74" spans="1:11">
       <c r="A74" s="146"/>
       <c r="B74" s="138" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C74" s="2">
         <v>23</v>
@@ -22401,7 +22419,7 @@
     <row r="75" spans="1:11">
       <c r="A75" s="146"/>
       <c r="B75" s="138" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C75" s="2">
         <v>15</v>
@@ -22427,7 +22445,7 @@
     <row r="76" spans="1:11">
       <c r="A76" s="146"/>
       <c r="B76" s="138" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C76" s="2">
         <v>11</v>
@@ -22453,7 +22471,7 @@
     <row r="77" spans="1:11">
       <c r="A77" s="146"/>
       <c r="B77" s="138" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C77" s="2">
         <v>10</v>
@@ -22479,7 +22497,7 @@
     <row r="78" spans="1:11">
       <c r="A78" s="146"/>
       <c r="B78" s="138" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C78" s="2">
         <v>9</v>
@@ -22505,7 +22523,7 @@
     <row r="79" spans="1:11">
       <c r="A79" s="146"/>
       <c r="B79" s="138" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C79" s="2">
         <v>7</v>
@@ -22583,7 +22601,7 @@
     <row r="82" spans="1:11" ht="14.25" thickBot="1">
       <c r="A82" s="146"/>
       <c r="B82" s="138" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>572</v>
@@ -22663,7 +22681,7 @@
     <row r="85" spans="1:11">
       <c r="A85" s="146"/>
       <c r="B85" s="138" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C85" s="2">
         <v>30</v>
@@ -22689,7 +22707,7 @@
     <row r="86" spans="1:11">
       <c r="A86" s="146"/>
       <c r="B86" s="138" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C86" s="2">
         <v>24</v>
@@ -22873,7 +22891,7 @@
     <row r="93" spans="1:11">
       <c r="A93" s="146"/>
       <c r="B93" s="138" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C93" s="2">
         <v>21</v>
@@ -22899,7 +22917,7 @@
     <row r="94" spans="1:11">
       <c r="A94" s="146"/>
       <c r="B94" s="138" t="s">
-        <v>361</v>
+        <v>135</v>
       </c>
       <c r="C94" s="2">
         <v>20</v>
@@ -22925,7 +22943,7 @@
     <row r="95" spans="1:11">
       <c r="A95" s="146"/>
       <c r="B95" s="138" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C95" s="2">
         <v>19</v>
@@ -22951,7 +22969,7 @@
     <row r="96" spans="1:11">
       <c r="A96" s="146"/>
       <c r="B96" s="138" t="s">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="C96" s="2">
         <v>16</v>
@@ -22977,7 +22995,7 @@
     <row r="97" spans="1:11">
       <c r="A97" s="146"/>
       <c r="B97" s="138" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C97" s="2">
         <v>12</v>
@@ -23003,7 +23021,7 @@
     <row r="98" spans="1:11">
       <c r="A98" s="146"/>
       <c r="B98" s="138" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C98" s="2">
         <v>9</v>
@@ -23029,7 +23047,7 @@
     <row r="99" spans="1:11">
       <c r="A99" s="146"/>
       <c r="B99" s="138" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C99" s="2">
         <v>6</v>
@@ -23081,7 +23099,7 @@
     <row r="101" spans="1:11">
       <c r="A101" s="146"/>
       <c r="B101" s="138" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C101" s="2">
         <v>5</v>
@@ -23107,7 +23125,7 @@
     <row r="102" spans="1:11">
       <c r="A102" s="146"/>
       <c r="B102" s="138" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>572</v>
@@ -23133,7 +23151,7 @@
     <row r="103" spans="1:11">
       <c r="A103" s="146"/>
       <c r="B103" s="138" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>572</v>
@@ -23187,7 +23205,7 @@
         <v>269</v>
       </c>
       <c r="B105" s="145" t="s">
-        <v>190</v>
+        <v>285</v>
       </c>
       <c r="C105" s="150">
         <v>21</v>
@@ -23213,7 +23231,7 @@
     <row r="106" spans="1:11" ht="14.25" thickBot="1">
       <c r="A106" s="146"/>
       <c r="B106" s="138" t="s">
-        <v>285</v>
+        <v>190</v>
       </c>
       <c r="C106" s="2">
         <v>21</v>
@@ -23293,7 +23311,7 @@
     <row r="109" spans="1:11">
       <c r="A109" s="146"/>
       <c r="B109" s="138" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C109" s="2">
         <v>9</v>
@@ -23319,7 +23337,7 @@
     <row r="110" spans="1:11">
       <c r="A110" s="146"/>
       <c r="B110" s="138" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C110" s="2">
         <v>5</v>
@@ -23477,7 +23495,7 @@
     <row r="116" spans="1:11">
       <c r="A116" s="146"/>
       <c r="B116" s="138" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C116" s="2">
         <v>42</v>
@@ -23529,7 +23547,7 @@
     <row r="118" spans="1:11">
       <c r="A118" s="146"/>
       <c r="B118" s="138" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C118" s="2">
         <v>28</v>
@@ -23607,7 +23625,7 @@
     <row r="121" spans="1:11">
       <c r="A121" s="146"/>
       <c r="B121" s="138" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C121" s="2">
         <v>19</v>
@@ -23633,7 +23651,7 @@
     <row r="122" spans="1:11">
       <c r="A122" s="146"/>
       <c r="B122" s="138" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C122" s="2">
         <v>17</v>
@@ -23659,7 +23677,7 @@
     <row r="123" spans="1:11">
       <c r="A123" s="146"/>
       <c r="B123" s="138" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C123" s="2">
         <v>16</v>
@@ -23685,7 +23703,7 @@
     <row r="124" spans="1:11">
       <c r="A124" s="146"/>
       <c r="B124" s="138" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C124" s="2">
         <v>13</v>
@@ -23711,7 +23729,7 @@
     <row r="125" spans="1:11">
       <c r="A125" s="146"/>
       <c r="B125" s="138" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C125" s="2">
         <v>11</v>
@@ -23737,7 +23755,7 @@
     <row r="126" spans="1:11">
       <c r="A126" s="146"/>
       <c r="B126" s="138" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C126" s="2">
         <v>10</v>
@@ -23763,7 +23781,7 @@
     <row r="127" spans="1:11">
       <c r="A127" s="146"/>
       <c r="B127" s="138" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C127" s="2">
         <v>9</v>
@@ -23789,7 +23807,7 @@
     <row r="128" spans="1:11">
       <c r="A128" s="146"/>
       <c r="B128" s="138" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="C128" s="2">
         <v>9</v>
@@ -23815,7 +23833,7 @@
     <row r="129" spans="1:11">
       <c r="A129" s="146"/>
       <c r="B129" s="138" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C129" s="2">
         <v>9</v>
@@ -23841,7 +23859,7 @@
     <row r="130" spans="1:11">
       <c r="A130" s="146"/>
       <c r="B130" s="138" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C130" s="2">
         <v>8</v>
@@ -23867,7 +23885,7 @@
     <row r="131" spans="1:11">
       <c r="A131" s="146"/>
       <c r="B131" s="138" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C131" s="2">
         <v>7</v>
@@ -23893,7 +23911,7 @@
     <row r="132" spans="1:11">
       <c r="A132" s="146"/>
       <c r="B132" s="138" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C132" s="2">
         <v>7</v>
@@ -23919,7 +23937,7 @@
     <row r="133" spans="1:11">
       <c r="A133" s="146"/>
       <c r="B133" s="138" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C133" s="2">
         <v>6</v>
@@ -23945,7 +23963,7 @@
     <row r="134" spans="1:11">
       <c r="A134" s="146"/>
       <c r="B134" s="138" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C134" s="2">
         <v>5</v>
@@ -23971,7 +23989,7 @@
     <row r="135" spans="1:11">
       <c r="A135" s="146"/>
       <c r="B135" s="138" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C135" s="2">
         <v>5</v>
@@ -23997,7 +24015,7 @@
     <row r="136" spans="1:11">
       <c r="A136" s="146"/>
       <c r="B136" s="138" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C136" s="2">
         <v>5</v>
@@ -24023,7 +24041,7 @@
     <row r="137" spans="1:11">
       <c r="A137" s="146"/>
       <c r="B137" s="138" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C137" s="2">
         <v>4</v>
@@ -24049,7 +24067,7 @@
     <row r="138" spans="1:11">
       <c r="A138" s="146"/>
       <c r="B138" s="138" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C138" s="2">
         <v>4</v>
@@ -24075,7 +24093,7 @@
     <row r="139" spans="1:11">
       <c r="A139" s="146"/>
       <c r="B139" s="138" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C139" s="2">
         <v>4</v>
@@ -24101,7 +24119,7 @@
     <row r="140" spans="1:11">
       <c r="A140" s="146"/>
       <c r="B140" s="138" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>572</v>
@@ -24127,7 +24145,7 @@
     <row r="141" spans="1:11">
       <c r="A141" s="146"/>
       <c r="B141" s="138" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>572</v>
@@ -24153,7 +24171,7 @@
     <row r="142" spans="1:11">
       <c r="A142" s="146"/>
       <c r="B142" s="138" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>572</v>
@@ -24179,7 +24197,7 @@
     <row r="143" spans="1:11">
       <c r="A143" s="146"/>
       <c r="B143" s="138" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>572</v>
@@ -24205,7 +24223,7 @@
     <row r="144" spans="1:11">
       <c r="A144" s="146"/>
       <c r="B144" s="138" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>572</v>
@@ -24231,7 +24249,7 @@
     <row r="145" spans="1:11">
       <c r="A145" s="146"/>
       <c r="B145" s="138" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>572</v>
@@ -24257,7 +24275,7 @@
     <row r="146" spans="1:11" ht="14.25" thickBot="1">
       <c r="A146" s="146"/>
       <c r="B146" s="138" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>572</v>
@@ -24311,7 +24329,7 @@
     <row r="148" spans="1:11">
       <c r="A148" s="146"/>
       <c r="B148" s="138" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C148" s="2">
         <v>38</v>
@@ -24337,7 +24355,7 @@
     <row r="149" spans="1:11">
       <c r="A149" s="146"/>
       <c r="B149" s="138" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C149" s="2">
         <v>35</v>
@@ -24363,7 +24381,7 @@
     <row r="150" spans="1:11">
       <c r="A150" s="146"/>
       <c r="B150" s="138" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C150" s="2">
         <v>26</v>
@@ -24389,7 +24407,7 @@
     <row r="151" spans="1:11">
       <c r="A151" s="146"/>
       <c r="B151" s="138" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C151" s="2">
         <v>23</v>
@@ -24495,7 +24513,7 @@
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="146"/>
-      <c r="B155" s="138" t="s">
+      <c r="B155" s="349" t="s">
         <v>415</v>
       </c>
       <c r="C155" s="2">
@@ -24521,7 +24539,7 @@
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="146"/>
-      <c r="B156" s="138" t="s">
+      <c r="B156" s="349" t="s">
         <v>416</v>
       </c>
       <c r="C156" s="2">
@@ -24547,7 +24565,7 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="146"/>
-      <c r="B157" s="138" t="s">
+      <c r="B157" s="349" t="s">
         <v>417</v>
       </c>
       <c r="C157" s="2">
@@ -24573,8 +24591,8 @@
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="146"/>
-      <c r="B158" s="138" t="s">
-        <v>418</v>
+      <c r="B158" s="349" t="s">
+        <v>420</v>
       </c>
       <c r="C158" s="2">
         <v>54</v>
@@ -24599,8 +24617,8 @@
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="146"/>
-      <c r="B159" s="138" t="s">
-        <v>419</v>
+      <c r="B159" s="349" t="s">
+        <v>418</v>
       </c>
       <c r="C159" s="2">
         <v>50</v>
@@ -24625,8 +24643,8 @@
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="146"/>
-      <c r="B160" s="138" t="s">
-        <v>420</v>
+      <c r="B160" s="349" t="s">
+        <v>421</v>
       </c>
       <c r="C160" s="2">
         <v>44</v>
@@ -24651,8 +24669,8 @@
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="146"/>
-      <c r="B161" s="138" t="s">
-        <v>421</v>
+      <c r="B161" s="349" t="s">
+        <v>419</v>
       </c>
       <c r="C161" s="2">
         <v>41</v>
@@ -24677,7 +24695,7 @@
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="146"/>
-      <c r="B162" s="138" t="s">
+      <c r="B162" s="349" t="s">
         <v>422</v>
       </c>
       <c r="C162" s="2">
@@ -24703,8 +24721,8 @@
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="146"/>
-      <c r="B163" s="138" t="s">
-        <v>423</v>
+      <c r="B163" s="349" t="s">
+        <v>430</v>
       </c>
       <c r="C163" s="2">
         <v>25</v>
@@ -24729,8 +24747,8 @@
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="146"/>
-      <c r="B164" s="138" t="s">
-        <v>424</v>
+      <c r="B164" s="349" t="s">
+        <v>423</v>
       </c>
       <c r="C164" s="2">
         <v>23</v>
@@ -24755,8 +24773,8 @@
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="146"/>
-      <c r="B165" s="138" t="s">
-        <v>425</v>
+      <c r="B165" s="349" t="s">
+        <v>429</v>
       </c>
       <c r="C165" s="2">
         <v>22</v>
@@ -24781,8 +24799,8 @@
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="146"/>
-      <c r="B166" s="138" t="s">
-        <v>426</v>
+      <c r="B166" s="349" t="s">
+        <v>428</v>
       </c>
       <c r="C166" s="2">
         <v>20</v>
@@ -24807,8 +24825,8 @@
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="146"/>
-      <c r="B167" s="138" t="s">
-        <v>427</v>
+      <c r="B167" s="349" t="s">
+        <v>425</v>
       </c>
       <c r="C167" s="2">
         <v>20</v>
@@ -24833,8 +24851,8 @@
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="146"/>
-      <c r="B168" s="138" t="s">
-        <v>428</v>
+      <c r="B168" s="349" t="s">
+        <v>424</v>
       </c>
       <c r="C168" s="2">
         <v>20</v>
@@ -24859,8 +24877,8 @@
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="146"/>
-      <c r="B169" s="138" t="s">
-        <v>429</v>
+      <c r="B169" s="349" t="s">
+        <v>426</v>
       </c>
       <c r="C169" s="2">
         <v>19</v>
@@ -24885,8 +24903,8 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="146"/>
-      <c r="B170" s="138" t="s">
-        <v>430</v>
+      <c r="B170" s="349" t="s">
+        <v>433</v>
       </c>
       <c r="C170" s="2">
         <v>19</v>
@@ -24911,8 +24929,8 @@
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="146"/>
-      <c r="B171" s="138" t="s">
-        <v>431</v>
+      <c r="B171" s="349" t="s">
+        <v>427</v>
       </c>
       <c r="C171" s="2">
         <v>18</v>
@@ -24937,8 +24955,8 @@
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="146"/>
-      <c r="B172" s="138" t="s">
-        <v>432</v>
+      <c r="B172" s="349" t="s">
+        <v>431</v>
       </c>
       <c r="C172" s="2">
         <v>15</v>
@@ -24963,8 +24981,8 @@
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="146"/>
-      <c r="B173" s="138" t="s">
-        <v>433</v>
+      <c r="B173" s="349" t="s">
+        <v>445</v>
       </c>
       <c r="C173" s="2">
         <v>13</v>
@@ -24989,8 +25007,8 @@
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="146"/>
-      <c r="B174" s="138" t="s">
-        <v>434</v>
+      <c r="B174" s="349" t="s">
+        <v>432</v>
       </c>
       <c r="C174" s="2">
         <v>12</v>
@@ -25015,7 +25033,7 @@
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="146"/>
-      <c r="B175" s="138" t="s">
+      <c r="B175" s="349" t="s">
         <v>435</v>
       </c>
       <c r="C175" s="2">
@@ -25041,8 +25059,8 @@
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="146"/>
-      <c r="B176" s="138" t="s">
-        <v>436</v>
+      <c r="B176" s="349" t="s">
+        <v>434</v>
       </c>
       <c r="C176" s="2">
         <v>10</v>
@@ -25067,8 +25085,8 @@
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="146"/>
-      <c r="B177" s="138" t="s">
-        <v>437</v>
+      <c r="B177" s="349" t="s">
+        <v>439</v>
       </c>
       <c r="C177" s="2">
         <v>9</v>
@@ -25093,8 +25111,8 @@
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="146"/>
-      <c r="B178" s="138" t="s">
-        <v>438</v>
+      <c r="B178" s="349" t="s">
+        <v>443</v>
       </c>
       <c r="C178" s="2">
         <v>8</v>
@@ -25119,8 +25137,8 @@
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="146"/>
-      <c r="B179" s="138" t="s">
-        <v>439</v>
+      <c r="B179" s="349" t="s">
+        <v>444</v>
       </c>
       <c r="C179" s="2">
         <v>7</v>
@@ -25145,8 +25163,8 @@
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="146"/>
-      <c r="B180" s="138" t="s">
-        <v>440</v>
+      <c r="B180" s="349" t="s">
+        <v>436</v>
       </c>
       <c r="C180" s="2">
         <v>7</v>
@@ -25171,8 +25189,8 @@
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="146"/>
-      <c r="B181" s="138" t="s">
-        <v>441</v>
+      <c r="B181" s="349" t="s">
+        <v>442</v>
       </c>
       <c r="C181" s="2">
         <v>7</v>
@@ -25197,8 +25215,8 @@
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="146"/>
-      <c r="B182" s="138" t="s">
-        <v>442</v>
+      <c r="B182" s="349" t="s">
+        <v>440</v>
       </c>
       <c r="C182" s="2">
         <v>7</v>
@@ -25223,8 +25241,8 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="146"/>
-      <c r="B183" s="138" t="s">
-        <v>443</v>
+      <c r="B183" s="349" t="s">
+        <v>437</v>
       </c>
       <c r="C183" s="2">
         <v>7</v>
@@ -25249,8 +25267,8 @@
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="146"/>
-      <c r="B184" s="138" t="s">
-        <v>444</v>
+      <c r="B184" s="349" t="s">
+        <v>438</v>
       </c>
       <c r="C184" s="2">
         <v>7</v>
@@ -25275,8 +25293,8 @@
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="146"/>
-      <c r="B185" s="138" t="s">
-        <v>445</v>
+      <c r="B185" s="349" t="s">
+        <v>441</v>
       </c>
       <c r="C185" s="2">
         <v>6</v>
@@ -25301,8 +25319,8 @@
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="146"/>
-      <c r="B186" s="138" t="s">
-        <v>446</v>
+      <c r="B186" s="349" t="s">
+        <v>452</v>
       </c>
       <c r="C186" s="2">
         <v>6</v>
@@ -25327,8 +25345,8 @@
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="146"/>
-      <c r="B187" s="138" t="s">
-        <v>447</v>
+      <c r="B187" s="349" t="s">
+        <v>453</v>
       </c>
       <c r="C187" s="2">
         <v>6</v>
@@ -25353,8 +25371,8 @@
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="146"/>
-      <c r="B188" s="138" t="s">
-        <v>448</v>
+      <c r="B188" s="349" t="s">
+        <v>451</v>
       </c>
       <c r="C188" s="2">
         <v>5</v>
@@ -25379,8 +25397,8 @@
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="146"/>
-      <c r="B189" s="138" t="s">
-        <v>449</v>
+      <c r="B189" s="349" t="s">
+        <v>455</v>
       </c>
       <c r="C189" s="2">
         <v>5</v>
@@ -25405,8 +25423,8 @@
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="146"/>
-      <c r="B190" s="138" t="s">
-        <v>450</v>
+      <c r="B190" s="349" t="s">
+        <v>457</v>
       </c>
       <c r="C190" s="2">
         <v>5</v>
@@ -25431,8 +25449,8 @@
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="146"/>
-      <c r="B191" s="138" t="s">
-        <v>451</v>
+      <c r="B191" s="349" t="s">
+        <v>454</v>
       </c>
       <c r="C191" s="2">
         <v>4</v>
@@ -25457,8 +25475,8 @@
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="146"/>
-      <c r="B192" s="138" t="s">
-        <v>452</v>
+      <c r="B192" s="349" t="s">
+        <v>446</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>572</v>
@@ -25483,8 +25501,8 @@
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="146"/>
-      <c r="B193" s="138" t="s">
-        <v>453</v>
+      <c r="B193" s="349" t="s">
+        <v>447</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>572</v>
@@ -25509,8 +25527,8 @@
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="146"/>
-      <c r="B194" s="138" t="s">
-        <v>454</v>
+      <c r="B194" s="349" t="s">
+        <v>448</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>572</v>
@@ -25535,8 +25553,8 @@
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="146"/>
-      <c r="B195" s="138" t="s">
-        <v>455</v>
+      <c r="B195" s="349" t="s">
+        <v>449</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>572</v>
@@ -25561,8 +25579,8 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="146"/>
-      <c r="B196" s="138" t="s">
-        <v>456</v>
+      <c r="B196" s="349" t="s">
+        <v>450</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>572</v>
@@ -25587,8 +25605,8 @@
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="146"/>
-      <c r="B197" s="138" t="s">
-        <v>457</v>
+      <c r="B197" s="349" t="s">
+        <v>461</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>572</v>
@@ -25613,8 +25631,8 @@
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="146"/>
-      <c r="B198" s="138" t="s">
-        <v>458</v>
+      <c r="B198" s="349" t="s">
+        <v>456</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>572</v>
@@ -25639,8 +25657,8 @@
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="146"/>
-      <c r="B199" s="138" t="s">
-        <v>459</v>
+      <c r="B199" s="349" t="s">
+        <v>463</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>572</v>
@@ -25665,8 +25683,8 @@
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="146"/>
-      <c r="B200" s="138" t="s">
-        <v>460</v>
+      <c r="B200" s="349" t="s">
+        <v>458</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>572</v>
@@ -25691,8 +25709,8 @@
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="146"/>
-      <c r="B201" s="138" t="s">
-        <v>461</v>
+      <c r="B201" s="349" t="s">
+        <v>459</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -25717,8 +25735,8 @@
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="146"/>
-      <c r="B202" s="138" t="s">
-        <v>462</v>
+      <c r="B202" s="349" t="s">
+        <v>460</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -25743,8 +25761,8 @@
     </row>
     <row r="203" spans="1:11" ht="14.25" thickBot="1">
       <c r="A203" s="146"/>
-      <c r="B203" s="138" t="s">
-        <v>463</v>
+      <c r="B203" s="349" t="s">
+        <v>462</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -25797,7 +25815,7 @@
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="146"/>
-      <c r="B205" s="138" t="s">
+      <c r="B205" s="349" t="s">
         <v>464</v>
       </c>
       <c r="C205" s="2">
@@ -25823,7 +25841,7 @@
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="146"/>
-      <c r="B206" s="138" t="s">
+      <c r="B206" s="349" t="s">
         <v>465</v>
       </c>
       <c r="C206" s="2">
@@ -25849,8 +25867,8 @@
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="146"/>
-      <c r="B207" s="138" t="s">
-        <v>466</v>
+      <c r="B207" s="349" t="s">
+        <v>468</v>
       </c>
       <c r="C207" s="2">
         <v>12</v>
@@ -25875,8 +25893,8 @@
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="146"/>
-      <c r="B208" s="138" t="s">
-        <v>467</v>
+      <c r="B208" s="349" t="s">
+        <v>466</v>
       </c>
       <c r="C208" s="2">
         <v>10</v>
@@ -25901,8 +25919,8 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="146"/>
-      <c r="B209" s="138" t="s">
-        <v>468</v>
+      <c r="B209" s="349" t="s">
+        <v>467</v>
       </c>
       <c r="C209" s="2">
         <v>8</v>
@@ -25927,8 +25945,8 @@
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="146"/>
-      <c r="B210" s="138" t="s">
-        <v>469</v>
+      <c r="B210" s="349" t="s">
+        <v>474</v>
       </c>
       <c r="C210" s="2">
         <v>7</v>
@@ -25953,8 +25971,8 @@
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="146"/>
-      <c r="B211" s="138" t="s">
-        <v>470</v>
+      <c r="B211" s="349" t="s">
+        <v>469</v>
       </c>
       <c r="C211" s="2">
         <v>6</v>
@@ -25979,8 +25997,8 @@
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="146"/>
-      <c r="B212" s="138" t="s">
-        <v>471</v>
+      <c r="B212" s="349" t="s">
+        <v>472</v>
       </c>
       <c r="C212" s="2">
         <v>6</v>
@@ -26005,8 +26023,8 @@
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="146"/>
-      <c r="B213" s="138" t="s">
-        <v>472</v>
+      <c r="B213" s="349" t="s">
+        <v>470</v>
       </c>
       <c r="C213" s="2">
         <v>5</v>
@@ -26031,8 +26049,8 @@
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="146"/>
-      <c r="B214" s="138" t="s">
-        <v>473</v>
+      <c r="B214" s="349" t="s">
+        <v>471</v>
       </c>
       <c r="C214" s="2">
         <v>4</v>
@@ -26057,8 +26075,8 @@
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="146"/>
-      <c r="B215" s="138" t="s">
-        <v>474</v>
+      <c r="B215" s="349" t="s">
+        <v>473</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>572</v>
@@ -26083,7 +26101,7 @@
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="146"/>
-      <c r="B216" s="138" t="s">
+      <c r="B216" s="349" t="s">
         <v>475</v>
       </c>
       <c r="C216" s="2" t="s">
@@ -26109,7 +26127,7 @@
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="146"/>
-      <c r="B217" s="138" t="s">
+      <c r="B217" s="349" t="s">
         <v>476</v>
       </c>
       <c r="C217" s="2" t="s">
@@ -26135,8 +26153,8 @@
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="146"/>
-      <c r="B218" s="138" t="s">
-        <v>477</v>
+      <c r="B218" s="349" t="s">
+        <v>479</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>572</v>
@@ -26161,8 +26179,8 @@
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="146"/>
-      <c r="B219" s="138" t="s">
-        <v>478</v>
+      <c r="B219" s="349" t="s">
+        <v>477</v>
       </c>
       <c r="C219" s="2">
         <v>0</v>
@@ -26187,8 +26205,8 @@
     </row>
     <row r="220" spans="1:11" ht="14.25" thickBot="1">
       <c r="A220" s="146"/>
-      <c r="B220" s="138" t="s">
-        <v>479</v>
+      <c r="B220" s="349" t="s">
+        <v>478</v>
       </c>
       <c r="C220" s="2">
         <v>0</v>
@@ -26241,7 +26259,7 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="146"/>
-      <c r="B222" s="138" t="s">
+      <c r="B222" s="349" t="s">
         <v>140</v>
       </c>
       <c r="C222" s="2">
@@ -26267,7 +26285,7 @@
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="146"/>
-      <c r="B223" s="138" t="s">
+      <c r="B223" s="349" t="s">
         <v>480</v>
       </c>
       <c r="C223" s="2">
@@ -26293,7 +26311,7 @@
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="146"/>
-      <c r="B224" s="138" t="s">
+      <c r="B224" s="349" t="s">
         <v>481</v>
       </c>
       <c r="C224" s="2">
@@ -26319,8 +26337,8 @@
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="146"/>
-      <c r="B225" s="138" t="s">
-        <v>482</v>
+      <c r="B225" s="349" t="s">
+        <v>484</v>
       </c>
       <c r="C225" s="2">
         <v>13</v>
@@ -26345,8 +26363,8 @@
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="146"/>
-      <c r="B226" s="138" t="s">
-        <v>483</v>
+      <c r="B226" s="349" t="s">
+        <v>482</v>
       </c>
       <c r="C226" s="2">
         <v>12</v>
@@ -26371,8 +26389,8 @@
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="146"/>
-      <c r="B227" s="138" t="s">
-        <v>484</v>
+      <c r="B227" s="349" t="s">
+        <v>483</v>
       </c>
       <c r="C227" s="2">
         <v>10</v>
@@ -26397,7 +26415,7 @@
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="146"/>
-      <c r="B228" s="138" t="s">
+      <c r="B228" s="349" t="s">
         <v>485</v>
       </c>
       <c r="C228" s="2">
@@ -26423,8 +26441,8 @@
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="146"/>
-      <c r="B229" s="138" t="s">
-        <v>486</v>
+      <c r="B229" s="349" t="s">
+        <v>487</v>
       </c>
       <c r="C229" s="2">
         <v>6</v>
@@ -26449,8 +26467,8 @@
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="146"/>
-      <c r="B230" s="138" t="s">
-        <v>487</v>
+      <c r="B230" s="349" t="s">
+        <v>486</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>572</v>
@@ -26475,8 +26493,8 @@
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="146"/>
-      <c r="B231" s="138" t="s">
-        <v>488</v>
+      <c r="B231" s="349" t="s">
+        <v>490</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>572</v>
@@ -26501,8 +26519,8 @@
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="146"/>
-      <c r="B232" s="138" t="s">
-        <v>489</v>
+      <c r="B232" s="349" t="s">
+        <v>488</v>
       </c>
       <c r="C232" s="2">
         <v>0</v>
@@ -26527,8 +26545,8 @@
     </row>
     <row r="233" spans="1:11" ht="14.25" thickBot="1">
       <c r="A233" s="146"/>
-      <c r="B233" s="138" t="s">
-        <v>490</v>
+      <c r="B233" s="349" t="s">
+        <v>489</v>
       </c>
       <c r="C233" s="2">
         <v>0</v>
@@ -26581,7 +26599,7 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="146"/>
-      <c r="B235" s="138" t="s">
+      <c r="B235" s="349" t="s">
         <v>491</v>
       </c>
       <c r="C235" s="2">
@@ -26607,7 +26625,7 @@
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="146"/>
-      <c r="B236" s="138" t="s">
+      <c r="B236" s="349" t="s">
         <v>492</v>
       </c>
       <c r="C236" s="2">
@@ -26633,7 +26651,7 @@
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="146"/>
-      <c r="B237" s="138" t="s">
+      <c r="B237" s="349" t="s">
         <v>493</v>
       </c>
       <c r="C237" s="2">
@@ -26659,7 +26677,7 @@
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="146"/>
-      <c r="B238" s="138" t="s">
+      <c r="B238" s="349" t="s">
         <v>494</v>
       </c>
       <c r="C238" s="2">
@@ -26685,7 +26703,7 @@
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="146"/>
-      <c r="B239" s="138" t="s">
+      <c r="B239" s="349" t="s">
         <v>495</v>
       </c>
       <c r="C239" s="2">
@@ -26711,7 +26729,7 @@
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="146"/>
-      <c r="B240" s="138" t="s">
+      <c r="B240" s="349" t="s">
         <v>496</v>
       </c>
       <c r="C240" s="2">
@@ -26737,7 +26755,7 @@
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="146"/>
-      <c r="B241" s="138" t="s">
+      <c r="B241" s="349" t="s">
         <v>497</v>
       </c>
       <c r="C241" s="2">
@@ -26763,7 +26781,7 @@
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="146"/>
-      <c r="B242" s="138" t="s">
+      <c r="B242" s="349" t="s">
         <v>498</v>
       </c>
       <c r="C242" s="2" t="s">
@@ -26789,7 +26807,7 @@
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="146"/>
-      <c r="B243" s="138" t="s">
+      <c r="B243" s="349" t="s">
         <v>499</v>
       </c>
       <c r="C243" s="2" t="s">
@@ -26815,7 +26833,7 @@
     </row>
     <row r="244" spans="1:11" ht="14.25" thickBot="1">
       <c r="A244" s="146"/>
-      <c r="B244" s="138" t="s">
+      <c r="B244" s="349" t="s">
         <v>500</v>
       </c>
       <c r="C244" s="2" t="s">
@@ -26869,7 +26887,7 @@
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="146"/>
-      <c r="B246" s="138" t="s">
+      <c r="B246" s="349" t="s">
         <v>501</v>
       </c>
       <c r="C246" s="2">
@@ -26895,7 +26913,7 @@
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="146"/>
-      <c r="B247" s="138" t="s">
+      <c r="B247" s="349" t="s">
         <v>502</v>
       </c>
       <c r="C247" s="2">
@@ -26921,7 +26939,7 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="146"/>
-      <c r="B248" s="138" t="s">
+      <c r="B248" s="349" t="s">
         <v>503</v>
       </c>
       <c r="C248" s="2">
@@ -26947,7 +26965,7 @@
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="146"/>
-      <c r="B249" s="138" t="s">
+      <c r="B249" s="349" t="s">
         <v>504</v>
       </c>
       <c r="C249" s="2">
@@ -26973,8 +26991,8 @@
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="146"/>
-      <c r="B250" s="138" t="s">
-        <v>505</v>
+      <c r="B250" s="349" t="s">
+        <v>506</v>
       </c>
       <c r="C250" s="2">
         <v>12</v>
@@ -26999,8 +27017,8 @@
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="146"/>
-      <c r="B251" s="138" t="s">
-        <v>506</v>
+      <c r="B251" s="349" t="s">
+        <v>505</v>
       </c>
       <c r="C251" s="2">
         <v>12</v>
@@ -27025,7 +27043,7 @@
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="146"/>
-      <c r="B252" s="138" t="s">
+      <c r="B252" s="349" t="s">
         <v>507</v>
       </c>
       <c r="C252" s="2">
@@ -27051,7 +27069,7 @@
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="146"/>
-      <c r="B253" s="138" t="s">
+      <c r="B253" s="349" t="s">
         <v>508</v>
       </c>
       <c r="C253" s="2">
@@ -27077,7 +27095,7 @@
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="146"/>
-      <c r="B254" s="138" t="s">
+      <c r="B254" s="349" t="s">
         <v>509</v>
       </c>
       <c r="C254" s="2">
@@ -27103,8 +27121,8 @@
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="146"/>
-      <c r="B255" s="138" t="s">
-        <v>510</v>
+      <c r="B255" s="349" t="s">
+        <v>515</v>
       </c>
       <c r="C255" s="2">
         <v>8</v>
@@ -27129,8 +27147,8 @@
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="146"/>
-      <c r="B256" s="138" t="s">
-        <v>511</v>
+      <c r="B256" s="349" t="s">
+        <v>510</v>
       </c>
       <c r="C256" s="2">
         <v>5</v>
@@ -27155,8 +27173,8 @@
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="146"/>
-      <c r="B257" s="138" t="s">
-        <v>512</v>
+      <c r="B257" s="349" t="s">
+        <v>513</v>
       </c>
       <c r="C257" s="2">
         <v>4</v>
@@ -27181,8 +27199,8 @@
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="146"/>
-      <c r="B258" s="138" t="s">
-        <v>513</v>
+      <c r="B258" s="349" t="s">
+        <v>511</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>572</v>
@@ -27207,8 +27225,8 @@
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="146"/>
-      <c r="B259" s="138" t="s">
-        <v>514</v>
+      <c r="B259" s="349" t="s">
+        <v>512</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>572</v>
@@ -27233,8 +27251,8 @@
     </row>
     <row r="260" spans="1:11" ht="14.25" thickBot="1">
       <c r="A260" s="146"/>
-      <c r="B260" s="138" t="s">
-        <v>515</v>
+      <c r="B260" s="349" t="s">
+        <v>514</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>572</v>
@@ -27287,7 +27305,7 @@
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="146"/>
-      <c r="B262" s="138" t="s">
+      <c r="B262" s="349" t="s">
         <v>516</v>
       </c>
       <c r="C262" s="2">
@@ -27313,8 +27331,8 @@
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="146"/>
-      <c r="B263" s="138" t="s">
-        <v>517</v>
+      <c r="B263" s="349" t="s">
+        <v>519</v>
       </c>
       <c r="C263" s="2">
         <v>54</v>
@@ -27339,7 +27357,7 @@
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="146"/>
-      <c r="B264" s="138" t="s">
+      <c r="B264" s="349" t="s">
         <v>518</v>
       </c>
       <c r="C264" s="2">
@@ -27365,8 +27383,8 @@
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="146"/>
-      <c r="B265" s="138" t="s">
-        <v>519</v>
+      <c r="B265" s="349" t="s">
+        <v>517</v>
       </c>
       <c r="C265" s="2">
         <v>33</v>
@@ -27391,8 +27409,8 @@
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="146"/>
-      <c r="B266" s="138" t="s">
-        <v>520</v>
+      <c r="B266" s="349" t="s">
+        <v>523</v>
       </c>
       <c r="C266" s="2">
         <v>18</v>
@@ -27417,8 +27435,8 @@
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="146"/>
-      <c r="B267" s="138" t="s">
-        <v>521</v>
+      <c r="B267" s="349" t="s">
+        <v>520</v>
       </c>
       <c r="C267" s="2">
         <v>18</v>
@@ -27443,7 +27461,7 @@
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="146"/>
-      <c r="B268" s="138" t="s">
+      <c r="B268" s="349" t="s">
         <v>522</v>
       </c>
       <c r="C268" s="2">
@@ -27469,8 +27487,8 @@
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="146"/>
-      <c r="B269" s="138" t="s">
-        <v>523</v>
+      <c r="B269" s="349" t="s">
+        <v>525</v>
       </c>
       <c r="C269" s="2">
         <v>15</v>
@@ -27495,8 +27513,8 @@
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="146"/>
-      <c r="B270" s="138" t="s">
-        <v>524</v>
+      <c r="B270" s="349" t="s">
+        <v>521</v>
       </c>
       <c r="C270" s="2">
         <v>13</v>
@@ -27521,8 +27539,8 @@
     </row>
     <row r="271" spans="1:11" ht="14.25" thickBot="1">
       <c r="A271" s="146"/>
-      <c r="B271" s="138" t="s">
-        <v>525</v>
+      <c r="B271" s="349" t="s">
+        <v>524</v>
       </c>
       <c r="C271" s="2">
         <v>5</v>
@@ -27575,7 +27593,7 @@
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="146"/>
-      <c r="B273" s="138" t="s">
+      <c r="B273" s="349" t="s">
         <v>526</v>
       </c>
       <c r="C273" s="2">
@@ -27601,7 +27619,7 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="146"/>
-      <c r="B274" s="138" t="s">
+      <c r="B274" s="349" t="s">
         <v>527</v>
       </c>
       <c r="C274" s="2">
@@ -27627,8 +27645,8 @@
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="146"/>
-      <c r="B275" s="138" t="s">
-        <v>528</v>
+      <c r="B275" s="349" t="s">
+        <v>531</v>
       </c>
       <c r="C275" s="2">
         <v>28</v>
@@ -27653,8 +27671,8 @@
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="146"/>
-      <c r="B276" s="138" t="s">
-        <v>529</v>
+      <c r="B276" s="349" t="s">
+        <v>528</v>
       </c>
       <c r="C276" s="2">
         <v>27</v>
@@ -27679,8 +27697,8 @@
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="146"/>
-      <c r="B277" s="138" t="s">
-        <v>530</v>
+      <c r="B277" s="349" t="s">
+        <v>529</v>
       </c>
       <c r="C277" s="2">
         <v>18</v>
@@ -27705,8 +27723,8 @@
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="146"/>
-      <c r="B278" s="138" t="s">
-        <v>531</v>
+      <c r="B278" s="349" t="s">
+        <v>530</v>
       </c>
       <c r="C278" s="2">
         <v>17</v>
@@ -27731,7 +27749,7 @@
     </row>
     <row r="279" spans="1:11" ht="14.25" thickBot="1">
       <c r="A279" s="146"/>
-      <c r="B279" s="138" t="s">
+      <c r="B279" s="349" t="s">
         <v>532</v>
       </c>
       <c r="C279" s="2">
@@ -27785,7 +27803,7 @@
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="146"/>
-      <c r="B281" s="138" t="s">
+      <c r="B281" s="349" t="s">
         <v>533</v>
       </c>
       <c r="C281" s="2">
@@ -27811,7 +27829,7 @@
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="146"/>
-      <c r="B282" s="138" t="s">
+      <c r="B282" s="349" t="s">
         <v>534</v>
       </c>
       <c r="C282" s="2">
@@ -27837,7 +27855,7 @@
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="146"/>
-      <c r="B283" s="138" t="s">
+      <c r="B283" s="349" t="s">
         <v>535</v>
       </c>
       <c r="C283" s="2">
@@ -27863,7 +27881,7 @@
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="146"/>
-      <c r="B284" s="138" t="s">
+      <c r="B284" s="349" t="s">
         <v>536</v>
       </c>
       <c r="C284" s="2">
@@ -27889,8 +27907,8 @@
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="146"/>
-      <c r="B285" s="138" t="s">
-        <v>537</v>
+      <c r="B285" s="349" t="s">
+        <v>538</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>572</v>
@@ -27915,8 +27933,8 @@
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="146"/>
-      <c r="B286" s="138" t="s">
-        <v>538</v>
+      <c r="B286" s="349" t="s">
+        <v>537</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>572</v>
@@ -27941,7 +27959,7 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="146"/>
-      <c r="B287" s="138" t="s">
+      <c r="B287" s="349" t="s">
         <v>539</v>
       </c>
       <c r="C287" s="2">
@@ -27967,7 +27985,7 @@
     </row>
     <row r="288" spans="1:11" ht="14.25" thickBot="1">
       <c r="A288" s="146"/>
-      <c r="B288" s="138" t="s">
+      <c r="B288" s="349" t="s">
         <v>540</v>
       </c>
       <c r="C288" s="2">
@@ -28021,7 +28039,7 @@
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="146"/>
-      <c r="B290" s="138" t="s">
+      <c r="B290" s="349" t="s">
         <v>541</v>
       </c>
       <c r="C290" s="2">
@@ -28047,7 +28065,7 @@
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="146"/>
-      <c r="B291" s="138" t="s">
+      <c r="B291" s="349" t="s">
         <v>542</v>
       </c>
       <c r="C291" s="2">
@@ -28073,7 +28091,7 @@
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="146"/>
-      <c r="B292" s="138" t="s">
+      <c r="B292" s="349" t="s">
         <v>543</v>
       </c>
       <c r="C292" s="2">
@@ -28096,8 +28114,8 @@
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="146"/>
-      <c r="B293" s="138" t="s">
-        <v>544</v>
+      <c r="B293" s="349" t="s">
+        <v>549</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>572</v>
@@ -28122,8 +28140,8 @@
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="146"/>
-      <c r="B294" s="138" t="s">
-        <v>545</v>
+      <c r="B294" s="349" t="s">
+        <v>544</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>572</v>
@@ -28148,8 +28166,8 @@
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="146"/>
-      <c r="B295" s="138" t="s">
-        <v>546</v>
+      <c r="B295" s="349" t="s">
+        <v>545</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>572</v>
@@ -28174,8 +28192,8 @@
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="146"/>
-      <c r="B296" s="138" t="s">
-        <v>547</v>
+      <c r="B296" s="349" t="s">
+        <v>546</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>572</v>
@@ -28200,8 +28218,8 @@
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="146"/>
-      <c r="B297" s="138" t="s">
-        <v>548</v>
+      <c r="B297" s="349" t="s">
+        <v>547</v>
       </c>
       <c r="C297" s="2">
         <v>0</v>
@@ -28226,8 +28244,8 @@
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="146"/>
-      <c r="B298" s="138" t="s">
-        <v>549</v>
+      <c r="B298" s="349" t="s">
+        <v>548</v>
       </c>
       <c r="C298" s="2">
         <v>0</v>
@@ -28252,7 +28270,7 @@
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="146"/>
-      <c r="B299" s="138" t="s">
+      <c r="B299" s="349" t="s">
         <v>550</v>
       </c>
       <c r="C299" s="2">
@@ -28278,7 +28296,7 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="146"/>
-      <c r="B300" s="138" t="s">
+      <c r="B300" s="349" t="s">
         <v>551</v>
       </c>
       <c r="C300" s="2">
@@ -28304,7 +28322,7 @@
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="146"/>
-      <c r="B301" s="138" t="s">
+      <c r="B301" s="349" t="s">
         <v>552</v>
       </c>
       <c r="C301" s="2">
@@ -28330,7 +28348,7 @@
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="146"/>
-      <c r="B302" s="138" t="s">
+      <c r="B302" s="349" t="s">
         <v>553</v>
       </c>
       <c r="C302" s="2">
@@ -28356,7 +28374,7 @@
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="146"/>
-      <c r="B303" s="138" t="s">
+      <c r="B303" s="349" t="s">
         <v>554</v>
       </c>
       <c r="C303" s="2">
@@ -28382,7 +28400,7 @@
     </row>
     <row r="304" spans="1:11" ht="14.25" thickBot="1">
       <c r="A304" s="146"/>
-      <c r="B304" s="138" t="s">
+      <c r="B304" s="349" t="s">
         <v>555</v>
       </c>
       <c r="C304" s="2">
@@ -28437,7 +28455,7 @@
     <row r="306" spans="1:11">
       <c r="A306" s="146"/>
       <c r="B306" s="138" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C306" s="2">
         <v>31</v>
@@ -28463,7 +28481,7 @@
     <row r="307" spans="1:11">
       <c r="A307" s="146"/>
       <c r="B307" s="138" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C307" s="2">
         <v>30</v>
@@ -28489,7 +28507,7 @@
     <row r="308" spans="1:11">
       <c r="A308" s="146"/>
       <c r="B308" s="138" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C308" s="2">
         <v>24</v>
@@ -28515,7 +28533,7 @@
     <row r="309" spans="1:11">
       <c r="A309" s="146"/>
       <c r="B309" s="138" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C309" s="2">
         <v>23</v>
@@ -28567,7 +28585,7 @@
     <row r="311" spans="1:11">
       <c r="A311" s="146"/>
       <c r="B311" s="138" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C311" s="2">
         <v>4</v>
@@ -28593,7 +28611,7 @@
     <row r="312" spans="1:11">
       <c r="A312" s="146"/>
       <c r="B312" s="138" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C312" s="2">
         <v>4</v>
@@ -28619,7 +28637,7 @@
     <row r="313" spans="1:11">
       <c r="A313" s="146"/>
       <c r="B313" s="138" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>572</v>
@@ -28645,7 +28663,7 @@
     <row r="314" spans="1:11">
       <c r="A314" s="146"/>
       <c r="B314" s="138" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>572</v>
@@ -28671,7 +28689,7 @@
     <row r="315" spans="1:11">
       <c r="A315" s="146"/>
       <c r="B315" s="138" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>572</v>
@@ -35331,16 +35349,16 @@
       <c r="F34" s="97"/>
     </row>
     <row r="35" spans="2:6" ht="27.75" thickTop="1">
-      <c r="B35" s="302" t="s">
+      <c r="B35" s="283" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="303" t="s">
+      <c r="D35" s="285" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="303" t="s">
+      <c r="E35" s="285" t="s">
         <v>58</v>
       </c>
       <c r="F35" s="13" t="s">
@@ -35348,45 +35366,45 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="297"/>
+      <c r="B36" s="284"/>
       <c r="C36" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="294"/>
-      <c r="E36" s="294"/>
+      <c r="D36" s="286"/>
+      <c r="E36" s="286"/>
       <c r="F36" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="297"/>
+      <c r="B37" s="284"/>
       <c r="C37" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="294"/>
-      <c r="E37" s="294"/>
+      <c r="D37" s="286"/>
+      <c r="E37" s="286"/>
       <c r="F37" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="297"/>
+      <c r="B38" s="284"/>
       <c r="C38" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="D38" s="294"/>
-      <c r="E38" s="294"/>
+      <c r="D38" s="286"/>
+      <c r="E38" s="286"/>
       <c r="F38" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="27">
-      <c r="B39" s="297"/>
+      <c r="B39" s="284"/>
       <c r="C39" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D39" s="294"/>
-      <c r="E39" s="294"/>
+      <c r="D39" s="286"/>
+      <c r="E39" s="286"/>
       <c r="F39" s="14" t="s">
         <v>64</v>
       </c>
@@ -35416,22 +35434,22 @@
       <c r="F41" s="75"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="290"/>
-      <c r="C42" s="290"/>
-      <c r="D42" s="294" t="s">
+      <c r="B42" s="287"/>
+      <c r="C42" s="287"/>
+      <c r="D42" s="286" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="294" t="s">
+      <c r="E42" s="286" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="294"/>
+      <c r="F42" s="286"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="290"/>
-      <c r="C43" s="290"/>
-      <c r="D43" s="294"/>
-      <c r="E43" s="294"/>
-      <c r="F43" s="294"/>
+      <c r="B43" s="287"/>
+      <c r="C43" s="287"/>
+      <c r="D43" s="286"/>
+      <c r="E43" s="286"/>
+      <c r="F43" s="286"/>
     </row>
     <row r="44" spans="2:6" ht="14.25" thickBot="1">
       <c r="B44" s="97"/>
@@ -35445,16 +35463,16 @@
       <c r="F44" s="98"/>
     </row>
     <row r="45" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B45" s="296" t="s">
+      <c r="B45" s="289" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="298" t="s">
+      <c r="D45" s="290" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="298" t="s">
+      <c r="E45" s="290" t="s">
         <v>75</v>
       </c>
       <c r="F45" s="74" t="s">
@@ -35462,30 +35480,30 @@
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="297"/>
+      <c r="B46" s="284"/>
       <c r="C46" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="290"/>
-      <c r="E46" s="290"/>
+      <c r="D46" s="287"/>
+      <c r="E46" s="287"/>
       <c r="F46" s="74"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="297"/>
+      <c r="B47" s="284"/>
       <c r="C47" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="290"/>
-      <c r="E47" s="290"/>
+      <c r="D47" s="287"/>
+      <c r="E47" s="287"/>
       <c r="F47" s="74"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="297"/>
+      <c r="B48" s="284"/>
       <c r="C48" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="D48" s="290"/>
-      <c r="E48" s="290"/>
+      <c r="D48" s="287"/>
+      <c r="E48" s="287"/>
       <c r="F48" s="74"/>
     </row>
     <row r="49" spans="2:6" ht="27">
@@ -35537,46 +35555,46 @@
       <c r="F52" s="97"/>
     </row>
     <row r="53" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B53" s="299" t="s">
+      <c r="B53" s="291" t="s">
         <v>85</v>
       </c>
       <c r="C53" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="300" t="s">
+      <c r="D53" s="293" t="s">
         <v>86</v>
       </c>
-      <c r="E53" s="300" t="s">
+      <c r="E53" s="293" t="s">
         <v>85</v>
       </c>
-      <c r="F53" s="301"/>
+      <c r="F53" s="294"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="289"/>
+      <c r="B54" s="292"/>
       <c r="C54" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="294"/>
-      <c r="E54" s="294"/>
-      <c r="F54" s="295"/>
+      <c r="D54" s="286"/>
+      <c r="E54" s="286"/>
+      <c r="F54" s="288"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="289"/>
+      <c r="B55" s="292"/>
       <c r="C55" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="294"/>
-      <c r="E55" s="294"/>
-      <c r="F55" s="295"/>
+      <c r="D55" s="286"/>
+      <c r="E55" s="286"/>
+      <c r="F55" s="288"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="289"/>
+      <c r="B56" s="292"/>
       <c r="C56" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="D56" s="294"/>
-      <c r="E56" s="294"/>
-      <c r="F56" s="295"/>
+      <c r="D56" s="286"/>
+      <c r="E56" s="286"/>
+      <c r="F56" s="288"/>
     </row>
     <row r="57" spans="2:6" ht="27">
       <c r="B57" s="73"/>
@@ -35592,22 +35610,22 @@
       <c r="F57" s="72"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="289"/>
-      <c r="C58" s="290"/>
-      <c r="D58" s="294" t="s">
+      <c r="B58" s="292"/>
+      <c r="C58" s="287"/>
+      <c r="D58" s="286" t="s">
         <v>89</v>
       </c>
-      <c r="E58" s="294" t="s">
+      <c r="E58" s="286" t="s">
         <v>90</v>
       </c>
-      <c r="F58" s="295"/>
+      <c r="F58" s="288"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="289"/>
-      <c r="C59" s="290"/>
-      <c r="D59" s="294"/>
-      <c r="E59" s="294"/>
-      <c r="F59" s="295"/>
+      <c r="B59" s="292"/>
+      <c r="C59" s="287"/>
+      <c r="D59" s="286"/>
+      <c r="E59" s="286"/>
+      <c r="F59" s="288"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="73"/>
@@ -35751,10 +35769,10 @@
       <c r="E74" s="154"/>
     </row>
     <row r="75" spans="2:6" s="82" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B75" s="288" t="s">
+      <c r="B75" s="300" t="s">
         <v>253</v>
       </c>
-      <c r="C75" s="288"/>
+      <c r="C75" s="300"/>
       <c r="D75" s="158"/>
       <c r="E75" s="77"/>
     </row>
@@ -35818,7 +35836,7 @@
       <c r="B84" s="175" t="s">
         <v>157</v>
       </c>
-      <c r="C84" s="291" t="s">
+      <c r="C84" s="301" t="s">
         <v>232</v>
       </c>
       <c r="D84" s="159"/>
@@ -35827,14 +35845,14 @@
       <c r="B85" s="175" t="s">
         <v>176</v>
       </c>
-      <c r="C85" s="292"/>
+      <c r="C85" s="302"/>
       <c r="D85" s="159"/>
     </row>
     <row r="86" spans="2:5" ht="32.25" customHeight="1" thickBot="1">
       <c r="B86" s="176" t="s">
         <v>177</v>
       </c>
-      <c r="C86" s="293"/>
+      <c r="C86" s="303"/>
       <c r="D86" s="160"/>
     </row>
     <row r="87" spans="2:5" ht="14.25" thickTop="1"/>
@@ -35855,7 +35873,7 @@
       </c>
     </row>
     <row r="91" spans="2:5" ht="27">
-      <c r="B91" s="283" t="s">
+      <c r="B91" s="295" t="s">
         <v>241</v>
       </c>
       <c r="C91" s="174" t="s">
@@ -35863,14 +35881,14 @@
       </c>
     </row>
     <row r="92" spans="2:5" ht="27" customHeight="1">
-      <c r="B92" s="284"/>
-      <c r="C92" s="286" t="s">
+      <c r="B92" s="296"/>
+      <c r="C92" s="298" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="93" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B93" s="285"/>
-      <c r="C93" s="287"/>
+      <c r="B93" s="297"/>
+      <c r="C93" s="299"/>
     </row>
     <row r="94" spans="2:5" ht="14.25" thickTop="1">
       <c r="B94" s="82"/>
@@ -35878,13 +35896,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C84:C86"/>
     <mergeCell ref="D58:D59"/>
     <mergeCell ref="E58:E59"/>
     <mergeCell ref="F58:F59"/>
@@ -35896,12 +35913,13 @@
     <mergeCell ref="D53:D56"/>
     <mergeCell ref="E53:E56"/>
     <mergeCell ref="F53:F56"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" location="Definitioner!B12" display="Dödsorsak covid-19"/>
@@ -51511,16 +51529,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52278,15 +52296,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
@@ -52322,6 +52331,15 @@
     <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -52658,26 +52676,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/socialstyrelsen/statistik-covid19-avlidna_latest.xlsx
+++ b/socialstyrelsen/statistik-covid19-avlidna_latest.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="929">
   <si>
     <t>Diabetes</t>
   </si>
@@ -3040,6 +3040,9 @@
   </si>
   <si>
     <t>Varberg</t>
+  </si>
+  <si>
+    <t>Fel i kommuntabellen korrigerades. Tidigare publiceringar 2020-12-16, 2020-12-23 och 2020-12-30 innehöll felaktiga värden för flera kommuner.</t>
   </si>
 </sst>
 </file>
@@ -5202,7 +5205,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5564,7 +5566,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6063,7 +6064,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6353,7 +6353,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15701,6 +15700,67 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3609975" cy="595356"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="textruta 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6915150" y="247650"/>
+          <a:ext cx="3609975" cy="595356"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="800" b="1" smtClean="0"/>
+            <a:t>Ändring</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="800" b="1" baseline="0" smtClean="0"/>
+            <a:t> 2021-01-08</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="800" smtClean="0"/>
+            <a:t>Fel i kommuntabellen korrigerades. Tidigare publiceringar 2020-12-16, 2020-12-23 och 2020-12-30 innehöll felaktiga värden för flera kommuner.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17101,72 +17161,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3609975" cy="469616"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="textruta 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9963150" y="342900"/>
-          <a:ext cx="3609975" cy="469616"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="800" b="1" smtClean="0"/>
-            <a:t>Ändring</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="800" b="1" baseline="0" smtClean="0"/>
-            <a:t> 2020-08-26</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="800" smtClean="0"/>
-            <a:t>Beräkning av socialtjänstinsats/boendeform har uppdaterats.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="800" baseline="0" smtClean="0"/>
-            <a:t> Det påverkar antal avlidna med hemtjänst.</a:t>
-          </a:r>
-          <a:endParaRPr lang="sv-SE" sz="800" smtClean="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17386,72 +17380,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3609975" cy="469616"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="textruta 8"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7210425" y="247650"/>
-          <a:ext cx="3609975" cy="469616"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="800" b="1" smtClean="0"/>
-            <a:t>Ändring</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="800" b="1" baseline="0" smtClean="0"/>
-            <a:t> 2020-08-26</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="800" smtClean="0"/>
-            <a:t>Beräkning av socialtjänstinsats/boendeform har uppdaterats.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="800" baseline="0" smtClean="0"/>
-            <a:t> Det påverkar antal avlidna på särskilt boende och med hemtjänst.</a:t>
-          </a:r>
-          <a:endParaRPr lang="sv-SE" sz="800" smtClean="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19516,67 +19444,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3609975" cy="469616"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="textruta 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8991600" y="247650"/>
-          <a:ext cx="3609975" cy="469616"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="800" b="1" smtClean="0"/>
-            <a:t>Ändring</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="800" b="1" baseline="0" smtClean="0"/>
-            <a:t> 2020-08-26</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="800" smtClean="0"/>
-            <a:t>Beräkning av socialtjänstinsats/boendeform har uppdaterats. Det påverkar antal avlidna på särskilt boende eller med hemtjänst.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -36166,9 +36033,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -36182,18 +36051,18 @@
     </row>
     <row r="2" spans="1:2" s="82" customFormat="1">
       <c r="A2" s="154">
-        <v>44104</v>
+        <v>44204</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>237</v>
+        <v>928</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="154">
-        <v>44069</v>
-      </c>
-      <c r="B3" t="s">
-        <v>219</v>
+        <v>44104</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -36201,47 +36070,47 @@
         <v>44069</v>
       </c>
       <c r="B4" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="154">
-        <v>44008</v>
+        <v>44069</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="154">
-        <v>44006</v>
+        <v>44008</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="154">
-        <v>43992</v>
+        <v>44006</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="154">
-        <v>43971</v>
+        <v>43992</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="154">
-        <v>43959</v>
+        <v>43971</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -36249,7 +36118,7 @@
         <v>43959</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -36257,6 +36126,14 @@
         <v>43959</v>
       </c>
       <c r="B11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="154">
+        <v>43959</v>
+      </c>
+      <c r="B12" t="s">
         <v>207</v>
       </c>
     </row>
@@ -52532,6 +52409,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
@@ -52569,7 +52455,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100361443839E954C488E1554F766430BDE" ma:contentTypeVersion="37" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="ec0867efc9d878e75742a5b73fddae48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd3acd59-a8d8-42b1-950d-eec6c247243c" xmlns:ns3="343f6c91-b5b3-4dff-89ad-5fc55ccc8930" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f4ea334ff345e29c5775f0a2fd1174f" ns2:_="" ns3:_="">
     <xsd:import namespace="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
@@ -52902,33 +52788,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BDD971-BADF-427E-9579-B824215A28B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -52945,12 +52830,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/socialstyrelsen/statistik-covid19-avlidna_latest.xlsx
+++ b/socialstyrelsen/statistik-covid19-avlidna_latest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Delad\510-Statistik covid19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Delad\510-Statistik covid19\1. Att publicera på antal avlidna i covid-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="270" windowWidth="2880" windowHeight="5325" tabRatio="751" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="270" windowWidth="2880" windowHeight="5325" tabRatio="751"/>
   </bookViews>
   <sheets>
     <sheet name="Om statistiken" sheetId="11" r:id="rId1"/>
@@ -31,12 +31,12 @@
     <definedName name="innehållsförteckning" localSheetId="1">Definitioner!#REF!</definedName>
     <definedName name="innehållsförteckning">'Om statistiken'!$B$15</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="970">
   <si>
     <t>Diabetes</t>
   </si>
@@ -1050,9 +1050,6 @@
     <t>** Ofullständiga uppgifter för Uppsala för särskilt boende och hemtjänst</t>
   </si>
   <si>
-    <t>03 Uppsala**</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -3156,13 +3153,19 @@
     <t>Sorsele**</t>
   </si>
   <si>
-    <t>18 Örebro**</t>
-  </si>
-  <si>
     <t>Indelningarna nedan baseras på samkörning med registret över socialtjänstinsatser till äldre och personer med funktionsnedsättning 2019-2020. Registret uppdateras månatligen, mätning månaden innan dödsdatum för varje individ har använts.</t>
   </si>
   <si>
     <t xml:space="preserve">Dessa uppgifter bygger på alla inkomna intyg men intyg för alla avlidna har inte inkommit ännu. Dessa uppgifter är alltså högst preliminära.  Det slutgiltiga antalet kommer att förändras allt eftersom det inkommer fler dödsorsaksintyg. Uppgifter från Uppsala, Örebro, Sorsele och Boden för särskilt boende och hemtjänst är ofullständiga. </t>
+  </si>
+  <si>
+    <t>03 Uppsala</t>
+  </si>
+  <si>
+    <t>Örebro**</t>
+  </si>
+  <si>
+    <t>18 Örebro</t>
   </si>
 </sst>
 </file>
@@ -5792,6 +5795,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6088,6 +6092,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6581,6 +6586,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6882,6 +6888,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20397,9 +20404,7 @@
   </sheetPr>
   <dimension ref="B1:F28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:F11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -20803,7 +20808,7 @@
     </row>
     <row r="4" spans="2:6" s="81" customFormat="1" ht="30.95" customHeight="1">
       <c r="B4" s="276" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="277"/>
       <c r="D4" s="277"/>
@@ -20857,7 +20862,7 @@
     </row>
     <row r="10" spans="2:6" s="81" customFormat="1" ht="16.5" customHeight="1">
       <c r="B10" s="279" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C10" s="280"/>
       <c r="D10" s="280"/>
@@ -20866,7 +20871,7 @@
     </row>
     <row r="11" spans="2:6" s="81" customFormat="1" ht="44.25" customHeight="1">
       <c r="B11" s="279" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C11" s="280"/>
       <c r="D11" s="280"/>
@@ -21217,7 +21222,7 @@
     <row r="10" spans="1:11">
       <c r="A10" s="139"/>
       <c r="B10" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C10" s="2">
         <v>1504</v>
@@ -21243,7 +21248,7 @@
     <row r="11" spans="1:11">
       <c r="A11" s="139"/>
       <c r="B11" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C11" s="2">
         <v>207</v>
@@ -21269,7 +21274,7 @@
     <row r="12" spans="1:11">
       <c r="A12" s="139"/>
       <c r="B12" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C12" s="2">
         <v>145</v>
@@ -21295,7 +21300,7 @@
     <row r="13" spans="1:11">
       <c r="A13" s="139"/>
       <c r="B13" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C13" s="2">
         <v>142</v>
@@ -21321,7 +21326,7 @@
     <row r="14" spans="1:11">
       <c r="A14" s="139"/>
       <c r="B14" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C14" s="2">
         <v>140</v>
@@ -21347,7 +21352,7 @@
     <row r="15" spans="1:11">
       <c r="A15" s="139"/>
       <c r="B15" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C15" s="2">
         <v>127</v>
@@ -21373,7 +21378,7 @@
     <row r="16" spans="1:11">
       <c r="A16" s="139"/>
       <c r="B16" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C16" s="2">
         <v>125</v>
@@ -21399,7 +21404,7 @@
     <row r="17" spans="1:11">
       <c r="A17" s="139"/>
       <c r="B17" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C17" s="2">
         <v>122</v>
@@ -21425,7 +21430,7 @@
     <row r="18" spans="1:11">
       <c r="A18" s="139"/>
       <c r="B18" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C18" s="2">
         <v>114</v>
@@ -21451,7 +21456,7 @@
     <row r="19" spans="1:11">
       <c r="A19" s="139"/>
       <c r="B19" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C19" s="2">
         <v>96</v>
@@ -21477,7 +21482,7 @@
     <row r="20" spans="1:11">
       <c r="A20" s="139"/>
       <c r="B20" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C20" s="2">
         <v>93</v>
@@ -21503,7 +21508,7 @@
     <row r="21" spans="1:11">
       <c r="A21" s="139"/>
       <c r="B21" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C21" s="2">
         <v>92</v>
@@ -21529,7 +21534,7 @@
     <row r="22" spans="1:11">
       <c r="A22" s="139"/>
       <c r="B22" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C22" s="2">
         <v>89</v>
@@ -21555,7 +21560,7 @@
     <row r="23" spans="1:11">
       <c r="A23" s="139"/>
       <c r="B23" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C23" s="2">
         <v>88</v>
@@ -21581,7 +21586,7 @@
     <row r="24" spans="1:11">
       <c r="A24" s="139"/>
       <c r="B24" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C24" s="2">
         <v>82</v>
@@ -21607,7 +21612,7 @@
     <row r="25" spans="1:11">
       <c r="A25" s="139"/>
       <c r="B25" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C25" s="2">
         <v>67</v>
@@ -21633,7 +21638,7 @@
     <row r="26" spans="1:11">
       <c r="A26" s="139"/>
       <c r="B26" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C26" s="2">
         <v>65</v>
@@ -21659,7 +21664,7 @@
     <row r="27" spans="1:11">
       <c r="A27" s="139"/>
       <c r="B27" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C27" s="2">
         <v>50</v>
@@ -21685,7 +21690,7 @@
     <row r="28" spans="1:11">
       <c r="A28" s="139"/>
       <c r="B28" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C28" s="2">
         <v>40</v>
@@ -21711,7 +21716,7 @@
     <row r="29" spans="1:11">
       <c r="A29" s="139"/>
       <c r="B29" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C29" s="2">
         <v>40</v>
@@ -21726,7 +21731,7 @@
         <v>62.5</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H29" s="60" t="s">
         <v>127</v>
@@ -21737,7 +21742,7 @@
     <row r="30" spans="1:11">
       <c r="A30" s="139"/>
       <c r="B30" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C30" s="2">
         <v>36</v>
@@ -21763,7 +21768,7 @@
     <row r="31" spans="1:11">
       <c r="A31" s="139"/>
       <c r="B31" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C31" s="2">
         <v>31</v>
@@ -21789,7 +21794,7 @@
     <row r="32" spans="1:11">
       <c r="A32" s="139"/>
       <c r="B32" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C32" s="2">
         <v>27</v>
@@ -21815,7 +21820,7 @@
     <row r="33" spans="1:11">
       <c r="A33" s="139"/>
       <c r="B33" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C33" s="2">
         <v>22</v>
@@ -21830,7 +21835,7 @@
         <v>27.272727272727298</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H33" s="60" t="s">
         <v>127</v>
@@ -21841,7 +21846,7 @@
     <row r="34" spans="1:11">
       <c r="A34" s="139"/>
       <c r="B34" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C34" s="2">
         <v>14</v>
@@ -21850,7 +21855,7 @@
         <v>0.39292730844793999</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F34" s="60" t="s">
         <v>127</v>
@@ -21867,7 +21872,7 @@
     <row r="35" spans="1:11" ht="14.25" thickBot="1">
       <c r="A35" s="139"/>
       <c r="B35" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C35" s="2">
         <v>5</v>
@@ -21876,7 +21881,7 @@
         <v>0.14033118158855001</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F35" s="60" t="s">
         <v>127</v>
@@ -21892,7 +21897,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="4" t="s">
-        <v>264</v>
+        <v>967</v>
       </c>
       <c r="B36" s="265" t="s">
         <v>261</v>
@@ -21921,7 +21926,7 @@
     <row r="37" spans="1:11">
       <c r="A37" s="139"/>
       <c r="B37" s="20" t="s">
-        <v>962</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2">
         <v>229</v>
@@ -21947,7 +21952,7 @@
     <row r="38" spans="1:11">
       <c r="A38" s="139"/>
       <c r="B38" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C38" s="2">
         <v>64</v>
@@ -21973,7 +21978,7 @@
     <row r="39" spans="1:11">
       <c r="A39" s="139"/>
       <c r="B39" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C39" s="2">
         <v>35</v>
@@ -21999,7 +22004,7 @@
     <row r="40" spans="1:11">
       <c r="A40" s="139"/>
       <c r="B40" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C40" s="2">
         <v>28</v>
@@ -22025,7 +22030,7 @@
     <row r="41" spans="1:11">
       <c r="A41" s="139"/>
       <c r="B41" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C41" s="2">
         <v>22</v>
@@ -22051,7 +22056,7 @@
     <row r="42" spans="1:11">
       <c r="A42" s="139"/>
       <c r="B42" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C42" s="2">
         <v>15</v>
@@ -22066,7 +22071,7 @@
         <v>60</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H42" s="60" t="s">
         <v>127</v>
@@ -22077,7 +22082,7 @@
     <row r="43" spans="1:11">
       <c r="A43" s="139"/>
       <c r="B43" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C43" s="2">
         <v>12</v>
@@ -22103,7 +22108,7 @@
     <row r="44" spans="1:11" ht="14.25" thickBot="1">
       <c r="A44" s="139"/>
       <c r="B44" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C44" s="2">
         <v>7</v>
@@ -22118,7 +22123,7 @@
         <v>57.142857142857203</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H44" s="60" t="s">
         <v>127</v>
@@ -22157,7 +22162,7 @@
     <row r="46" spans="1:11">
       <c r="A46" s="139"/>
       <c r="B46" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C46" s="2">
         <v>136</v>
@@ -22183,7 +22188,7 @@
     <row r="47" spans="1:11">
       <c r="A47" s="139"/>
       <c r="B47" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C47" s="2">
         <v>83</v>
@@ -22209,7 +22214,7 @@
     <row r="48" spans="1:11">
       <c r="A48" s="139"/>
       <c r="B48" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C48" s="2">
         <v>55</v>
@@ -22235,7 +22240,7 @@
     <row r="49" spans="1:11">
       <c r="A49" s="139"/>
       <c r="B49" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C49" s="2">
         <v>26</v>
@@ -22261,7 +22266,7 @@
     <row r="50" spans="1:11">
       <c r="A50" s="139"/>
       <c r="B50" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C50" s="2">
         <v>22</v>
@@ -22270,13 +22275,13 @@
         <v>5.7142857142857197</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F50" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H50" s="60" t="s">
         <v>127</v>
@@ -22287,7 +22292,7 @@
     <row r="51" spans="1:11">
       <c r="A51" s="139"/>
       <c r="B51" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C51" s="2">
         <v>19</v>
@@ -22296,7 +22301,7 @@
         <v>4.9350649350649398</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F51" s="60" t="s">
         <v>127</v>
@@ -22313,7 +22318,7 @@
     <row r="52" spans="1:11">
       <c r="A52" s="139"/>
       <c r="B52" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C52" s="2">
         <v>17</v>
@@ -22339,7 +22344,7 @@
     <row r="53" spans="1:11">
       <c r="A53" s="139"/>
       <c r="B53" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C53" s="2">
         <v>16</v>
@@ -22354,7 +22359,7 @@
         <v>37.5</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H53" s="60" t="s">
         <v>127</v>
@@ -22365,7 +22370,7 @@
     <row r="54" spans="1:11" ht="14.25" thickBot="1">
       <c r="A54" s="139"/>
       <c r="B54" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C54" s="2">
         <v>11</v>
@@ -22419,7 +22424,7 @@
     <row r="56" spans="1:11">
       <c r="A56" s="139"/>
       <c r="B56" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C56" s="2">
         <v>188</v>
@@ -22445,7 +22450,7 @@
     <row r="57" spans="1:11">
       <c r="A57" s="139"/>
       <c r="B57" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C57" s="2">
         <v>169</v>
@@ -22471,7 +22476,7 @@
     <row r="58" spans="1:11">
       <c r="A58" s="139"/>
       <c r="B58" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C58" s="2">
         <v>39</v>
@@ -22497,7 +22502,7 @@
     <row r="59" spans="1:11">
       <c r="A59" s="139"/>
       <c r="B59" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C59" s="2">
         <v>31</v>
@@ -22523,7 +22528,7 @@
     <row r="60" spans="1:11">
       <c r="A60" s="139"/>
       <c r="B60" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C60" s="2">
         <v>27</v>
@@ -22549,7 +22554,7 @@
     <row r="61" spans="1:11">
       <c r="A61" s="139"/>
       <c r="B61" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C61" s="2">
         <v>14</v>
@@ -22575,7 +22580,7 @@
     <row r="62" spans="1:11">
       <c r="A62" s="139"/>
       <c r="B62" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C62" s="2">
         <v>13</v>
@@ -22601,7 +22606,7 @@
     <row r="63" spans="1:11">
       <c r="A63" s="139"/>
       <c r="B63" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C63" s="2">
         <v>11</v>
@@ -22627,7 +22632,7 @@
     <row r="64" spans="1:11">
       <c r="A64" s="139"/>
       <c r="B64" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C64" s="2">
         <v>10</v>
@@ -22642,7 +22647,7 @@
         <v>70</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H64" s="60" t="s">
         <v>127</v>
@@ -22653,7 +22658,7 @@
     <row r="65" spans="1:11">
       <c r="A65" s="139"/>
       <c r="B65" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C65" s="2">
         <v>9</v>
@@ -22668,7 +22673,7 @@
         <v>55.5555555555556</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H65" s="60" t="s">
         <v>127</v>
@@ -22679,7 +22684,7 @@
     <row r="66" spans="1:11">
       <c r="A66" s="139"/>
       <c r="B66" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C66" s="2">
         <v>8</v>
@@ -22694,7 +22699,7 @@
         <v>62.5</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H66" s="60" t="s">
         <v>127</v>
@@ -22705,10 +22710,10 @@
     <row r="67" spans="1:11">
       <c r="A67" s="139"/>
       <c r="B67" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D67" s="60" t="s">
         <v>127</v>
@@ -22731,10 +22736,10 @@
     <row r="68" spans="1:11" ht="14.25" thickBot="1">
       <c r="A68" s="139"/>
       <c r="B68" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D68" s="60" t="s">
         <v>127</v>
@@ -22746,7 +22751,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H68" s="60" t="s">
         <v>127</v>
@@ -22785,7 +22790,7 @@
     <row r="70" spans="1:11">
       <c r="A70" s="139"/>
       <c r="B70" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C70" s="2">
         <v>151</v>
@@ -22811,7 +22816,7 @@
     <row r="71" spans="1:11">
       <c r="A71" s="139"/>
       <c r="B71" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C71" s="2">
         <v>60</v>
@@ -22837,7 +22842,7 @@
     <row r="72" spans="1:11">
       <c r="A72" s="139"/>
       <c r="B72" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C72" s="2">
         <v>55</v>
@@ -22863,7 +22868,7 @@
     <row r="73" spans="1:11">
       <c r="A73" s="139"/>
       <c r="B73" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C73" s="2">
         <v>43</v>
@@ -22889,7 +22894,7 @@
     <row r="74" spans="1:11">
       <c r="A74" s="139"/>
       <c r="B74" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C74" s="2">
         <v>34</v>
@@ -22915,7 +22920,7 @@
     <row r="75" spans="1:11">
       <c r="A75" s="139"/>
       <c r="B75" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C75" s="2">
         <v>32</v>
@@ -22941,7 +22946,7 @@
     <row r="76" spans="1:11">
       <c r="A76" s="139"/>
       <c r="B76" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C76" s="2">
         <v>19</v>
@@ -22956,7 +22961,7 @@
         <v>57.894736842105303</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H76" s="60" t="s">
         <v>127</v>
@@ -22967,7 +22972,7 @@
     <row r="77" spans="1:11">
       <c r="A77" s="139"/>
       <c r="B77" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C77" s="2">
         <v>14</v>
@@ -22993,7 +22998,7 @@
     <row r="78" spans="1:11">
       <c r="A78" s="139"/>
       <c r="B78" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C78" s="2">
         <v>10</v>
@@ -23008,7 +23013,7 @@
         <v>40</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H78" s="60" t="s">
         <v>127</v>
@@ -23019,7 +23024,7 @@
     <row r="79" spans="1:11">
       <c r="A79" s="139"/>
       <c r="B79" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C79" s="2">
         <v>10</v>
@@ -23045,7 +23050,7 @@
     <row r="80" spans="1:11">
       <c r="A80" s="139"/>
       <c r="B80" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C80" s="2">
         <v>9</v>
@@ -23054,7 +23059,7 @@
         <v>2.0089285714285698</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F80" s="60" t="s">
         <v>127</v>
@@ -23071,16 +23076,16 @@
     <row r="81" spans="1:11">
       <c r="A81" s="139"/>
       <c r="B81" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D81" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F81" s="60" t="s">
         <v>127</v>
@@ -23097,16 +23102,16 @@
     <row r="82" spans="1:11" ht="14.25" thickBot="1">
       <c r="A82" s="139"/>
       <c r="B82" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D82" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F82" s="60" t="s">
         <v>127</v>
@@ -23151,7 +23156,7 @@
     <row r="84" spans="1:11">
       <c r="A84" s="139"/>
       <c r="B84" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C84" s="2">
         <v>111</v>
@@ -23177,7 +23182,7 @@
     <row r="85" spans="1:11">
       <c r="A85" s="139"/>
       <c r="B85" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C85" s="2">
         <v>36</v>
@@ -23203,7 +23208,7 @@
     <row r="86" spans="1:11">
       <c r="A86" s="139"/>
       <c r="B86" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C86" s="2">
         <v>36</v>
@@ -23229,7 +23234,7 @@
     <row r="87" spans="1:11">
       <c r="A87" s="139"/>
       <c r="B87" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C87" s="2">
         <v>25</v>
@@ -23255,7 +23260,7 @@
     <row r="88" spans="1:11">
       <c r="A88" s="139"/>
       <c r="B88" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C88" s="2">
         <v>14</v>
@@ -23264,7 +23269,7 @@
         <v>5.5776892430278897</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F88" s="60" t="s">
         <v>127</v>
@@ -23281,7 +23286,7 @@
     <row r="89" spans="1:11">
       <c r="A89" s="139"/>
       <c r="B89" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C89" s="2">
         <v>11</v>
@@ -23307,7 +23312,7 @@
     <row r="90" spans="1:11">
       <c r="A90" s="139"/>
       <c r="B90" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C90" s="2">
         <v>9</v>
@@ -23316,7 +23321,7 @@
         <v>3.58565737051793</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F90" s="60" t="s">
         <v>127</v>
@@ -23333,7 +23338,7 @@
     <row r="91" spans="1:11" ht="14.25" thickBot="1">
       <c r="A91" s="139"/>
       <c r="B91" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C91" s="2">
         <v>9</v>
@@ -23342,7 +23347,7 @@
         <v>3.58565737051793</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F91" s="60" t="s">
         <v>127</v>
@@ -23387,7 +23392,7 @@
     <row r="93" spans="1:11">
       <c r="A93" s="139"/>
       <c r="B93" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C93" s="2">
         <v>36</v>
@@ -23413,7 +23418,7 @@
     <row r="94" spans="1:11">
       <c r="A94" s="139"/>
       <c r="B94" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C94" s="2">
         <v>33</v>
@@ -23439,7 +23444,7 @@
     <row r="95" spans="1:11">
       <c r="A95" s="139"/>
       <c r="B95" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C95" s="2">
         <v>30</v>
@@ -23465,7 +23470,7 @@
     <row r="96" spans="1:11">
       <c r="A96" s="139"/>
       <c r="B96" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C96" s="2">
         <v>23</v>
@@ -23491,7 +23496,7 @@
     <row r="97" spans="1:11">
       <c r="A97" s="139"/>
       <c r="B97" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C97" s="2">
         <v>21</v>
@@ -23506,7 +23511,7 @@
         <v>38.095238095238102</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H97" s="60" t="s">
         <v>127</v>
@@ -23517,7 +23522,7 @@
     <row r="98" spans="1:11">
       <c r="A98" s="139"/>
       <c r="B98" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C98" s="2">
         <v>15</v>
@@ -23543,7 +23548,7 @@
     <row r="99" spans="1:11">
       <c r="A99" s="139"/>
       <c r="B99" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C99" s="2">
         <v>14</v>
@@ -23558,7 +23563,7 @@
         <v>64.285714285714306</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H99" s="60" t="s">
         <v>127</v>
@@ -23569,7 +23574,7 @@
     <row r="100" spans="1:11">
       <c r="A100" s="139"/>
       <c r="B100" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C100" s="2">
         <v>10</v>
@@ -23578,13 +23583,13 @@
         <v>5</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F100" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H100" s="60" t="s">
         <v>127</v>
@@ -23595,7 +23600,7 @@
     <row r="101" spans="1:11">
       <c r="A101" s="139"/>
       <c r="B101" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C101" s="2">
         <v>7</v>
@@ -23604,7 +23609,7 @@
         <v>3.5</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F101" s="60" t="s">
         <v>127</v>
@@ -23621,7 +23626,7 @@
     <row r="102" spans="1:11">
       <c r="A102" s="139"/>
       <c r="B102" s="20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C102" s="2">
         <v>5</v>
@@ -23630,13 +23635,13 @@
         <v>2.5</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F102" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H102" s="60" t="s">
         <v>127</v>
@@ -23647,22 +23652,22 @@
     <row r="103" spans="1:11">
       <c r="A103" s="139"/>
       <c r="B103" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D103" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F103" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H103" s="60" t="s">
         <v>127</v>
@@ -23673,10 +23678,10 @@
     <row r="104" spans="1:11" ht="14.25" thickBot="1">
       <c r="A104" s="139"/>
       <c r="B104" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D104" s="60" t="s">
         <v>127</v>
@@ -23688,7 +23693,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H104" s="60" t="s">
         <v>127</v>
@@ -23727,7 +23732,7 @@
     <row r="106" spans="1:11" ht="14.25" thickBot="1">
       <c r="A106" s="139"/>
       <c r="B106" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C106" s="2">
         <v>33</v>
@@ -23781,7 +23786,7 @@
     <row r="108" spans="1:11">
       <c r="A108" s="139"/>
       <c r="B108" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C108" s="2">
         <v>35</v>
@@ -23796,7 +23801,7 @@
         <v>68.571428571428598</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H108" s="60" t="s">
         <v>127</v>
@@ -23807,7 +23812,7 @@
     <row r="109" spans="1:11">
       <c r="A109" s="139"/>
       <c r="B109" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C109" s="2">
         <v>22</v>
@@ -23822,7 +23827,7 @@
         <v>72.727272727272805</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H109" s="60" t="s">
         <v>127</v>
@@ -23833,7 +23838,7 @@
     <row r="110" spans="1:11">
       <c r="A110" s="139"/>
       <c r="B110" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C110" s="2">
         <v>17</v>
@@ -23842,7 +23847,7 @@
         <v>17.3469387755102</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F110" s="60" t="s">
         <v>127</v>
@@ -23859,7 +23864,7 @@
     <row r="111" spans="1:11">
       <c r="A111" s="139"/>
       <c r="B111" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C111" s="2">
         <v>14</v>
@@ -23868,13 +23873,13 @@
         <v>14.285714285714301</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F111" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H111" s="60" t="s">
         <v>127</v>
@@ -23885,7 +23890,7 @@
     <row r="112" spans="1:11" ht="14.25" thickBot="1">
       <c r="A112" s="139"/>
       <c r="B112" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C112" s="2">
         <v>10</v>
@@ -23900,7 +23905,7 @@
         <v>90</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H112" s="60" t="s">
         <v>127</v>
@@ -23939,7 +23944,7 @@
     <row r="114" spans="1:11">
       <c r="A114" s="139"/>
       <c r="B114" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C114" s="2">
         <v>363</v>
@@ -23965,7 +23970,7 @@
     <row r="115" spans="1:11">
       <c r="A115" s="139"/>
       <c r="B115" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C115" s="2">
         <v>209</v>
@@ -23991,7 +23996,7 @@
     <row r="116" spans="1:11">
       <c r="A116" s="139"/>
       <c r="B116" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C116" s="2">
         <v>89</v>
@@ -24017,7 +24022,7 @@
     <row r="117" spans="1:11">
       <c r="A117" s="139"/>
       <c r="B117" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C117" s="2">
         <v>72</v>
@@ -24043,7 +24048,7 @@
     <row r="118" spans="1:11">
       <c r="A118" s="139"/>
       <c r="B118" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C118" s="2">
         <v>51</v>
@@ -24069,7 +24074,7 @@
     <row r="119" spans="1:11">
       <c r="A119" s="139"/>
       <c r="B119" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C119" s="2">
         <v>46</v>
@@ -24095,7 +24100,7 @@
     <row r="120" spans="1:11">
       <c r="A120" s="139"/>
       <c r="B120" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C120" s="2">
         <v>44</v>
@@ -24121,7 +24126,7 @@
     <row r="121" spans="1:11">
       <c r="A121" s="139"/>
       <c r="B121" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C121" s="2">
         <v>37</v>
@@ -24147,7 +24152,7 @@
     <row r="122" spans="1:11">
       <c r="A122" s="139"/>
       <c r="B122" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C122" s="2">
         <v>36</v>
@@ -24173,7 +24178,7 @@
     <row r="123" spans="1:11">
       <c r="A123" s="139"/>
       <c r="B123" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C123" s="2">
         <v>29</v>
@@ -24199,7 +24204,7 @@
     <row r="124" spans="1:11">
       <c r="A124" s="139"/>
       <c r="B124" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C124" s="2">
         <v>26</v>
@@ -24225,7 +24230,7 @@
     <row r="125" spans="1:11">
       <c r="A125" s="139"/>
       <c r="B125" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C125" s="2">
         <v>24</v>
@@ -24240,7 +24245,7 @@
         <v>58.3333333333333</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H125" s="60" t="s">
         <v>127</v>
@@ -24251,7 +24256,7 @@
     <row r="126" spans="1:11">
       <c r="A126" s="139"/>
       <c r="B126" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C126" s="2">
         <v>21</v>
@@ -24266,7 +24271,7 @@
         <v>76.190476190476204</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H126" s="60" t="s">
         <v>127</v>
@@ -24277,7 +24282,7 @@
     <row r="127" spans="1:11">
       <c r="A127" s="139"/>
       <c r="B127" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C127" s="2">
         <v>20</v>
@@ -24292,7 +24297,7 @@
         <v>45</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H127" s="60" t="s">
         <v>127</v>
@@ -24303,7 +24308,7 @@
     <row r="128" spans="1:11">
       <c r="A128" s="139"/>
       <c r="B128" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C128" s="2">
         <v>19</v>
@@ -24329,7 +24334,7 @@
     <row r="129" spans="1:11">
       <c r="A129" s="139"/>
       <c r="B129" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C129" s="2">
         <v>17</v>
@@ -24355,7 +24360,7 @@
     <row r="130" spans="1:11">
       <c r="A130" s="139"/>
       <c r="B130" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C130" s="2">
         <v>16</v>
@@ -24381,7 +24386,7 @@
     <row r="131" spans="1:11">
       <c r="A131" s="139"/>
       <c r="B131" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C131" s="2">
         <v>16</v>
@@ -24407,7 +24412,7 @@
     <row r="132" spans="1:11">
       <c r="A132" s="139"/>
       <c r="B132" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C132" s="2">
         <v>14</v>
@@ -24422,7 +24427,7 @@
         <v>35.714285714285701</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H132" s="60" t="s">
         <v>127</v>
@@ -24433,7 +24438,7 @@
     <row r="133" spans="1:11">
       <c r="A133" s="139"/>
       <c r="B133" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C133" s="2">
         <v>13</v>
@@ -24459,7 +24464,7 @@
     <row r="134" spans="1:11">
       <c r="A134" s="139"/>
       <c r="B134" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C134" s="2">
         <v>12</v>
@@ -24474,7 +24479,7 @@
         <v>33.3333333333333</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H134" s="60" t="s">
         <v>127</v>
@@ -24485,7 +24490,7 @@
     <row r="135" spans="1:11">
       <c r="A135" s="139"/>
       <c r="B135" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C135" s="2">
         <v>11</v>
@@ -24494,7 +24499,7 @@
         <v>0.86682427107959004</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F135" s="60" t="s">
         <v>127</v>
@@ -24511,7 +24516,7 @@
     <row r="136" spans="1:11">
       <c r="A136" s="139"/>
       <c r="B136" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C136" s="2">
         <v>11</v>
@@ -24520,13 +24525,13 @@
         <v>0.86682427107959004</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F136" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H136" s="60" t="s">
         <v>127</v>
@@ -24537,7 +24542,7 @@
     <row r="137" spans="1:11">
       <c r="A137" s="139"/>
       <c r="B137" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C137" s="2">
         <v>10</v>
@@ -24546,7 +24551,7 @@
         <v>0.78802206461780999</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F137" s="60" t="s">
         <v>127</v>
@@ -24563,7 +24568,7 @@
     <row r="138" spans="1:11">
       <c r="A138" s="139"/>
       <c r="B138" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C138" s="2">
         <v>10</v>
@@ -24572,13 +24577,13 @@
         <v>0.78802206461780999</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F138" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H138" s="60" t="s">
         <v>127</v>
@@ -24589,7 +24594,7 @@
     <row r="139" spans="1:11">
       <c r="A139" s="139"/>
       <c r="B139" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C139" s="2">
         <v>10</v>
@@ -24598,7 +24603,7 @@
         <v>0.78802206461780999</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F139" s="60" t="s">
         <v>127</v>
@@ -24615,7 +24620,7 @@
     <row r="140" spans="1:11">
       <c r="A140" s="139"/>
       <c r="B140" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C140" s="2">
         <v>9</v>
@@ -24624,7 +24629,7 @@
         <v>0.70921985815602995</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F140" s="60" t="s">
         <v>127</v>
@@ -24641,7 +24646,7 @@
     <row r="141" spans="1:11">
       <c r="A141" s="139"/>
       <c r="B141" s="20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C141" s="2">
         <v>9</v>
@@ -24656,7 +24661,7 @@
         <v>44.4444444444444</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H141" s="60" t="s">
         <v>127</v>
@@ -24667,7 +24672,7 @@
     <row r="142" spans="1:11">
       <c r="A142" s="139"/>
       <c r="B142" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C142" s="2">
         <v>7</v>
@@ -24676,13 +24681,13 @@
         <v>0.55161544523246997</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F142" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H142" s="60" t="s">
         <v>127</v>
@@ -24693,7 +24698,7 @@
     <row r="143" spans="1:11">
       <c r="A143" s="139"/>
       <c r="B143" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C143" s="2">
         <v>6</v>
@@ -24702,13 +24707,13 @@
         <v>0.47281323877068998</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F143" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H143" s="60" t="s">
         <v>127</v>
@@ -24719,7 +24724,7 @@
     <row r="144" spans="1:11">
       <c r="A144" s="139"/>
       <c r="B144" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C144" s="2">
         <v>6</v>
@@ -24728,13 +24733,13 @@
         <v>0.47281323877068998</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F144" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H144" s="60" t="s">
         <v>127</v>
@@ -24745,22 +24750,22 @@
     <row r="145" spans="1:11">
       <c r="A145" s="139"/>
       <c r="B145" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D145" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F145" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H145" s="60" t="s">
         <v>127</v>
@@ -24771,22 +24776,22 @@
     <row r="146" spans="1:11" ht="14.25" thickBot="1">
       <c r="A146" s="139"/>
       <c r="B146" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D146" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F146" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H146" s="60" t="s">
         <v>127</v>
@@ -24825,7 +24830,7 @@
     <row r="148" spans="1:11">
       <c r="A148" s="139"/>
       <c r="B148" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C148" s="2">
         <v>76</v>
@@ -24851,7 +24856,7 @@
     <row r="149" spans="1:11">
       <c r="A149" s="139"/>
       <c r="B149" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C149" s="2">
         <v>52</v>
@@ -24877,7 +24882,7 @@
     <row r="150" spans="1:11">
       <c r="A150" s="139"/>
       <c r="B150" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C150" s="2">
         <v>52</v>
@@ -24903,7 +24908,7 @@
     <row r="151" spans="1:11">
       <c r="A151" s="139"/>
       <c r="B151" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C151" s="2">
         <v>31</v>
@@ -24912,7 +24917,7 @@
         <v>13.2478632478633</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F151" s="60" t="s">
         <v>127</v>
@@ -24930,10 +24935,10 @@
     <row r="152" spans="1:11">
       <c r="A152" s="139"/>
       <c r="B152" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D152" s="60" t="s">
         <v>127</v>
@@ -24945,7 +24950,7 @@
         <v>0</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H152" s="60" t="s">
         <v>127</v>
@@ -24956,22 +24961,22 @@
     <row r="153" spans="1:11" ht="14.25" thickBot="1">
       <c r="A153" s="139"/>
       <c r="B153" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D153" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F153" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H153" s="60" t="s">
         <v>127</v>
@@ -25010,7 +25015,7 @@
     <row r="155" spans="1:11">
       <c r="A155" s="139"/>
       <c r="B155" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C155" s="2">
         <v>722</v>
@@ -25036,7 +25041,7 @@
     <row r="156" spans="1:11">
       <c r="A156" s="139"/>
       <c r="B156" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C156" s="2">
         <v>158</v>
@@ -25062,7 +25067,7 @@
     <row r="157" spans="1:11">
       <c r="A157" s="139"/>
       <c r="B157" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C157" s="2">
         <v>80</v>
@@ -25088,7 +25093,7 @@
     <row r="158" spans="1:11">
       <c r="A158" s="139"/>
       <c r="B158" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C158" s="2">
         <v>73</v>
@@ -25114,7 +25119,7 @@
     <row r="159" spans="1:11">
       <c r="A159" s="139"/>
       <c r="B159" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C159" s="2">
         <v>69</v>
@@ -25140,7 +25145,7 @@
     <row r="160" spans="1:11">
       <c r="A160" s="139"/>
       <c r="B160" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C160" s="2">
         <v>64</v>
@@ -25166,7 +25171,7 @@
     <row r="161" spans="1:11">
       <c r="A161" s="139"/>
       <c r="B161" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C161" s="2">
         <v>60</v>
@@ -25192,7 +25197,7 @@
     <row r="162" spans="1:11">
       <c r="A162" s="139"/>
       <c r="B162" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C162" s="2">
         <v>59</v>
@@ -25218,7 +25223,7 @@
     <row r="163" spans="1:11">
       <c r="A163" s="139"/>
       <c r="B163" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C163" s="2">
         <v>40</v>
@@ -25244,7 +25249,7 @@
     <row r="164" spans="1:11">
       <c r="A164" s="139"/>
       <c r="B164" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C164" s="2">
         <v>37</v>
@@ -25270,7 +25275,7 @@
     <row r="165" spans="1:11">
       <c r="A165" s="139"/>
       <c r="B165" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C165" s="2">
         <v>37</v>
@@ -25296,7 +25301,7 @@
     <row r="166" spans="1:11">
       <c r="A166" s="139"/>
       <c r="B166" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C166" s="2">
         <v>36</v>
@@ -25322,7 +25327,7 @@
     <row r="167" spans="1:11">
       <c r="A167" s="139"/>
       <c r="B167" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C167" s="2">
         <v>36</v>
@@ -25348,7 +25353,7 @@
     <row r="168" spans="1:11">
       <c r="A168" s="139"/>
       <c r="B168" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C168" s="2">
         <v>36</v>
@@ -25374,7 +25379,7 @@
     <row r="169" spans="1:11">
       <c r="A169" s="139"/>
       <c r="B169" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C169" s="2">
         <v>23</v>
@@ -25400,7 +25405,7 @@
     <row r="170" spans="1:11">
       <c r="A170" s="139"/>
       <c r="B170" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C170" s="2">
         <v>22</v>
@@ -25426,7 +25431,7 @@
     <row r="171" spans="1:11">
       <c r="A171" s="139"/>
       <c r="B171" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C171" s="2">
         <v>22</v>
@@ -25452,7 +25457,7 @@
     <row r="172" spans="1:11">
       <c r="A172" s="139"/>
       <c r="B172" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C172" s="2">
         <v>21</v>
@@ -25478,7 +25483,7 @@
     <row r="173" spans="1:11">
       <c r="A173" s="139"/>
       <c r="B173" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C173" s="2">
         <v>17</v>
@@ -25487,7 +25492,7 @@
         <v>0.90763481046450001</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F173" s="60" t="s">
         <v>127</v>
@@ -25504,7 +25509,7 @@
     <row r="174" spans="1:11">
       <c r="A174" s="139"/>
       <c r="B174" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C174" s="2">
         <v>16</v>
@@ -25513,7 +25518,7 @@
         <v>0.85424452749599999</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F174" s="60" t="s">
         <v>127</v>
@@ -25530,7 +25535,7 @@
     <row r="175" spans="1:11">
       <c r="A175" s="139"/>
       <c r="B175" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C175" s="2">
         <v>15</v>
@@ -25545,7 +25550,7 @@
         <v>80</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H175" s="60" t="s">
         <v>127</v>
@@ -25556,7 +25561,7 @@
     <row r="176" spans="1:11">
       <c r="A176" s="139"/>
       <c r="B176" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C176" s="2">
         <v>14</v>
@@ -25582,7 +25587,7 @@
     <row r="177" spans="1:11">
       <c r="A177" s="139"/>
       <c r="B177" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C177" s="2">
         <v>14</v>
@@ -25608,7 +25613,7 @@
     <row r="178" spans="1:11">
       <c r="A178" s="139"/>
       <c r="B178" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C178" s="2">
         <v>14</v>
@@ -25634,7 +25639,7 @@
     <row r="179" spans="1:11">
       <c r="A179" s="139"/>
       <c r="B179" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C179" s="2">
         <v>13</v>
@@ -25643,7 +25648,7 @@
         <v>0.69407367859049995</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F179" s="60" t="s">
         <v>127</v>
@@ -25660,7 +25665,7 @@
     <row r="180" spans="1:11">
       <c r="A180" s="139"/>
       <c r="B180" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C180" s="2">
         <v>12</v>
@@ -25675,7 +25680,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H180" s="60" t="s">
         <v>127</v>
@@ -25686,7 +25691,7 @@
     <row r="181" spans="1:11">
       <c r="A181" s="139"/>
       <c r="B181" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C181" s="2">
         <v>12</v>
@@ -25701,7 +25706,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H181" s="60" t="s">
         <v>127</v>
@@ -25712,7 +25717,7 @@
     <row r="182" spans="1:11">
       <c r="A182" s="139"/>
       <c r="B182" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C182" s="2">
         <v>12</v>
@@ -25721,7 +25726,7 @@
         <v>0.64068339562200005</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F182" s="60" t="s">
         <v>127</v>
@@ -25738,7 +25743,7 @@
     <row r="183" spans="1:11">
       <c r="A183" s="139"/>
       <c r="B183" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C183" s="2">
         <v>11</v>
@@ -25753,7 +25758,7 @@
         <v>0</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H183" s="60" t="s">
         <v>127</v>
@@ -25764,7 +25769,7 @@
     <row r="184" spans="1:11">
       <c r="A184" s="139"/>
       <c r="B184" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C184" s="2">
         <v>10</v>
@@ -25773,13 +25778,13 @@
         <v>0.53390282968500002</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F184" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H184" s="60" t="s">
         <v>127</v>
@@ -25790,7 +25795,7 @@
     <row r="185" spans="1:11">
       <c r="A185" s="139"/>
       <c r="B185" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C185" s="2">
         <v>10</v>
@@ -25799,13 +25804,13 @@
         <v>0.53390282968500002</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F185" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H185" s="60" t="s">
         <v>127</v>
@@ -25816,7 +25821,7 @@
     <row r="186" spans="1:11">
       <c r="A186" s="139"/>
       <c r="B186" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C186" s="2">
         <v>10</v>
@@ -25825,7 +25830,7 @@
         <v>0.53390282968500002</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F186" s="60" t="s">
         <v>127</v>
@@ -25842,7 +25847,7 @@
     <row r="187" spans="1:11">
       <c r="A187" s="139"/>
       <c r="B187" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C187" s="2">
         <v>9</v>
@@ -25851,13 +25856,13 @@
         <v>0.48051254671650001</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F187" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H187" s="60" t="s">
         <v>127</v>
@@ -25868,7 +25873,7 @@
     <row r="188" spans="1:11">
       <c r="A188" s="139"/>
       <c r="B188" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C188" s="2">
         <v>9</v>
@@ -25877,7 +25882,7 @@
         <v>0.48051254671650001</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F188" s="60" t="s">
         <v>127</v>
@@ -25894,7 +25899,7 @@
     <row r="189" spans="1:11">
       <c r="A189" s="139"/>
       <c r="B189" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C189" s="2">
         <v>9</v>
@@ -25909,7 +25914,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H189" s="60" t="s">
         <v>127</v>
@@ -25920,7 +25925,7 @@
     <row r="190" spans="1:11">
       <c r="A190" s="139"/>
       <c r="B190" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C190" s="2">
         <v>8</v>
@@ -25929,13 +25934,13 @@
         <v>0.427122263748</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F190" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H190" s="60" t="s">
         <v>127</v>
@@ -25946,7 +25951,7 @@
     <row r="191" spans="1:11">
       <c r="A191" s="139"/>
       <c r="B191" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C191" s="2">
         <v>8</v>
@@ -25961,7 +25966,7 @@
         <v>50</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H191" s="60" t="s">
         <v>127</v>
@@ -25972,7 +25977,7 @@
     <row r="192" spans="1:11">
       <c r="A192" s="139"/>
       <c r="B192" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C192" s="2">
         <v>7</v>
@@ -25998,7 +26003,7 @@
     <row r="193" spans="1:11">
       <c r="A193" s="139"/>
       <c r="B193" s="20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C193" s="2">
         <v>7</v>
@@ -26007,13 +26012,13 @@
         <v>0.37373198077949998</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F193" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H193" s="60" t="s">
         <v>127</v>
@@ -26024,7 +26029,7 @@
     <row r="194" spans="1:11">
       <c r="A194" s="139"/>
       <c r="B194" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C194" s="2">
         <v>7</v>
@@ -26033,13 +26038,13 @@
         <v>0.37373198077949998</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F194" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H194" s="60" t="s">
         <v>127</v>
@@ -26050,7 +26055,7 @@
     <row r="195" spans="1:11">
       <c r="A195" s="139"/>
       <c r="B195" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C195" s="2">
         <v>6</v>
@@ -26059,13 +26064,13 @@
         <v>0.32034169781100003</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F195" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H195" s="60" t="s">
         <v>127</v>
@@ -26076,7 +26081,7 @@
     <row r="196" spans="1:11">
       <c r="A196" s="139"/>
       <c r="B196" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C196" s="2">
         <v>5</v>
@@ -26091,7 +26096,7 @@
         <v>0</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H196" s="60" t="s">
         <v>127</v>
@@ -26102,7 +26107,7 @@
     <row r="197" spans="1:11">
       <c r="A197" s="139"/>
       <c r="B197" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C197" s="2">
         <v>5</v>
@@ -26111,13 +26116,13 @@
         <v>0.26695141484250001</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F197" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H197" s="60" t="s">
         <v>127</v>
@@ -26128,7 +26133,7 @@
     <row r="198" spans="1:11">
       <c r="A198" s="139"/>
       <c r="B198" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C198" s="2">
         <v>4</v>
@@ -26154,7 +26159,7 @@
     <row r="199" spans="1:11">
       <c r="A199" s="139"/>
       <c r="B199" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C199" s="2">
         <v>4</v>
@@ -26163,13 +26168,13 @@
         <v>0.213561131874</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F199" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H199" s="60" t="s">
         <v>127</v>
@@ -26180,10 +26185,10 @@
     <row r="200" spans="1:11">
       <c r="A200" s="139"/>
       <c r="B200" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D200" s="60" t="s">
         <v>127</v>
@@ -26195,7 +26200,7 @@
         <v>0</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H200" s="60" t="s">
         <v>127</v>
@@ -26206,10 +26211,10 @@
     <row r="201" spans="1:11">
       <c r="A201" s="139"/>
       <c r="B201" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D201" s="60" t="s">
         <v>127</v>
@@ -26232,22 +26237,22 @@
     <row r="202" spans="1:11">
       <c r="A202" s="139"/>
       <c r="B202" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D202" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F202" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H202" s="60" t="s">
         <v>127</v>
@@ -26258,10 +26263,10 @@
     <row r="203" spans="1:11" ht="14.25" thickBot="1">
       <c r="A203" s="139"/>
       <c r="B203" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D203" s="60" t="s">
         <v>127</v>
@@ -26273,7 +26278,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H203" s="60" t="s">
         <v>127</v>
@@ -26312,7 +26317,7 @@
     <row r="205" spans="1:11">
       <c r="A205" s="139"/>
       <c r="B205" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C205" s="2">
         <v>32</v>
@@ -26338,7 +26343,7 @@
     <row r="206" spans="1:11">
       <c r="A206" s="139"/>
       <c r="B206" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C206" s="2">
         <v>17</v>
@@ -26364,7 +26369,7 @@
     <row r="207" spans="1:11">
       <c r="A207" s="139"/>
       <c r="B207" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C207" s="2">
         <v>13</v>
@@ -26373,7 +26378,7 @@
         <v>9.1549295774647899</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F207" s="60" t="s">
         <v>127</v>
@@ -26390,7 +26395,7 @@
     <row r="208" spans="1:11">
       <c r="A208" s="139"/>
       <c r="B208" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C208" s="2">
         <v>13</v>
@@ -26416,7 +26421,7 @@
     <row r="209" spans="1:11">
       <c r="A209" s="139"/>
       <c r="B209" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C209" s="2">
         <v>13</v>
@@ -26425,7 +26430,7 @@
         <v>9.1549295774647899</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F209" s="60" t="s">
         <v>127</v>
@@ -26442,7 +26447,7 @@
     <row r="210" spans="1:11">
       <c r="A210" s="139"/>
       <c r="B210" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C210" s="2">
         <v>9</v>
@@ -26451,13 +26456,13 @@
         <v>6.3380281690140903</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F210" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H210" s="60" t="s">
         <v>127</v>
@@ -26468,7 +26473,7 @@
     <row r="211" spans="1:11">
       <c r="A211" s="139"/>
       <c r="B211" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C211" s="2">
         <v>8</v>
@@ -26477,7 +26482,7 @@
         <v>5.6338028169014098</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F211" s="60" t="s">
         <v>127</v>
@@ -26494,7 +26499,7 @@
     <row r="212" spans="1:11">
       <c r="A212" s="139"/>
       <c r="B212" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C212" s="2">
         <v>7</v>
@@ -26503,13 +26508,13 @@
         <v>4.9295774647887303</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F212" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H212" s="60" t="s">
         <v>127</v>
@@ -26520,7 +26525,7 @@
     <row r="213" spans="1:11">
       <c r="A213" s="139"/>
       <c r="B213" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C213" s="2">
         <v>7</v>
@@ -26535,7 +26540,7 @@
         <v>57.142857142857203</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H213" s="60" t="s">
         <v>127</v>
@@ -26546,7 +26551,7 @@
     <row r="214" spans="1:11">
       <c r="A214" s="139"/>
       <c r="B214" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C214" s="2">
         <v>5</v>
@@ -26572,7 +26577,7 @@
     <row r="215" spans="1:11">
       <c r="A215" s="139"/>
       <c r="B215" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C215" s="2">
         <v>5</v>
@@ -26581,13 +26586,13 @@
         <v>3.52112676056338</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F215" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H215" s="60" t="s">
         <v>127</v>
@@ -26598,7 +26603,7 @@
     <row r="216" spans="1:11">
       <c r="A216" s="139"/>
       <c r="B216" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C216" s="2">
         <v>4</v>
@@ -26607,13 +26612,13 @@
         <v>2.8169014084507</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F216" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H216" s="60" t="s">
         <v>127</v>
@@ -26624,10 +26629,10 @@
     <row r="217" spans="1:11">
       <c r="A217" s="139"/>
       <c r="B217" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D217" s="60" t="s">
         <v>127</v>
@@ -26650,10 +26655,10 @@
     <row r="218" spans="1:11">
       <c r="A218" s="139"/>
       <c r="B218" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D218" s="60" t="s">
         <v>127</v>
@@ -26665,7 +26670,7 @@
         <v>0</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H218" s="60" t="s">
         <v>127</v>
@@ -26676,10 +26681,10 @@
     <row r="219" spans="1:11">
       <c r="A219" s="139"/>
       <c r="B219" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D219" s="60" t="s">
         <v>127</v>
@@ -26691,7 +26696,7 @@
         <v>0</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H219" s="60" t="s">
         <v>127</v>
@@ -26702,7 +26707,7 @@
     <row r="220" spans="1:11" ht="14.25" thickBot="1">
       <c r="A220" s="139"/>
       <c r="B220" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C220" s="2">
         <v>0</v>
@@ -26727,7 +26732,7 @@
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="4" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="B221" s="265" t="s">
         <v>261</v>
@@ -26756,7 +26761,7 @@
     <row r="222" spans="1:11">
       <c r="A222" s="139"/>
       <c r="B222" s="20" t="s">
-        <v>288</v>
+        <v>968</v>
       </c>
       <c r="C222" s="2">
         <v>137</v>
@@ -26782,7 +26787,7 @@
     <row r="223" spans="1:11">
       <c r="A223" s="139"/>
       <c r="B223" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C223" s="2">
         <v>20</v>
@@ -26808,7 +26813,7 @@
     <row r="224" spans="1:11">
       <c r="A224" s="139"/>
       <c r="B224" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C224" s="2">
         <v>17</v>
@@ -26823,7 +26828,7 @@
         <v>64.705882352941202</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H224" s="60" t="s">
         <v>127</v>
@@ -26834,7 +26839,7 @@
     <row r="225" spans="1:11">
       <c r="A225" s="139"/>
       <c r="B225" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C225" s="2">
         <v>16</v>
@@ -26849,7 +26854,7 @@
         <v>25</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H225" s="60" t="s">
         <v>127</v>
@@ -26860,7 +26865,7 @@
     <row r="226" spans="1:11">
       <c r="A226" s="139"/>
       <c r="B226" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C226" s="2">
         <v>15</v>
@@ -26869,7 +26874,7 @@
         <v>5.7471264367816097</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F226" s="60" t="s">
         <v>127</v>
@@ -26886,7 +26891,7 @@
     <row r="227" spans="1:11">
       <c r="A227" s="139"/>
       <c r="B227" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C227" s="2">
         <v>13</v>
@@ -26901,7 +26906,7 @@
         <v>69.230769230769198</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H227" s="60" t="s">
         <v>127</v>
@@ -26912,7 +26917,7 @@
     <row r="228" spans="1:11">
       <c r="A228" s="139"/>
       <c r="B228" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C228" s="2">
         <v>12</v>
@@ -26921,7 +26926,7 @@
         <v>4.5977011494252897</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F228" s="60" t="s">
         <v>127</v>
@@ -26938,7 +26943,7 @@
     <row r="229" spans="1:11">
       <c r="A229" s="139"/>
       <c r="B229" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C229" s="2">
         <v>12</v>
@@ -26947,7 +26952,7 @@
         <v>4.5977011494252897</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F229" s="60" t="s">
         <v>127</v>
@@ -26964,7 +26969,7 @@
     <row r="230" spans="1:11">
       <c r="A230" s="139"/>
       <c r="B230" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C230" s="2">
         <v>11</v>
@@ -26990,22 +26995,22 @@
     <row r="231" spans="1:11">
       <c r="A231" s="139"/>
       <c r="B231" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D231" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F231" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H231" s="60" t="s">
         <v>127</v>
@@ -27016,10 +27021,10 @@
     <row r="232" spans="1:11">
       <c r="A232" s="139"/>
       <c r="B232" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D232" s="60" t="s">
         <v>127</v>
@@ -27031,7 +27036,7 @@
         <v>0</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H232" s="60" t="s">
         <v>127</v>
@@ -27042,7 +27047,7 @@
     <row r="233" spans="1:11" ht="14.25" thickBot="1">
       <c r="A233" s="139"/>
       <c r="B233" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C233" s="2">
         <v>0</v>
@@ -27096,7 +27101,7 @@
     <row r="235" spans="1:11">
       <c r="A235" s="139"/>
       <c r="B235" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C235" s="2">
         <v>196</v>
@@ -27122,7 +27127,7 @@
     <row r="236" spans="1:11">
       <c r="A236" s="139"/>
       <c r="B236" s="20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C236" s="2">
         <v>30</v>
@@ -27137,7 +27142,7 @@
         <v>73.3333333333333</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H236" s="60" t="s">
         <v>127</v>
@@ -27148,7 +27153,7 @@
     <row r="237" spans="1:11">
       <c r="A237" s="139"/>
       <c r="B237" s="20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C237" s="2">
         <v>25</v>
@@ -27174,7 +27179,7 @@
     <row r="238" spans="1:11">
       <c r="A238" s="139"/>
       <c r="B238" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C238" s="2">
         <v>14</v>
@@ -27189,7 +27194,7 @@
         <v>57.142857142857203</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H238" s="60" t="s">
         <v>127</v>
@@ -27200,7 +27205,7 @@
     <row r="239" spans="1:11">
       <c r="A239" s="139"/>
       <c r="B239" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C239" s="2">
         <v>11</v>
@@ -27215,7 +27220,7 @@
         <v>81.818181818181799</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H239" s="60" t="s">
         <v>127</v>
@@ -27226,7 +27231,7 @@
     <row r="240" spans="1:11">
       <c r="A240" s="139"/>
       <c r="B240" s="20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C240" s="2">
         <v>9</v>
@@ -27252,7 +27257,7 @@
     <row r="241" spans="1:11">
       <c r="A241" s="139"/>
       <c r="B241" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C241" s="2">
         <v>7</v>
@@ -27261,7 +27266,7 @@
         <v>2.32558139534884</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F241" s="60" t="s">
         <v>127</v>
@@ -27278,7 +27283,7 @@
     <row r="242" spans="1:11">
       <c r="A242" s="139"/>
       <c r="B242" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C242" s="2">
         <v>4</v>
@@ -27293,7 +27298,7 @@
         <v>0</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H242" s="60" t="s">
         <v>127</v>
@@ -27304,16 +27309,16 @@
     <row r="243" spans="1:11">
       <c r="A243" s="139"/>
       <c r="B243" s="20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D243" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F243" s="60" t="s">
         <v>127</v>
@@ -27330,10 +27335,10 @@
     <row r="244" spans="1:11" ht="14.25" thickBot="1">
       <c r="A244" s="139"/>
       <c r="B244" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D244" s="60" t="s">
         <v>127</v>
@@ -27345,7 +27350,7 @@
         <v>0</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H244" s="60" t="s">
         <v>127</v>
@@ -27384,7 +27389,7 @@
     <row r="246" spans="1:11">
       <c r="A246" s="139"/>
       <c r="B246" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C246" s="2">
         <v>103</v>
@@ -27410,7 +27415,7 @@
     <row r="247" spans="1:11">
       <c r="A247" s="139"/>
       <c r="B247" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C247" s="2">
         <v>54</v>
@@ -27436,7 +27441,7 @@
     <row r="248" spans="1:11">
       <c r="A248" s="139"/>
       <c r="B248" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C248" s="2">
         <v>36</v>
@@ -27462,7 +27467,7 @@
     <row r="249" spans="1:11">
       <c r="A249" s="139"/>
       <c r="B249" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C249" s="2">
         <v>22</v>
@@ -27488,7 +27493,7 @@
     <row r="250" spans="1:11">
       <c r="A250" s="139"/>
       <c r="B250" s="20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C250" s="2">
         <v>18</v>
@@ -27503,7 +27508,7 @@
         <v>72.2222222222222</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H250" s="60" t="s">
         <v>127</v>
@@ -27514,7 +27519,7 @@
     <row r="251" spans="1:11">
       <c r="A251" s="139"/>
       <c r="B251" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C251" s="2">
         <v>15</v>
@@ -27540,7 +27545,7 @@
     <row r="252" spans="1:11">
       <c r="A252" s="139"/>
       <c r="B252" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C252" s="2">
         <v>13</v>
@@ -27555,7 +27560,7 @@
         <v>61.538461538461597</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H252" s="60" t="s">
         <v>127</v>
@@ -27566,7 +27571,7 @@
     <row r="253" spans="1:11">
       <c r="A253" s="139"/>
       <c r="B253" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C253" s="2">
         <v>12</v>
@@ -27575,7 +27580,7 @@
         <v>3.7267080745341601</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F253" s="60" t="s">
         <v>127</v>
@@ -27592,7 +27597,7 @@
     <row r="254" spans="1:11">
       <c r="A254" s="139"/>
       <c r="B254" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C254" s="2">
         <v>12</v>
@@ -27618,7 +27623,7 @@
     <row r="255" spans="1:11">
       <c r="A255" s="139"/>
       <c r="B255" s="20" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C255" s="2">
         <v>11</v>
@@ -27633,7 +27638,7 @@
         <v>54.545454545454596</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H255" s="60" t="s">
         <v>127</v>
@@ -27644,7 +27649,7 @@
     <row r="256" spans="1:11">
       <c r="A256" s="139"/>
       <c r="B256" s="20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C256" s="2">
         <v>10</v>
@@ -27670,7 +27675,7 @@
     <row r="257" spans="1:11">
       <c r="A257" s="139"/>
       <c r="B257" s="20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C257" s="2">
         <v>5</v>
@@ -27679,13 +27684,13 @@
         <v>1.5527950310559</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F257" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H257" s="60" t="s">
         <v>127</v>
@@ -27696,7 +27701,7 @@
     <row r="258" spans="1:11">
       <c r="A258" s="139"/>
       <c r="B258" s="20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C258" s="2">
         <v>5</v>
@@ -27711,7 +27716,7 @@
         <v>0</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H258" s="60" t="s">
         <v>127</v>
@@ -27722,10 +27727,10 @@
     <row r="259" spans="1:11">
       <c r="A259" s="139"/>
       <c r="B259" s="20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D259" s="60" t="s">
         <v>127</v>
@@ -27737,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H259" s="60" t="s">
         <v>127</v>
@@ -27748,10 +27753,10 @@
     <row r="260" spans="1:11" ht="14.25" thickBot="1">
       <c r="A260" s="139"/>
       <c r="B260" s="20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D260" s="60" t="s">
         <v>127</v>
@@ -27802,7 +27807,7 @@
     <row r="262" spans="1:11">
       <c r="A262" s="139"/>
       <c r="B262" s="20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C262" s="2">
         <v>133</v>
@@ -27828,7 +27833,7 @@
     <row r="263" spans="1:11">
       <c r="A263" s="139"/>
       <c r="B263" s="20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C263" s="2">
         <v>76</v>
@@ -27854,7 +27859,7 @@
     <row r="264" spans="1:11">
       <c r="A264" s="139"/>
       <c r="B264" s="20" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C264" s="2">
         <v>62</v>
@@ -27880,7 +27885,7 @@
     <row r="265" spans="1:11">
       <c r="A265" s="139"/>
       <c r="B265" s="20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C265" s="2">
         <v>38</v>
@@ -27906,7 +27911,7 @@
     <row r="266" spans="1:11">
       <c r="A266" s="139"/>
       <c r="B266" s="20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C266" s="2">
         <v>29</v>
@@ -27932,7 +27937,7 @@
     <row r="267" spans="1:11">
       <c r="A267" s="139"/>
       <c r="B267" s="20" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C267" s="2">
         <v>26</v>
@@ -27958,7 +27963,7 @@
     <row r="268" spans="1:11">
       <c r="A268" s="139"/>
       <c r="B268" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C268" s="2">
         <v>24</v>
@@ -27984,7 +27989,7 @@
     <row r="269" spans="1:11">
       <c r="A269" s="139"/>
       <c r="B269" s="20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C269" s="2">
         <v>22</v>
@@ -27999,7 +28004,7 @@
         <v>63.636363636363598</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H269" s="60" t="s">
         <v>127</v>
@@ -28010,7 +28015,7 @@
     <row r="270" spans="1:11">
       <c r="A270" s="139"/>
       <c r="B270" s="20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C270" s="2">
         <v>21</v>
@@ -28036,7 +28041,7 @@
     <row r="271" spans="1:11" ht="14.25" thickBot="1">
       <c r="A271" s="139"/>
       <c r="B271" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C271" s="2">
         <v>8</v>
@@ -28051,7 +28056,7 @@
         <v>50</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H271" s="60" t="s">
         <v>127</v>
@@ -28090,7 +28095,7 @@
     <row r="273" spans="1:11">
       <c r="A273" s="139"/>
       <c r="B273" s="20" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C273" s="2">
         <v>111</v>
@@ -28116,7 +28121,7 @@
     <row r="274" spans="1:11">
       <c r="A274" s="139"/>
       <c r="B274" s="20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C274" s="2">
         <v>49</v>
@@ -28142,7 +28147,7 @@
     <row r="275" spans="1:11">
       <c r="A275" s="139"/>
       <c r="B275" s="20" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C275" s="2">
         <v>42</v>
@@ -28168,7 +28173,7 @@
     <row r="276" spans="1:11">
       <c r="A276" s="139"/>
       <c r="B276" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C276" s="2">
         <v>38</v>
@@ -28194,7 +28199,7 @@
     <row r="277" spans="1:11">
       <c r="A277" s="139"/>
       <c r="B277" s="20" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C277" s="2">
         <v>30</v>
@@ -28220,7 +28225,7 @@
     <row r="278" spans="1:11">
       <c r="A278" s="139"/>
       <c r="B278" s="20" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C278" s="2">
         <v>23</v>
@@ -28229,7 +28234,7 @@
         <v>7.3482428115016001</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F278" s="60" t="s">
         <v>127</v>
@@ -28246,7 +28251,7 @@
     <row r="279" spans="1:11" ht="14.25" thickBot="1">
       <c r="A279" s="139"/>
       <c r="B279" s="20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C279" s="2">
         <v>20</v>
@@ -28255,7 +28260,7 @@
         <v>6.38977635782748</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F279" s="60" t="s">
         <v>127</v>
@@ -28300,7 +28305,7 @@
     <row r="281" spans="1:11">
       <c r="A281" s="139"/>
       <c r="B281" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C281" s="2">
         <v>55</v>
@@ -28326,7 +28331,7 @@
     <row r="282" spans="1:11">
       <c r="A282" s="139"/>
       <c r="B282" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C282" s="2">
         <v>18</v>
@@ -28341,7 +28346,7 @@
         <v>61.1111111111111</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H282" s="60" t="s">
         <v>127</v>
@@ -28352,7 +28357,7 @@
     <row r="283" spans="1:11">
       <c r="A283" s="139"/>
       <c r="B283" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C283" s="2">
         <v>11</v>
@@ -28367,7 +28372,7 @@
         <v>72.727272727272805</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H283" s="60" t="s">
         <v>127</v>
@@ -28378,7 +28383,7 @@
     <row r="284" spans="1:11">
       <c r="A284" s="139"/>
       <c r="B284" s="20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C284" s="2">
         <v>8</v>
@@ -28404,7 +28409,7 @@
     <row r="285" spans="1:11">
       <c r="A285" s="139"/>
       <c r="B285" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C285" s="2">
         <v>7</v>
@@ -28413,13 +28418,13 @@
         <v>6.6037735849056602</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F285" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H285" s="60" t="s">
         <v>127</v>
@@ -28430,10 +28435,10 @@
     <row r="286" spans="1:11">
       <c r="A286" s="139"/>
       <c r="B286" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D286" s="60" t="s">
         <v>127</v>
@@ -28445,7 +28450,7 @@
         <v>0</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H286" s="60" t="s">
         <v>127</v>
@@ -28456,10 +28461,10 @@
     <row r="287" spans="1:11">
       <c r="A287" s="139"/>
       <c r="B287" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D287" s="60" t="s">
         <v>127</v>
@@ -28471,7 +28476,7 @@
         <v>0</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H287" s="60" t="s">
         <v>127</v>
@@ -28482,16 +28487,16 @@
     <row r="288" spans="1:11" ht="14.25" thickBot="1">
       <c r="A288" s="139"/>
       <c r="B288" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D288" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F288" s="60" t="s">
         <v>127</v>
@@ -28536,7 +28541,7 @@
     <row r="290" spans="1:11">
       <c r="A290" s="139"/>
       <c r="B290" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C290" s="2">
         <v>46</v>
@@ -28562,7 +28567,7 @@
     <row r="291" spans="1:11">
       <c r="A291" s="139"/>
       <c r="B291" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C291" s="2">
         <v>34</v>
@@ -28577,7 +28582,7 @@
         <v>61.764705882352999</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H291" s="60" t="s">
         <v>127</v>
@@ -28588,7 +28593,7 @@
     <row r="292" spans="1:11">
       <c r="A292" s="139"/>
       <c r="B292" s="20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C292" s="2">
         <v>10</v>
@@ -28603,7 +28608,7 @@
         <v>80</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H292" s="60" t="s">
         <v>127</v>
@@ -28614,16 +28619,16 @@
     <row r="293" spans="1:11">
       <c r="A293" s="139"/>
       <c r="B293" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D293" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F293" s="60" t="s">
         <v>127</v>
@@ -28640,16 +28645,16 @@
     <row r="294" spans="1:11">
       <c r="A294" s="139"/>
       <c r="B294" s="20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D294" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F294" s="60" t="s">
         <v>127</v>
@@ -28666,10 +28671,10 @@
     <row r="295" spans="1:11">
       <c r="A295" s="139"/>
       <c r="B295" s="20" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D295" s="60" t="s">
         <v>127</v>
@@ -28681,7 +28686,7 @@
         <v>0</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H295" s="60" t="s">
         <v>127</v>
@@ -28692,10 +28697,10 @@
     <row r="296" spans="1:11">
       <c r="A296" s="139"/>
       <c r="B296" s="20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D296" s="60" t="s">
         <v>127</v>
@@ -28718,22 +28723,22 @@
     <row r="297" spans="1:11">
       <c r="A297" s="139"/>
       <c r="B297" s="20" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D297" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F297" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H297" s="60" t="s">
         <v>127</v>
@@ -28744,10 +28749,10 @@
     <row r="298" spans="1:11">
       <c r="A298" s="139"/>
       <c r="B298" s="20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D298" s="60" t="s">
         <v>127</v>
@@ -28759,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H298" s="60" t="s">
         <v>127</v>
@@ -28770,16 +28775,16 @@
     <row r="299" spans="1:11">
       <c r="A299" s="139"/>
       <c r="B299" s="20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D299" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F299" s="60" t="s">
         <v>127</v>
@@ -28796,7 +28801,7 @@
     <row r="300" spans="1:11">
       <c r="A300" s="139"/>
       <c r="B300" s="20" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C300" s="2">
         <v>0</v>
@@ -28822,7 +28827,7 @@
     <row r="301" spans="1:11">
       <c r="A301" s="139"/>
       <c r="B301" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C301" s="2">
         <v>0</v>
@@ -28848,7 +28853,7 @@
     <row r="302" spans="1:11">
       <c r="A302" s="139"/>
       <c r="B302" s="20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C302" s="2">
         <v>0</v>
@@ -28874,7 +28879,7 @@
     <row r="303" spans="1:11">
       <c r="A303" s="139"/>
       <c r="B303" s="20" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C303" s="2">
         <v>0</v>
@@ -28900,7 +28905,7 @@
     <row r="304" spans="1:11" ht="14.25" thickBot="1">
       <c r="A304" s="139"/>
       <c r="B304" s="20" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C304" s="2">
         <v>0</v>
@@ -28954,7 +28959,7 @@
     <row r="306" spans="1:11">
       <c r="A306" s="139"/>
       <c r="B306" s="20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C306" s="2">
         <v>45</v>
@@ -28980,7 +28985,7 @@
     <row r="307" spans="1:11">
       <c r="A307" s="139"/>
       <c r="B307" s="20" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C307" s="2">
         <v>35</v>
@@ -29006,7 +29011,7 @@
     <row r="308" spans="1:11">
       <c r="A308" s="139"/>
       <c r="B308" s="20" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C308" s="2">
         <v>32</v>
@@ -29032,7 +29037,7 @@
     <row r="309" spans="1:11">
       <c r="A309" s="139"/>
       <c r="B309" s="20" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C309" s="2">
         <v>25</v>
@@ -29058,7 +29063,7 @@
     <row r="310" spans="1:11">
       <c r="A310" s="139"/>
       <c r="B310" s="20" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C310" s="2">
         <v>15</v>
@@ -29084,7 +29089,7 @@
     <row r="311" spans="1:11">
       <c r="A311" s="139"/>
       <c r="B311" s="20" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C311" s="2">
         <v>13</v>
@@ -29099,7 +29104,7 @@
         <v>61.538461538461597</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H311" s="60" t="s">
         <v>127</v>
@@ -29110,7 +29115,7 @@
     <row r="312" spans="1:11">
       <c r="A312" s="139"/>
       <c r="B312" s="20" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C312" s="2">
         <v>10</v>
@@ -29136,7 +29141,7 @@
     <row r="313" spans="1:11">
       <c r="A313" s="139"/>
       <c r="B313" s="20" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C313" s="2">
         <v>5</v>
@@ -29145,13 +29150,13 @@
         <v>2.52525252525253</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F313" s="60" t="s">
         <v>127</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H313" s="60" t="s">
         <v>127</v>
@@ -29162,7 +29167,7 @@
     <row r="314" spans="1:11">
       <c r="A314" s="139"/>
       <c r="B314" s="20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C314" s="2">
         <v>5</v>
@@ -29177,7 +29182,7 @@
         <v>0</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H314" s="60" t="s">
         <v>127</v>
@@ -29188,7 +29193,7 @@
     <row r="315" spans="1:11">
       <c r="A315" s="139"/>
       <c r="B315" s="20" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C315" s="2">
         <v>4</v>
@@ -29214,10 +29219,10 @@
     <row r="316" spans="1:11">
       <c r="A316" s="139"/>
       <c r="B316" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D316" s="60" t="s">
         <v>127</v>
@@ -29240,10 +29245,10 @@
     <row r="317" spans="1:11">
       <c r="A317" s="139"/>
       <c r="B317" s="20" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D317" s="60" t="s">
         <v>127</v>
@@ -29255,7 +29260,7 @@
         <v>0</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H317" s="60" t="s">
         <v>127</v>
@@ -29266,10 +29271,10 @@
     <row r="318" spans="1:11">
       <c r="A318" s="139"/>
       <c r="B318" s="20" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D318" s="60" t="s">
         <v>127</v>
@@ -29281,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H318" s="60" t="s">
         <v>127</v>
@@ -29292,16 +29297,16 @@
     <row r="319" spans="1:11" ht="14.25" thickBot="1">
       <c r="A319" s="140"/>
       <c r="B319" s="20" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D319" s="60" t="s">
         <v>127</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F319" s="60" t="s">
         <v>127</v>
@@ -29338,7 +29343,7 @@
     </row>
     <row r="322" spans="1:8" s="88" customFormat="1">
       <c r="A322" s="127" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B322" s="146"/>
       <c r="D322" s="257"/>
@@ -29441,7 +29446,7 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="220" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B8" s="159">
         <v>11475</v>
@@ -29455,7 +29460,7 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="221" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B9" s="55">
         <v>8</v>
@@ -29470,7 +29475,7 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="222" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B10" s="48">
         <v>5</v>
@@ -29485,7 +29490,7 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="222" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B11" s="48">
         <v>7</v>
@@ -29500,7 +29505,7 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="222" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B12" s="48">
         <v>7</v>
@@ -29515,7 +29520,7 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="222" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B13" s="48">
         <v>9</v>
@@ -29530,7 +29535,7 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="222" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B14" s="48">
         <v>13</v>
@@ -29545,7 +29550,7 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="222" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B15" s="48">
         <v>11</v>
@@ -29560,7 +29565,7 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="222" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B16" s="48">
         <v>22</v>
@@ -29575,7 +29580,7 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="222" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B17" s="48">
         <v>22</v>
@@ -29590,7 +29595,7 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="222" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B18" s="48">
         <v>29</v>
@@ -29605,7 +29610,7 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="222" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B19" s="48">
         <v>32</v>
@@ -29620,7 +29625,7 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="222" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B20" s="48">
         <v>33</v>
@@ -29635,7 +29640,7 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="222" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B21" s="48">
         <v>38</v>
@@ -29650,7 +29655,7 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="222" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B22" s="48">
         <v>43</v>
@@ -29665,7 +29670,7 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="222" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B23" s="48">
         <v>50</v>
@@ -29680,7 +29685,7 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="222" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B24" s="48">
         <v>55</v>
@@ -29695,7 +29700,7 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="222" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B25" s="48">
         <v>75</v>
@@ -29710,7 +29715,7 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="222" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B26" s="48">
         <v>85</v>
@@ -29725,7 +29730,7 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="222" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B27" s="48">
         <v>72</v>
@@ -29740,7 +29745,7 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="222" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B28" s="48">
         <v>91</v>
@@ -29755,7 +29760,7 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="222" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B29" s="48">
         <v>98</v>
@@ -29770,7 +29775,7 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="222" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B30" s="48">
         <v>97</v>
@@ -29785,7 +29790,7 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="222" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B31" s="48">
         <v>122</v>
@@ -29800,7 +29805,7 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="222" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B32" s="48">
         <v>94</v>
@@ -29815,7 +29820,7 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="222" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B33" s="48">
         <v>107</v>
@@ -29830,7 +29835,7 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="222" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B34" s="48">
         <v>106</v>
@@ -29845,7 +29850,7 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="222" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B35" s="48">
         <v>113</v>
@@ -29860,7 +29865,7 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="222" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B36" s="48">
         <v>97</v>
@@ -29875,7 +29880,7 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="222" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B37" s="48">
         <v>103</v>
@@ -29890,7 +29895,7 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="222" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B38" s="48">
         <v>121</v>
@@ -29905,7 +29910,7 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="222" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B39" s="48">
         <v>122</v>
@@ -29920,7 +29925,7 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="222" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B40" s="48">
         <v>95</v>
@@ -29935,7 +29940,7 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="222" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B41" s="48">
         <v>95</v>
@@ -29950,7 +29955,7 @@
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="222" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B42" s="48">
         <v>95</v>
@@ -29965,7 +29970,7 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="222" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B43" s="48">
         <v>98</v>
@@ -29980,7 +29985,7 @@
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="222" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B44" s="48">
         <v>72</v>
@@ -29995,7 +30000,7 @@
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="222" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B45" s="48">
         <v>83</v>
@@ -30010,7 +30015,7 @@
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="222" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B46" s="48">
         <v>89</v>
@@ -30025,7 +30030,7 @@
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="222" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B47" s="48">
         <v>97</v>
@@ -30040,7 +30045,7 @@
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="222" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B48" s="48">
         <v>76</v>
@@ -30055,7 +30060,7 @@
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="222" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B49" s="48">
         <v>80</v>
@@ -30070,7 +30075,7 @@
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="222" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B50" s="48">
         <v>76</v>
@@ -30085,7 +30090,7 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="222" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B51" s="48">
         <v>91</v>
@@ -30100,7 +30105,7 @@
     </row>
     <row r="52" spans="1:22" s="81" customFormat="1">
       <c r="A52" s="222" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B52" s="48">
         <v>79</v>
@@ -30115,7 +30120,7 @@
     </row>
     <row r="53" spans="1:22" s="81" customFormat="1">
       <c r="A53" s="222" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B53" s="48">
         <v>76</v>
@@ -30130,7 +30135,7 @@
     </row>
     <row r="54" spans="1:22" s="81" customFormat="1">
       <c r="A54" s="222" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B54" s="48">
         <v>78</v>
@@ -30145,7 +30150,7 @@
     </row>
     <row r="55" spans="1:22" s="81" customFormat="1">
       <c r="A55" s="222" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B55" s="48">
         <v>82</v>
@@ -30160,7 +30165,7 @@
     </row>
     <row r="56" spans="1:22" s="81" customFormat="1">
       <c r="A56" s="222" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B56" s="48">
         <v>73</v>
@@ -30175,7 +30180,7 @@
     </row>
     <row r="57" spans="1:22" s="81" customFormat="1">
       <c r="A57" s="222" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B57" s="48">
         <v>85</v>
@@ -30190,7 +30195,7 @@
     </row>
     <row r="58" spans="1:22" s="81" customFormat="1">
       <c r="A58" s="222" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B58" s="48">
         <v>72</v>
@@ -30205,7 +30210,7 @@
     </row>
     <row r="59" spans="1:22" s="81" customFormat="1">
       <c r="A59" s="222" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B59" s="48">
         <v>69</v>
@@ -30220,7 +30225,7 @@
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="222" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B60" s="48">
         <v>76</v>
@@ -30235,7 +30240,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="222" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B61" s="48">
         <v>57</v>
@@ -30250,7 +30255,7 @@
     </row>
     <row r="62" spans="1:22" s="81" customFormat="1">
       <c r="A62" s="222" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B62" s="48">
         <v>65</v>
@@ -30265,7 +30270,7 @@
     </row>
     <row r="63" spans="1:22" s="81" customFormat="1">
       <c r="A63" s="222" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B63" s="48">
         <v>75</v>
@@ -30280,7 +30285,7 @@
     </row>
     <row r="64" spans="1:22" s="81" customFormat="1">
       <c r="A64" s="222" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B64" s="48">
         <v>59</v>
@@ -30295,7 +30300,7 @@
     </row>
     <row r="65" spans="1:22" s="81" customFormat="1">
       <c r="A65" s="222" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B65" s="48">
         <v>63</v>
@@ -30310,7 +30315,7 @@
     </row>
     <row r="66" spans="1:22" s="81" customFormat="1">
       <c r="A66" s="222" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B66" s="48">
         <v>49</v>
@@ -30325,7 +30330,7 @@
     </row>
     <row r="67" spans="1:22" s="81" customFormat="1">
       <c r="A67" s="222" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B67" s="48">
         <v>47</v>
@@ -30340,7 +30345,7 @@
     </row>
     <row r="68" spans="1:22" s="81" customFormat="1">
       <c r="A68" s="222" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B68" s="48">
         <v>62</v>
@@ -30355,7 +30360,7 @@
     </row>
     <row r="69" spans="1:22" s="81" customFormat="1">
       <c r="A69" s="222" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B69" s="48">
         <v>43</v>
@@ -30370,7 +30375,7 @@
     </row>
     <row r="70" spans="1:22" s="81" customFormat="1">
       <c r="A70" s="222" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B70" s="48">
         <v>59</v>
@@ -30385,7 +30390,7 @@
     </row>
     <row r="71" spans="1:22" s="81" customFormat="1">
       <c r="A71" s="222" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B71" s="48">
         <v>57</v>
@@ -30400,7 +30405,7 @@
     </row>
     <row r="72" spans="1:22" s="81" customFormat="1">
       <c r="A72" s="222" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B72" s="48">
         <v>42</v>
@@ -30415,7 +30420,7 @@
     </row>
     <row r="73" spans="1:22" s="81" customFormat="1">
       <c r="A73" s="222" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B73" s="48">
         <v>50</v>
@@ -30430,7 +30435,7 @@
     </row>
     <row r="74" spans="1:22" s="81" customFormat="1">
       <c r="A74" s="222" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B74" s="48">
         <v>47</v>
@@ -30445,7 +30450,7 @@
     </row>
     <row r="75" spans="1:22" s="81" customFormat="1">
       <c r="A75" s="222" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B75" s="48">
         <v>55</v>
@@ -30460,7 +30465,7 @@
     </row>
     <row r="76" spans="1:22" s="81" customFormat="1">
       <c r="A76" s="222" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B76" s="48">
         <v>47</v>
@@ -30475,7 +30480,7 @@
     </row>
     <row r="77" spans="1:22" s="81" customFormat="1">
       <c r="A77" s="222" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B77" s="48">
         <v>44</v>
@@ -30490,7 +30495,7 @@
     </row>
     <row r="78" spans="1:22" s="81" customFormat="1">
       <c r="A78" s="222" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B78" s="48">
         <v>40</v>
@@ -30505,7 +30510,7 @@
     </row>
     <row r="79" spans="1:22" s="81" customFormat="1">
       <c r="A79" s="222" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B79" s="48">
         <v>28</v>
@@ -30520,7 +30525,7 @@
     </row>
     <row r="80" spans="1:22" s="81" customFormat="1">
       <c r="A80" s="222" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B80" s="48">
         <v>39</v>
@@ -30535,7 +30540,7 @@
     </row>
     <row r="81" spans="1:22" s="81" customFormat="1">
       <c r="A81" s="222" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B81" s="48">
         <v>37</v>
@@ -30550,7 +30555,7 @@
     </row>
     <row r="82" spans="1:22" s="81" customFormat="1">
       <c r="A82" s="222" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B82" s="48">
         <v>39</v>
@@ -30565,7 +30570,7 @@
     </row>
     <row r="83" spans="1:22" s="81" customFormat="1">
       <c r="A83" s="222" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B83" s="48">
         <v>36</v>
@@ -30580,7 +30585,7 @@
     </row>
     <row r="84" spans="1:22" s="81" customFormat="1">
       <c r="A84" s="222" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B84" s="48">
         <v>39</v>
@@ -30595,7 +30600,7 @@
     </row>
     <row r="85" spans="1:22" s="81" customFormat="1">
       <c r="A85" s="222" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B85" s="48">
         <v>40</v>
@@ -30610,7 +30615,7 @@
     </row>
     <row r="86" spans="1:22" s="81" customFormat="1">
       <c r="A86" s="222" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B86" s="48">
         <v>41</v>
@@ -30625,7 +30630,7 @@
     </row>
     <row r="87" spans="1:22" s="81" customFormat="1">
       <c r="A87" s="222" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B87" s="48">
         <v>28</v>
@@ -30640,7 +30645,7 @@
     </row>
     <row r="88" spans="1:22" s="81" customFormat="1">
       <c r="A88" s="222" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B88" s="48">
         <v>42</v>
@@ -30655,7 +30660,7 @@
     </row>
     <row r="89" spans="1:22" s="81" customFormat="1">
       <c r="A89" s="222" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B89" s="48">
         <v>36</v>
@@ -30670,7 +30675,7 @@
     </row>
     <row r="90" spans="1:22" s="81" customFormat="1">
       <c r="A90" s="222" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B90" s="48">
         <v>34</v>
@@ -30685,7 +30690,7 @@
     </row>
     <row r="91" spans="1:22" s="81" customFormat="1">
       <c r="A91" s="222" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B91" s="48">
         <v>33</v>
@@ -30700,7 +30705,7 @@
     </row>
     <row r="92" spans="1:22" s="81" customFormat="1">
       <c r="A92" s="222" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B92" s="48">
         <v>37</v>
@@ -30715,7 +30720,7 @@
     </row>
     <row r="93" spans="1:22" s="81" customFormat="1">
       <c r="A93" s="222" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B93" s="48">
         <v>33</v>
@@ -30730,7 +30735,7 @@
     </row>
     <row r="94" spans="1:22" s="81" customFormat="1">
       <c r="A94" s="222" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B94" s="48">
         <v>37</v>
@@ -30745,7 +30750,7 @@
     </row>
     <row r="95" spans="1:22" s="81" customFormat="1">
       <c r="A95" s="222" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B95" s="48">
         <v>36</v>
@@ -30760,7 +30765,7 @@
     </row>
     <row r="96" spans="1:22" s="81" customFormat="1">
       <c r="A96" s="222" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B96" s="48">
         <v>26</v>
@@ -30775,7 +30780,7 @@
     </row>
     <row r="97" spans="1:22" s="81" customFormat="1">
       <c r="A97" s="222" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B97" s="48">
         <v>29</v>
@@ -30790,7 +30795,7 @@
     </row>
     <row r="98" spans="1:22" s="81" customFormat="1">
       <c r="A98" s="222" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B98" s="48">
         <v>31</v>
@@ -30805,7 +30810,7 @@
     </row>
     <row r="99" spans="1:22" s="81" customFormat="1">
       <c r="A99" s="222" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B99" s="48">
         <v>31</v>
@@ -30820,7 +30825,7 @@
     </row>
     <row r="100" spans="1:22" s="81" customFormat="1">
       <c r="A100" s="222" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B100" s="48">
         <v>27</v>
@@ -30835,7 +30840,7 @@
     </row>
     <row r="101" spans="1:22" s="81" customFormat="1">
       <c r="A101" s="222" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B101" s="48">
         <v>33</v>
@@ -30850,7 +30855,7 @@
     </row>
     <row r="102" spans="1:22" s="81" customFormat="1">
       <c r="A102" s="222" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B102" s="48">
         <v>26</v>
@@ -30865,7 +30870,7 @@
     </row>
     <row r="103" spans="1:22" s="81" customFormat="1">
       <c r="A103" s="222" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B103" s="48">
         <v>28</v>
@@ -30880,7 +30885,7 @@
     </row>
     <row r="104" spans="1:22" s="81" customFormat="1">
       <c r="A104" s="222" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B104" s="48">
         <v>26</v>
@@ -30895,7 +30900,7 @@
     </row>
     <row r="105" spans="1:22" s="81" customFormat="1">
       <c r="A105" s="222" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B105" s="48">
         <v>18</v>
@@ -30910,7 +30915,7 @@
     </row>
     <row r="106" spans="1:22" s="81" customFormat="1">
       <c r="A106" s="222" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B106" s="48">
         <v>21</v>
@@ -30925,7 +30930,7 @@
     </row>
     <row r="107" spans="1:22" s="81" customFormat="1">
       <c r="A107" s="222" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B107" s="48">
         <v>20</v>
@@ -30940,7 +30945,7 @@
     </row>
     <row r="108" spans="1:22" s="81" customFormat="1">
       <c r="A108" s="222" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B108" s="48">
         <v>21</v>
@@ -30955,7 +30960,7 @@
     </row>
     <row r="109" spans="1:22" s="81" customFormat="1">
       <c r="A109" s="222" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B109" s="48">
         <v>21</v>
@@ -30970,7 +30975,7 @@
     </row>
     <row r="110" spans="1:22" s="81" customFormat="1">
       <c r="A110" s="222" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B110" s="48">
         <v>12</v>
@@ -30985,7 +30990,7 @@
     </row>
     <row r="111" spans="1:22" s="81" customFormat="1">
       <c r="A111" s="222" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B111" s="48">
         <v>13</v>
@@ -31000,7 +31005,7 @@
     </row>
     <row r="112" spans="1:22" s="81" customFormat="1">
       <c r="A112" s="222" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B112" s="48">
         <v>25</v>
@@ -31015,7 +31020,7 @@
     </row>
     <row r="113" spans="1:22" s="81" customFormat="1">
       <c r="A113" s="222" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B113" s="48">
         <v>13</v>
@@ -31030,7 +31035,7 @@
     </row>
     <row r="114" spans="1:22" s="81" customFormat="1">
       <c r="A114" s="222" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B114" s="48">
         <v>14</v>
@@ -31045,7 +31050,7 @@
     </row>
     <row r="115" spans="1:22" s="81" customFormat="1">
       <c r="A115" s="222" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B115" s="48">
         <v>14</v>
@@ -31060,7 +31065,7 @@
     </row>
     <row r="116" spans="1:22" s="81" customFormat="1">
       <c r="A116" s="222" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B116" s="48">
         <v>15</v>
@@ -31075,7 +31080,7 @@
     </row>
     <row r="117" spans="1:22" s="81" customFormat="1">
       <c r="A117" s="222" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B117" s="48">
         <v>8</v>
@@ -31090,7 +31095,7 @@
     </row>
     <row r="118" spans="1:22" s="81" customFormat="1">
       <c r="A118" s="222" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B118" s="48">
         <v>15</v>
@@ -31105,7 +31110,7 @@
     </row>
     <row r="119" spans="1:22" s="81" customFormat="1">
       <c r="A119" s="222" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B119" s="48">
         <v>6</v>
@@ -31120,7 +31125,7 @@
     </row>
     <row r="120" spans="1:22" s="81" customFormat="1">
       <c r="A120" s="222" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B120" s="48">
         <v>13</v>
@@ -31135,7 +31140,7 @@
     </row>
     <row r="121" spans="1:22" s="81" customFormat="1">
       <c r="A121" s="222" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B121" s="48">
         <v>14</v>
@@ -31150,7 +31155,7 @@
     </row>
     <row r="122" spans="1:22" s="81" customFormat="1">
       <c r="A122" s="222" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B122" s="48">
         <v>11</v>
@@ -31165,7 +31170,7 @@
     </row>
     <row r="123" spans="1:22" s="81" customFormat="1">
       <c r="A123" s="222" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B123" s="48">
         <v>12</v>
@@ -31180,7 +31185,7 @@
     </row>
     <row r="124" spans="1:22" s="81" customFormat="1">
       <c r="A124" s="222" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B124" s="48">
         <v>8</v>
@@ -31195,7 +31200,7 @@
     </row>
     <row r="125" spans="1:22" s="81" customFormat="1">
       <c r="A125" s="222" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B125" s="48">
         <v>10</v>
@@ -31210,7 +31215,7 @@
     </row>
     <row r="126" spans="1:22" s="81" customFormat="1">
       <c r="A126" s="222" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B126" s="48">
         <v>9</v>
@@ -31225,7 +31230,7 @@
     </row>
     <row r="127" spans="1:22" s="81" customFormat="1">
       <c r="A127" s="222" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B127" s="48">
         <v>12</v>
@@ -31240,7 +31245,7 @@
     </row>
     <row r="128" spans="1:22" s="81" customFormat="1">
       <c r="A128" s="222" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B128" s="48">
         <v>10</v>
@@ -31255,7 +31260,7 @@
     </row>
     <row r="129" spans="1:22" s="81" customFormat="1">
       <c r="A129" s="222" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B129" s="48">
         <v>7</v>
@@ -31270,7 +31275,7 @@
     </row>
     <row r="130" spans="1:22" s="81" customFormat="1">
       <c r="A130" s="222" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B130" s="48">
         <v>4</v>
@@ -31285,7 +31290,7 @@
     </row>
     <row r="131" spans="1:22" s="81" customFormat="1">
       <c r="A131" s="222" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B131" s="48">
         <v>7</v>
@@ -31300,7 +31305,7 @@
     </row>
     <row r="132" spans="1:22" s="81" customFormat="1">
       <c r="A132" s="222" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B132" s="48">
         <v>17</v>
@@ -31315,7 +31320,7 @@
     </row>
     <row r="133" spans="1:22" s="81" customFormat="1">
       <c r="A133" s="222" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B133" s="48">
         <v>7</v>
@@ -31330,7 +31335,7 @@
     </row>
     <row r="134" spans="1:22" s="81" customFormat="1">
       <c r="A134" s="222" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B134" s="48">
         <v>5</v>
@@ -31345,7 +31350,7 @@
     </row>
     <row r="135" spans="1:22" s="81" customFormat="1">
       <c r="A135" s="222" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B135" s="48">
         <v>6</v>
@@ -31360,7 +31365,7 @@
     </row>
     <row r="136" spans="1:22" s="81" customFormat="1">
       <c r="A136" s="222" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B136" s="48">
         <v>5</v>
@@ -31375,7 +31380,7 @@
     </row>
     <row r="137" spans="1:22" s="81" customFormat="1">
       <c r="A137" s="222" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B137" s="48">
         <v>7</v>
@@ -31390,10 +31395,10 @@
     </row>
     <row r="138" spans="1:22" s="81" customFormat="1">
       <c r="A138" s="222" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B138" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C138" s="21" t="str">
         <f t="shared" ref="C138:C201" si="2">IF(OR(B138=0,B138="X"),"",100*B138/B$8)</f>
@@ -31405,10 +31410,10 @@
     </row>
     <row r="139" spans="1:22" s="81" customFormat="1">
       <c r="A139" s="222" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B139" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C139" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31420,10 +31425,10 @@
     </row>
     <row r="140" spans="1:22" s="81" customFormat="1">
       <c r="A140" s="222" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B140" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C140" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31435,7 +31440,7 @@
     </row>
     <row r="141" spans="1:22" s="81" customFormat="1">
       <c r="A141" s="222" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B141" s="48">
         <v>8</v>
@@ -31450,7 +31455,7 @@
     </row>
     <row r="142" spans="1:22" s="81" customFormat="1">
       <c r="A142" s="222" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B142" s="48">
         <v>7</v>
@@ -31465,10 +31470,10 @@
     </row>
     <row r="143" spans="1:22" s="81" customFormat="1">
       <c r="A143" s="222" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B143" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C143" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31480,10 +31485,10 @@
     </row>
     <row r="144" spans="1:22" s="81" customFormat="1">
       <c r="A144" s="222" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B144" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C144" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31495,10 +31500,10 @@
     </row>
     <row r="145" spans="1:22" s="81" customFormat="1">
       <c r="A145" s="222" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B145" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C145" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31510,10 +31515,10 @@
     </row>
     <row r="146" spans="1:22" s="81" customFormat="1">
       <c r="A146" s="222" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B146" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C146" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31525,10 +31530,10 @@
     </row>
     <row r="147" spans="1:22" s="81" customFormat="1">
       <c r="A147" s="222" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B147" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C147" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31540,7 +31545,7 @@
     </row>
     <row r="148" spans="1:22" s="81" customFormat="1">
       <c r="A148" s="222" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B148" s="48">
         <v>5</v>
@@ -31555,10 +31560,10 @@
     </row>
     <row r="149" spans="1:22" s="81" customFormat="1">
       <c r="A149" s="222" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B149" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C149" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31570,10 +31575,10 @@
     </row>
     <row r="150" spans="1:22" s="81" customFormat="1">
       <c r="A150" s="222" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B150" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C150" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31585,7 +31590,7 @@
     </row>
     <row r="151" spans="1:22" s="81" customFormat="1">
       <c r="A151" s="222" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B151" s="48">
         <v>5</v>
@@ -31600,10 +31605,10 @@
     </row>
     <row r="152" spans="1:22" s="81" customFormat="1">
       <c r="A152" s="222" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B152" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C152" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31615,10 +31620,10 @@
     </row>
     <row r="153" spans="1:22" s="81" customFormat="1">
       <c r="A153" s="222" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B153" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C153" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31630,7 +31635,7 @@
     </row>
     <row r="154" spans="1:22" s="81" customFormat="1">
       <c r="A154" s="222" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B154" s="48">
         <v>7</v>
@@ -31645,10 +31650,10 @@
     </row>
     <row r="155" spans="1:22" s="81" customFormat="1">
       <c r="A155" s="222" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B155" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C155" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31660,10 +31665,10 @@
     </row>
     <row r="156" spans="1:22" s="81" customFormat="1">
       <c r="A156" s="222" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B156" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C156" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31675,7 +31680,7 @@
     </row>
     <row r="157" spans="1:22" s="81" customFormat="1">
       <c r="A157" s="222" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B157" s="48">
         <v>4</v>
@@ -31690,10 +31695,10 @@
     </row>
     <row r="158" spans="1:22" s="81" customFormat="1">
       <c r="A158" s="222" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B158" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C158" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31705,10 +31710,10 @@
     </row>
     <row r="159" spans="1:22" s="81" customFormat="1">
       <c r="A159" s="222" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B159" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C159" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31720,10 +31725,10 @@
     </row>
     <row r="160" spans="1:22" s="81" customFormat="1">
       <c r="A160" s="222" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B160" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C160" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31735,10 +31740,10 @@
     </row>
     <row r="161" spans="1:22" s="81" customFormat="1">
       <c r="A161" s="222" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B161" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C161" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31750,10 +31755,10 @@
     </row>
     <row r="162" spans="1:22" s="81" customFormat="1">
       <c r="A162" s="222" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B162" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C162" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31765,7 +31770,7 @@
     </row>
     <row r="163" spans="1:22" s="81" customFormat="1">
       <c r="A163" s="222" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B163" s="48">
         <v>4</v>
@@ -31780,10 +31785,10 @@
     </row>
     <row r="164" spans="1:22" s="81" customFormat="1">
       <c r="A164" s="222" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B164" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C164" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31795,10 +31800,10 @@
     </row>
     <row r="165" spans="1:22" s="81" customFormat="1">
       <c r="A165" s="222" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B165" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C165" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31810,10 +31815,10 @@
     </row>
     <row r="166" spans="1:22" s="81" customFormat="1">
       <c r="A166" s="222" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B166" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C166" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31825,10 +31830,10 @@
     </row>
     <row r="167" spans="1:22" s="81" customFormat="1">
       <c r="A167" s="222" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B167" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C167" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31840,10 +31845,10 @@
     </row>
     <row r="168" spans="1:22" s="81" customFormat="1">
       <c r="A168" s="222" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B168" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C168" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31855,7 +31860,7 @@
     </row>
     <row r="169" spans="1:22" s="81" customFormat="1">
       <c r="A169" s="222" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B169" s="48">
         <v>5</v>
@@ -31870,10 +31875,10 @@
     </row>
     <row r="170" spans="1:22" s="81" customFormat="1">
       <c r="A170" s="222" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B170" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C170" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31885,10 +31890,10 @@
     </row>
     <row r="171" spans="1:22" s="81" customFormat="1">
       <c r="A171" s="222" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B171" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C171" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31900,10 +31905,10 @@
     </row>
     <row r="172" spans="1:22" s="81" customFormat="1">
       <c r="A172" s="222" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B172" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C172" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31915,7 +31920,7 @@
     </row>
     <row r="173" spans="1:22" s="81" customFormat="1">
       <c r="A173" s="222" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B173" s="48">
         <v>0</v>
@@ -31930,7 +31935,7 @@
     </row>
     <row r="174" spans="1:22" s="81" customFormat="1">
       <c r="A174" s="222" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B174" s="48">
         <v>0</v>
@@ -31945,10 +31950,10 @@
     </row>
     <row r="175" spans="1:22" s="81" customFormat="1">
       <c r="A175" s="222" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B175" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C175" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31960,10 +31965,10 @@
     </row>
     <row r="176" spans="1:22" s="81" customFormat="1">
       <c r="A176" s="222" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B176" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C176" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31975,10 +31980,10 @@
     </row>
     <row r="177" spans="1:22" s="81" customFormat="1">
       <c r="A177" s="222" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B177" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C177" s="21" t="str">
         <f t="shared" si="2"/>
@@ -31990,10 +31995,10 @@
     </row>
     <row r="178" spans="1:22" s="81" customFormat="1">
       <c r="A178" s="222" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B178" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C178" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32005,10 +32010,10 @@
     </row>
     <row r="179" spans="1:22" s="81" customFormat="1">
       <c r="A179" s="222" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B179" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C179" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32020,7 +32025,7 @@
     </row>
     <row r="180" spans="1:22" s="81" customFormat="1">
       <c r="A180" s="222" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B180" s="48">
         <v>0</v>
@@ -32035,7 +32040,7 @@
     </row>
     <row r="181" spans="1:22" s="81" customFormat="1">
       <c r="A181" s="222" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B181" s="48">
         <v>0</v>
@@ -32050,7 +32055,7 @@
     </row>
     <row r="182" spans="1:22" s="81" customFormat="1">
       <c r="A182" s="222" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B182" s="48">
         <v>4</v>
@@ -32065,10 +32070,10 @@
     </row>
     <row r="183" spans="1:22" s="81" customFormat="1">
       <c r="A183" s="222" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B183" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C183" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32080,10 +32085,10 @@
     </row>
     <row r="184" spans="1:22" s="81" customFormat="1">
       <c r="A184" s="222" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B184" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C184" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32095,10 +32100,10 @@
     </row>
     <row r="185" spans="1:22" s="81" customFormat="1">
       <c r="A185" s="222" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B185" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C185" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32110,10 +32115,10 @@
     </row>
     <row r="186" spans="1:22" s="81" customFormat="1">
       <c r="A186" s="222" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B186" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C186" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32125,7 +32130,7 @@
     </row>
     <row r="187" spans="1:22" s="81" customFormat="1">
       <c r="A187" s="222" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B187" s="48">
         <v>4</v>
@@ -32140,10 +32145,10 @@
     </row>
     <row r="188" spans="1:22" s="81" customFormat="1">
       <c r="A188" s="222" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B188" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C188" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32155,10 +32160,10 @@
     </row>
     <row r="189" spans="1:22" s="81" customFormat="1">
       <c r="A189" s="222" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B189" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C189" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32170,10 +32175,10 @@
     </row>
     <row r="190" spans="1:22" s="81" customFormat="1">
       <c r="A190" s="222" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B190" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C190" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32185,10 +32190,10 @@
     </row>
     <row r="191" spans="1:22" s="81" customFormat="1">
       <c r="A191" s="222" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B191" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C191" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32200,10 +32205,10 @@
     </row>
     <row r="192" spans="1:22" s="81" customFormat="1">
       <c r="A192" s="222" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B192" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C192" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32215,7 +32220,7 @@
     </row>
     <row r="193" spans="1:22" s="81" customFormat="1">
       <c r="A193" s="222" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B193" s="48">
         <v>0</v>
@@ -32230,10 +32235,10 @@
     </row>
     <row r="194" spans="1:22" s="81" customFormat="1">
       <c r="A194" s="222" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B194" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C194" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32245,10 +32250,10 @@
     </row>
     <row r="195" spans="1:22" s="81" customFormat="1">
       <c r="A195" s="222" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B195" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C195" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32260,10 +32265,10 @@
     </row>
     <row r="196" spans="1:22" s="81" customFormat="1">
       <c r="A196" s="222" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B196" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C196" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32275,10 +32280,10 @@
     </row>
     <row r="197" spans="1:22" s="81" customFormat="1">
       <c r="A197" s="222" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B197" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C197" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32290,7 +32295,7 @@
     </row>
     <row r="198" spans="1:22" s="81" customFormat="1">
       <c r="A198" s="222" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B198" s="48">
         <v>0</v>
@@ -32305,7 +32310,7 @@
     </row>
     <row r="199" spans="1:22" s="81" customFormat="1">
       <c r="A199" s="222" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B199" s="48">
         <v>0</v>
@@ -32320,10 +32325,10 @@
     </row>
     <row r="200" spans="1:22" s="81" customFormat="1">
       <c r="A200" s="222" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B200" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C200" s="21" t="str">
         <f t="shared" si="2"/>
@@ -32335,7 +32340,7 @@
     </row>
     <row r="201" spans="1:22" s="81" customFormat="1">
       <c r="A201" s="222" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B201" s="48">
         <v>5</v>
@@ -32350,10 +32355,10 @@
     </row>
     <row r="202" spans="1:22" s="81" customFormat="1">
       <c r="A202" s="222" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B202" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C202" s="21" t="str">
         <f t="shared" ref="C202:C265" si="3">IF(OR(B202=0,B202="X"),"",100*B202/B$8)</f>
@@ -32365,10 +32370,10 @@
     </row>
     <row r="203" spans="1:22" s="81" customFormat="1">
       <c r="A203" s="222" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B203" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C203" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32380,10 +32385,10 @@
     </row>
     <row r="204" spans="1:22" s="81" customFormat="1">
       <c r="A204" s="222" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B204" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C204" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32395,10 +32400,10 @@
     </row>
     <row r="205" spans="1:22" s="81" customFormat="1">
       <c r="A205" s="222" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B205" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C205" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32410,10 +32415,10 @@
     </row>
     <row r="206" spans="1:22" s="81" customFormat="1">
       <c r="A206" s="222" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B206" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C206" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32425,10 +32430,10 @@
     </row>
     <row r="207" spans="1:22" s="81" customFormat="1">
       <c r="A207" s="222" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B207" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C207" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32440,10 +32445,10 @@
     </row>
     <row r="208" spans="1:22" s="81" customFormat="1">
       <c r="A208" s="222" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B208" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C208" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32455,10 +32460,10 @@
     </row>
     <row r="209" spans="1:22" s="81" customFormat="1">
       <c r="A209" s="222" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B209" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C209" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32470,10 +32475,10 @@
     </row>
     <row r="210" spans="1:22" s="81" customFormat="1">
       <c r="A210" s="222" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B210" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C210" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32485,10 +32490,10 @@
     </row>
     <row r="211" spans="1:22" s="81" customFormat="1">
       <c r="A211" s="222" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B211" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C211" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32500,7 +32505,7 @@
     </row>
     <row r="212" spans="1:22" s="81" customFormat="1">
       <c r="A212" s="222" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B212" s="48">
         <v>5</v>
@@ -32515,10 +32520,10 @@
     </row>
     <row r="213" spans="1:22" s="81" customFormat="1">
       <c r="A213" s="222" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B213" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C213" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32530,10 +32535,10 @@
     </row>
     <row r="214" spans="1:22" s="81" customFormat="1">
       <c r="A214" s="222" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B214" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C214" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32545,7 +32550,7 @@
     </row>
     <row r="215" spans="1:22" s="81" customFormat="1">
       <c r="A215" s="222" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B215" s="48">
         <v>5</v>
@@ -32560,7 +32565,7 @@
     </row>
     <row r="216" spans="1:22" s="81" customFormat="1">
       <c r="A216" s="222" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B216" s="48">
         <v>4</v>
@@ -32575,10 +32580,10 @@
     </row>
     <row r="217" spans="1:22" s="81" customFormat="1">
       <c r="A217" s="222" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B217" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C217" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32590,7 +32595,7 @@
     </row>
     <row r="218" spans="1:22" s="81" customFormat="1">
       <c r="A218" s="222" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B218" s="48">
         <v>4</v>
@@ -32605,10 +32610,10 @@
     </row>
     <row r="219" spans="1:22" s="81" customFormat="1">
       <c r="A219" s="222" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B219" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C219" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32620,10 +32625,10 @@
     </row>
     <row r="220" spans="1:22" s="81" customFormat="1">
       <c r="A220" s="222" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B220" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C220" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32635,10 +32640,10 @@
     </row>
     <row r="221" spans="1:22" s="81" customFormat="1">
       <c r="A221" s="222" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B221" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C221" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32650,10 +32655,10 @@
     </row>
     <row r="222" spans="1:22" s="81" customFormat="1">
       <c r="A222" s="222" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B222" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C222" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32665,7 +32670,7 @@
     </row>
     <row r="223" spans="1:22" s="81" customFormat="1">
       <c r="A223" s="222" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B223" s="48">
         <v>4</v>
@@ -32680,10 +32685,10 @@
     </row>
     <row r="224" spans="1:22" s="81" customFormat="1">
       <c r="A224" s="222" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B224" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C224" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32695,7 +32700,7 @@
     </row>
     <row r="225" spans="1:22" s="81" customFormat="1">
       <c r="A225" s="222" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B225" s="48">
         <v>4</v>
@@ -32710,10 +32715,10 @@
     </row>
     <row r="226" spans="1:22" s="81" customFormat="1">
       <c r="A226" s="222" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B226" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C226" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32722,10 +32727,10 @@
     </row>
     <row r="227" spans="1:22" s="81" customFormat="1">
       <c r="A227" s="222" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B227" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C227" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32734,7 +32739,7 @@
     </row>
     <row r="228" spans="1:22" s="81" customFormat="1">
       <c r="A228" s="222" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B228" s="48">
         <v>9</v>
@@ -32747,10 +32752,10 @@
     </row>
     <row r="229" spans="1:22" s="81" customFormat="1">
       <c r="A229" s="222" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B229" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C229" s="21" t="str">
         <f t="shared" si="3"/>
@@ -32760,7 +32765,7 @@
     </row>
     <row r="230" spans="1:22" s="81" customFormat="1">
       <c r="A230" s="222" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B230" s="48">
         <v>8</v>
@@ -32775,7 +32780,7 @@
     </row>
     <row r="231" spans="1:22" s="81" customFormat="1">
       <c r="A231" s="222" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B231" s="48">
         <v>6</v>
@@ -32790,7 +32795,7 @@
     </row>
     <row r="232" spans="1:22" s="81" customFormat="1">
       <c r="A232" s="222" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B232" s="48">
         <v>8</v>
@@ -32805,7 +32810,7 @@
     </row>
     <row r="233" spans="1:22" s="81" customFormat="1">
       <c r="A233" s="222" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B233" s="48">
         <v>9</v>
@@ -32820,7 +32825,7 @@
     </row>
     <row r="234" spans="1:22" s="81" customFormat="1">
       <c r="A234" s="222" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B234" s="48">
         <v>5</v>
@@ -32835,7 +32840,7 @@
     </row>
     <row r="235" spans="1:22" s="81" customFormat="1">
       <c r="A235" s="222" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B235" s="48">
         <v>9</v>
@@ -32850,7 +32855,7 @@
     </row>
     <row r="236" spans="1:22" s="81" customFormat="1">
       <c r="A236" s="222" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B236" s="48">
         <v>10</v>
@@ -32865,7 +32870,7 @@
     </row>
     <row r="237" spans="1:22" s="81" customFormat="1">
       <c r="A237" s="222" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B237" s="48">
         <v>10</v>
@@ -32880,7 +32885,7 @@
     </row>
     <row r="238" spans="1:22" s="81" customFormat="1">
       <c r="A238" s="222" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B238" s="48">
         <v>19</v>
@@ -32895,7 +32900,7 @@
     </row>
     <row r="239" spans="1:22" s="81" customFormat="1">
       <c r="A239" s="222" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B239" s="48">
         <v>14</v>
@@ -32910,7 +32915,7 @@
     </row>
     <row r="240" spans="1:22" s="81" customFormat="1">
       <c r="A240" s="222" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B240" s="48">
         <v>20</v>
@@ -32925,7 +32930,7 @@
     </row>
     <row r="241" spans="1:22" s="81" customFormat="1">
       <c r="A241" s="222" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B241" s="48">
         <v>17</v>
@@ -32940,7 +32945,7 @@
     </row>
     <row r="242" spans="1:22" s="81" customFormat="1">
       <c r="A242" s="222" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B242" s="48">
         <v>19</v>
@@ -32955,7 +32960,7 @@
     </row>
     <row r="243" spans="1:22" s="81" customFormat="1">
       <c r="A243" s="222" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B243" s="48">
         <v>20</v>
@@ -32970,7 +32975,7 @@
     </row>
     <row r="244" spans="1:22" s="81" customFormat="1">
       <c r="A244" s="222" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B244" s="48">
         <v>26</v>
@@ -32985,7 +32990,7 @@
     </row>
     <row r="245" spans="1:22" s="81" customFormat="1">
       <c r="A245" s="222" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B245" s="48">
         <v>19</v>
@@ -33000,7 +33005,7 @@
     </row>
     <row r="246" spans="1:22" s="81" customFormat="1">
       <c r="A246" s="222" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B246" s="48">
         <v>28</v>
@@ -33015,7 +33020,7 @@
     </row>
     <row r="247" spans="1:22" s="81" customFormat="1">
       <c r="A247" s="222" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B247" s="48">
         <v>24</v>
@@ -33030,7 +33035,7 @@
     </row>
     <row r="248" spans="1:22" s="81" customFormat="1">
       <c r="A248" s="222" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B248" s="48">
         <v>21</v>
@@ -33045,7 +33050,7 @@
     </row>
     <row r="249" spans="1:22" s="81" customFormat="1">
       <c r="A249" s="222" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B249" s="48">
         <v>23</v>
@@ -33060,7 +33065,7 @@
     </row>
     <row r="250" spans="1:22" s="81" customFormat="1">
       <c r="A250" s="222" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B250" s="48">
         <v>26</v>
@@ -33075,7 +33080,7 @@
     </row>
     <row r="251" spans="1:22" s="81" customFormat="1">
       <c r="A251" s="222" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B251" s="48">
         <v>31</v>
@@ -33090,7 +33095,7 @@
     </row>
     <row r="252" spans="1:22" s="81" customFormat="1">
       <c r="A252" s="222" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B252" s="48">
         <v>35</v>
@@ -33105,7 +33110,7 @@
     </row>
     <row r="253" spans="1:22" s="81" customFormat="1">
       <c r="A253" s="222" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B253" s="48">
         <v>30</v>
@@ -33120,7 +33125,7 @@
     </row>
     <row r="254" spans="1:22" s="81" customFormat="1">
       <c r="A254" s="222" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B254" s="48">
         <v>38</v>
@@ -33135,7 +33140,7 @@
     </row>
     <row r="255" spans="1:22" s="81" customFormat="1">
       <c r="A255" s="222" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B255" s="48">
         <v>42</v>
@@ -33150,7 +33155,7 @@
     </row>
     <row r="256" spans="1:22" s="81" customFormat="1">
       <c r="A256" s="222" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B256" s="48">
         <v>37</v>
@@ -33165,7 +33170,7 @@
     </row>
     <row r="257" spans="1:22" s="81" customFormat="1">
       <c r="A257" s="222" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B257" s="48">
         <v>44</v>
@@ -33180,7 +33185,7 @@
     </row>
     <row r="258" spans="1:22" s="81" customFormat="1">
       <c r="A258" s="222" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B258" s="48">
         <v>45</v>
@@ -33195,7 +33200,7 @@
     </row>
     <row r="259" spans="1:22" s="81" customFormat="1">
       <c r="A259" s="222" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B259" s="48">
         <v>57</v>
@@ -33210,7 +33215,7 @@
     </row>
     <row r="260" spans="1:22" s="81" customFormat="1">
       <c r="A260" s="222" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B260" s="48">
         <v>49</v>
@@ -33225,7 +33230,7 @@
     </row>
     <row r="261" spans="1:22" s="81" customFormat="1">
       <c r="A261" s="222" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B261" s="48">
         <v>55</v>
@@ -33240,7 +33245,7 @@
     </row>
     <row r="262" spans="1:22" s="81" customFormat="1">
       <c r="A262" s="222" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B262" s="48">
         <v>55</v>
@@ -33255,7 +33260,7 @@
     </row>
     <row r="263" spans="1:22" s="81" customFormat="1">
       <c r="A263" s="222" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B263" s="48">
         <v>43</v>
@@ -33270,7 +33275,7 @@
     </row>
     <row r="264" spans="1:22" s="81" customFormat="1">
       <c r="A264" s="222" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B264" s="48">
         <v>52</v>
@@ -33285,7 +33290,7 @@
     </row>
     <row r="265" spans="1:22" s="81" customFormat="1">
       <c r="A265" s="222" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B265" s="48">
         <v>37</v>
@@ -33300,7 +33305,7 @@
     </row>
     <row r="266" spans="1:22" s="81" customFormat="1">
       <c r="A266" s="222" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B266" s="48">
         <v>38</v>
@@ -33315,7 +33320,7 @@
     </row>
     <row r="267" spans="1:22" s="81" customFormat="1">
       <c r="A267" s="222" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B267" s="48">
         <v>49</v>
@@ -33330,7 +33335,7 @@
     </row>
     <row r="268" spans="1:22" s="81" customFormat="1">
       <c r="A268" s="222" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B268" s="48">
         <v>59</v>
@@ -33345,7 +33350,7 @@
     </row>
     <row r="269" spans="1:22" s="81" customFormat="1">
       <c r="A269" s="222" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B269" s="48">
         <v>55</v>
@@ -33360,7 +33365,7 @@
     </row>
     <row r="270" spans="1:22" s="81" customFormat="1">
       <c r="A270" s="222" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B270" s="48">
         <v>56</v>
@@ -33375,7 +33380,7 @@
     </row>
     <row r="271" spans="1:22" s="81" customFormat="1">
       <c r="A271" s="222" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B271" s="48">
         <v>59</v>
@@ -33390,7 +33395,7 @@
     </row>
     <row r="272" spans="1:22" s="81" customFormat="1">
       <c r="A272" s="222" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B272" s="48">
         <v>37</v>
@@ -33405,7 +33410,7 @@
     </row>
     <row r="273" spans="1:22" s="81" customFormat="1">
       <c r="A273" s="222" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B273" s="48">
         <v>70</v>
@@ -33420,7 +33425,7 @@
     </row>
     <row r="274" spans="1:22" s="81" customFormat="1">
       <c r="A274" s="222" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B274" s="48">
         <v>41</v>
@@ -33435,7 +33440,7 @@
     </row>
     <row r="275" spans="1:22" s="81" customFormat="1">
       <c r="A275" s="222" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B275" s="48">
         <v>45</v>
@@ -33450,7 +33455,7 @@
     </row>
     <row r="276" spans="1:22" s="81" customFormat="1">
       <c r="A276" s="222" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B276" s="48">
         <v>57</v>
@@ -33465,7 +33470,7 @@
     </row>
     <row r="277" spans="1:22" s="81" customFormat="1">
       <c r="A277" s="222" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B277" s="48">
         <v>74</v>
@@ -33480,7 +33485,7 @@
     </row>
     <row r="278" spans="1:22" s="81" customFormat="1">
       <c r="A278" s="222" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B278" s="48">
         <v>59</v>
@@ -33495,7 +33500,7 @@
     </row>
     <row r="279" spans="1:22" s="81" customFormat="1">
       <c r="A279" s="222" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B279" s="48">
         <v>53</v>
@@ -33510,7 +33515,7 @@
     </row>
     <row r="280" spans="1:22" s="81" customFormat="1">
       <c r="A280" s="222" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B280" s="48">
         <v>56</v>
@@ -33525,7 +33530,7 @@
     </row>
     <row r="281" spans="1:22" s="81" customFormat="1">
       <c r="A281" s="222" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B281" s="48">
         <v>72</v>
@@ -33540,7 +33545,7 @@
     </row>
     <row r="282" spans="1:22" s="81" customFormat="1">
       <c r="A282" s="222" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B282" s="48">
         <v>67</v>
@@ -33555,7 +33560,7 @@
     </row>
     <row r="283" spans="1:22" s="81" customFormat="1">
       <c r="A283" s="222" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B283" s="48">
         <v>85</v>
@@ -33570,7 +33575,7 @@
     </row>
     <row r="284" spans="1:22" s="81" customFormat="1">
       <c r="A284" s="222" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B284" s="48">
         <v>95</v>
@@ -33585,7 +33590,7 @@
     </row>
     <row r="285" spans="1:22" s="81" customFormat="1">
       <c r="A285" s="222" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B285" s="48">
         <v>59</v>
@@ -33600,7 +33605,7 @@
     </row>
     <row r="286" spans="1:22" s="81" customFormat="1">
       <c r="A286" s="222" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B286" s="48">
         <v>58</v>
@@ -33615,7 +33620,7 @@
     </row>
     <row r="287" spans="1:22" s="81" customFormat="1">
       <c r="A287" s="222" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B287" s="48">
         <v>72</v>
@@ -33630,7 +33635,7 @@
     </row>
     <row r="288" spans="1:22" s="81" customFormat="1">
       <c r="A288" s="222" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B288" s="48">
         <v>60</v>
@@ -33645,7 +33650,7 @@
     </row>
     <row r="289" spans="1:22" s="81" customFormat="1">
       <c r="A289" s="222" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B289" s="48">
         <v>75</v>
@@ -33660,7 +33665,7 @@
     </row>
     <row r="290" spans="1:22" s="81" customFormat="1">
       <c r="A290" s="222" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B290" s="48">
         <v>72</v>
@@ -33675,7 +33680,7 @@
     </row>
     <row r="291" spans="1:22" s="81" customFormat="1">
       <c r="A291" s="222" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B291" s="48">
         <v>72</v>
@@ -33690,7 +33695,7 @@
     </row>
     <row r="292" spans="1:22" s="81" customFormat="1">
       <c r="A292" s="222" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B292" s="48">
         <v>80</v>
@@ -33705,7 +33710,7 @@
     </row>
     <row r="293" spans="1:22" s="81" customFormat="1">
       <c r="A293" s="222" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B293" s="48">
         <v>74</v>
@@ -33720,7 +33725,7 @@
     </row>
     <row r="294" spans="1:22" s="81" customFormat="1">
       <c r="A294" s="222" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B294" s="48">
         <v>76</v>
@@ -33735,7 +33740,7 @@
     </row>
     <row r="295" spans="1:22" s="81" customFormat="1">
       <c r="A295" s="222" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B295" s="48">
         <v>106</v>
@@ -33750,7 +33755,7 @@
     </row>
     <row r="296" spans="1:22" s="81" customFormat="1">
       <c r="A296" s="222" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B296" s="48">
         <v>57</v>
@@ -33765,7 +33770,7 @@
     </row>
     <row r="297" spans="1:22" s="81" customFormat="1">
       <c r="A297" s="222" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B297" s="48">
         <v>78</v>
@@ -33780,7 +33785,7 @@
     </row>
     <row r="298" spans="1:22" s="81" customFormat="1">
       <c r="A298" s="222" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B298" s="48">
         <v>82</v>
@@ -33795,7 +33800,7 @@
     </row>
     <row r="299" spans="1:22" s="81" customFormat="1">
       <c r="A299" s="222" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B299" s="48">
         <v>74</v>
@@ -33810,7 +33815,7 @@
     </row>
     <row r="300" spans="1:22" s="81" customFormat="1">
       <c r="A300" s="222" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B300" s="48">
         <v>80</v>
@@ -33825,7 +33830,7 @@
     </row>
     <row r="301" spans="1:22" s="81" customFormat="1">
       <c r="A301" s="222" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B301" s="48">
         <v>78</v>
@@ -33840,7 +33845,7 @@
     </row>
     <row r="302" spans="1:22" s="81" customFormat="1">
       <c r="A302" s="222" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B302" s="48">
         <v>72</v>
@@ -33855,7 +33860,7 @@
     </row>
     <row r="303" spans="1:22" s="81" customFormat="1">
       <c r="A303" s="222" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B303" s="48">
         <v>78</v>
@@ -33870,7 +33875,7 @@
     </row>
     <row r="304" spans="1:22" s="81" customFormat="1">
       <c r="A304" s="222" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B304" s="48">
         <v>66</v>
@@ -33885,7 +33890,7 @@
     </row>
     <row r="305" spans="1:22" s="81" customFormat="1">
       <c r="A305" s="222" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B305" s="48">
         <v>88</v>
@@ -33900,7 +33905,7 @@
     </row>
     <row r="306" spans="1:22" s="81" customFormat="1">
       <c r="A306" s="222" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B306" s="48">
         <v>82</v>
@@ -33915,7 +33920,7 @@
     </row>
     <row r="307" spans="1:22" s="81" customFormat="1">
       <c r="A307" s="222" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B307" s="48">
         <v>70</v>
@@ -33930,7 +33935,7 @@
     </row>
     <row r="308" spans="1:22" s="81" customFormat="1">
       <c r="A308" s="222" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B308" s="48">
         <v>75</v>
@@ -33945,7 +33950,7 @@
     </row>
     <row r="309" spans="1:22" s="81" customFormat="1">
       <c r="A309" s="222" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B309" s="48">
         <v>80</v>
@@ -33960,7 +33965,7 @@
     </row>
     <row r="310" spans="1:22" s="81" customFormat="1">
       <c r="A310" s="222" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B310" s="48">
         <v>78</v>
@@ -33975,7 +33980,7 @@
     </row>
     <row r="311" spans="1:22" s="81" customFormat="1">
       <c r="A311" s="222" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B311" s="48">
         <v>84</v>
@@ -33990,7 +33995,7 @@
     </row>
     <row r="312" spans="1:22" s="81" customFormat="1">
       <c r="A312" s="222" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B312" s="48">
         <v>84</v>
@@ -34005,7 +34010,7 @@
     </row>
     <row r="313" spans="1:22" s="81" customFormat="1">
       <c r="A313" s="222" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B313" s="48">
         <v>72</v>
@@ -34020,7 +34025,7 @@
     </row>
     <row r="314" spans="1:22" s="81" customFormat="1">
       <c r="A314" s="222" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B314" s="48">
         <v>67</v>
@@ -34035,7 +34040,7 @@
     </row>
     <row r="315" spans="1:22" s="81" customFormat="1">
       <c r="A315" s="222" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B315" s="48">
         <v>58</v>
@@ -34050,7 +34055,7 @@
     </row>
     <row r="316" spans="1:22" s="81" customFormat="1">
       <c r="A316" s="222" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B316" s="48">
         <v>66</v>
@@ -34065,7 +34070,7 @@
     </row>
     <row r="317" spans="1:22" s="81" customFormat="1">
       <c r="A317" s="222" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B317" s="48">
         <v>80</v>
@@ -34080,7 +34085,7 @@
     </row>
     <row r="318" spans="1:22" s="81" customFormat="1">
       <c r="A318" s="222" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B318" s="48">
         <v>66</v>
@@ -34095,7 +34100,7 @@
     </row>
     <row r="319" spans="1:22" s="81" customFormat="1">
       <c r="A319" s="222" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B319" s="48">
         <v>74</v>
@@ -34107,7 +34112,7 @@
     </row>
     <row r="320" spans="1:22" s="81" customFormat="1">
       <c r="A320" s="222" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B320" s="48">
         <v>46</v>
@@ -34119,7 +34124,7 @@
     </row>
     <row r="321" spans="1:22" s="81" customFormat="1">
       <c r="A321" s="222" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B321" s="48">
         <v>41</v>
@@ -34131,7 +34136,7 @@
     </row>
     <row r="322" spans="1:22" s="81" customFormat="1">
       <c r="A322" s="222" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B322" s="48">
         <v>38</v>
@@ -34143,7 +34148,7 @@
     </row>
     <row r="323" spans="1:22" s="81" customFormat="1">
       <c r="A323" s="222" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B323" s="48">
         <v>49</v>
@@ -34156,7 +34161,7 @@
     </row>
     <row r="324" spans="1:22" ht="13.5" customHeight="1">
       <c r="A324" s="222" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B324" s="48">
         <v>58</v>
@@ -34168,7 +34173,7 @@
     </row>
     <row r="325" spans="1:22">
       <c r="A325" s="222" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B325" s="48">
         <v>42</v>
@@ -34180,7 +34185,7 @@
     </row>
     <row r="326" spans="1:22">
       <c r="A326" s="222" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B326" s="48">
         <v>43</v>
@@ -34192,7 +34197,7 @@
     </row>
     <row r="327" spans="1:22">
       <c r="A327" s="222" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B327" s="48">
         <v>47</v>
@@ -34204,7 +34209,7 @@
     </row>
     <row r="328" spans="1:22">
       <c r="A328" s="222" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B328" s="48">
         <v>45</v>
@@ -34216,7 +34221,7 @@
     </row>
     <row r="329" spans="1:22">
       <c r="A329" s="222" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B329" s="48">
         <v>32</v>
@@ -34228,7 +34233,7 @@
     </row>
     <row r="330" spans="1:22">
       <c r="A330" s="222" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B330" s="48">
         <v>36</v>
@@ -34240,7 +34245,7 @@
     </row>
     <row r="331" spans="1:22">
       <c r="A331" s="222" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B331" s="48">
         <v>26</v>
@@ -34252,7 +34257,7 @@
     </row>
     <row r="332" spans="1:22">
       <c r="A332" s="222" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B332" s="48">
         <v>36</v>
@@ -34264,7 +34269,7 @@
     </row>
     <row r="333" spans="1:22">
       <c r="A333" s="222" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B333" s="48">
         <v>23</v>
@@ -34276,7 +34281,7 @@
     </row>
     <row r="334" spans="1:22">
       <c r="A334" s="222" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B334" s="48">
         <v>18</v>
@@ -34288,7 +34293,7 @@
     </row>
     <row r="335" spans="1:22">
       <c r="A335" s="222" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B335" s="48">
         <v>20</v>
@@ -34300,7 +34305,7 @@
     </row>
     <row r="336" spans="1:22">
       <c r="A336" s="222" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B336" s="48">
         <v>11</v>
@@ -34312,7 +34317,7 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="222" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B337" s="48">
         <v>27</v>
@@ -34324,7 +34329,7 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="222" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B338" s="48">
         <v>15</v>
@@ -34336,7 +34341,7 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="222" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B339" s="48">
         <v>10</v>
@@ -34348,7 +34353,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="222" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B340" s="48">
         <v>4</v>
@@ -34360,10 +34365,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="222" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B341" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C341" s="32" t="str">
         <f t="shared" ref="C341:C344" si="12">IF(OR(B341=0,B341="X"),"",100*B341/B$8)</f>
@@ -34372,10 +34377,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="222" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B342" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C342" s="32" t="str">
         <f t="shared" si="12"/>
@@ -34384,10 +34389,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="222" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B343" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C343" s="32" t="str">
         <f t="shared" si="12"/>
@@ -34396,10 +34401,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="222" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B344" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C344" s="32" t="str">
         <f t="shared" si="12"/>
@@ -34408,7 +34413,7 @@
     </row>
     <row r="345" spans="1:3" ht="14.25" thickBot="1">
       <c r="A345" s="222" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B345" s="48">
         <v>23</v>
@@ -34543,7 +34548,7 @@
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="217" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B9" s="177">
         <v>11475</v>
@@ -34566,7 +34571,7 @@
     </row>
     <row r="10" spans="1:7" ht="14.25">
       <c r="A10" s="218" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B10" s="215">
         <v>23</v>
@@ -34589,10 +34594,10 @@
     </row>
     <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="219" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B11" s="216" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C11" s="216"/>
       <c r="D11" s="216">
@@ -34610,10 +34615,10 @@
     </row>
     <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="219" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B12" s="216" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C12" s="216"/>
       <c r="D12" s="216">
@@ -34631,7 +34636,7 @@
     </row>
     <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="219" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B13" s="216">
         <v>44</v>
@@ -34654,7 +34659,7 @@
     </row>
     <row r="14" spans="1:7" ht="14.25">
       <c r="A14" s="219" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B14" s="216">
         <v>187</v>
@@ -34677,7 +34682,7 @@
     </row>
     <row r="15" spans="1:7" ht="14.25">
       <c r="A15" s="219" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B15" s="216">
         <v>471</v>
@@ -34700,7 +34705,7 @@
     </row>
     <row r="16" spans="1:7" ht="14.25">
       <c r="A16" s="219" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B16" s="216">
         <v>737</v>
@@ -34723,7 +34728,7 @@
     </row>
     <row r="17" spans="1:7" ht="14.25">
       <c r="A17" s="219" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B17" s="216">
         <v>728</v>
@@ -34746,7 +34751,7 @@
     </row>
     <row r="18" spans="1:7" ht="14.25">
       <c r="A18" s="219" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B18" s="216">
         <v>595</v>
@@ -34769,7 +34774,7 @@
     </row>
     <row r="19" spans="1:7" ht="14.25">
       <c r="A19" s="219" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B19" s="216">
         <v>555</v>
@@ -34792,7 +34797,7 @@
     </row>
     <row r="20" spans="1:7" ht="14.25">
       <c r="A20" s="219" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B20" s="216">
         <v>499</v>
@@ -34815,7 +34820,7 @@
     </row>
     <row r="21" spans="1:7" ht="14.25">
       <c r="A21" s="219" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B21" s="216">
         <v>382</v>
@@ -34838,7 +34843,7 @@
     </row>
     <row r="22" spans="1:7" ht="14.25">
       <c r="A22" s="219" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B22" s="216">
         <v>342</v>
@@ -34861,7 +34866,7 @@
     </row>
     <row r="23" spans="1:7" ht="14.25">
       <c r="A23" s="219" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B23" s="216">
         <v>258</v>
@@ -34884,7 +34889,7 @@
     </row>
     <row r="24" spans="1:7" ht="14.25">
       <c r="A24" s="219" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B24" s="216">
         <v>254</v>
@@ -34907,7 +34912,7 @@
     </row>
     <row r="25" spans="1:7" ht="14.25">
       <c r="A25" s="219" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B25" s="216">
         <v>229</v>
@@ -34930,7 +34935,7 @@
     </row>
     <row r="26" spans="1:7" ht="14.25">
       <c r="A26" s="219" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B26" s="216">
         <v>189</v>
@@ -34953,7 +34958,7 @@
     </row>
     <row r="27" spans="1:7" ht="14.25">
       <c r="A27" s="219" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B27" s="216">
         <v>133</v>
@@ -34976,7 +34981,7 @@
     </row>
     <row r="28" spans="1:7" ht="14.25">
       <c r="A28" s="219" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B28" s="216">
         <v>85</v>
@@ -34999,7 +35004,7 @@
     </row>
     <row r="29" spans="1:7" ht="14.25">
       <c r="A29" s="219" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B29" s="216">
         <v>77</v>
@@ -35022,7 +35027,7 @@
     </row>
     <row r="30" spans="1:7" ht="14.25">
       <c r="A30" s="219" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B30" s="216">
         <v>64</v>
@@ -35045,7 +35050,7 @@
     </row>
     <row r="31" spans="1:7" ht="14.25">
       <c r="A31" s="219" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B31" s="216">
         <v>29</v>
@@ -35068,7 +35073,7 @@
     </row>
     <row r="32" spans="1:7" ht="14.25">
       <c r="A32" s="219" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B32" s="216">
         <v>24</v>
@@ -35091,7 +35096,7 @@
     </row>
     <row r="33" spans="1:8" ht="14.25">
       <c r="A33" s="219" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B33" s="216">
         <v>24</v>
@@ -35115,7 +35120,7 @@
     </row>
     <row r="34" spans="1:8" ht="14.25">
       <c r="A34" s="219" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B34" s="216">
         <v>16</v>
@@ -35130,13 +35135,13 @@
         <v>43.75</v>
       </c>
       <c r="F34" s="216" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G34" s="216"/>
     </row>
     <row r="35" spans="1:8" ht="14.25">
       <c r="A35" s="219" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B35" s="216">
         <v>16</v>
@@ -35159,7 +35164,7 @@
     </row>
     <row r="36" spans="1:8" ht="14.25">
       <c r="A36" s="219" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B36" s="216">
         <v>13</v>
@@ -35168,7 +35173,7 @@
         <v>0.11</v>
       </c>
       <c r="D36" s="216" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E36" s="216"/>
       <c r="F36" s="216">
@@ -35180,7 +35185,7 @@
     </row>
     <row r="37" spans="1:8" ht="14.25">
       <c r="A37" s="219" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B37" s="216">
         <v>10</v>
@@ -35203,7 +35208,7 @@
     </row>
     <row r="38" spans="1:8" ht="14.25">
       <c r="A38" s="219" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B38" s="216">
         <v>13</v>
@@ -35226,7 +35231,7 @@
     </row>
     <row r="39" spans="1:8" ht="14.25">
       <c r="A39" s="219" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B39" s="216">
         <v>9</v>
@@ -35235,17 +35240,17 @@
         <v>0.08</v>
       </c>
       <c r="D39" s="216" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E39" s="216"/>
       <c r="F39" s="216" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G39" s="216"/>
     </row>
     <row r="40" spans="1:8" ht="14.25">
       <c r="A40" s="219" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B40" s="216">
         <v>13</v>
@@ -35254,17 +35259,17 @@
         <v>0.11</v>
       </c>
       <c r="D40" s="216" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E40" s="216"/>
       <c r="F40" s="216" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G40" s="216"/>
     </row>
     <row r="41" spans="1:8" ht="14.25">
       <c r="A41" s="219" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B41" s="216">
         <v>12</v>
@@ -35279,13 +35284,13 @@
         <v>50</v>
       </c>
       <c r="F41" s="216" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G41" s="216"/>
     </row>
     <row r="42" spans="1:8" ht="14.25">
       <c r="A42" s="219" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B42" s="216">
         <v>20</v>
@@ -35308,7 +35313,7 @@
     </row>
     <row r="43" spans="1:8" ht="14.25">
       <c r="A43" s="219" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B43" s="216">
         <v>16</v>
@@ -35331,7 +35336,7 @@
     </row>
     <row r="44" spans="1:8" ht="14.25">
       <c r="A44" s="219" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B44" s="216">
         <v>33</v>
@@ -35354,7 +35359,7 @@
     </row>
     <row r="45" spans="1:8" ht="14.25">
       <c r="A45" s="219" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B45" s="216">
         <v>70</v>
@@ -35377,7 +35382,7 @@
     </row>
     <row r="46" spans="1:8" ht="14.25">
       <c r="A46" s="219" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B46" s="216">
         <v>135</v>
@@ -35400,7 +35405,7 @@
     </row>
     <row r="47" spans="1:8" ht="14.25">
       <c r="A47" s="219" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B47" s="216">
         <v>188</v>
@@ -35423,7 +35428,7 @@
     </row>
     <row r="48" spans="1:8" ht="14.25">
       <c r="A48" s="219" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B48" s="216">
         <v>293</v>
@@ -35446,7 +35451,7 @@
     </row>
     <row r="49" spans="1:7" ht="14.25">
       <c r="A49" s="219" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B49" s="216">
         <v>329</v>
@@ -35469,7 +35474,7 @@
     </row>
     <row r="50" spans="1:7" ht="14.25">
       <c r="A50" s="219" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B50" s="216">
         <v>385</v>
@@ -35492,7 +35497,7 @@
     </row>
     <row r="51" spans="1:7" ht="14.25">
       <c r="A51" s="219" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B51" s="216">
         <v>385</v>
@@ -35515,7 +35520,7 @@
     </row>
     <row r="52" spans="1:7" ht="14.25">
       <c r="A52" s="219" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B52" s="216">
         <v>508</v>
@@ -35538,7 +35543,7 @@
     </row>
     <row r="53" spans="1:7" ht="14.25">
       <c r="A53" s="219" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B53" s="216">
         <v>509</v>
@@ -35561,7 +35566,7 @@
     </row>
     <row r="54" spans="1:7" ht="14.25">
       <c r="A54" s="219" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B54" s="216">
         <v>555</v>
@@ -35584,7 +35589,7 @@
     </row>
     <row r="55" spans="1:7" ht="14.25">
       <c r="A55" s="219" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B55" s="216">
         <v>531</v>
@@ -35607,7 +35612,7 @@
     </row>
     <row r="56" spans="1:7" ht="14.25">
       <c r="A56" s="219" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B56" s="216">
         <v>523</v>
@@ -35630,7 +35635,7 @@
     </row>
     <row r="57" spans="1:7" ht="14.25">
       <c r="A57" s="219" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B57" s="216">
         <v>411</v>
@@ -35653,7 +35658,7 @@
     </row>
     <row r="58" spans="1:7" ht="14.25">
       <c r="A58" s="219" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B58" s="216">
         <v>316</v>
@@ -35676,7 +35681,7 @@
     </row>
     <row r="59" spans="1:7" ht="14.25">
       <c r="A59" s="219" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B59" s="216">
         <v>170</v>
@@ -35699,7 +35704,7 @@
     </row>
     <row r="60" spans="1:7" ht="15" thickBot="1">
       <c r="A60" s="219" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B60" s="216">
         <v>60</v>
@@ -35752,7 +35757,7 @@
   </sheetPr>
   <dimension ref="B4:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -36848,7 +36853,7 @@
     </row>
     <row r="75" spans="2:6" s="81" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
       <c r="B75" s="287" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C75" s="287"/>
       <c r="D75" s="150"/>
@@ -37136,7 +37141,7 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="305" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B2" s="306"/>
       <c r="C2" s="306"/>
@@ -47022,7 +47027,7 @@
     </row>
     <row r="2" spans="1:12" ht="27" customHeight="1">
       <c r="A2" s="307" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B2" s="307"/>
       <c r="C2" s="307"/>
@@ -48082,7 +48087,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1">
       <c r="A36" s="261" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B36" s="245">
         <v>24</v>
@@ -48103,19 +48108,19 @@
         <v>9</v>
       </c>
       <c r="H36" s="79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I36" s="9">
         <v>88.89</v>
       </c>
       <c r="J36" s="79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="261" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B37" s="245">
         <v>122</v>
@@ -48150,7 +48155,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="261" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B38" s="245">
         <v>12</v>
@@ -48171,19 +48176,19 @@
         <v>5</v>
       </c>
       <c r="H38" s="79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I38" s="9">
         <v>80</v>
       </c>
       <c r="J38" s="79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="261" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B39" s="245">
         <v>187</v>
@@ -48218,7 +48223,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="261" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B40" s="245">
         <v>78</v>
@@ -48253,7 +48258,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="261" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B41" s="245">
         <v>50</v>
@@ -48288,7 +48293,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="261" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B42" s="245">
         <v>168</v>
@@ -48323,7 +48328,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="261" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B43" s="245">
         <v>54</v>
@@ -48358,7 +48363,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="261" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B44" s="245">
         <v>89</v>
@@ -48393,7 +48398,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="261" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B45" s="245">
         <v>53</v>
@@ -48428,7 +48433,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="261" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B46" s="245">
         <v>374</v>
@@ -48463,7 +48468,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="261" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B47" s="245">
         <v>1500</v>
@@ -48498,7 +48503,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="261" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B48" s="245">
         <v>113</v>
@@ -48533,7 +48538,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="261" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B49" s="245">
         <v>169</v>
@@ -48568,7 +48573,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="261" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B50" s="245">
         <v>27</v>
@@ -48604,7 +48609,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="261" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B51" s="245">
         <v>44</v>
@@ -48639,7 +48644,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="261" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B52" s="245">
         <v>109</v>
@@ -48674,7 +48679,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="261" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B53" s="245">
         <v>159</v>
@@ -48709,7 +48714,7 @@
     </row>
     <row r="54" spans="1:12" ht="13.5" customHeight="1">
       <c r="A54" s="261" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B54" s="245">
         <v>720</v>
@@ -48744,7 +48749,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="261" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B55" s="245">
         <v>78</v>
@@ -48779,7 +48784,7 @@
     </row>
     <row r="56" spans="1:12" ht="13.5" customHeight="1" thickBot="1">
       <c r="A56" s="68" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B56" s="68">
         <v>222</v>
@@ -52750,7 +52755,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="243" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B9" s="239">
         <v>3563</v>
@@ -52779,7 +52784,7 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="243" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B10" s="239">
         <v>1873</v>
@@ -52808,7 +52813,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="243" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B11" s="239">
         <v>1269</v>
@@ -52838,7 +52843,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="243" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B12" s="239">
         <v>523</v>
@@ -52867,7 +52872,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="243" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B13" s="239">
         <v>448</v>
@@ -52896,7 +52901,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="243" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B14" s="239">
         <v>439</v>
@@ -52925,7 +52930,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="268" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B15" s="239">
         <v>412</v>
@@ -52954,7 +52959,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="243" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B16" s="239">
         <v>385</v>
@@ -52983,7 +52988,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="243" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B17" s="239">
         <v>322</v>
@@ -53012,7 +53017,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="243" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B18" s="239">
         <v>313</v>
@@ -53041,7 +53046,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="243" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B19" s="239">
         <v>301</v>
@@ -53070,7 +53075,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="243" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B20" s="239">
         <v>261</v>
@@ -53099,7 +53104,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="243" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B21" s="239">
         <v>251</v>
@@ -53128,7 +53133,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="243" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B22" s="239">
         <v>234</v>
@@ -53157,7 +53162,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="243" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B23" s="239">
         <v>200</v>
@@ -53186,7 +53191,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="243" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B24" s="239">
         <v>198</v>
@@ -53215,7 +53220,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="243" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B25" s="239">
         <v>142</v>
@@ -53244,7 +53249,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="243" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B26" s="239">
         <v>106</v>
@@ -53273,7 +53278,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="243" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B27" s="239">
         <v>103</v>
@@ -53302,7 +53307,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="243" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B28" s="239">
         <v>98</v>
@@ -53331,7 +53336,7 @@
     </row>
     <row r="29" spans="1:9" ht="14.25" thickBot="1">
       <c r="A29" s="244" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B29" s="61">
         <v>33</v>
@@ -53406,6 +53411,44 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
+    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Hälso- och sjukvård</Value>
+    </Verksamhetsomr_x00e5_de>
+    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
+    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
+    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <UserInfo>
+        <DisplayName>Söderholm, Joen</DisplayName>
+        <AccountId>87</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Ansvarig_x0020_webbredakt_x00f6_r>
+    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
+      <Value>9</Value>
+    </TaxCatchAll>
+    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
+    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna-20200429</Titel>
+    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Socialstyrelsen.se</Value>
+    </Webbplatstillh_x00f6_righet>
+    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
+        </TermInfo>
+      </Terms>
+    </i01e5b6f93524074838bfc1e1bab8714>
+    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100361443839E954C488E1554F766430BDE" ma:contentTypeVersion="37" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="ec0867efc9d878e75742a5b73fddae48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd3acd59-a8d8-42b1-950d-eec6c247243c" xmlns:ns3="343f6c91-b5b3-4dff-89ad-5fc55ccc8930" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f4ea334ff345e29c5775f0a2fd1174f" ns2:_="" ns3:_="">
     <xsd:import namespace="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
@@ -53738,7 +53781,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -53747,45 +53790,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
-    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Hälso- och sjukvård</Value>
-    </Verksamhetsomr_x00e5_de>
-    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
-    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
-    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <UserInfo>
-        <DisplayName>Söderholm, Joen</DisplayName>
-        <AccountId>87</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Ansvarig_x0020_webbredakt_x00f6_r>
-    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
-      <Value>9</Value>
-    </TaxCatchAll>
-    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
-    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna-20200429</Titel>
-    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Socialstyrelsen.se</Value>
-    </Webbplatstillh_x00f6_righet>
-    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
-        </TermInfo>
-      </Terms>
-    </i01e5b6f93524074838bfc1e1bab8714>
-    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BDD971-BADF-427E-9579-B824215A28B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -53804,27 +53826,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/socialstyrelsen/statistik-covid19-avlidna_latest.xlsx
+++ b/socialstyrelsen/statistik-covid19-avlidna_latest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="276" windowWidth="2880" windowHeight="5328" tabRatio="751"/>
+    <workbookView xWindow="720" yWindow="270" windowWidth="2880" windowHeight="5325" tabRatio="751"/>
   </bookViews>
   <sheets>
     <sheet name="Om statistiken" sheetId="11" r:id="rId1"/>
@@ -5140,6 +5140,42 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5158,12 +5194,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5172,36 +5202,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5430,7 +5430,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5792,7 +5791,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5894,7 +5892,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6191,7 +6188,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6293,7 +6289,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6583,7 +6578,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6685,7 +6679,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6987,7 +6980,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16850,6 +16842,7 @@
               </a:solidFill>
               <a:latin typeface="Century Gothic"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>2021-01-26</a:t>
           </a:fld>
           <a:endParaRPr lang="sv-SE" sz="1900" smtClean="0"/>
@@ -20702,397 +20695,397 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="46.140625" customWidth="1"/>
-    <col min="6" max="6" width="50.42578125" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1"/>
-    <col min="258" max="258" width="23.42578125" customWidth="1"/>
-    <col min="259" max="259" width="40.42578125" customWidth="1"/>
-    <col min="260" max="260" width="9.28515625" customWidth="1"/>
-    <col min="261" max="261" width="46.140625" customWidth="1"/>
-    <col min="262" max="262" width="55.42578125" customWidth="1"/>
-    <col min="263" max="263" width="29.7109375" customWidth="1"/>
-    <col min="514" max="514" width="23.42578125" customWidth="1"/>
-    <col min="515" max="515" width="40.42578125" customWidth="1"/>
-    <col min="516" max="516" width="9.28515625" customWidth="1"/>
-    <col min="517" max="517" width="46.140625" customWidth="1"/>
-    <col min="518" max="518" width="55.42578125" customWidth="1"/>
-    <col min="519" max="519" width="29.7109375" customWidth="1"/>
-    <col min="770" max="770" width="23.42578125" customWidth="1"/>
-    <col min="771" max="771" width="40.42578125" customWidth="1"/>
-    <col min="772" max="772" width="9.28515625" customWidth="1"/>
-    <col min="773" max="773" width="46.140625" customWidth="1"/>
-    <col min="774" max="774" width="55.42578125" customWidth="1"/>
-    <col min="775" max="775" width="29.7109375" customWidth="1"/>
-    <col min="1026" max="1026" width="23.42578125" customWidth="1"/>
-    <col min="1027" max="1027" width="40.42578125" customWidth="1"/>
-    <col min="1028" max="1028" width="9.28515625" customWidth="1"/>
-    <col min="1029" max="1029" width="46.140625" customWidth="1"/>
-    <col min="1030" max="1030" width="55.42578125" customWidth="1"/>
-    <col min="1031" max="1031" width="29.7109375" customWidth="1"/>
-    <col min="1282" max="1282" width="23.42578125" customWidth="1"/>
-    <col min="1283" max="1283" width="40.42578125" customWidth="1"/>
-    <col min="1284" max="1284" width="9.28515625" customWidth="1"/>
-    <col min="1285" max="1285" width="46.140625" customWidth="1"/>
-    <col min="1286" max="1286" width="55.42578125" customWidth="1"/>
-    <col min="1287" max="1287" width="29.7109375" customWidth="1"/>
-    <col min="1538" max="1538" width="23.42578125" customWidth="1"/>
-    <col min="1539" max="1539" width="40.42578125" customWidth="1"/>
-    <col min="1540" max="1540" width="9.28515625" customWidth="1"/>
-    <col min="1541" max="1541" width="46.140625" customWidth="1"/>
-    <col min="1542" max="1542" width="55.42578125" customWidth="1"/>
-    <col min="1543" max="1543" width="29.7109375" customWidth="1"/>
-    <col min="1794" max="1794" width="23.42578125" customWidth="1"/>
-    <col min="1795" max="1795" width="40.42578125" customWidth="1"/>
-    <col min="1796" max="1796" width="9.28515625" customWidth="1"/>
-    <col min="1797" max="1797" width="46.140625" customWidth="1"/>
-    <col min="1798" max="1798" width="55.42578125" customWidth="1"/>
-    <col min="1799" max="1799" width="29.7109375" customWidth="1"/>
-    <col min="2050" max="2050" width="23.42578125" customWidth="1"/>
-    <col min="2051" max="2051" width="40.42578125" customWidth="1"/>
-    <col min="2052" max="2052" width="9.28515625" customWidth="1"/>
-    <col min="2053" max="2053" width="46.140625" customWidth="1"/>
-    <col min="2054" max="2054" width="55.42578125" customWidth="1"/>
-    <col min="2055" max="2055" width="29.7109375" customWidth="1"/>
-    <col min="2306" max="2306" width="23.42578125" customWidth="1"/>
-    <col min="2307" max="2307" width="40.42578125" customWidth="1"/>
-    <col min="2308" max="2308" width="9.28515625" customWidth="1"/>
-    <col min="2309" max="2309" width="46.140625" customWidth="1"/>
-    <col min="2310" max="2310" width="55.42578125" customWidth="1"/>
-    <col min="2311" max="2311" width="29.7109375" customWidth="1"/>
-    <col min="2562" max="2562" width="23.42578125" customWidth="1"/>
-    <col min="2563" max="2563" width="40.42578125" customWidth="1"/>
-    <col min="2564" max="2564" width="9.28515625" customWidth="1"/>
-    <col min="2565" max="2565" width="46.140625" customWidth="1"/>
-    <col min="2566" max="2566" width="55.42578125" customWidth="1"/>
-    <col min="2567" max="2567" width="29.7109375" customWidth="1"/>
-    <col min="2818" max="2818" width="23.42578125" customWidth="1"/>
-    <col min="2819" max="2819" width="40.42578125" customWidth="1"/>
-    <col min="2820" max="2820" width="9.28515625" customWidth="1"/>
-    <col min="2821" max="2821" width="46.140625" customWidth="1"/>
-    <col min="2822" max="2822" width="55.42578125" customWidth="1"/>
-    <col min="2823" max="2823" width="29.7109375" customWidth="1"/>
-    <col min="3074" max="3074" width="23.42578125" customWidth="1"/>
-    <col min="3075" max="3075" width="40.42578125" customWidth="1"/>
-    <col min="3076" max="3076" width="9.28515625" customWidth="1"/>
-    <col min="3077" max="3077" width="46.140625" customWidth="1"/>
-    <col min="3078" max="3078" width="55.42578125" customWidth="1"/>
-    <col min="3079" max="3079" width="29.7109375" customWidth="1"/>
-    <col min="3330" max="3330" width="23.42578125" customWidth="1"/>
-    <col min="3331" max="3331" width="40.42578125" customWidth="1"/>
-    <col min="3332" max="3332" width="9.28515625" customWidth="1"/>
-    <col min="3333" max="3333" width="46.140625" customWidth="1"/>
-    <col min="3334" max="3334" width="55.42578125" customWidth="1"/>
-    <col min="3335" max="3335" width="29.7109375" customWidth="1"/>
-    <col min="3586" max="3586" width="23.42578125" customWidth="1"/>
-    <col min="3587" max="3587" width="40.42578125" customWidth="1"/>
-    <col min="3588" max="3588" width="9.28515625" customWidth="1"/>
-    <col min="3589" max="3589" width="46.140625" customWidth="1"/>
-    <col min="3590" max="3590" width="55.42578125" customWidth="1"/>
-    <col min="3591" max="3591" width="29.7109375" customWidth="1"/>
-    <col min="3842" max="3842" width="23.42578125" customWidth="1"/>
-    <col min="3843" max="3843" width="40.42578125" customWidth="1"/>
-    <col min="3844" max="3844" width="9.28515625" customWidth="1"/>
-    <col min="3845" max="3845" width="46.140625" customWidth="1"/>
-    <col min="3846" max="3846" width="55.42578125" customWidth="1"/>
-    <col min="3847" max="3847" width="29.7109375" customWidth="1"/>
-    <col min="4098" max="4098" width="23.42578125" customWidth="1"/>
-    <col min="4099" max="4099" width="40.42578125" customWidth="1"/>
-    <col min="4100" max="4100" width="9.28515625" customWidth="1"/>
-    <col min="4101" max="4101" width="46.140625" customWidth="1"/>
-    <col min="4102" max="4102" width="55.42578125" customWidth="1"/>
-    <col min="4103" max="4103" width="29.7109375" customWidth="1"/>
-    <col min="4354" max="4354" width="23.42578125" customWidth="1"/>
-    <col min="4355" max="4355" width="40.42578125" customWidth="1"/>
-    <col min="4356" max="4356" width="9.28515625" customWidth="1"/>
-    <col min="4357" max="4357" width="46.140625" customWidth="1"/>
-    <col min="4358" max="4358" width="55.42578125" customWidth="1"/>
-    <col min="4359" max="4359" width="29.7109375" customWidth="1"/>
-    <col min="4610" max="4610" width="23.42578125" customWidth="1"/>
-    <col min="4611" max="4611" width="40.42578125" customWidth="1"/>
-    <col min="4612" max="4612" width="9.28515625" customWidth="1"/>
-    <col min="4613" max="4613" width="46.140625" customWidth="1"/>
-    <col min="4614" max="4614" width="55.42578125" customWidth="1"/>
-    <col min="4615" max="4615" width="29.7109375" customWidth="1"/>
-    <col min="4866" max="4866" width="23.42578125" customWidth="1"/>
-    <col min="4867" max="4867" width="40.42578125" customWidth="1"/>
-    <col min="4868" max="4868" width="9.28515625" customWidth="1"/>
-    <col min="4869" max="4869" width="46.140625" customWidth="1"/>
-    <col min="4870" max="4870" width="55.42578125" customWidth="1"/>
-    <col min="4871" max="4871" width="29.7109375" customWidth="1"/>
-    <col min="5122" max="5122" width="23.42578125" customWidth="1"/>
-    <col min="5123" max="5123" width="40.42578125" customWidth="1"/>
-    <col min="5124" max="5124" width="9.28515625" customWidth="1"/>
-    <col min="5125" max="5125" width="46.140625" customWidth="1"/>
-    <col min="5126" max="5126" width="55.42578125" customWidth="1"/>
-    <col min="5127" max="5127" width="29.7109375" customWidth="1"/>
-    <col min="5378" max="5378" width="23.42578125" customWidth="1"/>
-    <col min="5379" max="5379" width="40.42578125" customWidth="1"/>
-    <col min="5380" max="5380" width="9.28515625" customWidth="1"/>
-    <col min="5381" max="5381" width="46.140625" customWidth="1"/>
-    <col min="5382" max="5382" width="55.42578125" customWidth="1"/>
-    <col min="5383" max="5383" width="29.7109375" customWidth="1"/>
-    <col min="5634" max="5634" width="23.42578125" customWidth="1"/>
-    <col min="5635" max="5635" width="40.42578125" customWidth="1"/>
-    <col min="5636" max="5636" width="9.28515625" customWidth="1"/>
-    <col min="5637" max="5637" width="46.140625" customWidth="1"/>
-    <col min="5638" max="5638" width="55.42578125" customWidth="1"/>
-    <col min="5639" max="5639" width="29.7109375" customWidth="1"/>
-    <col min="5890" max="5890" width="23.42578125" customWidth="1"/>
-    <col min="5891" max="5891" width="40.42578125" customWidth="1"/>
-    <col min="5892" max="5892" width="9.28515625" customWidth="1"/>
-    <col min="5893" max="5893" width="46.140625" customWidth="1"/>
-    <col min="5894" max="5894" width="55.42578125" customWidth="1"/>
-    <col min="5895" max="5895" width="29.7109375" customWidth="1"/>
-    <col min="6146" max="6146" width="23.42578125" customWidth="1"/>
-    <col min="6147" max="6147" width="40.42578125" customWidth="1"/>
-    <col min="6148" max="6148" width="9.28515625" customWidth="1"/>
-    <col min="6149" max="6149" width="46.140625" customWidth="1"/>
-    <col min="6150" max="6150" width="55.42578125" customWidth="1"/>
-    <col min="6151" max="6151" width="29.7109375" customWidth="1"/>
-    <col min="6402" max="6402" width="23.42578125" customWidth="1"/>
-    <col min="6403" max="6403" width="40.42578125" customWidth="1"/>
-    <col min="6404" max="6404" width="9.28515625" customWidth="1"/>
-    <col min="6405" max="6405" width="46.140625" customWidth="1"/>
-    <col min="6406" max="6406" width="55.42578125" customWidth="1"/>
-    <col min="6407" max="6407" width="29.7109375" customWidth="1"/>
-    <col min="6658" max="6658" width="23.42578125" customWidth="1"/>
-    <col min="6659" max="6659" width="40.42578125" customWidth="1"/>
-    <col min="6660" max="6660" width="9.28515625" customWidth="1"/>
-    <col min="6661" max="6661" width="46.140625" customWidth="1"/>
-    <col min="6662" max="6662" width="55.42578125" customWidth="1"/>
-    <col min="6663" max="6663" width="29.7109375" customWidth="1"/>
-    <col min="6914" max="6914" width="23.42578125" customWidth="1"/>
-    <col min="6915" max="6915" width="40.42578125" customWidth="1"/>
-    <col min="6916" max="6916" width="9.28515625" customWidth="1"/>
-    <col min="6917" max="6917" width="46.140625" customWidth="1"/>
-    <col min="6918" max="6918" width="55.42578125" customWidth="1"/>
-    <col min="6919" max="6919" width="29.7109375" customWidth="1"/>
-    <col min="7170" max="7170" width="23.42578125" customWidth="1"/>
-    <col min="7171" max="7171" width="40.42578125" customWidth="1"/>
-    <col min="7172" max="7172" width="9.28515625" customWidth="1"/>
-    <col min="7173" max="7173" width="46.140625" customWidth="1"/>
-    <col min="7174" max="7174" width="55.42578125" customWidth="1"/>
-    <col min="7175" max="7175" width="29.7109375" customWidth="1"/>
-    <col min="7426" max="7426" width="23.42578125" customWidth="1"/>
-    <col min="7427" max="7427" width="40.42578125" customWidth="1"/>
-    <col min="7428" max="7428" width="9.28515625" customWidth="1"/>
-    <col min="7429" max="7429" width="46.140625" customWidth="1"/>
-    <col min="7430" max="7430" width="55.42578125" customWidth="1"/>
-    <col min="7431" max="7431" width="29.7109375" customWidth="1"/>
-    <col min="7682" max="7682" width="23.42578125" customWidth="1"/>
-    <col min="7683" max="7683" width="40.42578125" customWidth="1"/>
-    <col min="7684" max="7684" width="9.28515625" customWidth="1"/>
-    <col min="7685" max="7685" width="46.140625" customWidth="1"/>
-    <col min="7686" max="7686" width="55.42578125" customWidth="1"/>
-    <col min="7687" max="7687" width="29.7109375" customWidth="1"/>
-    <col min="7938" max="7938" width="23.42578125" customWidth="1"/>
-    <col min="7939" max="7939" width="40.42578125" customWidth="1"/>
-    <col min="7940" max="7940" width="9.28515625" customWidth="1"/>
-    <col min="7941" max="7941" width="46.140625" customWidth="1"/>
-    <col min="7942" max="7942" width="55.42578125" customWidth="1"/>
-    <col min="7943" max="7943" width="29.7109375" customWidth="1"/>
-    <col min="8194" max="8194" width="23.42578125" customWidth="1"/>
-    <col min="8195" max="8195" width="40.42578125" customWidth="1"/>
-    <col min="8196" max="8196" width="9.28515625" customWidth="1"/>
-    <col min="8197" max="8197" width="46.140625" customWidth="1"/>
-    <col min="8198" max="8198" width="55.42578125" customWidth="1"/>
-    <col min="8199" max="8199" width="29.7109375" customWidth="1"/>
-    <col min="8450" max="8450" width="23.42578125" customWidth="1"/>
-    <col min="8451" max="8451" width="40.42578125" customWidth="1"/>
-    <col min="8452" max="8452" width="9.28515625" customWidth="1"/>
-    <col min="8453" max="8453" width="46.140625" customWidth="1"/>
-    <col min="8454" max="8454" width="55.42578125" customWidth="1"/>
-    <col min="8455" max="8455" width="29.7109375" customWidth="1"/>
-    <col min="8706" max="8706" width="23.42578125" customWidth="1"/>
-    <col min="8707" max="8707" width="40.42578125" customWidth="1"/>
-    <col min="8708" max="8708" width="9.28515625" customWidth="1"/>
-    <col min="8709" max="8709" width="46.140625" customWidth="1"/>
-    <col min="8710" max="8710" width="55.42578125" customWidth="1"/>
-    <col min="8711" max="8711" width="29.7109375" customWidth="1"/>
-    <col min="8962" max="8962" width="23.42578125" customWidth="1"/>
-    <col min="8963" max="8963" width="40.42578125" customWidth="1"/>
-    <col min="8964" max="8964" width="9.28515625" customWidth="1"/>
-    <col min="8965" max="8965" width="46.140625" customWidth="1"/>
-    <col min="8966" max="8966" width="55.42578125" customWidth="1"/>
-    <col min="8967" max="8967" width="29.7109375" customWidth="1"/>
-    <col min="9218" max="9218" width="23.42578125" customWidth="1"/>
-    <col min="9219" max="9219" width="40.42578125" customWidth="1"/>
-    <col min="9220" max="9220" width="9.28515625" customWidth="1"/>
-    <col min="9221" max="9221" width="46.140625" customWidth="1"/>
-    <col min="9222" max="9222" width="55.42578125" customWidth="1"/>
-    <col min="9223" max="9223" width="29.7109375" customWidth="1"/>
-    <col min="9474" max="9474" width="23.42578125" customWidth="1"/>
-    <col min="9475" max="9475" width="40.42578125" customWidth="1"/>
-    <col min="9476" max="9476" width="9.28515625" customWidth="1"/>
-    <col min="9477" max="9477" width="46.140625" customWidth="1"/>
-    <col min="9478" max="9478" width="55.42578125" customWidth="1"/>
-    <col min="9479" max="9479" width="29.7109375" customWidth="1"/>
-    <col min="9730" max="9730" width="23.42578125" customWidth="1"/>
-    <col min="9731" max="9731" width="40.42578125" customWidth="1"/>
-    <col min="9732" max="9732" width="9.28515625" customWidth="1"/>
-    <col min="9733" max="9733" width="46.140625" customWidth="1"/>
-    <col min="9734" max="9734" width="55.42578125" customWidth="1"/>
-    <col min="9735" max="9735" width="29.7109375" customWidth="1"/>
-    <col min="9986" max="9986" width="23.42578125" customWidth="1"/>
-    <col min="9987" max="9987" width="40.42578125" customWidth="1"/>
-    <col min="9988" max="9988" width="9.28515625" customWidth="1"/>
-    <col min="9989" max="9989" width="46.140625" customWidth="1"/>
-    <col min="9990" max="9990" width="55.42578125" customWidth="1"/>
-    <col min="9991" max="9991" width="29.7109375" customWidth="1"/>
-    <col min="10242" max="10242" width="23.42578125" customWidth="1"/>
-    <col min="10243" max="10243" width="40.42578125" customWidth="1"/>
-    <col min="10244" max="10244" width="9.28515625" customWidth="1"/>
-    <col min="10245" max="10245" width="46.140625" customWidth="1"/>
-    <col min="10246" max="10246" width="55.42578125" customWidth="1"/>
-    <col min="10247" max="10247" width="29.7109375" customWidth="1"/>
-    <col min="10498" max="10498" width="23.42578125" customWidth="1"/>
-    <col min="10499" max="10499" width="40.42578125" customWidth="1"/>
-    <col min="10500" max="10500" width="9.28515625" customWidth="1"/>
-    <col min="10501" max="10501" width="46.140625" customWidth="1"/>
-    <col min="10502" max="10502" width="55.42578125" customWidth="1"/>
-    <col min="10503" max="10503" width="29.7109375" customWidth="1"/>
-    <col min="10754" max="10754" width="23.42578125" customWidth="1"/>
-    <col min="10755" max="10755" width="40.42578125" customWidth="1"/>
-    <col min="10756" max="10756" width="9.28515625" customWidth="1"/>
-    <col min="10757" max="10757" width="46.140625" customWidth="1"/>
-    <col min="10758" max="10758" width="55.42578125" customWidth="1"/>
-    <col min="10759" max="10759" width="29.7109375" customWidth="1"/>
-    <col min="11010" max="11010" width="23.42578125" customWidth="1"/>
-    <col min="11011" max="11011" width="40.42578125" customWidth="1"/>
-    <col min="11012" max="11012" width="9.28515625" customWidth="1"/>
-    <col min="11013" max="11013" width="46.140625" customWidth="1"/>
-    <col min="11014" max="11014" width="55.42578125" customWidth="1"/>
-    <col min="11015" max="11015" width="29.7109375" customWidth="1"/>
-    <col min="11266" max="11266" width="23.42578125" customWidth="1"/>
-    <col min="11267" max="11267" width="40.42578125" customWidth="1"/>
-    <col min="11268" max="11268" width="9.28515625" customWidth="1"/>
-    <col min="11269" max="11269" width="46.140625" customWidth="1"/>
-    <col min="11270" max="11270" width="55.42578125" customWidth="1"/>
-    <col min="11271" max="11271" width="29.7109375" customWidth="1"/>
-    <col min="11522" max="11522" width="23.42578125" customWidth="1"/>
-    <col min="11523" max="11523" width="40.42578125" customWidth="1"/>
-    <col min="11524" max="11524" width="9.28515625" customWidth="1"/>
-    <col min="11525" max="11525" width="46.140625" customWidth="1"/>
-    <col min="11526" max="11526" width="55.42578125" customWidth="1"/>
-    <col min="11527" max="11527" width="29.7109375" customWidth="1"/>
-    <col min="11778" max="11778" width="23.42578125" customWidth="1"/>
-    <col min="11779" max="11779" width="40.42578125" customWidth="1"/>
-    <col min="11780" max="11780" width="9.28515625" customWidth="1"/>
-    <col min="11781" max="11781" width="46.140625" customWidth="1"/>
-    <col min="11782" max="11782" width="55.42578125" customWidth="1"/>
-    <col min="11783" max="11783" width="29.7109375" customWidth="1"/>
-    <col min="12034" max="12034" width="23.42578125" customWidth="1"/>
-    <col min="12035" max="12035" width="40.42578125" customWidth="1"/>
-    <col min="12036" max="12036" width="9.28515625" customWidth="1"/>
-    <col min="12037" max="12037" width="46.140625" customWidth="1"/>
-    <col min="12038" max="12038" width="55.42578125" customWidth="1"/>
-    <col min="12039" max="12039" width="29.7109375" customWidth="1"/>
-    <col min="12290" max="12290" width="23.42578125" customWidth="1"/>
-    <col min="12291" max="12291" width="40.42578125" customWidth="1"/>
-    <col min="12292" max="12292" width="9.28515625" customWidth="1"/>
-    <col min="12293" max="12293" width="46.140625" customWidth="1"/>
-    <col min="12294" max="12294" width="55.42578125" customWidth="1"/>
-    <col min="12295" max="12295" width="29.7109375" customWidth="1"/>
-    <col min="12546" max="12546" width="23.42578125" customWidth="1"/>
-    <col min="12547" max="12547" width="40.42578125" customWidth="1"/>
-    <col min="12548" max="12548" width="9.28515625" customWidth="1"/>
-    <col min="12549" max="12549" width="46.140625" customWidth="1"/>
-    <col min="12550" max="12550" width="55.42578125" customWidth="1"/>
-    <col min="12551" max="12551" width="29.7109375" customWidth="1"/>
-    <col min="12802" max="12802" width="23.42578125" customWidth="1"/>
-    <col min="12803" max="12803" width="40.42578125" customWidth="1"/>
-    <col min="12804" max="12804" width="9.28515625" customWidth="1"/>
-    <col min="12805" max="12805" width="46.140625" customWidth="1"/>
-    <col min="12806" max="12806" width="55.42578125" customWidth="1"/>
-    <col min="12807" max="12807" width="29.7109375" customWidth="1"/>
-    <col min="13058" max="13058" width="23.42578125" customWidth="1"/>
-    <col min="13059" max="13059" width="40.42578125" customWidth="1"/>
-    <col min="13060" max="13060" width="9.28515625" customWidth="1"/>
-    <col min="13061" max="13061" width="46.140625" customWidth="1"/>
-    <col min="13062" max="13062" width="55.42578125" customWidth="1"/>
-    <col min="13063" max="13063" width="29.7109375" customWidth="1"/>
-    <col min="13314" max="13314" width="23.42578125" customWidth="1"/>
-    <col min="13315" max="13315" width="40.42578125" customWidth="1"/>
-    <col min="13316" max="13316" width="9.28515625" customWidth="1"/>
-    <col min="13317" max="13317" width="46.140625" customWidth="1"/>
-    <col min="13318" max="13318" width="55.42578125" customWidth="1"/>
-    <col min="13319" max="13319" width="29.7109375" customWidth="1"/>
-    <col min="13570" max="13570" width="23.42578125" customWidth="1"/>
-    <col min="13571" max="13571" width="40.42578125" customWidth="1"/>
-    <col min="13572" max="13572" width="9.28515625" customWidth="1"/>
-    <col min="13573" max="13573" width="46.140625" customWidth="1"/>
-    <col min="13574" max="13574" width="55.42578125" customWidth="1"/>
-    <col min="13575" max="13575" width="29.7109375" customWidth="1"/>
-    <col min="13826" max="13826" width="23.42578125" customWidth="1"/>
-    <col min="13827" max="13827" width="40.42578125" customWidth="1"/>
-    <col min="13828" max="13828" width="9.28515625" customWidth="1"/>
-    <col min="13829" max="13829" width="46.140625" customWidth="1"/>
-    <col min="13830" max="13830" width="55.42578125" customWidth="1"/>
-    <col min="13831" max="13831" width="29.7109375" customWidth="1"/>
-    <col min="14082" max="14082" width="23.42578125" customWidth="1"/>
-    <col min="14083" max="14083" width="40.42578125" customWidth="1"/>
-    <col min="14084" max="14084" width="9.28515625" customWidth="1"/>
-    <col min="14085" max="14085" width="46.140625" customWidth="1"/>
-    <col min="14086" max="14086" width="55.42578125" customWidth="1"/>
-    <col min="14087" max="14087" width="29.7109375" customWidth="1"/>
-    <col min="14338" max="14338" width="23.42578125" customWidth="1"/>
-    <col min="14339" max="14339" width="40.42578125" customWidth="1"/>
-    <col min="14340" max="14340" width="9.28515625" customWidth="1"/>
-    <col min="14341" max="14341" width="46.140625" customWidth="1"/>
-    <col min="14342" max="14342" width="55.42578125" customWidth="1"/>
-    <col min="14343" max="14343" width="29.7109375" customWidth="1"/>
-    <col min="14594" max="14594" width="23.42578125" customWidth="1"/>
-    <col min="14595" max="14595" width="40.42578125" customWidth="1"/>
-    <col min="14596" max="14596" width="9.28515625" customWidth="1"/>
-    <col min="14597" max="14597" width="46.140625" customWidth="1"/>
-    <col min="14598" max="14598" width="55.42578125" customWidth="1"/>
-    <col min="14599" max="14599" width="29.7109375" customWidth="1"/>
-    <col min="14850" max="14850" width="23.42578125" customWidth="1"/>
-    <col min="14851" max="14851" width="40.42578125" customWidth="1"/>
-    <col min="14852" max="14852" width="9.28515625" customWidth="1"/>
-    <col min="14853" max="14853" width="46.140625" customWidth="1"/>
-    <col min="14854" max="14854" width="55.42578125" customWidth="1"/>
-    <col min="14855" max="14855" width="29.7109375" customWidth="1"/>
-    <col min="15106" max="15106" width="23.42578125" customWidth="1"/>
-    <col min="15107" max="15107" width="40.42578125" customWidth="1"/>
-    <col min="15108" max="15108" width="9.28515625" customWidth="1"/>
-    <col min="15109" max="15109" width="46.140625" customWidth="1"/>
-    <col min="15110" max="15110" width="55.42578125" customWidth="1"/>
-    <col min="15111" max="15111" width="29.7109375" customWidth="1"/>
-    <col min="15362" max="15362" width="23.42578125" customWidth="1"/>
-    <col min="15363" max="15363" width="40.42578125" customWidth="1"/>
-    <col min="15364" max="15364" width="9.28515625" customWidth="1"/>
-    <col min="15365" max="15365" width="46.140625" customWidth="1"/>
-    <col min="15366" max="15366" width="55.42578125" customWidth="1"/>
-    <col min="15367" max="15367" width="29.7109375" customWidth="1"/>
-    <col min="15618" max="15618" width="23.42578125" customWidth="1"/>
-    <col min="15619" max="15619" width="40.42578125" customWidth="1"/>
-    <col min="15620" max="15620" width="9.28515625" customWidth="1"/>
-    <col min="15621" max="15621" width="46.140625" customWidth="1"/>
-    <col min="15622" max="15622" width="55.42578125" customWidth="1"/>
-    <col min="15623" max="15623" width="29.7109375" customWidth="1"/>
-    <col min="15874" max="15874" width="23.42578125" customWidth="1"/>
-    <col min="15875" max="15875" width="40.42578125" customWidth="1"/>
-    <col min="15876" max="15876" width="9.28515625" customWidth="1"/>
-    <col min="15877" max="15877" width="46.140625" customWidth="1"/>
-    <col min="15878" max="15878" width="55.42578125" customWidth="1"/>
-    <col min="15879" max="15879" width="29.7109375" customWidth="1"/>
-    <col min="16130" max="16130" width="23.42578125" customWidth="1"/>
-    <col min="16131" max="16131" width="40.42578125" customWidth="1"/>
-    <col min="16132" max="16132" width="9.28515625" customWidth="1"/>
-    <col min="16133" max="16133" width="46.140625" customWidth="1"/>
-    <col min="16134" max="16134" width="55.42578125" customWidth="1"/>
-    <col min="16135" max="16135" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.5" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="46.1640625" customWidth="1"/>
+    <col min="6" max="6" width="50.5" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="258" max="258" width="23.5" customWidth="1"/>
+    <col min="259" max="259" width="40.5" customWidth="1"/>
+    <col min="260" max="260" width="9.33203125" customWidth="1"/>
+    <col min="261" max="261" width="46.1640625" customWidth="1"/>
+    <col min="262" max="262" width="55.5" customWidth="1"/>
+    <col min="263" max="263" width="29.6640625" customWidth="1"/>
+    <col min="514" max="514" width="23.5" customWidth="1"/>
+    <col min="515" max="515" width="40.5" customWidth="1"/>
+    <col min="516" max="516" width="9.33203125" customWidth="1"/>
+    <col min="517" max="517" width="46.1640625" customWidth="1"/>
+    <col min="518" max="518" width="55.5" customWidth="1"/>
+    <col min="519" max="519" width="29.6640625" customWidth="1"/>
+    <col min="770" max="770" width="23.5" customWidth="1"/>
+    <col min="771" max="771" width="40.5" customWidth="1"/>
+    <col min="772" max="772" width="9.33203125" customWidth="1"/>
+    <col min="773" max="773" width="46.1640625" customWidth="1"/>
+    <col min="774" max="774" width="55.5" customWidth="1"/>
+    <col min="775" max="775" width="29.6640625" customWidth="1"/>
+    <col min="1026" max="1026" width="23.5" customWidth="1"/>
+    <col min="1027" max="1027" width="40.5" customWidth="1"/>
+    <col min="1028" max="1028" width="9.33203125" customWidth="1"/>
+    <col min="1029" max="1029" width="46.1640625" customWidth="1"/>
+    <col min="1030" max="1030" width="55.5" customWidth="1"/>
+    <col min="1031" max="1031" width="29.6640625" customWidth="1"/>
+    <col min="1282" max="1282" width="23.5" customWidth="1"/>
+    <col min="1283" max="1283" width="40.5" customWidth="1"/>
+    <col min="1284" max="1284" width="9.33203125" customWidth="1"/>
+    <col min="1285" max="1285" width="46.1640625" customWidth="1"/>
+    <col min="1286" max="1286" width="55.5" customWidth="1"/>
+    <col min="1287" max="1287" width="29.6640625" customWidth="1"/>
+    <col min="1538" max="1538" width="23.5" customWidth="1"/>
+    <col min="1539" max="1539" width="40.5" customWidth="1"/>
+    <col min="1540" max="1540" width="9.33203125" customWidth="1"/>
+    <col min="1541" max="1541" width="46.1640625" customWidth="1"/>
+    <col min="1542" max="1542" width="55.5" customWidth="1"/>
+    <col min="1543" max="1543" width="29.6640625" customWidth="1"/>
+    <col min="1794" max="1794" width="23.5" customWidth="1"/>
+    <col min="1795" max="1795" width="40.5" customWidth="1"/>
+    <col min="1796" max="1796" width="9.33203125" customWidth="1"/>
+    <col min="1797" max="1797" width="46.1640625" customWidth="1"/>
+    <col min="1798" max="1798" width="55.5" customWidth="1"/>
+    <col min="1799" max="1799" width="29.6640625" customWidth="1"/>
+    <col min="2050" max="2050" width="23.5" customWidth="1"/>
+    <col min="2051" max="2051" width="40.5" customWidth="1"/>
+    <col min="2052" max="2052" width="9.33203125" customWidth="1"/>
+    <col min="2053" max="2053" width="46.1640625" customWidth="1"/>
+    <col min="2054" max="2054" width="55.5" customWidth="1"/>
+    <col min="2055" max="2055" width="29.6640625" customWidth="1"/>
+    <col min="2306" max="2306" width="23.5" customWidth="1"/>
+    <col min="2307" max="2307" width="40.5" customWidth="1"/>
+    <col min="2308" max="2308" width="9.33203125" customWidth="1"/>
+    <col min="2309" max="2309" width="46.1640625" customWidth="1"/>
+    <col min="2310" max="2310" width="55.5" customWidth="1"/>
+    <col min="2311" max="2311" width="29.6640625" customWidth="1"/>
+    <col min="2562" max="2562" width="23.5" customWidth="1"/>
+    <col min="2563" max="2563" width="40.5" customWidth="1"/>
+    <col min="2564" max="2564" width="9.33203125" customWidth="1"/>
+    <col min="2565" max="2565" width="46.1640625" customWidth="1"/>
+    <col min="2566" max="2566" width="55.5" customWidth="1"/>
+    <col min="2567" max="2567" width="29.6640625" customWidth="1"/>
+    <col min="2818" max="2818" width="23.5" customWidth="1"/>
+    <col min="2819" max="2819" width="40.5" customWidth="1"/>
+    <col min="2820" max="2820" width="9.33203125" customWidth="1"/>
+    <col min="2821" max="2821" width="46.1640625" customWidth="1"/>
+    <col min="2822" max="2822" width="55.5" customWidth="1"/>
+    <col min="2823" max="2823" width="29.6640625" customWidth="1"/>
+    <col min="3074" max="3074" width="23.5" customWidth="1"/>
+    <col min="3075" max="3075" width="40.5" customWidth="1"/>
+    <col min="3076" max="3076" width="9.33203125" customWidth="1"/>
+    <col min="3077" max="3077" width="46.1640625" customWidth="1"/>
+    <col min="3078" max="3078" width="55.5" customWidth="1"/>
+    <col min="3079" max="3079" width="29.6640625" customWidth="1"/>
+    <col min="3330" max="3330" width="23.5" customWidth="1"/>
+    <col min="3331" max="3331" width="40.5" customWidth="1"/>
+    <col min="3332" max="3332" width="9.33203125" customWidth="1"/>
+    <col min="3333" max="3333" width="46.1640625" customWidth="1"/>
+    <col min="3334" max="3334" width="55.5" customWidth="1"/>
+    <col min="3335" max="3335" width="29.6640625" customWidth="1"/>
+    <col min="3586" max="3586" width="23.5" customWidth="1"/>
+    <col min="3587" max="3587" width="40.5" customWidth="1"/>
+    <col min="3588" max="3588" width="9.33203125" customWidth="1"/>
+    <col min="3589" max="3589" width="46.1640625" customWidth="1"/>
+    <col min="3590" max="3590" width="55.5" customWidth="1"/>
+    <col min="3591" max="3591" width="29.6640625" customWidth="1"/>
+    <col min="3842" max="3842" width="23.5" customWidth="1"/>
+    <col min="3843" max="3843" width="40.5" customWidth="1"/>
+    <col min="3844" max="3844" width="9.33203125" customWidth="1"/>
+    <col min="3845" max="3845" width="46.1640625" customWidth="1"/>
+    <col min="3846" max="3846" width="55.5" customWidth="1"/>
+    <col min="3847" max="3847" width="29.6640625" customWidth="1"/>
+    <col min="4098" max="4098" width="23.5" customWidth="1"/>
+    <col min="4099" max="4099" width="40.5" customWidth="1"/>
+    <col min="4100" max="4100" width="9.33203125" customWidth="1"/>
+    <col min="4101" max="4101" width="46.1640625" customWidth="1"/>
+    <col min="4102" max="4102" width="55.5" customWidth="1"/>
+    <col min="4103" max="4103" width="29.6640625" customWidth="1"/>
+    <col min="4354" max="4354" width="23.5" customWidth="1"/>
+    <col min="4355" max="4355" width="40.5" customWidth="1"/>
+    <col min="4356" max="4356" width="9.33203125" customWidth="1"/>
+    <col min="4357" max="4357" width="46.1640625" customWidth="1"/>
+    <col min="4358" max="4358" width="55.5" customWidth="1"/>
+    <col min="4359" max="4359" width="29.6640625" customWidth="1"/>
+    <col min="4610" max="4610" width="23.5" customWidth="1"/>
+    <col min="4611" max="4611" width="40.5" customWidth="1"/>
+    <col min="4612" max="4612" width="9.33203125" customWidth="1"/>
+    <col min="4613" max="4613" width="46.1640625" customWidth="1"/>
+    <col min="4614" max="4614" width="55.5" customWidth="1"/>
+    <col min="4615" max="4615" width="29.6640625" customWidth="1"/>
+    <col min="4866" max="4866" width="23.5" customWidth="1"/>
+    <col min="4867" max="4867" width="40.5" customWidth="1"/>
+    <col min="4868" max="4868" width="9.33203125" customWidth="1"/>
+    <col min="4869" max="4869" width="46.1640625" customWidth="1"/>
+    <col min="4870" max="4870" width="55.5" customWidth="1"/>
+    <col min="4871" max="4871" width="29.6640625" customWidth="1"/>
+    <col min="5122" max="5122" width="23.5" customWidth="1"/>
+    <col min="5123" max="5123" width="40.5" customWidth="1"/>
+    <col min="5124" max="5124" width="9.33203125" customWidth="1"/>
+    <col min="5125" max="5125" width="46.1640625" customWidth="1"/>
+    <col min="5126" max="5126" width="55.5" customWidth="1"/>
+    <col min="5127" max="5127" width="29.6640625" customWidth="1"/>
+    <col min="5378" max="5378" width="23.5" customWidth="1"/>
+    <col min="5379" max="5379" width="40.5" customWidth="1"/>
+    <col min="5380" max="5380" width="9.33203125" customWidth="1"/>
+    <col min="5381" max="5381" width="46.1640625" customWidth="1"/>
+    <col min="5382" max="5382" width="55.5" customWidth="1"/>
+    <col min="5383" max="5383" width="29.6640625" customWidth="1"/>
+    <col min="5634" max="5634" width="23.5" customWidth="1"/>
+    <col min="5635" max="5635" width="40.5" customWidth="1"/>
+    <col min="5636" max="5636" width="9.33203125" customWidth="1"/>
+    <col min="5637" max="5637" width="46.1640625" customWidth="1"/>
+    <col min="5638" max="5638" width="55.5" customWidth="1"/>
+    <col min="5639" max="5639" width="29.6640625" customWidth="1"/>
+    <col min="5890" max="5890" width="23.5" customWidth="1"/>
+    <col min="5891" max="5891" width="40.5" customWidth="1"/>
+    <col min="5892" max="5892" width="9.33203125" customWidth="1"/>
+    <col min="5893" max="5893" width="46.1640625" customWidth="1"/>
+    <col min="5894" max="5894" width="55.5" customWidth="1"/>
+    <col min="5895" max="5895" width="29.6640625" customWidth="1"/>
+    <col min="6146" max="6146" width="23.5" customWidth="1"/>
+    <col min="6147" max="6147" width="40.5" customWidth="1"/>
+    <col min="6148" max="6148" width="9.33203125" customWidth="1"/>
+    <col min="6149" max="6149" width="46.1640625" customWidth="1"/>
+    <col min="6150" max="6150" width="55.5" customWidth="1"/>
+    <col min="6151" max="6151" width="29.6640625" customWidth="1"/>
+    <col min="6402" max="6402" width="23.5" customWidth="1"/>
+    <col min="6403" max="6403" width="40.5" customWidth="1"/>
+    <col min="6404" max="6404" width="9.33203125" customWidth="1"/>
+    <col min="6405" max="6405" width="46.1640625" customWidth="1"/>
+    <col min="6406" max="6406" width="55.5" customWidth="1"/>
+    <col min="6407" max="6407" width="29.6640625" customWidth="1"/>
+    <col min="6658" max="6658" width="23.5" customWidth="1"/>
+    <col min="6659" max="6659" width="40.5" customWidth="1"/>
+    <col min="6660" max="6660" width="9.33203125" customWidth="1"/>
+    <col min="6661" max="6661" width="46.1640625" customWidth="1"/>
+    <col min="6662" max="6662" width="55.5" customWidth="1"/>
+    <col min="6663" max="6663" width="29.6640625" customWidth="1"/>
+    <col min="6914" max="6914" width="23.5" customWidth="1"/>
+    <col min="6915" max="6915" width="40.5" customWidth="1"/>
+    <col min="6916" max="6916" width="9.33203125" customWidth="1"/>
+    <col min="6917" max="6917" width="46.1640625" customWidth="1"/>
+    <col min="6918" max="6918" width="55.5" customWidth="1"/>
+    <col min="6919" max="6919" width="29.6640625" customWidth="1"/>
+    <col min="7170" max="7170" width="23.5" customWidth="1"/>
+    <col min="7171" max="7171" width="40.5" customWidth="1"/>
+    <col min="7172" max="7172" width="9.33203125" customWidth="1"/>
+    <col min="7173" max="7173" width="46.1640625" customWidth="1"/>
+    <col min="7174" max="7174" width="55.5" customWidth="1"/>
+    <col min="7175" max="7175" width="29.6640625" customWidth="1"/>
+    <col min="7426" max="7426" width="23.5" customWidth="1"/>
+    <col min="7427" max="7427" width="40.5" customWidth="1"/>
+    <col min="7428" max="7428" width="9.33203125" customWidth="1"/>
+    <col min="7429" max="7429" width="46.1640625" customWidth="1"/>
+    <col min="7430" max="7430" width="55.5" customWidth="1"/>
+    <col min="7431" max="7431" width="29.6640625" customWidth="1"/>
+    <col min="7682" max="7682" width="23.5" customWidth="1"/>
+    <col min="7683" max="7683" width="40.5" customWidth="1"/>
+    <col min="7684" max="7684" width="9.33203125" customWidth="1"/>
+    <col min="7685" max="7685" width="46.1640625" customWidth="1"/>
+    <col min="7686" max="7686" width="55.5" customWidth="1"/>
+    <col min="7687" max="7687" width="29.6640625" customWidth="1"/>
+    <col min="7938" max="7938" width="23.5" customWidth="1"/>
+    <col min="7939" max="7939" width="40.5" customWidth="1"/>
+    <col min="7940" max="7940" width="9.33203125" customWidth="1"/>
+    <col min="7941" max="7941" width="46.1640625" customWidth="1"/>
+    <col min="7942" max="7942" width="55.5" customWidth="1"/>
+    <col min="7943" max="7943" width="29.6640625" customWidth="1"/>
+    <col min="8194" max="8194" width="23.5" customWidth="1"/>
+    <col min="8195" max="8195" width="40.5" customWidth="1"/>
+    <col min="8196" max="8196" width="9.33203125" customWidth="1"/>
+    <col min="8197" max="8197" width="46.1640625" customWidth="1"/>
+    <col min="8198" max="8198" width="55.5" customWidth="1"/>
+    <col min="8199" max="8199" width="29.6640625" customWidth="1"/>
+    <col min="8450" max="8450" width="23.5" customWidth="1"/>
+    <col min="8451" max="8451" width="40.5" customWidth="1"/>
+    <col min="8452" max="8452" width="9.33203125" customWidth="1"/>
+    <col min="8453" max="8453" width="46.1640625" customWidth="1"/>
+    <col min="8454" max="8454" width="55.5" customWidth="1"/>
+    <col min="8455" max="8455" width="29.6640625" customWidth="1"/>
+    <col min="8706" max="8706" width="23.5" customWidth="1"/>
+    <col min="8707" max="8707" width="40.5" customWidth="1"/>
+    <col min="8708" max="8708" width="9.33203125" customWidth="1"/>
+    <col min="8709" max="8709" width="46.1640625" customWidth="1"/>
+    <col min="8710" max="8710" width="55.5" customWidth="1"/>
+    <col min="8711" max="8711" width="29.6640625" customWidth="1"/>
+    <col min="8962" max="8962" width="23.5" customWidth="1"/>
+    <col min="8963" max="8963" width="40.5" customWidth="1"/>
+    <col min="8964" max="8964" width="9.33203125" customWidth="1"/>
+    <col min="8965" max="8965" width="46.1640625" customWidth="1"/>
+    <col min="8966" max="8966" width="55.5" customWidth="1"/>
+    <col min="8967" max="8967" width="29.6640625" customWidth="1"/>
+    <col min="9218" max="9218" width="23.5" customWidth="1"/>
+    <col min="9219" max="9219" width="40.5" customWidth="1"/>
+    <col min="9220" max="9220" width="9.33203125" customWidth="1"/>
+    <col min="9221" max="9221" width="46.1640625" customWidth="1"/>
+    <col min="9222" max="9222" width="55.5" customWidth="1"/>
+    <col min="9223" max="9223" width="29.6640625" customWidth="1"/>
+    <col min="9474" max="9474" width="23.5" customWidth="1"/>
+    <col min="9475" max="9475" width="40.5" customWidth="1"/>
+    <col min="9476" max="9476" width="9.33203125" customWidth="1"/>
+    <col min="9477" max="9477" width="46.1640625" customWidth="1"/>
+    <col min="9478" max="9478" width="55.5" customWidth="1"/>
+    <col min="9479" max="9479" width="29.6640625" customWidth="1"/>
+    <col min="9730" max="9730" width="23.5" customWidth="1"/>
+    <col min="9731" max="9731" width="40.5" customWidth="1"/>
+    <col min="9732" max="9732" width="9.33203125" customWidth="1"/>
+    <col min="9733" max="9733" width="46.1640625" customWidth="1"/>
+    <col min="9734" max="9734" width="55.5" customWidth="1"/>
+    <col min="9735" max="9735" width="29.6640625" customWidth="1"/>
+    <col min="9986" max="9986" width="23.5" customWidth="1"/>
+    <col min="9987" max="9987" width="40.5" customWidth="1"/>
+    <col min="9988" max="9988" width="9.33203125" customWidth="1"/>
+    <col min="9989" max="9989" width="46.1640625" customWidth="1"/>
+    <col min="9990" max="9990" width="55.5" customWidth="1"/>
+    <col min="9991" max="9991" width="29.6640625" customWidth="1"/>
+    <col min="10242" max="10242" width="23.5" customWidth="1"/>
+    <col min="10243" max="10243" width="40.5" customWidth="1"/>
+    <col min="10244" max="10244" width="9.33203125" customWidth="1"/>
+    <col min="10245" max="10245" width="46.1640625" customWidth="1"/>
+    <col min="10246" max="10246" width="55.5" customWidth="1"/>
+    <col min="10247" max="10247" width="29.6640625" customWidth="1"/>
+    <col min="10498" max="10498" width="23.5" customWidth="1"/>
+    <col min="10499" max="10499" width="40.5" customWidth="1"/>
+    <col min="10500" max="10500" width="9.33203125" customWidth="1"/>
+    <col min="10501" max="10501" width="46.1640625" customWidth="1"/>
+    <col min="10502" max="10502" width="55.5" customWidth="1"/>
+    <col min="10503" max="10503" width="29.6640625" customWidth="1"/>
+    <col min="10754" max="10754" width="23.5" customWidth="1"/>
+    <col min="10755" max="10755" width="40.5" customWidth="1"/>
+    <col min="10756" max="10756" width="9.33203125" customWidth="1"/>
+    <col min="10757" max="10757" width="46.1640625" customWidth="1"/>
+    <col min="10758" max="10758" width="55.5" customWidth="1"/>
+    <col min="10759" max="10759" width="29.6640625" customWidth="1"/>
+    <col min="11010" max="11010" width="23.5" customWidth="1"/>
+    <col min="11011" max="11011" width="40.5" customWidth="1"/>
+    <col min="11012" max="11012" width="9.33203125" customWidth="1"/>
+    <col min="11013" max="11013" width="46.1640625" customWidth="1"/>
+    <col min="11014" max="11014" width="55.5" customWidth="1"/>
+    <col min="11015" max="11015" width="29.6640625" customWidth="1"/>
+    <col min="11266" max="11266" width="23.5" customWidth="1"/>
+    <col min="11267" max="11267" width="40.5" customWidth="1"/>
+    <col min="11268" max="11268" width="9.33203125" customWidth="1"/>
+    <col min="11269" max="11269" width="46.1640625" customWidth="1"/>
+    <col min="11270" max="11270" width="55.5" customWidth="1"/>
+    <col min="11271" max="11271" width="29.6640625" customWidth="1"/>
+    <col min="11522" max="11522" width="23.5" customWidth="1"/>
+    <col min="11523" max="11523" width="40.5" customWidth="1"/>
+    <col min="11524" max="11524" width="9.33203125" customWidth="1"/>
+    <col min="11525" max="11525" width="46.1640625" customWidth="1"/>
+    <col min="11526" max="11526" width="55.5" customWidth="1"/>
+    <col min="11527" max="11527" width="29.6640625" customWidth="1"/>
+    <col min="11778" max="11778" width="23.5" customWidth="1"/>
+    <col min="11779" max="11779" width="40.5" customWidth="1"/>
+    <col min="11780" max="11780" width="9.33203125" customWidth="1"/>
+    <col min="11781" max="11781" width="46.1640625" customWidth="1"/>
+    <col min="11782" max="11782" width="55.5" customWidth="1"/>
+    <col min="11783" max="11783" width="29.6640625" customWidth="1"/>
+    <col min="12034" max="12034" width="23.5" customWidth="1"/>
+    <col min="12035" max="12035" width="40.5" customWidth="1"/>
+    <col min="12036" max="12036" width="9.33203125" customWidth="1"/>
+    <col min="12037" max="12037" width="46.1640625" customWidth="1"/>
+    <col min="12038" max="12038" width="55.5" customWidth="1"/>
+    <col min="12039" max="12039" width="29.6640625" customWidth="1"/>
+    <col min="12290" max="12290" width="23.5" customWidth="1"/>
+    <col min="12291" max="12291" width="40.5" customWidth="1"/>
+    <col min="12292" max="12292" width="9.33203125" customWidth="1"/>
+    <col min="12293" max="12293" width="46.1640625" customWidth="1"/>
+    <col min="12294" max="12294" width="55.5" customWidth="1"/>
+    <col min="12295" max="12295" width="29.6640625" customWidth="1"/>
+    <col min="12546" max="12546" width="23.5" customWidth="1"/>
+    <col min="12547" max="12547" width="40.5" customWidth="1"/>
+    <col min="12548" max="12548" width="9.33203125" customWidth="1"/>
+    <col min="12549" max="12549" width="46.1640625" customWidth="1"/>
+    <col min="12550" max="12550" width="55.5" customWidth="1"/>
+    <col min="12551" max="12551" width="29.6640625" customWidth="1"/>
+    <col min="12802" max="12802" width="23.5" customWidth="1"/>
+    <col min="12803" max="12803" width="40.5" customWidth="1"/>
+    <col min="12804" max="12804" width="9.33203125" customWidth="1"/>
+    <col min="12805" max="12805" width="46.1640625" customWidth="1"/>
+    <col min="12806" max="12806" width="55.5" customWidth="1"/>
+    <col min="12807" max="12807" width="29.6640625" customWidth="1"/>
+    <col min="13058" max="13058" width="23.5" customWidth="1"/>
+    <col min="13059" max="13059" width="40.5" customWidth="1"/>
+    <col min="13060" max="13060" width="9.33203125" customWidth="1"/>
+    <col min="13061" max="13061" width="46.1640625" customWidth="1"/>
+    <col min="13062" max="13062" width="55.5" customWidth="1"/>
+    <col min="13063" max="13063" width="29.6640625" customWidth="1"/>
+    <col min="13314" max="13314" width="23.5" customWidth="1"/>
+    <col min="13315" max="13315" width="40.5" customWidth="1"/>
+    <col min="13316" max="13316" width="9.33203125" customWidth="1"/>
+    <col min="13317" max="13317" width="46.1640625" customWidth="1"/>
+    <col min="13318" max="13318" width="55.5" customWidth="1"/>
+    <col min="13319" max="13319" width="29.6640625" customWidth="1"/>
+    <col min="13570" max="13570" width="23.5" customWidth="1"/>
+    <col min="13571" max="13571" width="40.5" customWidth="1"/>
+    <col min="13572" max="13572" width="9.33203125" customWidth="1"/>
+    <col min="13573" max="13573" width="46.1640625" customWidth="1"/>
+    <col min="13574" max="13574" width="55.5" customWidth="1"/>
+    <col min="13575" max="13575" width="29.6640625" customWidth="1"/>
+    <col min="13826" max="13826" width="23.5" customWidth="1"/>
+    <col min="13827" max="13827" width="40.5" customWidth="1"/>
+    <col min="13828" max="13828" width="9.33203125" customWidth="1"/>
+    <col min="13829" max="13829" width="46.1640625" customWidth="1"/>
+    <col min="13830" max="13830" width="55.5" customWidth="1"/>
+    <col min="13831" max="13831" width="29.6640625" customWidth="1"/>
+    <col min="14082" max="14082" width="23.5" customWidth="1"/>
+    <col min="14083" max="14083" width="40.5" customWidth="1"/>
+    <col min="14084" max="14084" width="9.33203125" customWidth="1"/>
+    <col min="14085" max="14085" width="46.1640625" customWidth="1"/>
+    <col min="14086" max="14086" width="55.5" customWidth="1"/>
+    <col min="14087" max="14087" width="29.6640625" customWidth="1"/>
+    <col min="14338" max="14338" width="23.5" customWidth="1"/>
+    <col min="14339" max="14339" width="40.5" customWidth="1"/>
+    <col min="14340" max="14340" width="9.33203125" customWidth="1"/>
+    <col min="14341" max="14341" width="46.1640625" customWidth="1"/>
+    <col min="14342" max="14342" width="55.5" customWidth="1"/>
+    <col min="14343" max="14343" width="29.6640625" customWidth="1"/>
+    <col min="14594" max="14594" width="23.5" customWidth="1"/>
+    <col min="14595" max="14595" width="40.5" customWidth="1"/>
+    <col min="14596" max="14596" width="9.33203125" customWidth="1"/>
+    <col min="14597" max="14597" width="46.1640625" customWidth="1"/>
+    <col min="14598" max="14598" width="55.5" customWidth="1"/>
+    <col min="14599" max="14599" width="29.6640625" customWidth="1"/>
+    <col min="14850" max="14850" width="23.5" customWidth="1"/>
+    <col min="14851" max="14851" width="40.5" customWidth="1"/>
+    <col min="14852" max="14852" width="9.33203125" customWidth="1"/>
+    <col min="14853" max="14853" width="46.1640625" customWidth="1"/>
+    <col min="14854" max="14854" width="55.5" customWidth="1"/>
+    <col min="14855" max="14855" width="29.6640625" customWidth="1"/>
+    <col min="15106" max="15106" width="23.5" customWidth="1"/>
+    <col min="15107" max="15107" width="40.5" customWidth="1"/>
+    <col min="15108" max="15108" width="9.33203125" customWidth="1"/>
+    <col min="15109" max="15109" width="46.1640625" customWidth="1"/>
+    <col min="15110" max="15110" width="55.5" customWidth="1"/>
+    <col min="15111" max="15111" width="29.6640625" customWidth="1"/>
+    <col min="15362" max="15362" width="23.5" customWidth="1"/>
+    <col min="15363" max="15363" width="40.5" customWidth="1"/>
+    <col min="15364" max="15364" width="9.33203125" customWidth="1"/>
+    <col min="15365" max="15365" width="46.1640625" customWidth="1"/>
+    <col min="15366" max="15366" width="55.5" customWidth="1"/>
+    <col min="15367" max="15367" width="29.6640625" customWidth="1"/>
+    <col min="15618" max="15618" width="23.5" customWidth="1"/>
+    <col min="15619" max="15619" width="40.5" customWidth="1"/>
+    <col min="15620" max="15620" width="9.33203125" customWidth="1"/>
+    <col min="15621" max="15621" width="46.1640625" customWidth="1"/>
+    <col min="15622" max="15622" width="55.5" customWidth="1"/>
+    <col min="15623" max="15623" width="29.6640625" customWidth="1"/>
+    <col min="15874" max="15874" width="23.5" customWidth="1"/>
+    <col min="15875" max="15875" width="40.5" customWidth="1"/>
+    <col min="15876" max="15876" width="9.33203125" customWidth="1"/>
+    <col min="15877" max="15877" width="46.1640625" customWidth="1"/>
+    <col min="15878" max="15878" width="55.5" customWidth="1"/>
+    <col min="15879" max="15879" width="29.6640625" customWidth="1"/>
+    <col min="16130" max="16130" width="23.5" customWidth="1"/>
+    <col min="16131" max="16131" width="40.5" customWidth="1"/>
+    <col min="16132" max="16132" width="9.33203125" customWidth="1"/>
+    <col min="16133" max="16133" width="46.1640625" customWidth="1"/>
+    <col min="16134" max="16134" width="55.5" customWidth="1"/>
+    <col min="16135" max="16135" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="60" customHeight="1"/>
-    <row r="2" spans="2:6" ht="11.4" thickBot="1"/>
+    <row r="2" spans="2:6" ht="14.25" thickBot="1"/>
     <row r="3" spans="2:6" ht="15.6" customHeight="1">
       <c r="B3" s="273" t="s">
         <v>237</v>
@@ -21102,7 +21095,7 @@
       <c r="E3" s="274"/>
       <c r="F3" s="275"/>
     </row>
-    <row r="4" spans="2:6" s="81" customFormat="1" ht="30.9" customHeight="1">
+    <row r="4" spans="2:6" s="81" customFormat="1" ht="30.95" customHeight="1">
       <c r="B4" s="276" t="s">
         <v>269</v>
       </c>
@@ -21376,18 +21369,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22" style="81" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="81" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="81" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="60" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="81" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="81" customWidth="1"/>
-    <col min="10" max="16384" width="9.28515625" style="81"/>
+    <col min="2" max="2" width="16.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="81" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="81" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="60" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="81" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="81" customWidth="1"/>
+    <col min="10" max="16384" width="9.33203125" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -21418,7 +21411,7 @@
       <c r="F3" s="253"/>
       <c r="G3" s="131"/>
     </row>
-    <row r="5" spans="1:11" ht="11.4" thickBot="1"/>
+    <row r="5" spans="1:11" ht="14.25" thickBot="1"/>
     <row r="6" spans="1:11" ht="27" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>195</v>
@@ -21463,7 +21456,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="11.4" thickBot="1">
+    <row r="8" spans="1:11" ht="14.25" thickBot="1">
       <c r="A8" s="138" t="s">
         <v>239</v>
       </c>
@@ -22165,7 +22158,7 @@
       <c r="J34" s="116"/>
       <c r="K34" s="116"/>
     </row>
-    <row r="35" spans="1:11" ht="11.4" thickBot="1">
+    <row r="35" spans="1:11" ht="14.25" thickBot="1">
       <c r="A35" s="139"/>
       <c r="B35" s="20" t="s">
         <v>322</v>
@@ -22401,7 +22394,7 @@
       <c r="J43" s="116"/>
       <c r="K43" s="116"/>
     </row>
-    <row r="44" spans="1:11" ht="11.4" thickBot="1">
+    <row r="44" spans="1:11" ht="14.25" thickBot="1">
       <c r="A44" s="139"/>
       <c r="B44" s="20" t="s">
         <v>329</v>
@@ -22663,7 +22656,7 @@
       <c r="J53" s="116"/>
       <c r="K53" s="116"/>
     </row>
-    <row r="54" spans="1:11" ht="11.4" thickBot="1">
+    <row r="54" spans="1:11" ht="14.25" thickBot="1">
       <c r="A54" s="139"/>
       <c r="B54" s="20" t="s">
         <v>338</v>
@@ -23029,7 +23022,7 @@
       <c r="J67" s="116"/>
       <c r="K67" s="116"/>
     </row>
-    <row r="68" spans="1:11" ht="11.4" thickBot="1">
+    <row r="68" spans="1:11" ht="14.25" thickBot="1">
       <c r="A68" s="139"/>
       <c r="B68" s="20" t="s">
         <v>351</v>
@@ -23395,7 +23388,7 @@
       <c r="J81" s="116"/>
       <c r="K81" s="116"/>
     </row>
-    <row r="82" spans="1:11" ht="11.4" thickBot="1">
+    <row r="82" spans="1:11" ht="14.25" thickBot="1">
       <c r="A82" s="139"/>
       <c r="B82" s="20" t="s">
         <v>363</v>
@@ -23631,7 +23624,7 @@
       <c r="J90" s="116"/>
       <c r="K90" s="116"/>
     </row>
-    <row r="91" spans="1:11" ht="11.4" thickBot="1">
+    <row r="91" spans="1:11" ht="14.25" thickBot="1">
       <c r="A91" s="139"/>
       <c r="B91" s="20" t="s">
         <v>371</v>
@@ -23971,7 +23964,7 @@
       <c r="J103" s="116"/>
       <c r="K103" s="116"/>
     </row>
-    <row r="104" spans="1:11" ht="11.4" thickBot="1">
+    <row r="104" spans="1:11" ht="14.25" thickBot="1">
       <c r="A104" s="139"/>
       <c r="B104" s="20" t="s">
         <v>382</v>
@@ -24025,7 +24018,7 @@
       <c r="J105" s="116"/>
       <c r="K105" s="116"/>
     </row>
-    <row r="106" spans="1:11" ht="11.4" thickBot="1">
+    <row r="106" spans="1:11" ht="14.25" thickBot="1">
       <c r="A106" s="139"/>
       <c r="B106" s="20" t="s">
         <v>275</v>
@@ -24183,7 +24176,7 @@
       <c r="J111" s="116"/>
       <c r="K111" s="116"/>
     </row>
-    <row r="112" spans="1:11" ht="11.4" thickBot="1">
+    <row r="112" spans="1:11" ht="14.25" thickBot="1">
       <c r="A112" s="139"/>
       <c r="B112" s="20" t="s">
         <v>387</v>
@@ -25069,7 +25062,7 @@
       <c r="J145" s="116"/>
       <c r="K145" s="116"/>
     </row>
-    <row r="146" spans="1:11" ht="11.4" thickBot="1">
+    <row r="146" spans="1:11" ht="14.25" thickBot="1">
       <c r="A146" s="139"/>
       <c r="B146" s="20" t="s">
         <v>420</v>
@@ -25254,7 +25247,7 @@
       <c r="J152" s="116"/>
       <c r="K152" s="116"/>
     </row>
-    <row r="153" spans="1:11" ht="11.4" thickBot="1">
+    <row r="153" spans="1:11" ht="14.25" thickBot="1">
       <c r="A153" s="139"/>
       <c r="B153" s="20" t="s">
         <v>426</v>
@@ -26556,7 +26549,7 @@
       <c r="J202" s="116"/>
       <c r="K202" s="116"/>
     </row>
-    <row r="203" spans="1:11" ht="11.4" thickBot="1">
+    <row r="203" spans="1:11" ht="14.25" thickBot="1">
       <c r="A203" s="139"/>
       <c r="B203" s="20" t="s">
         <v>475</v>
@@ -27000,7 +26993,7 @@
       <c r="J219" s="116"/>
       <c r="K219" s="116"/>
     </row>
-    <row r="220" spans="1:11" ht="11.4" thickBot="1">
+    <row r="220" spans="1:11" ht="14.25" thickBot="1">
       <c r="A220" s="139"/>
       <c r="B220" s="20" t="s">
         <v>491</v>
@@ -27340,7 +27333,7 @@
       <c r="J232" s="116"/>
       <c r="K232" s="116"/>
     </row>
-    <row r="233" spans="1:11" ht="11.4" thickBot="1">
+    <row r="233" spans="1:11" ht="14.25" thickBot="1">
       <c r="A233" s="139"/>
       <c r="B233" s="20" t="s">
         <v>502</v>
@@ -27628,7 +27621,7 @@
       <c r="J243" s="116"/>
       <c r="K243" s="116"/>
     </row>
-    <row r="244" spans="1:11" ht="11.4" thickBot="1">
+    <row r="244" spans="1:11" ht="14.25" thickBot="1">
       <c r="A244" s="139"/>
       <c r="B244" s="20" t="s">
         <v>512</v>
@@ -28046,7 +28039,7 @@
       <c r="J259" s="116"/>
       <c r="K259" s="116"/>
     </row>
-    <row r="260" spans="1:11" ht="11.4" thickBot="1">
+    <row r="260" spans="1:11" ht="14.25" thickBot="1">
       <c r="A260" s="139"/>
       <c r="B260" s="20" t="s">
         <v>527</v>
@@ -28334,7 +28327,7 @@
       <c r="J270" s="116"/>
       <c r="K270" s="116"/>
     </row>
-    <row r="271" spans="1:11" ht="11.4" thickBot="1">
+    <row r="271" spans="1:11" ht="14.25" thickBot="1">
       <c r="A271" s="139"/>
       <c r="B271" s="20" t="s">
         <v>537</v>
@@ -28544,7 +28537,7 @@
       <c r="J278" s="116"/>
       <c r="K278" s="116"/>
     </row>
-    <row r="279" spans="1:11" ht="11.4" thickBot="1">
+    <row r="279" spans="1:11" ht="14.25" thickBot="1">
       <c r="A279" s="139"/>
       <c r="B279" s="20" t="s">
         <v>544</v>
@@ -28780,7 +28773,7 @@
       <c r="J287" s="116"/>
       <c r="K287" s="116"/>
     </row>
-    <row r="288" spans="1:11" ht="11.4" thickBot="1">
+    <row r="288" spans="1:11" ht="14.25" thickBot="1">
       <c r="A288" s="139"/>
       <c r="B288" s="20" t="s">
         <v>552</v>
@@ -29198,7 +29191,7 @@
       <c r="J303" s="116"/>
       <c r="K303" s="116"/>
     </row>
-    <row r="304" spans="1:11" ht="11.4" thickBot="1">
+    <row r="304" spans="1:11" ht="14.25" thickBot="1">
       <c r="A304" s="139"/>
       <c r="B304" s="20" t="s">
         <v>567</v>
@@ -29590,7 +29583,7 @@
       <c r="J318" s="116"/>
       <c r="K318" s="116"/>
     </row>
-    <row r="319" spans="1:11" ht="11.4" thickBot="1">
+    <row r="319" spans="1:11" ht="14.25" thickBot="1">
       <c r="A319" s="140"/>
       <c r="B319" s="20" t="s">
         <v>581</v>
@@ -29616,7 +29609,7 @@
       <c r="J319" s="116"/>
       <c r="K319" s="116"/>
     </row>
-    <row r="320" spans="1:11" s="88" customFormat="1" ht="12" thickTop="1">
+    <row r="320" spans="1:11" s="88" customFormat="1" ht="14.25" thickTop="1">
       <c r="A320" s="132" t="s">
         <v>184</v>
       </c>
@@ -29628,7 +29621,7 @@
       <c r="G320" s="133"/>
       <c r="H320" s="256"/>
     </row>
-    <row r="321" spans="1:8" s="88" customFormat="1" ht="11.4">
+    <row r="321" spans="1:8" s="88" customFormat="1">
       <c r="A321" s="127" t="s">
         <v>236</v>
       </c>
@@ -29637,7 +29630,7 @@
       <c r="F321" s="257"/>
       <c r="H321" s="259"/>
     </row>
-    <row r="322" spans="1:8" s="88" customFormat="1" ht="11.4">
+    <row r="322" spans="1:8" s="88" customFormat="1">
       <c r="A322" s="127" t="s">
         <v>266</v>
       </c>
@@ -29646,7 +29639,7 @@
       <c r="F322" s="257"/>
       <c r="H322" s="259"/>
     </row>
-    <row r="323" spans="1:8" s="88" customFormat="1" ht="11.4">
+    <row r="323" spans="1:8" s="88" customFormat="1">
       <c r="A323" s="127" t="s">
         <v>149</v>
       </c>
@@ -29658,7 +29651,7 @@
     <row r="324" spans="1:8">
       <c r="C324" s="21"/>
     </row>
-    <row r="325" spans="1:8" ht="11.4">
+    <row r="325" spans="1:8">
       <c r="A325" s="127"/>
       <c r="C325" s="21"/>
     </row>
@@ -29687,13 +29680,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="21" max="21" width="14.5" customWidth="1"/>
+    <col min="22" max="22" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.100000000000001" customHeight="1">
@@ -35031,7 +35024,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="11.4" thickBot="1">
+    <row r="372" spans="1:3" ht="14.25" thickBot="1">
       <c r="A372" s="222" t="s">
         <v>946</v>
       </c>
@@ -35043,7 +35036,7 @@
         <v>0.21262675825973176</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="12" thickTop="1">
+    <row r="373" spans="1:3" ht="14.25" thickTop="1">
       <c r="A373" s="342"/>
       <c r="B373" s="342"/>
       <c r="C373" s="342"/>
@@ -35067,14 +35060,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="176" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="173" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="173" customWidth="1"/>
-    <col min="4" max="6" width="9.28515625" style="173"/>
-    <col min="7" max="7" width="7.85546875" style="173" customWidth="1"/>
-    <col min="8" max="16384" width="9.28515625" style="173"/>
+    <col min="1" max="1" width="21.83203125" style="176" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="173" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="173" customWidth="1"/>
+    <col min="4" max="6" width="9.33203125" style="173"/>
+    <col min="7" max="7" width="7.83203125" style="173" customWidth="1"/>
+    <col min="8" max="16384" width="9.33203125" style="173"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1">
@@ -35088,7 +35081,7 @@
       <c r="F1" s="81"/>
       <c r="G1" s="81"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="63" t="str">
         <f>'Övergripande statistik'!A2</f>
         <v>Avlidna i covid-19 enligt dödsorsaksintyg inkomna fram till den 14 mars 2021</v>
@@ -35100,10 +35093,10 @@
       <c r="F2" s="81"/>
       <c r="G2" s="81"/>
     </row>
-    <row r="4" spans="1:7" ht="13.8">
+    <row r="4" spans="1:7">
       <c r="A4" s="174"/>
     </row>
-    <row r="5" spans="1:7" ht="50.4" customHeight="1">
+    <row r="5" spans="1:7" ht="50.45" customHeight="1">
       <c r="A5" s="303" t="str">
         <f>"Källa: dödsorsaksintyg
 * andel av totalt antal avlidna
@@ -35166,7 +35159,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="217" t="s">
         <v>582</v>
       </c>
@@ -35189,7 +35182,7 @@
         <v>27.18</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="14.25">
       <c r="A10" s="218" t="s">
         <v>947</v>
       </c>
@@ -35212,16 +35205,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="219" t="s">
         <v>948</v>
       </c>
       <c r="B11" s="216" t="s">
         <v>315</v>
       </c>
-      <c r="C11" s="216">
-        <v>0.02</v>
-      </c>
+      <c r="C11" s="216"/>
       <c r="D11" s="216">
         <v>0</v>
       </c>
@@ -35235,16 +35226,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="219" t="s">
         <v>949</v>
       </c>
       <c r="B12" s="216" t="s">
         <v>315</v>
       </c>
-      <c r="C12" s="216">
-        <v>0.02</v>
-      </c>
+      <c r="C12" s="216"/>
       <c r="D12" s="216">
         <v>0</v>
       </c>
@@ -35258,7 +35247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="219" t="s">
         <v>950</v>
       </c>
@@ -35281,7 +35270,7 @@
         <v>31.82</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="14.25">
       <c r="A14" s="219" t="s">
         <v>951</v>
       </c>
@@ -35304,7 +35293,7 @@
         <v>21.93</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="14.25">
       <c r="A15" s="219" t="s">
         <v>952</v>
       </c>
@@ -35327,7 +35316,7 @@
         <v>25.42</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="14.25">
       <c r="A16" s="219" t="s">
         <v>953</v>
       </c>
@@ -35350,7 +35339,7 @@
         <v>26.87</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="14.25">
       <c r="A17" s="219" t="s">
         <v>954</v>
       </c>
@@ -35373,7 +35362,7 @@
         <v>22.94</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="14.25">
       <c r="A18" s="219" t="s">
         <v>955</v>
       </c>
@@ -35396,7 +35385,7 @@
         <v>24.87</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="14.25">
       <c r="A19" s="219" t="s">
         <v>956</v>
       </c>
@@ -35419,7 +35408,7 @@
         <v>24.68</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="14.25">
       <c r="A20" s="219" t="s">
         <v>957</v>
       </c>
@@ -35442,7 +35431,7 @@
         <v>24.45</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="14.25">
       <c r="A21" s="219" t="s">
         <v>958</v>
       </c>
@@ -35465,7 +35454,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="14.25">
       <c r="A22" s="219" t="s">
         <v>959</v>
       </c>
@@ -35488,7 +35477,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="14.25">
       <c r="A23" s="219" t="s">
         <v>960</v>
       </c>
@@ -35511,7 +35500,7 @@
         <v>35.270000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="14.25">
       <c r="A24" s="219" t="s">
         <v>961</v>
       </c>
@@ -35534,7 +35523,7 @@
         <v>34.65</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="14.25">
       <c r="A25" s="219" t="s">
         <v>962</v>
       </c>
@@ -35557,7 +35546,7 @@
         <v>29.26</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="14.25">
       <c r="A26" s="219" t="s">
         <v>963</v>
       </c>
@@ -35580,7 +35569,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="14.25">
       <c r="A27" s="219" t="s">
         <v>964</v>
       </c>
@@ -35603,7 +35592,7 @@
         <v>28.57</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="14.25">
       <c r="A28" s="219" t="s">
         <v>965</v>
       </c>
@@ -35626,7 +35615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="14.25">
       <c r="A29" s="219" t="s">
         <v>966</v>
       </c>
@@ -35649,7 +35638,7 @@
         <v>22.08</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="14.25">
       <c r="A30" s="219" t="s">
         <v>967</v>
       </c>
@@ -35672,7 +35661,7 @@
         <v>27.69</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="14.25">
       <c r="A31" s="219" t="s">
         <v>968</v>
       </c>
@@ -35695,7 +35684,7 @@
         <v>13.79</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="14.25">
       <c r="A32" s="219" t="s">
         <v>969</v>
       </c>
@@ -35718,7 +35707,7 @@
         <v>29.17</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="14.25">
       <c r="A33" s="219" t="s">
         <v>970</v>
       </c>
@@ -35742,7 +35731,7 @@
       </c>
       <c r="H33" s="175"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="14.25">
       <c r="A34" s="219" t="s">
         <v>971</v>
       </c>
@@ -35761,11 +35750,9 @@
       <c r="F34" s="216" t="s">
         <v>315</v>
       </c>
-      <c r="G34" s="216">
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="G34" s="216"/>
+    </row>
+    <row r="35" spans="1:8" ht="14.25">
       <c r="A35" s="219" t="s">
         <v>972</v>
       </c>
@@ -35788,7 +35775,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="14.25">
       <c r="A36" s="219" t="s">
         <v>973</v>
       </c>
@@ -35801,9 +35788,7 @@
       <c r="D36" s="216" t="s">
         <v>315</v>
       </c>
-      <c r="E36" s="216">
-        <v>15.38</v>
-      </c>
+      <c r="E36" s="216"/>
       <c r="F36" s="216">
         <v>5</v>
       </c>
@@ -35811,7 +35796,7 @@
         <v>38.46</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="14.25">
       <c r="A37" s="219" t="s">
         <v>974</v>
       </c>
@@ -35834,7 +35819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="14.25">
       <c r="A38" s="219" t="s">
         <v>975</v>
       </c>
@@ -35857,7 +35842,7 @@
         <v>30.77</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="14.25">
       <c r="A39" s="219" t="s">
         <v>976</v>
       </c>
@@ -35870,17 +35855,13 @@
       <c r="D39" s="216" t="s">
         <v>315</v>
       </c>
-      <c r="E39" s="216">
-        <v>22.22</v>
-      </c>
+      <c r="E39" s="216"/>
       <c r="F39" s="216" t="s">
         <v>315</v>
       </c>
-      <c r="G39" s="216">
-        <v>11.11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="G39" s="216"/>
+    </row>
+    <row r="40" spans="1:8" ht="14.25">
       <c r="A40" s="219" t="s">
         <v>977</v>
       </c>
@@ -35893,17 +35874,13 @@
       <c r="D40" s="216" t="s">
         <v>315</v>
       </c>
-      <c r="E40" s="216">
-        <v>23.08</v>
-      </c>
+      <c r="E40" s="216"/>
       <c r="F40" s="216" t="s">
         <v>315</v>
       </c>
-      <c r="G40" s="216">
-        <v>23.08</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="G40" s="216"/>
+    </row>
+    <row r="41" spans="1:8" ht="14.25">
       <c r="A41" s="219" t="s">
         <v>978</v>
       </c>
@@ -35922,11 +35899,9 @@
       <c r="F41" s="216" t="s">
         <v>315</v>
       </c>
-      <c r="G41" s="216">
-        <v>14.29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="G41" s="216"/>
+    </row>
+    <row r="42" spans="1:8" ht="14.25">
       <c r="A42" s="219" t="s">
         <v>979</v>
       </c>
@@ -35949,7 +35924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" ht="14.25">
       <c r="A43" s="219" t="s">
         <v>980</v>
       </c>
@@ -35972,7 +35947,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" ht="14.25">
       <c r="A44" s="219" t="s">
         <v>981</v>
       </c>
@@ -35995,7 +35970,7 @@
         <v>20.59</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" ht="14.25">
       <c r="A45" s="219" t="s">
         <v>982</v>
       </c>
@@ -36018,7 +35993,7 @@
         <v>20.83</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" ht="14.25">
       <c r="A46" s="219" t="s">
         <v>983</v>
       </c>
@@ -36041,7 +36016,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" ht="14.25">
       <c r="A47" s="219" t="s">
         <v>984</v>
       </c>
@@ -36064,7 +36039,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" ht="14.25">
       <c r="A48" s="219" t="s">
         <v>985</v>
       </c>
@@ -36087,7 +36062,7 @@
         <v>19.54</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" ht="14.25">
       <c r="A49" s="219" t="s">
         <v>986</v>
       </c>
@@ -36110,7 +36085,7 @@
         <v>27.17</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" ht="14.25">
       <c r="A50" s="219" t="s">
         <v>987</v>
       </c>
@@ -36133,7 +36108,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" ht="14.25">
       <c r="A51" s="219" t="s">
         <v>988</v>
       </c>
@@ -36156,7 +36131,7 @@
         <v>25.24</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" ht="14.25">
       <c r="A52" s="219" t="s">
         <v>989</v>
       </c>
@@ -36179,7 +36154,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" ht="14.25">
       <c r="A53" s="219" t="s">
         <v>990</v>
       </c>
@@ -36202,7 +36177,7 @@
         <v>28.92</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" ht="14.25">
       <c r="A54" s="219" t="s">
         <v>991</v>
       </c>
@@ -36225,7 +36200,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" ht="14.25">
       <c r="A55" s="219" t="s">
         <v>992</v>
       </c>
@@ -36248,7 +36223,7 @@
         <v>28.07</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" ht="14.25">
       <c r="A56" s="219" t="s">
         <v>993</v>
       </c>
@@ -36271,7 +36246,7 @@
         <v>25.61</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" ht="14.25">
       <c r="A57" s="219" t="s">
         <v>994</v>
       </c>
@@ -36294,7 +36269,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" ht="14.25">
       <c r="A58" s="219" t="s">
         <v>995</v>
       </c>
@@ -36317,7 +36292,7 @@
         <v>30.75</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" ht="14.25">
       <c r="A59" s="219" t="s">
         <v>996</v>
       </c>
@@ -36340,7 +36315,7 @@
         <v>25.88</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" ht="14.25">
       <c r="A60" s="219" t="s">
         <v>997</v>
       </c>
@@ -36363,7 +36338,7 @@
         <v>34.94</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" ht="14.25">
       <c r="A61" s="219" t="s">
         <v>998</v>
       </c>
@@ -36386,7 +36361,7 @@
         <v>29.37</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" ht="14.25">
       <c r="A62" s="219" t="s">
         <v>999</v>
       </c>
@@ -36409,7 +36384,7 @@
         <v>45.87</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" ht="14.25">
       <c r="A63" s="219" t="s">
         <v>1000</v>
       </c>
@@ -36432,7 +36407,7 @@
         <v>35.049999999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="13.8" thickBot="1">
+    <row r="64" spans="1:7" ht="15" thickBot="1">
       <c r="A64" s="219" t="s">
         <v>1001</v>
       </c>
@@ -36445,9 +36420,7 @@
       <c r="D64" s="216" t="s">
         <v>315</v>
       </c>
-      <c r="E64" s="216">
-        <v>7.5</v>
-      </c>
+      <c r="E64" s="216"/>
       <c r="F64" s="216">
         <v>14</v>
       </c>
@@ -36455,7 +36428,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13.8" thickTop="1">
+    <row r="65" spans="1:7" ht="13.5" thickTop="1">
       <c r="A65" s="343"/>
       <c r="B65" s="343"/>
       <c r="C65" s="343"/>
@@ -36489,396 +36462,396 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="76.7109375" customWidth="1"/>
-    <col min="6" max="6" width="50.42578125" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1"/>
-    <col min="258" max="258" width="23.42578125" customWidth="1"/>
-    <col min="259" max="259" width="40.42578125" customWidth="1"/>
-    <col min="260" max="260" width="9.28515625" customWidth="1"/>
-    <col min="261" max="261" width="46.140625" customWidth="1"/>
-    <col min="262" max="262" width="55.42578125" customWidth="1"/>
-    <col min="263" max="263" width="29.7109375" customWidth="1"/>
-    <col min="514" max="514" width="23.42578125" customWidth="1"/>
-    <col min="515" max="515" width="40.42578125" customWidth="1"/>
-    <col min="516" max="516" width="9.28515625" customWidth="1"/>
-    <col min="517" max="517" width="46.140625" customWidth="1"/>
-    <col min="518" max="518" width="55.42578125" customWidth="1"/>
-    <col min="519" max="519" width="29.7109375" customWidth="1"/>
-    <col min="770" max="770" width="23.42578125" customWidth="1"/>
-    <col min="771" max="771" width="40.42578125" customWidth="1"/>
-    <col min="772" max="772" width="9.28515625" customWidth="1"/>
-    <col min="773" max="773" width="46.140625" customWidth="1"/>
-    <col min="774" max="774" width="55.42578125" customWidth="1"/>
-    <col min="775" max="775" width="29.7109375" customWidth="1"/>
-    <col min="1026" max="1026" width="23.42578125" customWidth="1"/>
-    <col min="1027" max="1027" width="40.42578125" customWidth="1"/>
-    <col min="1028" max="1028" width="9.28515625" customWidth="1"/>
-    <col min="1029" max="1029" width="46.140625" customWidth="1"/>
-    <col min="1030" max="1030" width="55.42578125" customWidth="1"/>
-    <col min="1031" max="1031" width="29.7109375" customWidth="1"/>
-    <col min="1282" max="1282" width="23.42578125" customWidth="1"/>
-    <col min="1283" max="1283" width="40.42578125" customWidth="1"/>
-    <col min="1284" max="1284" width="9.28515625" customWidth="1"/>
-    <col min="1285" max="1285" width="46.140625" customWidth="1"/>
-    <col min="1286" max="1286" width="55.42578125" customWidth="1"/>
-    <col min="1287" max="1287" width="29.7109375" customWidth="1"/>
-    <col min="1538" max="1538" width="23.42578125" customWidth="1"/>
-    <col min="1539" max="1539" width="40.42578125" customWidth="1"/>
-    <col min="1540" max="1540" width="9.28515625" customWidth="1"/>
-    <col min="1541" max="1541" width="46.140625" customWidth="1"/>
-    <col min="1542" max="1542" width="55.42578125" customWidth="1"/>
-    <col min="1543" max="1543" width="29.7109375" customWidth="1"/>
-    <col min="1794" max="1794" width="23.42578125" customWidth="1"/>
-    <col min="1795" max="1795" width="40.42578125" customWidth="1"/>
-    <col min="1796" max="1796" width="9.28515625" customWidth="1"/>
-    <col min="1797" max="1797" width="46.140625" customWidth="1"/>
-    <col min="1798" max="1798" width="55.42578125" customWidth="1"/>
-    <col min="1799" max="1799" width="29.7109375" customWidth="1"/>
-    <col min="2050" max="2050" width="23.42578125" customWidth="1"/>
-    <col min="2051" max="2051" width="40.42578125" customWidth="1"/>
-    <col min="2052" max="2052" width="9.28515625" customWidth="1"/>
-    <col min="2053" max="2053" width="46.140625" customWidth="1"/>
-    <col min="2054" max="2054" width="55.42578125" customWidth="1"/>
-    <col min="2055" max="2055" width="29.7109375" customWidth="1"/>
-    <col min="2306" max="2306" width="23.42578125" customWidth="1"/>
-    <col min="2307" max="2307" width="40.42578125" customWidth="1"/>
-    <col min="2308" max="2308" width="9.28515625" customWidth="1"/>
-    <col min="2309" max="2309" width="46.140625" customWidth="1"/>
-    <col min="2310" max="2310" width="55.42578125" customWidth="1"/>
-    <col min="2311" max="2311" width="29.7109375" customWidth="1"/>
-    <col min="2562" max="2562" width="23.42578125" customWidth="1"/>
-    <col min="2563" max="2563" width="40.42578125" customWidth="1"/>
-    <col min="2564" max="2564" width="9.28515625" customWidth="1"/>
-    <col min="2565" max="2565" width="46.140625" customWidth="1"/>
-    <col min="2566" max="2566" width="55.42578125" customWidth="1"/>
-    <col min="2567" max="2567" width="29.7109375" customWidth="1"/>
-    <col min="2818" max="2818" width="23.42578125" customWidth="1"/>
-    <col min="2819" max="2819" width="40.42578125" customWidth="1"/>
-    <col min="2820" max="2820" width="9.28515625" customWidth="1"/>
-    <col min="2821" max="2821" width="46.140625" customWidth="1"/>
-    <col min="2822" max="2822" width="55.42578125" customWidth="1"/>
-    <col min="2823" max="2823" width="29.7109375" customWidth="1"/>
-    <col min="3074" max="3074" width="23.42578125" customWidth="1"/>
-    <col min="3075" max="3075" width="40.42578125" customWidth="1"/>
-    <col min="3076" max="3076" width="9.28515625" customWidth="1"/>
-    <col min="3077" max="3077" width="46.140625" customWidth="1"/>
-    <col min="3078" max="3078" width="55.42578125" customWidth="1"/>
-    <col min="3079" max="3079" width="29.7109375" customWidth="1"/>
-    <col min="3330" max="3330" width="23.42578125" customWidth="1"/>
-    <col min="3331" max="3331" width="40.42578125" customWidth="1"/>
-    <col min="3332" max="3332" width="9.28515625" customWidth="1"/>
-    <col min="3333" max="3333" width="46.140625" customWidth="1"/>
-    <col min="3334" max="3334" width="55.42578125" customWidth="1"/>
-    <col min="3335" max="3335" width="29.7109375" customWidth="1"/>
-    <col min="3586" max="3586" width="23.42578125" customWidth="1"/>
-    <col min="3587" max="3587" width="40.42578125" customWidth="1"/>
-    <col min="3588" max="3588" width="9.28515625" customWidth="1"/>
-    <col min="3589" max="3589" width="46.140625" customWidth="1"/>
-    <col min="3590" max="3590" width="55.42578125" customWidth="1"/>
-    <col min="3591" max="3591" width="29.7109375" customWidth="1"/>
-    <col min="3842" max="3842" width="23.42578125" customWidth="1"/>
-    <col min="3843" max="3843" width="40.42578125" customWidth="1"/>
-    <col min="3844" max="3844" width="9.28515625" customWidth="1"/>
-    <col min="3845" max="3845" width="46.140625" customWidth="1"/>
-    <col min="3846" max="3846" width="55.42578125" customWidth="1"/>
-    <col min="3847" max="3847" width="29.7109375" customWidth="1"/>
-    <col min="4098" max="4098" width="23.42578125" customWidth="1"/>
-    <col min="4099" max="4099" width="40.42578125" customWidth="1"/>
-    <col min="4100" max="4100" width="9.28515625" customWidth="1"/>
-    <col min="4101" max="4101" width="46.140625" customWidth="1"/>
-    <col min="4102" max="4102" width="55.42578125" customWidth="1"/>
-    <col min="4103" max="4103" width="29.7109375" customWidth="1"/>
-    <col min="4354" max="4354" width="23.42578125" customWidth="1"/>
-    <col min="4355" max="4355" width="40.42578125" customWidth="1"/>
-    <col min="4356" max="4356" width="9.28515625" customWidth="1"/>
-    <col min="4357" max="4357" width="46.140625" customWidth="1"/>
-    <col min="4358" max="4358" width="55.42578125" customWidth="1"/>
-    <col min="4359" max="4359" width="29.7109375" customWidth="1"/>
-    <col min="4610" max="4610" width="23.42578125" customWidth="1"/>
-    <col min="4611" max="4611" width="40.42578125" customWidth="1"/>
-    <col min="4612" max="4612" width="9.28515625" customWidth="1"/>
-    <col min="4613" max="4613" width="46.140625" customWidth="1"/>
-    <col min="4614" max="4614" width="55.42578125" customWidth="1"/>
-    <col min="4615" max="4615" width="29.7109375" customWidth="1"/>
-    <col min="4866" max="4866" width="23.42578125" customWidth="1"/>
-    <col min="4867" max="4867" width="40.42578125" customWidth="1"/>
-    <col min="4868" max="4868" width="9.28515625" customWidth="1"/>
-    <col min="4869" max="4869" width="46.140625" customWidth="1"/>
-    <col min="4870" max="4870" width="55.42578125" customWidth="1"/>
-    <col min="4871" max="4871" width="29.7109375" customWidth="1"/>
-    <col min="5122" max="5122" width="23.42578125" customWidth="1"/>
-    <col min="5123" max="5123" width="40.42578125" customWidth="1"/>
-    <col min="5124" max="5124" width="9.28515625" customWidth="1"/>
-    <col min="5125" max="5125" width="46.140625" customWidth="1"/>
-    <col min="5126" max="5126" width="55.42578125" customWidth="1"/>
-    <col min="5127" max="5127" width="29.7109375" customWidth="1"/>
-    <col min="5378" max="5378" width="23.42578125" customWidth="1"/>
-    <col min="5379" max="5379" width="40.42578125" customWidth="1"/>
-    <col min="5380" max="5380" width="9.28515625" customWidth="1"/>
-    <col min="5381" max="5381" width="46.140625" customWidth="1"/>
-    <col min="5382" max="5382" width="55.42578125" customWidth="1"/>
-    <col min="5383" max="5383" width="29.7109375" customWidth="1"/>
-    <col min="5634" max="5634" width="23.42578125" customWidth="1"/>
-    <col min="5635" max="5635" width="40.42578125" customWidth="1"/>
-    <col min="5636" max="5636" width="9.28515625" customWidth="1"/>
-    <col min="5637" max="5637" width="46.140625" customWidth="1"/>
-    <col min="5638" max="5638" width="55.42578125" customWidth="1"/>
-    <col min="5639" max="5639" width="29.7109375" customWidth="1"/>
-    <col min="5890" max="5890" width="23.42578125" customWidth="1"/>
-    <col min="5891" max="5891" width="40.42578125" customWidth="1"/>
-    <col min="5892" max="5892" width="9.28515625" customWidth="1"/>
-    <col min="5893" max="5893" width="46.140625" customWidth="1"/>
-    <col min="5894" max="5894" width="55.42578125" customWidth="1"/>
-    <col min="5895" max="5895" width="29.7109375" customWidth="1"/>
-    <col min="6146" max="6146" width="23.42578125" customWidth="1"/>
-    <col min="6147" max="6147" width="40.42578125" customWidth="1"/>
-    <col min="6148" max="6148" width="9.28515625" customWidth="1"/>
-    <col min="6149" max="6149" width="46.140625" customWidth="1"/>
-    <col min="6150" max="6150" width="55.42578125" customWidth="1"/>
-    <col min="6151" max="6151" width="29.7109375" customWidth="1"/>
-    <col min="6402" max="6402" width="23.42578125" customWidth="1"/>
-    <col min="6403" max="6403" width="40.42578125" customWidth="1"/>
-    <col min="6404" max="6404" width="9.28515625" customWidth="1"/>
-    <col min="6405" max="6405" width="46.140625" customWidth="1"/>
-    <col min="6406" max="6406" width="55.42578125" customWidth="1"/>
-    <col min="6407" max="6407" width="29.7109375" customWidth="1"/>
-    <col min="6658" max="6658" width="23.42578125" customWidth="1"/>
-    <col min="6659" max="6659" width="40.42578125" customWidth="1"/>
-    <col min="6660" max="6660" width="9.28515625" customWidth="1"/>
-    <col min="6661" max="6661" width="46.140625" customWidth="1"/>
-    <col min="6662" max="6662" width="55.42578125" customWidth="1"/>
-    <col min="6663" max="6663" width="29.7109375" customWidth="1"/>
-    <col min="6914" max="6914" width="23.42578125" customWidth="1"/>
-    <col min="6915" max="6915" width="40.42578125" customWidth="1"/>
-    <col min="6916" max="6916" width="9.28515625" customWidth="1"/>
-    <col min="6917" max="6917" width="46.140625" customWidth="1"/>
-    <col min="6918" max="6918" width="55.42578125" customWidth="1"/>
-    <col min="6919" max="6919" width="29.7109375" customWidth="1"/>
-    <col min="7170" max="7170" width="23.42578125" customWidth="1"/>
-    <col min="7171" max="7171" width="40.42578125" customWidth="1"/>
-    <col min="7172" max="7172" width="9.28515625" customWidth="1"/>
-    <col min="7173" max="7173" width="46.140625" customWidth="1"/>
-    <col min="7174" max="7174" width="55.42578125" customWidth="1"/>
-    <col min="7175" max="7175" width="29.7109375" customWidth="1"/>
-    <col min="7426" max="7426" width="23.42578125" customWidth="1"/>
-    <col min="7427" max="7427" width="40.42578125" customWidth="1"/>
-    <col min="7428" max="7428" width="9.28515625" customWidth="1"/>
-    <col min="7429" max="7429" width="46.140625" customWidth="1"/>
-    <col min="7430" max="7430" width="55.42578125" customWidth="1"/>
-    <col min="7431" max="7431" width="29.7109375" customWidth="1"/>
-    <col min="7682" max="7682" width="23.42578125" customWidth="1"/>
-    <col min="7683" max="7683" width="40.42578125" customWidth="1"/>
-    <col min="7684" max="7684" width="9.28515625" customWidth="1"/>
-    <col min="7685" max="7685" width="46.140625" customWidth="1"/>
-    <col min="7686" max="7686" width="55.42578125" customWidth="1"/>
-    <col min="7687" max="7687" width="29.7109375" customWidth="1"/>
-    <col min="7938" max="7938" width="23.42578125" customWidth="1"/>
-    <col min="7939" max="7939" width="40.42578125" customWidth="1"/>
-    <col min="7940" max="7940" width="9.28515625" customWidth="1"/>
-    <col min="7941" max="7941" width="46.140625" customWidth="1"/>
-    <col min="7942" max="7942" width="55.42578125" customWidth="1"/>
-    <col min="7943" max="7943" width="29.7109375" customWidth="1"/>
-    <col min="8194" max="8194" width="23.42578125" customWidth="1"/>
-    <col min="8195" max="8195" width="40.42578125" customWidth="1"/>
-    <col min="8196" max="8196" width="9.28515625" customWidth="1"/>
-    <col min="8197" max="8197" width="46.140625" customWidth="1"/>
-    <col min="8198" max="8198" width="55.42578125" customWidth="1"/>
-    <col min="8199" max="8199" width="29.7109375" customWidth="1"/>
-    <col min="8450" max="8450" width="23.42578125" customWidth="1"/>
-    <col min="8451" max="8451" width="40.42578125" customWidth="1"/>
-    <col min="8452" max="8452" width="9.28515625" customWidth="1"/>
-    <col min="8453" max="8453" width="46.140625" customWidth="1"/>
-    <col min="8454" max="8454" width="55.42578125" customWidth="1"/>
-    <col min="8455" max="8455" width="29.7109375" customWidth="1"/>
-    <col min="8706" max="8706" width="23.42578125" customWidth="1"/>
-    <col min="8707" max="8707" width="40.42578125" customWidth="1"/>
-    <col min="8708" max="8708" width="9.28515625" customWidth="1"/>
-    <col min="8709" max="8709" width="46.140625" customWidth="1"/>
-    <col min="8710" max="8710" width="55.42578125" customWidth="1"/>
-    <col min="8711" max="8711" width="29.7109375" customWidth="1"/>
-    <col min="8962" max="8962" width="23.42578125" customWidth="1"/>
-    <col min="8963" max="8963" width="40.42578125" customWidth="1"/>
-    <col min="8964" max="8964" width="9.28515625" customWidth="1"/>
-    <col min="8965" max="8965" width="46.140625" customWidth="1"/>
-    <col min="8966" max="8966" width="55.42578125" customWidth="1"/>
-    <col min="8967" max="8967" width="29.7109375" customWidth="1"/>
-    <col min="9218" max="9218" width="23.42578125" customWidth="1"/>
-    <col min="9219" max="9219" width="40.42578125" customWidth="1"/>
-    <col min="9220" max="9220" width="9.28515625" customWidth="1"/>
-    <col min="9221" max="9221" width="46.140625" customWidth="1"/>
-    <col min="9222" max="9222" width="55.42578125" customWidth="1"/>
-    <col min="9223" max="9223" width="29.7109375" customWidth="1"/>
-    <col min="9474" max="9474" width="23.42578125" customWidth="1"/>
-    <col min="9475" max="9475" width="40.42578125" customWidth="1"/>
-    <col min="9476" max="9476" width="9.28515625" customWidth="1"/>
-    <col min="9477" max="9477" width="46.140625" customWidth="1"/>
-    <col min="9478" max="9478" width="55.42578125" customWidth="1"/>
-    <col min="9479" max="9479" width="29.7109375" customWidth="1"/>
-    <col min="9730" max="9730" width="23.42578125" customWidth="1"/>
-    <col min="9731" max="9731" width="40.42578125" customWidth="1"/>
-    <col min="9732" max="9732" width="9.28515625" customWidth="1"/>
-    <col min="9733" max="9733" width="46.140625" customWidth="1"/>
-    <col min="9734" max="9734" width="55.42578125" customWidth="1"/>
-    <col min="9735" max="9735" width="29.7109375" customWidth="1"/>
-    <col min="9986" max="9986" width="23.42578125" customWidth="1"/>
-    <col min="9987" max="9987" width="40.42578125" customWidth="1"/>
-    <col min="9988" max="9988" width="9.28515625" customWidth="1"/>
-    <col min="9989" max="9989" width="46.140625" customWidth="1"/>
-    <col min="9990" max="9990" width="55.42578125" customWidth="1"/>
-    <col min="9991" max="9991" width="29.7109375" customWidth="1"/>
-    <col min="10242" max="10242" width="23.42578125" customWidth="1"/>
-    <col min="10243" max="10243" width="40.42578125" customWidth="1"/>
-    <col min="10244" max="10244" width="9.28515625" customWidth="1"/>
-    <col min="10245" max="10245" width="46.140625" customWidth="1"/>
-    <col min="10246" max="10246" width="55.42578125" customWidth="1"/>
-    <col min="10247" max="10247" width="29.7109375" customWidth="1"/>
-    <col min="10498" max="10498" width="23.42578125" customWidth="1"/>
-    <col min="10499" max="10499" width="40.42578125" customWidth="1"/>
-    <col min="10500" max="10500" width="9.28515625" customWidth="1"/>
-    <col min="10501" max="10501" width="46.140625" customWidth="1"/>
-    <col min="10502" max="10502" width="55.42578125" customWidth="1"/>
-    <col min="10503" max="10503" width="29.7109375" customWidth="1"/>
-    <col min="10754" max="10754" width="23.42578125" customWidth="1"/>
-    <col min="10755" max="10755" width="40.42578125" customWidth="1"/>
-    <col min="10756" max="10756" width="9.28515625" customWidth="1"/>
-    <col min="10757" max="10757" width="46.140625" customWidth="1"/>
-    <col min="10758" max="10758" width="55.42578125" customWidth="1"/>
-    <col min="10759" max="10759" width="29.7109375" customWidth="1"/>
-    <col min="11010" max="11010" width="23.42578125" customWidth="1"/>
-    <col min="11011" max="11011" width="40.42578125" customWidth="1"/>
-    <col min="11012" max="11012" width="9.28515625" customWidth="1"/>
-    <col min="11013" max="11013" width="46.140625" customWidth="1"/>
-    <col min="11014" max="11014" width="55.42578125" customWidth="1"/>
-    <col min="11015" max="11015" width="29.7109375" customWidth="1"/>
-    <col min="11266" max="11266" width="23.42578125" customWidth="1"/>
-    <col min="11267" max="11267" width="40.42578125" customWidth="1"/>
-    <col min="11268" max="11268" width="9.28515625" customWidth="1"/>
-    <col min="11269" max="11269" width="46.140625" customWidth="1"/>
-    <col min="11270" max="11270" width="55.42578125" customWidth="1"/>
-    <col min="11271" max="11271" width="29.7109375" customWidth="1"/>
-    <col min="11522" max="11522" width="23.42578125" customWidth="1"/>
-    <col min="11523" max="11523" width="40.42578125" customWidth="1"/>
-    <col min="11524" max="11524" width="9.28515625" customWidth="1"/>
-    <col min="11525" max="11525" width="46.140625" customWidth="1"/>
-    <col min="11526" max="11526" width="55.42578125" customWidth="1"/>
-    <col min="11527" max="11527" width="29.7109375" customWidth="1"/>
-    <col min="11778" max="11778" width="23.42578125" customWidth="1"/>
-    <col min="11779" max="11779" width="40.42578125" customWidth="1"/>
-    <col min="11780" max="11780" width="9.28515625" customWidth="1"/>
-    <col min="11781" max="11781" width="46.140625" customWidth="1"/>
-    <col min="11782" max="11782" width="55.42578125" customWidth="1"/>
-    <col min="11783" max="11783" width="29.7109375" customWidth="1"/>
-    <col min="12034" max="12034" width="23.42578125" customWidth="1"/>
-    <col min="12035" max="12035" width="40.42578125" customWidth="1"/>
-    <col min="12036" max="12036" width="9.28515625" customWidth="1"/>
-    <col min="12037" max="12037" width="46.140625" customWidth="1"/>
-    <col min="12038" max="12038" width="55.42578125" customWidth="1"/>
-    <col min="12039" max="12039" width="29.7109375" customWidth="1"/>
-    <col min="12290" max="12290" width="23.42578125" customWidth="1"/>
-    <col min="12291" max="12291" width="40.42578125" customWidth="1"/>
-    <col min="12292" max="12292" width="9.28515625" customWidth="1"/>
-    <col min="12293" max="12293" width="46.140625" customWidth="1"/>
-    <col min="12294" max="12294" width="55.42578125" customWidth="1"/>
-    <col min="12295" max="12295" width="29.7109375" customWidth="1"/>
-    <col min="12546" max="12546" width="23.42578125" customWidth="1"/>
-    <col min="12547" max="12547" width="40.42578125" customWidth="1"/>
-    <col min="12548" max="12548" width="9.28515625" customWidth="1"/>
-    <col min="12549" max="12549" width="46.140625" customWidth="1"/>
-    <col min="12550" max="12550" width="55.42578125" customWidth="1"/>
-    <col min="12551" max="12551" width="29.7109375" customWidth="1"/>
-    <col min="12802" max="12802" width="23.42578125" customWidth="1"/>
-    <col min="12803" max="12803" width="40.42578125" customWidth="1"/>
-    <col min="12804" max="12804" width="9.28515625" customWidth="1"/>
-    <col min="12805" max="12805" width="46.140625" customWidth="1"/>
-    <col min="12806" max="12806" width="55.42578125" customWidth="1"/>
-    <col min="12807" max="12807" width="29.7109375" customWidth="1"/>
-    <col min="13058" max="13058" width="23.42578125" customWidth="1"/>
-    <col min="13059" max="13059" width="40.42578125" customWidth="1"/>
-    <col min="13060" max="13060" width="9.28515625" customWidth="1"/>
-    <col min="13061" max="13061" width="46.140625" customWidth="1"/>
-    <col min="13062" max="13062" width="55.42578125" customWidth="1"/>
-    <col min="13063" max="13063" width="29.7109375" customWidth="1"/>
-    <col min="13314" max="13314" width="23.42578125" customWidth="1"/>
-    <col min="13315" max="13315" width="40.42578125" customWidth="1"/>
-    <col min="13316" max="13316" width="9.28515625" customWidth="1"/>
-    <col min="13317" max="13317" width="46.140625" customWidth="1"/>
-    <col min="13318" max="13318" width="55.42578125" customWidth="1"/>
-    <col min="13319" max="13319" width="29.7109375" customWidth="1"/>
-    <col min="13570" max="13570" width="23.42578125" customWidth="1"/>
-    <col min="13571" max="13571" width="40.42578125" customWidth="1"/>
-    <col min="13572" max="13572" width="9.28515625" customWidth="1"/>
-    <col min="13573" max="13573" width="46.140625" customWidth="1"/>
-    <col min="13574" max="13574" width="55.42578125" customWidth="1"/>
-    <col min="13575" max="13575" width="29.7109375" customWidth="1"/>
-    <col min="13826" max="13826" width="23.42578125" customWidth="1"/>
-    <col min="13827" max="13827" width="40.42578125" customWidth="1"/>
-    <col min="13828" max="13828" width="9.28515625" customWidth="1"/>
-    <col min="13829" max="13829" width="46.140625" customWidth="1"/>
-    <col min="13830" max="13830" width="55.42578125" customWidth="1"/>
-    <col min="13831" max="13831" width="29.7109375" customWidth="1"/>
-    <col min="14082" max="14082" width="23.42578125" customWidth="1"/>
-    <col min="14083" max="14083" width="40.42578125" customWidth="1"/>
-    <col min="14084" max="14084" width="9.28515625" customWidth="1"/>
-    <col min="14085" max="14085" width="46.140625" customWidth="1"/>
-    <col min="14086" max="14086" width="55.42578125" customWidth="1"/>
-    <col min="14087" max="14087" width="29.7109375" customWidth="1"/>
-    <col min="14338" max="14338" width="23.42578125" customWidth="1"/>
-    <col min="14339" max="14339" width="40.42578125" customWidth="1"/>
-    <col min="14340" max="14340" width="9.28515625" customWidth="1"/>
-    <col min="14341" max="14341" width="46.140625" customWidth="1"/>
-    <col min="14342" max="14342" width="55.42578125" customWidth="1"/>
-    <col min="14343" max="14343" width="29.7109375" customWidth="1"/>
-    <col min="14594" max="14594" width="23.42578125" customWidth="1"/>
-    <col min="14595" max="14595" width="40.42578125" customWidth="1"/>
-    <col min="14596" max="14596" width="9.28515625" customWidth="1"/>
-    <col min="14597" max="14597" width="46.140625" customWidth="1"/>
-    <col min="14598" max="14598" width="55.42578125" customWidth="1"/>
-    <col min="14599" max="14599" width="29.7109375" customWidth="1"/>
-    <col min="14850" max="14850" width="23.42578125" customWidth="1"/>
-    <col min="14851" max="14851" width="40.42578125" customWidth="1"/>
-    <col min="14852" max="14852" width="9.28515625" customWidth="1"/>
-    <col min="14853" max="14853" width="46.140625" customWidth="1"/>
-    <col min="14854" max="14854" width="55.42578125" customWidth="1"/>
-    <col min="14855" max="14855" width="29.7109375" customWidth="1"/>
-    <col min="15106" max="15106" width="23.42578125" customWidth="1"/>
-    <col min="15107" max="15107" width="40.42578125" customWidth="1"/>
-    <col min="15108" max="15108" width="9.28515625" customWidth="1"/>
-    <col min="15109" max="15109" width="46.140625" customWidth="1"/>
-    <col min="15110" max="15110" width="55.42578125" customWidth="1"/>
-    <col min="15111" max="15111" width="29.7109375" customWidth="1"/>
-    <col min="15362" max="15362" width="23.42578125" customWidth="1"/>
-    <col min="15363" max="15363" width="40.42578125" customWidth="1"/>
-    <col min="15364" max="15364" width="9.28515625" customWidth="1"/>
-    <col min="15365" max="15365" width="46.140625" customWidth="1"/>
-    <col min="15366" max="15366" width="55.42578125" customWidth="1"/>
-    <col min="15367" max="15367" width="29.7109375" customWidth="1"/>
-    <col min="15618" max="15618" width="23.42578125" customWidth="1"/>
-    <col min="15619" max="15619" width="40.42578125" customWidth="1"/>
-    <col min="15620" max="15620" width="9.28515625" customWidth="1"/>
-    <col min="15621" max="15621" width="46.140625" customWidth="1"/>
-    <col min="15622" max="15622" width="55.42578125" customWidth="1"/>
-    <col min="15623" max="15623" width="29.7109375" customWidth="1"/>
-    <col min="15874" max="15874" width="23.42578125" customWidth="1"/>
-    <col min="15875" max="15875" width="40.42578125" customWidth="1"/>
-    <col min="15876" max="15876" width="9.28515625" customWidth="1"/>
-    <col min="15877" max="15877" width="46.140625" customWidth="1"/>
-    <col min="15878" max="15878" width="55.42578125" customWidth="1"/>
-    <col min="15879" max="15879" width="29.7109375" customWidth="1"/>
-    <col min="16130" max="16130" width="23.42578125" customWidth="1"/>
-    <col min="16131" max="16131" width="40.42578125" customWidth="1"/>
-    <col min="16132" max="16132" width="9.28515625" customWidth="1"/>
-    <col min="16133" max="16133" width="46.140625" customWidth="1"/>
-    <col min="16134" max="16134" width="55.42578125" customWidth="1"/>
-    <col min="16135" max="16135" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="76.6640625" customWidth="1"/>
+    <col min="6" max="6" width="50.5" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="258" max="258" width="23.5" customWidth="1"/>
+    <col min="259" max="259" width="40.5" customWidth="1"/>
+    <col min="260" max="260" width="9.33203125" customWidth="1"/>
+    <col min="261" max="261" width="46.1640625" customWidth="1"/>
+    <col min="262" max="262" width="55.5" customWidth="1"/>
+    <col min="263" max="263" width="29.6640625" customWidth="1"/>
+    <col min="514" max="514" width="23.5" customWidth="1"/>
+    <col min="515" max="515" width="40.5" customWidth="1"/>
+    <col min="516" max="516" width="9.33203125" customWidth="1"/>
+    <col min="517" max="517" width="46.1640625" customWidth="1"/>
+    <col min="518" max="518" width="55.5" customWidth="1"/>
+    <col min="519" max="519" width="29.6640625" customWidth="1"/>
+    <col min="770" max="770" width="23.5" customWidth="1"/>
+    <col min="771" max="771" width="40.5" customWidth="1"/>
+    <col min="772" max="772" width="9.33203125" customWidth="1"/>
+    <col min="773" max="773" width="46.1640625" customWidth="1"/>
+    <col min="774" max="774" width="55.5" customWidth="1"/>
+    <col min="775" max="775" width="29.6640625" customWidth="1"/>
+    <col min="1026" max="1026" width="23.5" customWidth="1"/>
+    <col min="1027" max="1027" width="40.5" customWidth="1"/>
+    <col min="1028" max="1028" width="9.33203125" customWidth="1"/>
+    <col min="1029" max="1029" width="46.1640625" customWidth="1"/>
+    <col min="1030" max="1030" width="55.5" customWidth="1"/>
+    <col min="1031" max="1031" width="29.6640625" customWidth="1"/>
+    <col min="1282" max="1282" width="23.5" customWidth="1"/>
+    <col min="1283" max="1283" width="40.5" customWidth="1"/>
+    <col min="1284" max="1284" width="9.33203125" customWidth="1"/>
+    <col min="1285" max="1285" width="46.1640625" customWidth="1"/>
+    <col min="1286" max="1286" width="55.5" customWidth="1"/>
+    <col min="1287" max="1287" width="29.6640625" customWidth="1"/>
+    <col min="1538" max="1538" width="23.5" customWidth="1"/>
+    <col min="1539" max="1539" width="40.5" customWidth="1"/>
+    <col min="1540" max="1540" width="9.33203125" customWidth="1"/>
+    <col min="1541" max="1541" width="46.1640625" customWidth="1"/>
+    <col min="1542" max="1542" width="55.5" customWidth="1"/>
+    <col min="1543" max="1543" width="29.6640625" customWidth="1"/>
+    <col min="1794" max="1794" width="23.5" customWidth="1"/>
+    <col min="1795" max="1795" width="40.5" customWidth="1"/>
+    <col min="1796" max="1796" width="9.33203125" customWidth="1"/>
+    <col min="1797" max="1797" width="46.1640625" customWidth="1"/>
+    <col min="1798" max="1798" width="55.5" customWidth="1"/>
+    <col min="1799" max="1799" width="29.6640625" customWidth="1"/>
+    <col min="2050" max="2050" width="23.5" customWidth="1"/>
+    <col min="2051" max="2051" width="40.5" customWidth="1"/>
+    <col min="2052" max="2052" width="9.33203125" customWidth="1"/>
+    <col min="2053" max="2053" width="46.1640625" customWidth="1"/>
+    <col min="2054" max="2054" width="55.5" customWidth="1"/>
+    <col min="2055" max="2055" width="29.6640625" customWidth="1"/>
+    <col min="2306" max="2306" width="23.5" customWidth="1"/>
+    <col min="2307" max="2307" width="40.5" customWidth="1"/>
+    <col min="2308" max="2308" width="9.33203125" customWidth="1"/>
+    <col min="2309" max="2309" width="46.1640625" customWidth="1"/>
+    <col min="2310" max="2310" width="55.5" customWidth="1"/>
+    <col min="2311" max="2311" width="29.6640625" customWidth="1"/>
+    <col min="2562" max="2562" width="23.5" customWidth="1"/>
+    <col min="2563" max="2563" width="40.5" customWidth="1"/>
+    <col min="2564" max="2564" width="9.33203125" customWidth="1"/>
+    <col min="2565" max="2565" width="46.1640625" customWidth="1"/>
+    <col min="2566" max="2566" width="55.5" customWidth="1"/>
+    <col min="2567" max="2567" width="29.6640625" customWidth="1"/>
+    <col min="2818" max="2818" width="23.5" customWidth="1"/>
+    <col min="2819" max="2819" width="40.5" customWidth="1"/>
+    <col min="2820" max="2820" width="9.33203125" customWidth="1"/>
+    <col min="2821" max="2821" width="46.1640625" customWidth="1"/>
+    <col min="2822" max="2822" width="55.5" customWidth="1"/>
+    <col min="2823" max="2823" width="29.6640625" customWidth="1"/>
+    <col min="3074" max="3074" width="23.5" customWidth="1"/>
+    <col min="3075" max="3075" width="40.5" customWidth="1"/>
+    <col min="3076" max="3076" width="9.33203125" customWidth="1"/>
+    <col min="3077" max="3077" width="46.1640625" customWidth="1"/>
+    <col min="3078" max="3078" width="55.5" customWidth="1"/>
+    <col min="3079" max="3079" width="29.6640625" customWidth="1"/>
+    <col min="3330" max="3330" width="23.5" customWidth="1"/>
+    <col min="3331" max="3331" width="40.5" customWidth="1"/>
+    <col min="3332" max="3332" width="9.33203125" customWidth="1"/>
+    <col min="3333" max="3333" width="46.1640625" customWidth="1"/>
+    <col min="3334" max="3334" width="55.5" customWidth="1"/>
+    <col min="3335" max="3335" width="29.6640625" customWidth="1"/>
+    <col min="3586" max="3586" width="23.5" customWidth="1"/>
+    <col min="3587" max="3587" width="40.5" customWidth="1"/>
+    <col min="3588" max="3588" width="9.33203125" customWidth="1"/>
+    <col min="3589" max="3589" width="46.1640625" customWidth="1"/>
+    <col min="3590" max="3590" width="55.5" customWidth="1"/>
+    <col min="3591" max="3591" width="29.6640625" customWidth="1"/>
+    <col min="3842" max="3842" width="23.5" customWidth="1"/>
+    <col min="3843" max="3843" width="40.5" customWidth="1"/>
+    <col min="3844" max="3844" width="9.33203125" customWidth="1"/>
+    <col min="3845" max="3845" width="46.1640625" customWidth="1"/>
+    <col min="3846" max="3846" width="55.5" customWidth="1"/>
+    <col min="3847" max="3847" width="29.6640625" customWidth="1"/>
+    <col min="4098" max="4098" width="23.5" customWidth="1"/>
+    <col min="4099" max="4099" width="40.5" customWidth="1"/>
+    <col min="4100" max="4100" width="9.33203125" customWidth="1"/>
+    <col min="4101" max="4101" width="46.1640625" customWidth="1"/>
+    <col min="4102" max="4102" width="55.5" customWidth="1"/>
+    <col min="4103" max="4103" width="29.6640625" customWidth="1"/>
+    <col min="4354" max="4354" width="23.5" customWidth="1"/>
+    <col min="4355" max="4355" width="40.5" customWidth="1"/>
+    <col min="4356" max="4356" width="9.33203125" customWidth="1"/>
+    <col min="4357" max="4357" width="46.1640625" customWidth="1"/>
+    <col min="4358" max="4358" width="55.5" customWidth="1"/>
+    <col min="4359" max="4359" width="29.6640625" customWidth="1"/>
+    <col min="4610" max="4610" width="23.5" customWidth="1"/>
+    <col min="4611" max="4611" width="40.5" customWidth="1"/>
+    <col min="4612" max="4612" width="9.33203125" customWidth="1"/>
+    <col min="4613" max="4613" width="46.1640625" customWidth="1"/>
+    <col min="4614" max="4614" width="55.5" customWidth="1"/>
+    <col min="4615" max="4615" width="29.6640625" customWidth="1"/>
+    <col min="4866" max="4866" width="23.5" customWidth="1"/>
+    <col min="4867" max="4867" width="40.5" customWidth="1"/>
+    <col min="4868" max="4868" width="9.33203125" customWidth="1"/>
+    <col min="4869" max="4869" width="46.1640625" customWidth="1"/>
+    <col min="4870" max="4870" width="55.5" customWidth="1"/>
+    <col min="4871" max="4871" width="29.6640625" customWidth="1"/>
+    <col min="5122" max="5122" width="23.5" customWidth="1"/>
+    <col min="5123" max="5123" width="40.5" customWidth="1"/>
+    <col min="5124" max="5124" width="9.33203125" customWidth="1"/>
+    <col min="5125" max="5125" width="46.1640625" customWidth="1"/>
+    <col min="5126" max="5126" width="55.5" customWidth="1"/>
+    <col min="5127" max="5127" width="29.6640625" customWidth="1"/>
+    <col min="5378" max="5378" width="23.5" customWidth="1"/>
+    <col min="5379" max="5379" width="40.5" customWidth="1"/>
+    <col min="5380" max="5380" width="9.33203125" customWidth="1"/>
+    <col min="5381" max="5381" width="46.1640625" customWidth="1"/>
+    <col min="5382" max="5382" width="55.5" customWidth="1"/>
+    <col min="5383" max="5383" width="29.6640625" customWidth="1"/>
+    <col min="5634" max="5634" width="23.5" customWidth="1"/>
+    <col min="5635" max="5635" width="40.5" customWidth="1"/>
+    <col min="5636" max="5636" width="9.33203125" customWidth="1"/>
+    <col min="5637" max="5637" width="46.1640625" customWidth="1"/>
+    <col min="5638" max="5638" width="55.5" customWidth="1"/>
+    <col min="5639" max="5639" width="29.6640625" customWidth="1"/>
+    <col min="5890" max="5890" width="23.5" customWidth="1"/>
+    <col min="5891" max="5891" width="40.5" customWidth="1"/>
+    <col min="5892" max="5892" width="9.33203125" customWidth="1"/>
+    <col min="5893" max="5893" width="46.1640625" customWidth="1"/>
+    <col min="5894" max="5894" width="55.5" customWidth="1"/>
+    <col min="5895" max="5895" width="29.6640625" customWidth="1"/>
+    <col min="6146" max="6146" width="23.5" customWidth="1"/>
+    <col min="6147" max="6147" width="40.5" customWidth="1"/>
+    <col min="6148" max="6148" width="9.33203125" customWidth="1"/>
+    <col min="6149" max="6149" width="46.1640625" customWidth="1"/>
+    <col min="6150" max="6150" width="55.5" customWidth="1"/>
+    <col min="6151" max="6151" width="29.6640625" customWidth="1"/>
+    <col min="6402" max="6402" width="23.5" customWidth="1"/>
+    <col min="6403" max="6403" width="40.5" customWidth="1"/>
+    <col min="6404" max="6404" width="9.33203125" customWidth="1"/>
+    <col min="6405" max="6405" width="46.1640625" customWidth="1"/>
+    <col min="6406" max="6406" width="55.5" customWidth="1"/>
+    <col min="6407" max="6407" width="29.6640625" customWidth="1"/>
+    <col min="6658" max="6658" width="23.5" customWidth="1"/>
+    <col min="6659" max="6659" width="40.5" customWidth="1"/>
+    <col min="6660" max="6660" width="9.33203125" customWidth="1"/>
+    <col min="6661" max="6661" width="46.1640625" customWidth="1"/>
+    <col min="6662" max="6662" width="55.5" customWidth="1"/>
+    <col min="6663" max="6663" width="29.6640625" customWidth="1"/>
+    <col min="6914" max="6914" width="23.5" customWidth="1"/>
+    <col min="6915" max="6915" width="40.5" customWidth="1"/>
+    <col min="6916" max="6916" width="9.33203125" customWidth="1"/>
+    <col min="6917" max="6917" width="46.1640625" customWidth="1"/>
+    <col min="6918" max="6918" width="55.5" customWidth="1"/>
+    <col min="6919" max="6919" width="29.6640625" customWidth="1"/>
+    <col min="7170" max="7170" width="23.5" customWidth="1"/>
+    <col min="7171" max="7171" width="40.5" customWidth="1"/>
+    <col min="7172" max="7172" width="9.33203125" customWidth="1"/>
+    <col min="7173" max="7173" width="46.1640625" customWidth="1"/>
+    <col min="7174" max="7174" width="55.5" customWidth="1"/>
+    <col min="7175" max="7175" width="29.6640625" customWidth="1"/>
+    <col min="7426" max="7426" width="23.5" customWidth="1"/>
+    <col min="7427" max="7427" width="40.5" customWidth="1"/>
+    <col min="7428" max="7428" width="9.33203125" customWidth="1"/>
+    <col min="7429" max="7429" width="46.1640625" customWidth="1"/>
+    <col min="7430" max="7430" width="55.5" customWidth="1"/>
+    <col min="7431" max="7431" width="29.6640625" customWidth="1"/>
+    <col min="7682" max="7682" width="23.5" customWidth="1"/>
+    <col min="7683" max="7683" width="40.5" customWidth="1"/>
+    <col min="7684" max="7684" width="9.33203125" customWidth="1"/>
+    <col min="7685" max="7685" width="46.1640625" customWidth="1"/>
+    <col min="7686" max="7686" width="55.5" customWidth="1"/>
+    <col min="7687" max="7687" width="29.6640625" customWidth="1"/>
+    <col min="7938" max="7938" width="23.5" customWidth="1"/>
+    <col min="7939" max="7939" width="40.5" customWidth="1"/>
+    <col min="7940" max="7940" width="9.33203125" customWidth="1"/>
+    <col min="7941" max="7941" width="46.1640625" customWidth="1"/>
+    <col min="7942" max="7942" width="55.5" customWidth="1"/>
+    <col min="7943" max="7943" width="29.6640625" customWidth="1"/>
+    <col min="8194" max="8194" width="23.5" customWidth="1"/>
+    <col min="8195" max="8195" width="40.5" customWidth="1"/>
+    <col min="8196" max="8196" width="9.33203125" customWidth="1"/>
+    <col min="8197" max="8197" width="46.1640625" customWidth="1"/>
+    <col min="8198" max="8198" width="55.5" customWidth="1"/>
+    <col min="8199" max="8199" width="29.6640625" customWidth="1"/>
+    <col min="8450" max="8450" width="23.5" customWidth="1"/>
+    <col min="8451" max="8451" width="40.5" customWidth="1"/>
+    <col min="8452" max="8452" width="9.33203125" customWidth="1"/>
+    <col min="8453" max="8453" width="46.1640625" customWidth="1"/>
+    <col min="8454" max="8454" width="55.5" customWidth="1"/>
+    <col min="8455" max="8455" width="29.6640625" customWidth="1"/>
+    <col min="8706" max="8706" width="23.5" customWidth="1"/>
+    <col min="8707" max="8707" width="40.5" customWidth="1"/>
+    <col min="8708" max="8708" width="9.33203125" customWidth="1"/>
+    <col min="8709" max="8709" width="46.1640625" customWidth="1"/>
+    <col min="8710" max="8710" width="55.5" customWidth="1"/>
+    <col min="8711" max="8711" width="29.6640625" customWidth="1"/>
+    <col min="8962" max="8962" width="23.5" customWidth="1"/>
+    <col min="8963" max="8963" width="40.5" customWidth="1"/>
+    <col min="8964" max="8964" width="9.33203125" customWidth="1"/>
+    <col min="8965" max="8965" width="46.1640625" customWidth="1"/>
+    <col min="8966" max="8966" width="55.5" customWidth="1"/>
+    <col min="8967" max="8967" width="29.6640625" customWidth="1"/>
+    <col min="9218" max="9218" width="23.5" customWidth="1"/>
+    <col min="9219" max="9219" width="40.5" customWidth="1"/>
+    <col min="9220" max="9220" width="9.33203125" customWidth="1"/>
+    <col min="9221" max="9221" width="46.1640625" customWidth="1"/>
+    <col min="9222" max="9222" width="55.5" customWidth="1"/>
+    <col min="9223" max="9223" width="29.6640625" customWidth="1"/>
+    <col min="9474" max="9474" width="23.5" customWidth="1"/>
+    <col min="9475" max="9475" width="40.5" customWidth="1"/>
+    <col min="9476" max="9476" width="9.33203125" customWidth="1"/>
+    <col min="9477" max="9477" width="46.1640625" customWidth="1"/>
+    <col min="9478" max="9478" width="55.5" customWidth="1"/>
+    <col min="9479" max="9479" width="29.6640625" customWidth="1"/>
+    <col min="9730" max="9730" width="23.5" customWidth="1"/>
+    <col min="9731" max="9731" width="40.5" customWidth="1"/>
+    <col min="9732" max="9732" width="9.33203125" customWidth="1"/>
+    <col min="9733" max="9733" width="46.1640625" customWidth="1"/>
+    <col min="9734" max="9734" width="55.5" customWidth="1"/>
+    <col min="9735" max="9735" width="29.6640625" customWidth="1"/>
+    <col min="9986" max="9986" width="23.5" customWidth="1"/>
+    <col min="9987" max="9987" width="40.5" customWidth="1"/>
+    <col min="9988" max="9988" width="9.33203125" customWidth="1"/>
+    <col min="9989" max="9989" width="46.1640625" customWidth="1"/>
+    <col min="9990" max="9990" width="55.5" customWidth="1"/>
+    <col min="9991" max="9991" width="29.6640625" customWidth="1"/>
+    <col min="10242" max="10242" width="23.5" customWidth="1"/>
+    <col min="10243" max="10243" width="40.5" customWidth="1"/>
+    <col min="10244" max="10244" width="9.33203125" customWidth="1"/>
+    <col min="10245" max="10245" width="46.1640625" customWidth="1"/>
+    <col min="10246" max="10246" width="55.5" customWidth="1"/>
+    <col min="10247" max="10247" width="29.6640625" customWidth="1"/>
+    <col min="10498" max="10498" width="23.5" customWidth="1"/>
+    <col min="10499" max="10499" width="40.5" customWidth="1"/>
+    <col min="10500" max="10500" width="9.33203125" customWidth="1"/>
+    <col min="10501" max="10501" width="46.1640625" customWidth="1"/>
+    <col min="10502" max="10502" width="55.5" customWidth="1"/>
+    <col min="10503" max="10503" width="29.6640625" customWidth="1"/>
+    <col min="10754" max="10754" width="23.5" customWidth="1"/>
+    <col min="10755" max="10755" width="40.5" customWidth="1"/>
+    <col min="10756" max="10756" width="9.33203125" customWidth="1"/>
+    <col min="10757" max="10757" width="46.1640625" customWidth="1"/>
+    <col min="10758" max="10758" width="55.5" customWidth="1"/>
+    <col min="10759" max="10759" width="29.6640625" customWidth="1"/>
+    <col min="11010" max="11010" width="23.5" customWidth="1"/>
+    <col min="11011" max="11011" width="40.5" customWidth="1"/>
+    <col min="11012" max="11012" width="9.33203125" customWidth="1"/>
+    <col min="11013" max="11013" width="46.1640625" customWidth="1"/>
+    <col min="11014" max="11014" width="55.5" customWidth="1"/>
+    <col min="11015" max="11015" width="29.6640625" customWidth="1"/>
+    <col min="11266" max="11266" width="23.5" customWidth="1"/>
+    <col min="11267" max="11267" width="40.5" customWidth="1"/>
+    <col min="11268" max="11268" width="9.33203125" customWidth="1"/>
+    <col min="11269" max="11269" width="46.1640625" customWidth="1"/>
+    <col min="11270" max="11270" width="55.5" customWidth="1"/>
+    <col min="11271" max="11271" width="29.6640625" customWidth="1"/>
+    <col min="11522" max="11522" width="23.5" customWidth="1"/>
+    <col min="11523" max="11523" width="40.5" customWidth="1"/>
+    <col min="11524" max="11524" width="9.33203125" customWidth="1"/>
+    <col min="11525" max="11525" width="46.1640625" customWidth="1"/>
+    <col min="11526" max="11526" width="55.5" customWidth="1"/>
+    <col min="11527" max="11527" width="29.6640625" customWidth="1"/>
+    <col min="11778" max="11778" width="23.5" customWidth="1"/>
+    <col min="11779" max="11779" width="40.5" customWidth="1"/>
+    <col min="11780" max="11780" width="9.33203125" customWidth="1"/>
+    <col min="11781" max="11781" width="46.1640625" customWidth="1"/>
+    <col min="11782" max="11782" width="55.5" customWidth="1"/>
+    <col min="11783" max="11783" width="29.6640625" customWidth="1"/>
+    <col min="12034" max="12034" width="23.5" customWidth="1"/>
+    <col min="12035" max="12035" width="40.5" customWidth="1"/>
+    <col min="12036" max="12036" width="9.33203125" customWidth="1"/>
+    <col min="12037" max="12037" width="46.1640625" customWidth="1"/>
+    <col min="12038" max="12038" width="55.5" customWidth="1"/>
+    <col min="12039" max="12039" width="29.6640625" customWidth="1"/>
+    <col min="12290" max="12290" width="23.5" customWidth="1"/>
+    <col min="12291" max="12291" width="40.5" customWidth="1"/>
+    <col min="12292" max="12292" width="9.33203125" customWidth="1"/>
+    <col min="12293" max="12293" width="46.1640625" customWidth="1"/>
+    <col min="12294" max="12294" width="55.5" customWidth="1"/>
+    <col min="12295" max="12295" width="29.6640625" customWidth="1"/>
+    <col min="12546" max="12546" width="23.5" customWidth="1"/>
+    <col min="12547" max="12547" width="40.5" customWidth="1"/>
+    <col min="12548" max="12548" width="9.33203125" customWidth="1"/>
+    <col min="12549" max="12549" width="46.1640625" customWidth="1"/>
+    <col min="12550" max="12550" width="55.5" customWidth="1"/>
+    <col min="12551" max="12551" width="29.6640625" customWidth="1"/>
+    <col min="12802" max="12802" width="23.5" customWidth="1"/>
+    <col min="12803" max="12803" width="40.5" customWidth="1"/>
+    <col min="12804" max="12804" width="9.33203125" customWidth="1"/>
+    <col min="12805" max="12805" width="46.1640625" customWidth="1"/>
+    <col min="12806" max="12806" width="55.5" customWidth="1"/>
+    <col min="12807" max="12807" width="29.6640625" customWidth="1"/>
+    <col min="13058" max="13058" width="23.5" customWidth="1"/>
+    <col min="13059" max="13059" width="40.5" customWidth="1"/>
+    <col min="13060" max="13060" width="9.33203125" customWidth="1"/>
+    <col min="13061" max="13061" width="46.1640625" customWidth="1"/>
+    <col min="13062" max="13062" width="55.5" customWidth="1"/>
+    <col min="13063" max="13063" width="29.6640625" customWidth="1"/>
+    <col min="13314" max="13314" width="23.5" customWidth="1"/>
+    <col min="13315" max="13315" width="40.5" customWidth="1"/>
+    <col min="13316" max="13316" width="9.33203125" customWidth="1"/>
+    <col min="13317" max="13317" width="46.1640625" customWidth="1"/>
+    <col min="13318" max="13318" width="55.5" customWidth="1"/>
+    <col min="13319" max="13319" width="29.6640625" customWidth="1"/>
+    <col min="13570" max="13570" width="23.5" customWidth="1"/>
+    <col min="13571" max="13571" width="40.5" customWidth="1"/>
+    <col min="13572" max="13572" width="9.33203125" customWidth="1"/>
+    <col min="13573" max="13573" width="46.1640625" customWidth="1"/>
+    <col min="13574" max="13574" width="55.5" customWidth="1"/>
+    <col min="13575" max="13575" width="29.6640625" customWidth="1"/>
+    <col min="13826" max="13826" width="23.5" customWidth="1"/>
+    <col min="13827" max="13827" width="40.5" customWidth="1"/>
+    <col min="13828" max="13828" width="9.33203125" customWidth="1"/>
+    <col min="13829" max="13829" width="46.1640625" customWidth="1"/>
+    <col min="13830" max="13830" width="55.5" customWidth="1"/>
+    <col min="13831" max="13831" width="29.6640625" customWidth="1"/>
+    <col min="14082" max="14082" width="23.5" customWidth="1"/>
+    <col min="14083" max="14083" width="40.5" customWidth="1"/>
+    <col min="14084" max="14084" width="9.33203125" customWidth="1"/>
+    <col min="14085" max="14085" width="46.1640625" customWidth="1"/>
+    <col min="14086" max="14086" width="55.5" customWidth="1"/>
+    <col min="14087" max="14087" width="29.6640625" customWidth="1"/>
+    <col min="14338" max="14338" width="23.5" customWidth="1"/>
+    <col min="14339" max="14339" width="40.5" customWidth="1"/>
+    <col min="14340" max="14340" width="9.33203125" customWidth="1"/>
+    <col min="14341" max="14341" width="46.1640625" customWidth="1"/>
+    <col min="14342" max="14342" width="55.5" customWidth="1"/>
+    <col min="14343" max="14343" width="29.6640625" customWidth="1"/>
+    <col min="14594" max="14594" width="23.5" customWidth="1"/>
+    <col min="14595" max="14595" width="40.5" customWidth="1"/>
+    <col min="14596" max="14596" width="9.33203125" customWidth="1"/>
+    <col min="14597" max="14597" width="46.1640625" customWidth="1"/>
+    <col min="14598" max="14598" width="55.5" customWidth="1"/>
+    <col min="14599" max="14599" width="29.6640625" customWidth="1"/>
+    <col min="14850" max="14850" width="23.5" customWidth="1"/>
+    <col min="14851" max="14851" width="40.5" customWidth="1"/>
+    <col min="14852" max="14852" width="9.33203125" customWidth="1"/>
+    <col min="14853" max="14853" width="46.1640625" customWidth="1"/>
+    <col min="14854" max="14854" width="55.5" customWidth="1"/>
+    <col min="14855" max="14855" width="29.6640625" customWidth="1"/>
+    <col min="15106" max="15106" width="23.5" customWidth="1"/>
+    <col min="15107" max="15107" width="40.5" customWidth="1"/>
+    <col min="15108" max="15108" width="9.33203125" customWidth="1"/>
+    <col min="15109" max="15109" width="46.1640625" customWidth="1"/>
+    <col min="15110" max="15110" width="55.5" customWidth="1"/>
+    <col min="15111" max="15111" width="29.6640625" customWidth="1"/>
+    <col min="15362" max="15362" width="23.5" customWidth="1"/>
+    <col min="15363" max="15363" width="40.5" customWidth="1"/>
+    <col min="15364" max="15364" width="9.33203125" customWidth="1"/>
+    <col min="15365" max="15365" width="46.1640625" customWidth="1"/>
+    <col min="15366" max="15366" width="55.5" customWidth="1"/>
+    <col min="15367" max="15367" width="29.6640625" customWidth="1"/>
+    <col min="15618" max="15618" width="23.5" customWidth="1"/>
+    <col min="15619" max="15619" width="40.5" customWidth="1"/>
+    <col min="15620" max="15620" width="9.33203125" customWidth="1"/>
+    <col min="15621" max="15621" width="46.1640625" customWidth="1"/>
+    <col min="15622" max="15622" width="55.5" customWidth="1"/>
+    <col min="15623" max="15623" width="29.6640625" customWidth="1"/>
+    <col min="15874" max="15874" width="23.5" customWidth="1"/>
+    <col min="15875" max="15875" width="40.5" customWidth="1"/>
+    <col min="15876" max="15876" width="9.33203125" customWidth="1"/>
+    <col min="15877" max="15877" width="46.1640625" customWidth="1"/>
+    <col min="15878" max="15878" width="55.5" customWidth="1"/>
+    <col min="15879" max="15879" width="29.6640625" customWidth="1"/>
+    <col min="16130" max="16130" width="23.5" customWidth="1"/>
+    <col min="16131" max="16131" width="40.5" customWidth="1"/>
+    <col min="16132" max="16132" width="9.33203125" customWidth="1"/>
+    <col min="16133" max="16133" width="46.1640625" customWidth="1"/>
+    <col min="16134" max="16134" width="55.5" customWidth="1"/>
+    <col min="16135" max="16135" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" ht="13.2">
+    <row r="4" spans="2:6" ht="14.25">
       <c r="B4" s="93" t="s">
         <v>166</v>
       </c>
@@ -36915,7 +36888,7 @@
       <c r="E11" s="70"/>
       <c r="F11" s="70"/>
     </row>
-    <row r="12" spans="2:6" ht="11.4" thickBot="1">
+    <row r="12" spans="2:6" ht="14.25" thickBot="1">
       <c r="B12" s="70" t="s">
         <v>116</v>
       </c>
@@ -36943,7 +36916,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="11.4" thickBot="1">
+    <row r="15" spans="2:6" ht="14.25" thickBot="1">
       <c r="B15" s="16" t="s">
         <v>118</v>
       </c>
@@ -36951,7 +36924,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="11.4" thickBot="1">
+    <row r="17" spans="2:6" ht="14.25" thickBot="1">
       <c r="B17" s="10" t="s">
         <v>115</v>
       </c>
@@ -37027,7 +37000,7 @@
       </c>
       <c r="F22" s="73"/>
     </row>
-    <row r="23" spans="2:6" ht="21.6">
+    <row r="23" spans="2:6" ht="27">
       <c r="B23" s="73"/>
       <c r="C23" s="11" t="s">
         <v>200</v>
@@ -37128,7 +37101,7 @@
       </c>
       <c r="F31" s="74"/>
     </row>
-    <row r="32" spans="2:6" ht="21.6">
+    <row r="32" spans="2:6" ht="27">
       <c r="B32" s="73"/>
       <c r="C32" s="73"/>
       <c r="D32" s="74" t="s">
@@ -37150,7 +37123,7 @@
       </c>
       <c r="F33" s="74"/>
     </row>
-    <row r="34" spans="2:6" ht="11.4" thickBot="1">
+    <row r="34" spans="2:6" ht="14.25" thickBot="1">
       <c r="B34" s="96"/>
       <c r="C34" s="99"/>
       <c r="D34" s="96" t="s">
@@ -37161,17 +37134,17 @@
       </c>
       <c r="F34" s="96"/>
     </row>
-    <row r="35" spans="2:6" ht="22.2" thickTop="1">
-      <c r="B35" s="301" t="s">
+    <row r="35" spans="2:6" ht="27.75" thickTop="1">
+      <c r="B35" s="282" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="302" t="s">
+      <c r="D35" s="284" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="302" t="s">
+      <c r="E35" s="284" t="s">
         <v>58</v>
       </c>
       <c r="F35" s="13" t="s">
@@ -37179,50 +37152,50 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="296"/>
+      <c r="B36" s="283"/>
       <c r="C36" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="293"/>
-      <c r="E36" s="293"/>
+      <c r="D36" s="285"/>
+      <c r="E36" s="285"/>
       <c r="F36" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="296"/>
+      <c r="B37" s="283"/>
       <c r="C37" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="293"/>
-      <c r="E37" s="293"/>
+      <c r="D37" s="285"/>
+      <c r="E37" s="285"/>
       <c r="F37" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="296"/>
+      <c r="B38" s="283"/>
       <c r="C38" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D38" s="293"/>
-      <c r="E38" s="293"/>
+      <c r="D38" s="285"/>
+      <c r="E38" s="285"/>
       <c r="F38" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="21.6">
-      <c r="B39" s="296"/>
+    <row r="39" spans="2:6" ht="27">
+      <c r="B39" s="283"/>
       <c r="C39" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D39" s="293"/>
-      <c r="E39" s="293"/>
+      <c r="D39" s="285"/>
+      <c r="E39" s="285"/>
       <c r="F39" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="32.4">
+    <row r="40" spans="2:6" ht="27">
       <c r="B40" s="73"/>
       <c r="C40" s="144" t="s">
         <v>201</v>
@@ -37247,24 +37220,24 @@
       <c r="F41" s="74"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="289"/>
-      <c r="C42" s="289"/>
-      <c r="D42" s="293" t="s">
+      <c r="B42" s="286"/>
+      <c r="C42" s="286"/>
+      <c r="D42" s="285" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="293" t="s">
+      <c r="E42" s="285" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="293"/>
+      <c r="F42" s="285"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="289"/>
-      <c r="C43" s="289"/>
-      <c r="D43" s="293"/>
-      <c r="E43" s="293"/>
-      <c r="F43" s="293"/>
-    </row>
-    <row r="44" spans="2:6" ht="11.4" thickBot="1">
+      <c r="B43" s="286"/>
+      <c r="C43" s="286"/>
+      <c r="D43" s="285"/>
+      <c r="E43" s="285"/>
+      <c r="F43" s="285"/>
+    </row>
+    <row r="44" spans="2:6" ht="14.25" thickBot="1">
       <c r="B44" s="96"/>
       <c r="C44" s="96"/>
       <c r="D44" s="97" t="s">
@@ -37275,17 +37248,17 @@
       </c>
       <c r="F44" s="97"/>
     </row>
-    <row r="45" spans="2:6" ht="11.4" thickTop="1">
-      <c r="B45" s="295" t="s">
+    <row r="45" spans="2:6" ht="14.25" thickTop="1">
+      <c r="B45" s="288" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="297" t="s">
+      <c r="D45" s="289" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="297" t="s">
+      <c r="E45" s="289" t="s">
         <v>75</v>
       </c>
       <c r="F45" s="73" t="s">
@@ -37293,33 +37266,33 @@
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="296"/>
+      <c r="B46" s="283"/>
       <c r="C46" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="289"/>
-      <c r="E46" s="289"/>
+      <c r="D46" s="286"/>
+      <c r="E46" s="286"/>
       <c r="F46" s="73"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="296"/>
+      <c r="B47" s="283"/>
       <c r="C47" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="289"/>
-      <c r="E47" s="289"/>
+      <c r="D47" s="286"/>
+      <c r="E47" s="286"/>
       <c r="F47" s="73"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="296"/>
+      <c r="B48" s="283"/>
       <c r="C48" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D48" s="289"/>
-      <c r="E48" s="289"/>
+      <c r="D48" s="286"/>
+      <c r="E48" s="286"/>
       <c r="F48" s="73"/>
     </row>
-    <row r="49" spans="2:6" ht="21.6">
+    <row r="49" spans="2:6" ht="27">
       <c r="B49" s="73"/>
       <c r="C49" s="11" t="s">
         <v>200</v>
@@ -37332,7 +37305,7 @@
       </c>
       <c r="F49" s="74"/>
     </row>
-    <row r="50" spans="2:6" ht="32.4">
+    <row r="50" spans="2:6" ht="27">
       <c r="B50" s="73"/>
       <c r="C50" s="144" t="s">
         <v>201</v>
@@ -37356,7 +37329,7 @@
       </c>
       <c r="F51" s="73"/>
     </row>
-    <row r="52" spans="2:6" ht="11.4" thickBot="1">
+    <row r="52" spans="2:6" ht="14.25" thickBot="1">
       <c r="B52" s="96"/>
       <c r="C52" s="99"/>
       <c r="D52" s="96" t="s">
@@ -37367,49 +37340,49 @@
       </c>
       <c r="F52" s="96"/>
     </row>
-    <row r="53" spans="2:6" ht="11.4" thickTop="1">
-      <c r="B53" s="298" t="s">
+    <row r="53" spans="2:6" ht="14.25" thickTop="1">
+      <c r="B53" s="290" t="s">
         <v>85</v>
       </c>
       <c r="C53" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="299" t="s">
+      <c r="D53" s="292" t="s">
         <v>86</v>
       </c>
-      <c r="E53" s="299" t="s">
+      <c r="E53" s="292" t="s">
         <v>85</v>
       </c>
-      <c r="F53" s="300"/>
+      <c r="F53" s="293"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="288"/>
+      <c r="B54" s="291"/>
       <c r="C54" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="293"/>
-      <c r="E54" s="293"/>
-      <c r="F54" s="294"/>
+      <c r="D54" s="285"/>
+      <c r="E54" s="285"/>
+      <c r="F54" s="287"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="288"/>
+      <c r="B55" s="291"/>
       <c r="C55" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="293"/>
-      <c r="E55" s="293"/>
-      <c r="F55" s="294"/>
+      <c r="D55" s="285"/>
+      <c r="E55" s="285"/>
+      <c r="F55" s="287"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="288"/>
+      <c r="B56" s="291"/>
       <c r="C56" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D56" s="293"/>
-      <c r="E56" s="293"/>
-      <c r="F56" s="294"/>
-    </row>
-    <row r="57" spans="2:6" ht="21.6">
+      <c r="D56" s="285"/>
+      <c r="E56" s="285"/>
+      <c r="F56" s="287"/>
+    </row>
+    <row r="57" spans="2:6" ht="27">
       <c r="B57" s="72"/>
       <c r="C57" s="11" t="s">
         <v>200</v>
@@ -37423,22 +37396,22 @@
       <c r="F57" s="71"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="288"/>
-      <c r="C58" s="289"/>
-      <c r="D58" s="293" t="s">
+      <c r="B58" s="291"/>
+      <c r="C58" s="286"/>
+      <c r="D58" s="285" t="s">
         <v>89</v>
       </c>
-      <c r="E58" s="293" t="s">
+      <c r="E58" s="285" t="s">
         <v>90</v>
       </c>
-      <c r="F58" s="294"/>
+      <c r="F58" s="287"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="288"/>
-      <c r="C59" s="289"/>
-      <c r="D59" s="293"/>
-      <c r="E59" s="293"/>
-      <c r="F59" s="294"/>
+      <c r="B59" s="291"/>
+      <c r="C59" s="286"/>
+      <c r="D59" s="285"/>
+      <c r="E59" s="285"/>
+      <c r="F59" s="287"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="72"/>
@@ -37495,7 +37468,7 @@
       </c>
       <c r="F64" s="71"/>
     </row>
-    <row r="65" spans="2:6" ht="21.6">
+    <row r="65" spans="2:6" ht="27">
       <c r="B65" s="72"/>
       <c r="C65" s="73"/>
       <c r="D65" s="74" t="s">
@@ -37506,7 +37479,7 @@
       </c>
       <c r="F65" s="71"/>
     </row>
-    <row r="66" spans="2:6" ht="21.6">
+    <row r="66" spans="2:6">
       <c r="B66" s="72"/>
       <c r="C66" s="73"/>
       <c r="D66" s="74" t="s">
@@ -37561,7 +37534,7 @@
       </c>
       <c r="F70" s="71"/>
     </row>
-    <row r="71" spans="2:6" ht="11.4" thickBot="1">
+    <row r="71" spans="2:6" ht="14.25" thickBot="1">
       <c r="B71" s="95"/>
       <c r="C71" s="96"/>
       <c r="D71" s="97" t="s">
@@ -37572,7 +37545,7 @@
       </c>
       <c r="F71" s="98"/>
     </row>
-    <row r="72" spans="2:6" ht="11.4" thickTop="1"/>
+    <row r="72" spans="2:6" ht="14.25" thickTop="1"/>
     <row r="74" spans="2:6" ht="13.5" customHeight="1">
       <c r="B74" s="145" t="s">
         <v>189</v>
@@ -37582,10 +37555,10 @@
       <c r="E74" s="146"/>
     </row>
     <row r="75" spans="2:6" s="81" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
-      <c r="B75" s="287" t="s">
+      <c r="B75" s="299" t="s">
         <v>265</v>
       </c>
-      <c r="C75" s="287"/>
+      <c r="C75" s="299"/>
       <c r="D75" s="150"/>
       <c r="E75" s="76"/>
     </row>
@@ -37625,11 +37598,11 @@
       </c>
       <c r="D79" s="148"/>
     </row>
-    <row r="80" spans="2:6" ht="11.4" thickTop="1"/>
+    <row r="80" spans="2:6" ht="14.25" thickTop="1"/>
     <row r="81" spans="2:5">
       <c r="C81" s="87"/>
     </row>
-    <row r="82" spans="2:5" ht="11.4" thickBot="1">
+    <row r="82" spans="2:5" ht="14.25" thickBot="1">
       <c r="B82" s="92" t="s">
         <v>190</v>
       </c>
@@ -37649,7 +37622,7 @@
       <c r="B84" s="167" t="s">
         <v>139</v>
       </c>
-      <c r="C84" s="290" t="s">
+      <c r="C84" s="300" t="s">
         <v>211</v>
       </c>
       <c r="D84" s="151"/>
@@ -37658,18 +37631,18 @@
       <c r="B85" s="167" t="s">
         <v>158</v>
       </c>
-      <c r="C85" s="291"/>
+      <c r="C85" s="301"/>
       <c r="D85" s="151"/>
     </row>
     <row r="86" spans="2:5" ht="32.25" customHeight="1" thickBot="1">
       <c r="B86" s="168" t="s">
         <v>159</v>
       </c>
-      <c r="C86" s="292"/>
+      <c r="C86" s="302"/>
       <c r="D86" s="152"/>
     </row>
-    <row r="87" spans="2:5" ht="11.4" thickTop="1"/>
-    <row r="89" spans="2:5" ht="11.4" thickBot="1">
+    <row r="87" spans="2:5" ht="14.25" thickTop="1"/>
+    <row r="89" spans="2:5" ht="14.25" thickBot="1">
       <c r="B89" s="81" t="s">
         <v>224</v>
       </c>
@@ -37685,8 +37658,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="21.6">
-      <c r="B91" s="282" t="s">
+    <row r="91" spans="2:5" ht="27">
+      <c r="B91" s="294" t="s">
         <v>220</v>
       </c>
       <c r="C91" s="166" t="s">
@@ -37694,28 +37667,27 @@
       </c>
     </row>
     <row r="92" spans="2:5" ht="27" customHeight="1">
-      <c r="B92" s="283"/>
-      <c r="C92" s="285" t="s">
+      <c r="B92" s="295"/>
+      <c r="C92" s="297" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="11.4" thickBot="1">
-      <c r="B93" s="284"/>
-      <c r="C93" s="286"/>
-    </row>
-    <row r="94" spans="2:5" ht="11.4" thickTop="1">
+    <row r="93" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B93" s="296"/>
+      <c r="C93" s="298"/>
+    </row>
+    <row r="94" spans="2:5" ht="14.25" thickTop="1">
       <c r="B94" s="81"/>
       <c r="C94" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C84:C86"/>
     <mergeCell ref="D58:D59"/>
     <mergeCell ref="E58:E59"/>
     <mergeCell ref="F58:F59"/>
@@ -37727,12 +37699,13 @@
     <mergeCell ref="D53:D56"/>
     <mergeCell ref="E53:E56"/>
     <mergeCell ref="F53:F56"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" location="Definitioner!B12" display="Dödsorsak covid-19"/>
@@ -37753,9 +37726,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" customHeight="1">
@@ -37857,11 +37830,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="7" width="8.42578125" style="2" customWidth="1"/>
-    <col min="8" max="11" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="7" width="8.5" style="2" customWidth="1"/>
+    <col min="8" max="11" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.100000000000001" customHeight="1">
@@ -37900,7 +37873,7 @@
       <c r="F4" s="309"/>
       <c r="G4" s="309"/>
     </row>
-    <row r="5" spans="1:22" ht="11.4" thickBot="1"/>
+    <row r="5" spans="1:22" ht="14.25" thickBot="1"/>
     <row r="6" spans="1:22">
       <c r="A6" s="4"/>
       <c r="B6" s="310" t="s">
@@ -38680,7 +38653,7 @@
       <c r="F40" s="303"/>
       <c r="G40" s="303"/>
     </row>
-    <row r="41" spans="1:7" ht="11.4">
+    <row r="41" spans="1:7">
       <c r="A41" s="313" t="s">
         <v>143</v>
       </c>
@@ -38691,7 +38664,7 @@
       <c r="F41" s="313"/>
       <c r="G41" s="313"/>
     </row>
-    <row r="42" spans="1:7" ht="11.4">
+    <row r="42" spans="1:7">
       <c r="A42" s="304" t="s">
         <v>142</v>
       </c>
@@ -38702,7 +38675,7 @@
       <c r="F42" s="304"/>
       <c r="G42" s="304"/>
     </row>
-    <row r="43" spans="1:7" ht="11.4">
+    <row r="43" spans="1:7">
       <c r="A43" s="30"/>
     </row>
   </sheetData>
@@ -38733,1084 +38706,1084 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="37" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="37" customWidth="1"/>
     <col min="3" max="7" width="8" style="37" customWidth="1"/>
     <col min="8" max="11" width="8" customWidth="1"/>
     <col min="12" max="16" width="8" style="37" customWidth="1"/>
     <col min="17" max="243" width="9" style="37"/>
-    <col min="247" max="247" width="30.42578125" customWidth="1"/>
-    <col min="248" max="248" width="11.42578125" customWidth="1"/>
+    <col min="247" max="247" width="30.5" customWidth="1"/>
+    <col min="248" max="248" width="11.5" customWidth="1"/>
     <col min="249" max="249" width="8" customWidth="1"/>
-    <col min="250" max="250" width="10.28515625" customWidth="1"/>
-    <col min="251" max="251" width="8.28515625" customWidth="1"/>
+    <col min="250" max="250" width="10.33203125" customWidth="1"/>
+    <col min="251" max="251" width="8.33203125" customWidth="1"/>
     <col min="252" max="252" width="10" customWidth="1"/>
     <col min="253" max="257" width="8" customWidth="1"/>
-    <col min="258" max="258" width="8.28515625" customWidth="1"/>
+    <col min="258" max="258" width="8.33203125" customWidth="1"/>
     <col min="259" max="259" width="9" customWidth="1"/>
-    <col min="260" max="260" width="28.140625" customWidth="1"/>
-    <col min="261" max="261" width="10.140625" customWidth="1"/>
-    <col min="263" max="263" width="11.42578125" customWidth="1"/>
+    <col min="260" max="260" width="28.1640625" customWidth="1"/>
+    <col min="261" max="261" width="10.1640625" customWidth="1"/>
+    <col min="263" max="263" width="11.5" customWidth="1"/>
     <col min="264" max="264" width="8" customWidth="1"/>
     <col min="265" max="265" width="10" customWidth="1"/>
-    <col min="266" max="266" width="9.28515625" customWidth="1"/>
-    <col min="267" max="267" width="10.140625" customWidth="1"/>
+    <col min="266" max="266" width="9.33203125" customWidth="1"/>
+    <col min="267" max="267" width="10.1640625" customWidth="1"/>
     <col min="268" max="268" width="8" customWidth="1"/>
-    <col min="503" max="503" width="30.42578125" customWidth="1"/>
-    <col min="504" max="504" width="11.42578125" customWidth="1"/>
+    <col min="503" max="503" width="30.5" customWidth="1"/>
+    <col min="504" max="504" width="11.5" customWidth="1"/>
     <col min="505" max="505" width="8" customWidth="1"/>
-    <col min="506" max="506" width="10.28515625" customWidth="1"/>
-    <col min="507" max="507" width="8.28515625" customWidth="1"/>
+    <col min="506" max="506" width="10.33203125" customWidth="1"/>
+    <col min="507" max="507" width="8.33203125" customWidth="1"/>
     <col min="508" max="508" width="10" customWidth="1"/>
     <col min="509" max="513" width="8" customWidth="1"/>
-    <col min="514" max="514" width="8.28515625" customWidth="1"/>
+    <col min="514" max="514" width="8.33203125" customWidth="1"/>
     <col min="515" max="515" width="9" customWidth="1"/>
-    <col min="516" max="516" width="28.140625" customWidth="1"/>
-    <col min="517" max="517" width="10.140625" customWidth="1"/>
-    <col min="519" max="519" width="11.42578125" customWidth="1"/>
+    <col min="516" max="516" width="28.1640625" customWidth="1"/>
+    <col min="517" max="517" width="10.1640625" customWidth="1"/>
+    <col min="519" max="519" width="11.5" customWidth="1"/>
     <col min="520" max="520" width="8" customWidth="1"/>
     <col min="521" max="521" width="10" customWidth="1"/>
-    <col min="522" max="522" width="9.28515625" customWidth="1"/>
-    <col min="523" max="523" width="10.140625" customWidth="1"/>
+    <col min="522" max="522" width="9.33203125" customWidth="1"/>
+    <col min="523" max="523" width="10.1640625" customWidth="1"/>
     <col min="524" max="524" width="8" customWidth="1"/>
-    <col min="759" max="759" width="30.42578125" customWidth="1"/>
-    <col min="760" max="760" width="11.42578125" customWidth="1"/>
+    <col min="759" max="759" width="30.5" customWidth="1"/>
+    <col min="760" max="760" width="11.5" customWidth="1"/>
     <col min="761" max="761" width="8" customWidth="1"/>
-    <col min="762" max="762" width="10.28515625" customWidth="1"/>
-    <col min="763" max="763" width="8.28515625" customWidth="1"/>
+    <col min="762" max="762" width="10.33203125" customWidth="1"/>
+    <col min="763" max="763" width="8.33203125" customWidth="1"/>
     <col min="764" max="764" width="10" customWidth="1"/>
     <col min="765" max="769" width="8" customWidth="1"/>
-    <col min="770" max="770" width="8.28515625" customWidth="1"/>
+    <col min="770" max="770" width="8.33203125" customWidth="1"/>
     <col min="771" max="771" width="9" customWidth="1"/>
-    <col min="772" max="772" width="28.140625" customWidth="1"/>
-    <col min="773" max="773" width="10.140625" customWidth="1"/>
-    <col min="775" max="775" width="11.42578125" customWidth="1"/>
+    <col min="772" max="772" width="28.1640625" customWidth="1"/>
+    <col min="773" max="773" width="10.1640625" customWidth="1"/>
+    <col min="775" max="775" width="11.5" customWidth="1"/>
     <col min="776" max="776" width="8" customWidth="1"/>
     <col min="777" max="777" width="10" customWidth="1"/>
-    <col min="778" max="778" width="9.28515625" customWidth="1"/>
-    <col min="779" max="779" width="10.140625" customWidth="1"/>
+    <col min="778" max="778" width="9.33203125" customWidth="1"/>
+    <col min="779" max="779" width="10.1640625" customWidth="1"/>
     <col min="780" max="780" width="8" customWidth="1"/>
-    <col min="1015" max="1015" width="30.42578125" customWidth="1"/>
-    <col min="1016" max="1016" width="11.42578125" customWidth="1"/>
+    <col min="1015" max="1015" width="30.5" customWidth="1"/>
+    <col min="1016" max="1016" width="11.5" customWidth="1"/>
     <col min="1017" max="1017" width="8" customWidth="1"/>
-    <col min="1018" max="1018" width="10.28515625" customWidth="1"/>
-    <col min="1019" max="1019" width="8.28515625" customWidth="1"/>
+    <col min="1018" max="1018" width="10.33203125" customWidth="1"/>
+    <col min="1019" max="1019" width="8.33203125" customWidth="1"/>
     <col min="1020" max="1020" width="10" customWidth="1"/>
     <col min="1021" max="1025" width="8" customWidth="1"/>
-    <col min="1026" max="1026" width="8.28515625" customWidth="1"/>
+    <col min="1026" max="1026" width="8.33203125" customWidth="1"/>
     <col min="1027" max="1027" width="9" customWidth="1"/>
-    <col min="1028" max="1028" width="28.140625" customWidth="1"/>
-    <col min="1029" max="1029" width="10.140625" customWidth="1"/>
-    <col min="1031" max="1031" width="11.42578125" customWidth="1"/>
+    <col min="1028" max="1028" width="28.1640625" customWidth="1"/>
+    <col min="1029" max="1029" width="10.1640625" customWidth="1"/>
+    <col min="1031" max="1031" width="11.5" customWidth="1"/>
     <col min="1032" max="1032" width="8" customWidth="1"/>
     <col min="1033" max="1033" width="10" customWidth="1"/>
-    <col min="1034" max="1034" width="9.28515625" customWidth="1"/>
-    <col min="1035" max="1035" width="10.140625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.33203125" customWidth="1"/>
+    <col min="1035" max="1035" width="10.1640625" customWidth="1"/>
     <col min="1036" max="1036" width="8" customWidth="1"/>
-    <col min="1271" max="1271" width="30.42578125" customWidth="1"/>
-    <col min="1272" max="1272" width="11.42578125" customWidth="1"/>
+    <col min="1271" max="1271" width="30.5" customWidth="1"/>
+    <col min="1272" max="1272" width="11.5" customWidth="1"/>
     <col min="1273" max="1273" width="8" customWidth="1"/>
-    <col min="1274" max="1274" width="10.28515625" customWidth="1"/>
-    <col min="1275" max="1275" width="8.28515625" customWidth="1"/>
+    <col min="1274" max="1274" width="10.33203125" customWidth="1"/>
+    <col min="1275" max="1275" width="8.33203125" customWidth="1"/>
     <col min="1276" max="1276" width="10" customWidth="1"/>
     <col min="1277" max="1281" width="8" customWidth="1"/>
-    <col min="1282" max="1282" width="8.28515625" customWidth="1"/>
+    <col min="1282" max="1282" width="8.33203125" customWidth="1"/>
     <col min="1283" max="1283" width="9" customWidth="1"/>
-    <col min="1284" max="1284" width="28.140625" customWidth="1"/>
-    <col min="1285" max="1285" width="10.140625" customWidth="1"/>
-    <col min="1287" max="1287" width="11.42578125" customWidth="1"/>
+    <col min="1284" max="1284" width="28.1640625" customWidth="1"/>
+    <col min="1285" max="1285" width="10.1640625" customWidth="1"/>
+    <col min="1287" max="1287" width="11.5" customWidth="1"/>
     <col min="1288" max="1288" width="8" customWidth="1"/>
     <col min="1289" max="1289" width="10" customWidth="1"/>
-    <col min="1290" max="1290" width="9.28515625" customWidth="1"/>
-    <col min="1291" max="1291" width="10.140625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.33203125" customWidth="1"/>
+    <col min="1291" max="1291" width="10.1640625" customWidth="1"/>
     <col min="1292" max="1292" width="8" customWidth="1"/>
-    <col min="1527" max="1527" width="30.42578125" customWidth="1"/>
-    <col min="1528" max="1528" width="11.42578125" customWidth="1"/>
+    <col min="1527" max="1527" width="30.5" customWidth="1"/>
+    <col min="1528" max="1528" width="11.5" customWidth="1"/>
     <col min="1529" max="1529" width="8" customWidth="1"/>
-    <col min="1530" max="1530" width="10.28515625" customWidth="1"/>
-    <col min="1531" max="1531" width="8.28515625" customWidth="1"/>
+    <col min="1530" max="1530" width="10.33203125" customWidth="1"/>
+    <col min="1531" max="1531" width="8.33203125" customWidth="1"/>
     <col min="1532" max="1532" width="10" customWidth="1"/>
     <col min="1533" max="1537" width="8" customWidth="1"/>
-    <col min="1538" max="1538" width="8.28515625" customWidth="1"/>
+    <col min="1538" max="1538" width="8.33203125" customWidth="1"/>
     <col min="1539" max="1539" width="9" customWidth="1"/>
-    <col min="1540" max="1540" width="28.140625" customWidth="1"/>
-    <col min="1541" max="1541" width="10.140625" customWidth="1"/>
-    <col min="1543" max="1543" width="11.42578125" customWidth="1"/>
+    <col min="1540" max="1540" width="28.1640625" customWidth="1"/>
+    <col min="1541" max="1541" width="10.1640625" customWidth="1"/>
+    <col min="1543" max="1543" width="11.5" customWidth="1"/>
     <col min="1544" max="1544" width="8" customWidth="1"/>
     <col min="1545" max="1545" width="10" customWidth="1"/>
-    <col min="1546" max="1546" width="9.28515625" customWidth="1"/>
-    <col min="1547" max="1547" width="10.140625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.33203125" customWidth="1"/>
+    <col min="1547" max="1547" width="10.1640625" customWidth="1"/>
     <col min="1548" max="1548" width="8" customWidth="1"/>
-    <col min="1783" max="1783" width="30.42578125" customWidth="1"/>
-    <col min="1784" max="1784" width="11.42578125" customWidth="1"/>
+    <col min="1783" max="1783" width="30.5" customWidth="1"/>
+    <col min="1784" max="1784" width="11.5" customWidth="1"/>
     <col min="1785" max="1785" width="8" customWidth="1"/>
-    <col min="1786" max="1786" width="10.28515625" customWidth="1"/>
-    <col min="1787" max="1787" width="8.28515625" customWidth="1"/>
+    <col min="1786" max="1786" width="10.33203125" customWidth="1"/>
+    <col min="1787" max="1787" width="8.33203125" customWidth="1"/>
     <col min="1788" max="1788" width="10" customWidth="1"/>
     <col min="1789" max="1793" width="8" customWidth="1"/>
-    <col min="1794" max="1794" width="8.28515625" customWidth="1"/>
+    <col min="1794" max="1794" width="8.33203125" customWidth="1"/>
     <col min="1795" max="1795" width="9" customWidth="1"/>
-    <col min="1796" max="1796" width="28.140625" customWidth="1"/>
-    <col min="1797" max="1797" width="10.140625" customWidth="1"/>
-    <col min="1799" max="1799" width="11.42578125" customWidth="1"/>
+    <col min="1796" max="1796" width="28.1640625" customWidth="1"/>
+    <col min="1797" max="1797" width="10.1640625" customWidth="1"/>
+    <col min="1799" max="1799" width="11.5" customWidth="1"/>
     <col min="1800" max="1800" width="8" customWidth="1"/>
     <col min="1801" max="1801" width="10" customWidth="1"/>
-    <col min="1802" max="1802" width="9.28515625" customWidth="1"/>
-    <col min="1803" max="1803" width="10.140625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.33203125" customWidth="1"/>
+    <col min="1803" max="1803" width="10.1640625" customWidth="1"/>
     <col min="1804" max="1804" width="8" customWidth="1"/>
-    <col min="2039" max="2039" width="30.42578125" customWidth="1"/>
-    <col min="2040" max="2040" width="11.42578125" customWidth="1"/>
+    <col min="2039" max="2039" width="30.5" customWidth="1"/>
+    <col min="2040" max="2040" width="11.5" customWidth="1"/>
     <col min="2041" max="2041" width="8" customWidth="1"/>
-    <col min="2042" max="2042" width="10.28515625" customWidth="1"/>
-    <col min="2043" max="2043" width="8.28515625" customWidth="1"/>
+    <col min="2042" max="2042" width="10.33203125" customWidth="1"/>
+    <col min="2043" max="2043" width="8.33203125" customWidth="1"/>
     <col min="2044" max="2044" width="10" customWidth="1"/>
     <col min="2045" max="2049" width="8" customWidth="1"/>
-    <col min="2050" max="2050" width="8.28515625" customWidth="1"/>
+    <col min="2050" max="2050" width="8.33203125" customWidth="1"/>
     <col min="2051" max="2051" width="9" customWidth="1"/>
-    <col min="2052" max="2052" width="28.140625" customWidth="1"/>
-    <col min="2053" max="2053" width="10.140625" customWidth="1"/>
-    <col min="2055" max="2055" width="11.42578125" customWidth="1"/>
+    <col min="2052" max="2052" width="28.1640625" customWidth="1"/>
+    <col min="2053" max="2053" width="10.1640625" customWidth="1"/>
+    <col min="2055" max="2055" width="11.5" customWidth="1"/>
     <col min="2056" max="2056" width="8" customWidth="1"/>
     <col min="2057" max="2057" width="10" customWidth="1"/>
-    <col min="2058" max="2058" width="9.28515625" customWidth="1"/>
-    <col min="2059" max="2059" width="10.140625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.33203125" customWidth="1"/>
+    <col min="2059" max="2059" width="10.1640625" customWidth="1"/>
     <col min="2060" max="2060" width="8" customWidth="1"/>
-    <col min="2295" max="2295" width="30.42578125" customWidth="1"/>
-    <col min="2296" max="2296" width="11.42578125" customWidth="1"/>
+    <col min="2295" max="2295" width="30.5" customWidth="1"/>
+    <col min="2296" max="2296" width="11.5" customWidth="1"/>
     <col min="2297" max="2297" width="8" customWidth="1"/>
-    <col min="2298" max="2298" width="10.28515625" customWidth="1"/>
-    <col min="2299" max="2299" width="8.28515625" customWidth="1"/>
+    <col min="2298" max="2298" width="10.33203125" customWidth="1"/>
+    <col min="2299" max="2299" width="8.33203125" customWidth="1"/>
     <col min="2300" max="2300" width="10" customWidth="1"/>
     <col min="2301" max="2305" width="8" customWidth="1"/>
-    <col min="2306" max="2306" width="8.28515625" customWidth="1"/>
+    <col min="2306" max="2306" width="8.33203125" customWidth="1"/>
     <col min="2307" max="2307" width="9" customWidth="1"/>
-    <col min="2308" max="2308" width="28.140625" customWidth="1"/>
-    <col min="2309" max="2309" width="10.140625" customWidth="1"/>
-    <col min="2311" max="2311" width="11.42578125" customWidth="1"/>
+    <col min="2308" max="2308" width="28.1640625" customWidth="1"/>
+    <col min="2309" max="2309" width="10.1640625" customWidth="1"/>
+    <col min="2311" max="2311" width="11.5" customWidth="1"/>
     <col min="2312" max="2312" width="8" customWidth="1"/>
     <col min="2313" max="2313" width="10" customWidth="1"/>
-    <col min="2314" max="2314" width="9.28515625" customWidth="1"/>
-    <col min="2315" max="2315" width="10.140625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.33203125" customWidth="1"/>
+    <col min="2315" max="2315" width="10.1640625" customWidth="1"/>
     <col min="2316" max="2316" width="8" customWidth="1"/>
-    <col min="2551" max="2551" width="30.42578125" customWidth="1"/>
-    <col min="2552" max="2552" width="11.42578125" customWidth="1"/>
+    <col min="2551" max="2551" width="30.5" customWidth="1"/>
+    <col min="2552" max="2552" width="11.5" customWidth="1"/>
     <col min="2553" max="2553" width="8" customWidth="1"/>
-    <col min="2554" max="2554" width="10.28515625" customWidth="1"/>
-    <col min="2555" max="2555" width="8.28515625" customWidth="1"/>
+    <col min="2554" max="2554" width="10.33203125" customWidth="1"/>
+    <col min="2555" max="2555" width="8.33203125" customWidth="1"/>
     <col min="2556" max="2556" width="10" customWidth="1"/>
     <col min="2557" max="2561" width="8" customWidth="1"/>
-    <col min="2562" max="2562" width="8.28515625" customWidth="1"/>
+    <col min="2562" max="2562" width="8.33203125" customWidth="1"/>
     <col min="2563" max="2563" width="9" customWidth="1"/>
-    <col min="2564" max="2564" width="28.140625" customWidth="1"/>
-    <col min="2565" max="2565" width="10.140625" customWidth="1"/>
-    <col min="2567" max="2567" width="11.42578125" customWidth="1"/>
+    <col min="2564" max="2564" width="28.1640625" customWidth="1"/>
+    <col min="2565" max="2565" width="10.1640625" customWidth="1"/>
+    <col min="2567" max="2567" width="11.5" customWidth="1"/>
     <col min="2568" max="2568" width="8" customWidth="1"/>
     <col min="2569" max="2569" width="10" customWidth="1"/>
-    <col min="2570" max="2570" width="9.28515625" customWidth="1"/>
-    <col min="2571" max="2571" width="10.140625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.33203125" customWidth="1"/>
+    <col min="2571" max="2571" width="10.1640625" customWidth="1"/>
     <col min="2572" max="2572" width="8" customWidth="1"/>
-    <col min="2807" max="2807" width="30.42578125" customWidth="1"/>
-    <col min="2808" max="2808" width="11.42578125" customWidth="1"/>
+    <col min="2807" max="2807" width="30.5" customWidth="1"/>
+    <col min="2808" max="2808" width="11.5" customWidth="1"/>
     <col min="2809" max="2809" width="8" customWidth="1"/>
-    <col min="2810" max="2810" width="10.28515625" customWidth="1"/>
-    <col min="2811" max="2811" width="8.28515625" customWidth="1"/>
+    <col min="2810" max="2810" width="10.33203125" customWidth="1"/>
+    <col min="2811" max="2811" width="8.33203125" customWidth="1"/>
     <col min="2812" max="2812" width="10" customWidth="1"/>
     <col min="2813" max="2817" width="8" customWidth="1"/>
-    <col min="2818" max="2818" width="8.28515625" customWidth="1"/>
+    <col min="2818" max="2818" width="8.33203125" customWidth="1"/>
     <col min="2819" max="2819" width="9" customWidth="1"/>
-    <col min="2820" max="2820" width="28.140625" customWidth="1"/>
-    <col min="2821" max="2821" width="10.140625" customWidth="1"/>
-    <col min="2823" max="2823" width="11.42578125" customWidth="1"/>
+    <col min="2820" max="2820" width="28.1640625" customWidth="1"/>
+    <col min="2821" max="2821" width="10.1640625" customWidth="1"/>
+    <col min="2823" max="2823" width="11.5" customWidth="1"/>
     <col min="2824" max="2824" width="8" customWidth="1"/>
     <col min="2825" max="2825" width="10" customWidth="1"/>
-    <col min="2826" max="2826" width="9.28515625" customWidth="1"/>
-    <col min="2827" max="2827" width="10.140625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.33203125" customWidth="1"/>
+    <col min="2827" max="2827" width="10.1640625" customWidth="1"/>
     <col min="2828" max="2828" width="8" customWidth="1"/>
-    <col min="3063" max="3063" width="30.42578125" customWidth="1"/>
-    <col min="3064" max="3064" width="11.42578125" customWidth="1"/>
+    <col min="3063" max="3063" width="30.5" customWidth="1"/>
+    <col min="3064" max="3064" width="11.5" customWidth="1"/>
     <col min="3065" max="3065" width="8" customWidth="1"/>
-    <col min="3066" max="3066" width="10.28515625" customWidth="1"/>
-    <col min="3067" max="3067" width="8.28515625" customWidth="1"/>
+    <col min="3066" max="3066" width="10.33203125" customWidth="1"/>
+    <col min="3067" max="3067" width="8.33203125" customWidth="1"/>
     <col min="3068" max="3068" width="10" customWidth="1"/>
     <col min="3069" max="3073" width="8" customWidth="1"/>
-    <col min="3074" max="3074" width="8.28515625" customWidth="1"/>
+    <col min="3074" max="3074" width="8.33203125" customWidth="1"/>
     <col min="3075" max="3075" width="9" customWidth="1"/>
-    <col min="3076" max="3076" width="28.140625" customWidth="1"/>
-    <col min="3077" max="3077" width="10.140625" customWidth="1"/>
-    <col min="3079" max="3079" width="11.42578125" customWidth="1"/>
+    <col min="3076" max="3076" width="28.1640625" customWidth="1"/>
+    <col min="3077" max="3077" width="10.1640625" customWidth="1"/>
+    <col min="3079" max="3079" width="11.5" customWidth="1"/>
     <col min="3080" max="3080" width="8" customWidth="1"/>
     <col min="3081" max="3081" width="10" customWidth="1"/>
-    <col min="3082" max="3082" width="9.28515625" customWidth="1"/>
-    <col min="3083" max="3083" width="10.140625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.33203125" customWidth="1"/>
+    <col min="3083" max="3083" width="10.1640625" customWidth="1"/>
     <col min="3084" max="3084" width="8" customWidth="1"/>
-    <col min="3319" max="3319" width="30.42578125" customWidth="1"/>
-    <col min="3320" max="3320" width="11.42578125" customWidth="1"/>
+    <col min="3319" max="3319" width="30.5" customWidth="1"/>
+    <col min="3320" max="3320" width="11.5" customWidth="1"/>
     <col min="3321" max="3321" width="8" customWidth="1"/>
-    <col min="3322" max="3322" width="10.28515625" customWidth="1"/>
-    <col min="3323" max="3323" width="8.28515625" customWidth="1"/>
+    <col min="3322" max="3322" width="10.33203125" customWidth="1"/>
+    <col min="3323" max="3323" width="8.33203125" customWidth="1"/>
     <col min="3324" max="3324" width="10" customWidth="1"/>
     <col min="3325" max="3329" width="8" customWidth="1"/>
-    <col min="3330" max="3330" width="8.28515625" customWidth="1"/>
+    <col min="3330" max="3330" width="8.33203125" customWidth="1"/>
     <col min="3331" max="3331" width="9" customWidth="1"/>
-    <col min="3332" max="3332" width="28.140625" customWidth="1"/>
-    <col min="3333" max="3333" width="10.140625" customWidth="1"/>
-    <col min="3335" max="3335" width="11.42578125" customWidth="1"/>
+    <col min="3332" max="3332" width="28.1640625" customWidth="1"/>
+    <col min="3333" max="3333" width="10.1640625" customWidth="1"/>
+    <col min="3335" max="3335" width="11.5" customWidth="1"/>
     <col min="3336" max="3336" width="8" customWidth="1"/>
     <col min="3337" max="3337" width="10" customWidth="1"/>
-    <col min="3338" max="3338" width="9.28515625" customWidth="1"/>
-    <col min="3339" max="3339" width="10.140625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.33203125" customWidth="1"/>
+    <col min="3339" max="3339" width="10.1640625" customWidth="1"/>
     <col min="3340" max="3340" width="8" customWidth="1"/>
-    <col min="3575" max="3575" width="30.42578125" customWidth="1"/>
-    <col min="3576" max="3576" width="11.42578125" customWidth="1"/>
+    <col min="3575" max="3575" width="30.5" customWidth="1"/>
+    <col min="3576" max="3576" width="11.5" customWidth="1"/>
     <col min="3577" max="3577" width="8" customWidth="1"/>
-    <col min="3578" max="3578" width="10.28515625" customWidth="1"/>
-    <col min="3579" max="3579" width="8.28515625" customWidth="1"/>
+    <col min="3578" max="3578" width="10.33203125" customWidth="1"/>
+    <col min="3579" max="3579" width="8.33203125" customWidth="1"/>
     <col min="3580" max="3580" width="10" customWidth="1"/>
     <col min="3581" max="3585" width="8" customWidth="1"/>
-    <col min="3586" max="3586" width="8.28515625" customWidth="1"/>
+    <col min="3586" max="3586" width="8.33203125" customWidth="1"/>
     <col min="3587" max="3587" width="9" customWidth="1"/>
-    <col min="3588" max="3588" width="28.140625" customWidth="1"/>
-    <col min="3589" max="3589" width="10.140625" customWidth="1"/>
-    <col min="3591" max="3591" width="11.42578125" customWidth="1"/>
+    <col min="3588" max="3588" width="28.1640625" customWidth="1"/>
+    <col min="3589" max="3589" width="10.1640625" customWidth="1"/>
+    <col min="3591" max="3591" width="11.5" customWidth="1"/>
     <col min="3592" max="3592" width="8" customWidth="1"/>
     <col min="3593" max="3593" width="10" customWidth="1"/>
-    <col min="3594" max="3594" width="9.28515625" customWidth="1"/>
-    <col min="3595" max="3595" width="10.140625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.33203125" customWidth="1"/>
+    <col min="3595" max="3595" width="10.1640625" customWidth="1"/>
     <col min="3596" max="3596" width="8" customWidth="1"/>
-    <col min="3831" max="3831" width="30.42578125" customWidth="1"/>
-    <col min="3832" max="3832" width="11.42578125" customWidth="1"/>
+    <col min="3831" max="3831" width="30.5" customWidth="1"/>
+    <col min="3832" max="3832" width="11.5" customWidth="1"/>
     <col min="3833" max="3833" width="8" customWidth="1"/>
-    <col min="3834" max="3834" width="10.28515625" customWidth="1"/>
-    <col min="3835" max="3835" width="8.28515625" customWidth="1"/>
+    <col min="3834" max="3834" width="10.33203125" customWidth="1"/>
+    <col min="3835" max="3835" width="8.33203125" customWidth="1"/>
     <col min="3836" max="3836" width="10" customWidth="1"/>
     <col min="3837" max="3841" width="8" customWidth="1"/>
-    <col min="3842" max="3842" width="8.28515625" customWidth="1"/>
+    <col min="3842" max="3842" width="8.33203125" customWidth="1"/>
     <col min="3843" max="3843" width="9" customWidth="1"/>
-    <col min="3844" max="3844" width="28.140625" customWidth="1"/>
-    <col min="3845" max="3845" width="10.140625" customWidth="1"/>
-    <col min="3847" max="3847" width="11.42578125" customWidth="1"/>
+    <col min="3844" max="3844" width="28.1640625" customWidth="1"/>
+    <col min="3845" max="3845" width="10.1640625" customWidth="1"/>
+    <col min="3847" max="3847" width="11.5" customWidth="1"/>
     <col min="3848" max="3848" width="8" customWidth="1"/>
     <col min="3849" max="3849" width="10" customWidth="1"/>
-    <col min="3850" max="3850" width="9.28515625" customWidth="1"/>
-    <col min="3851" max="3851" width="10.140625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.33203125" customWidth="1"/>
+    <col min="3851" max="3851" width="10.1640625" customWidth="1"/>
     <col min="3852" max="3852" width="8" customWidth="1"/>
-    <col min="4087" max="4087" width="30.42578125" customWidth="1"/>
-    <col min="4088" max="4088" width="11.42578125" customWidth="1"/>
+    <col min="4087" max="4087" width="30.5" customWidth="1"/>
+    <col min="4088" max="4088" width="11.5" customWidth="1"/>
     <col min="4089" max="4089" width="8" customWidth="1"/>
-    <col min="4090" max="4090" width="10.28515625" customWidth="1"/>
-    <col min="4091" max="4091" width="8.28515625" customWidth="1"/>
+    <col min="4090" max="4090" width="10.33203125" customWidth="1"/>
+    <col min="4091" max="4091" width="8.33203125" customWidth="1"/>
     <col min="4092" max="4092" width="10" customWidth="1"/>
     <col min="4093" max="4097" width="8" customWidth="1"/>
-    <col min="4098" max="4098" width="8.28515625" customWidth="1"/>
+    <col min="4098" max="4098" width="8.33203125" customWidth="1"/>
     <col min="4099" max="4099" width="9" customWidth="1"/>
-    <col min="4100" max="4100" width="28.140625" customWidth="1"/>
-    <col min="4101" max="4101" width="10.140625" customWidth="1"/>
-    <col min="4103" max="4103" width="11.42578125" customWidth="1"/>
+    <col min="4100" max="4100" width="28.1640625" customWidth="1"/>
+    <col min="4101" max="4101" width="10.1640625" customWidth="1"/>
+    <col min="4103" max="4103" width="11.5" customWidth="1"/>
     <col min="4104" max="4104" width="8" customWidth="1"/>
     <col min="4105" max="4105" width="10" customWidth="1"/>
-    <col min="4106" max="4106" width="9.28515625" customWidth="1"/>
-    <col min="4107" max="4107" width="10.140625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.33203125" customWidth="1"/>
+    <col min="4107" max="4107" width="10.1640625" customWidth="1"/>
     <col min="4108" max="4108" width="8" customWidth="1"/>
-    <col min="4343" max="4343" width="30.42578125" customWidth="1"/>
-    <col min="4344" max="4344" width="11.42578125" customWidth="1"/>
+    <col min="4343" max="4343" width="30.5" customWidth="1"/>
+    <col min="4344" max="4344" width="11.5" customWidth="1"/>
     <col min="4345" max="4345" width="8" customWidth="1"/>
-    <col min="4346" max="4346" width="10.28515625" customWidth="1"/>
-    <col min="4347" max="4347" width="8.28515625" customWidth="1"/>
+    <col min="4346" max="4346" width="10.33203125" customWidth="1"/>
+    <col min="4347" max="4347" width="8.33203125" customWidth="1"/>
     <col min="4348" max="4348" width="10" customWidth="1"/>
     <col min="4349" max="4353" width="8" customWidth="1"/>
-    <col min="4354" max="4354" width="8.28515625" customWidth="1"/>
+    <col min="4354" max="4354" width="8.33203125" customWidth="1"/>
     <col min="4355" max="4355" width="9" customWidth="1"/>
-    <col min="4356" max="4356" width="28.140625" customWidth="1"/>
-    <col min="4357" max="4357" width="10.140625" customWidth="1"/>
-    <col min="4359" max="4359" width="11.42578125" customWidth="1"/>
+    <col min="4356" max="4356" width="28.1640625" customWidth="1"/>
+    <col min="4357" max="4357" width="10.1640625" customWidth="1"/>
+    <col min="4359" max="4359" width="11.5" customWidth="1"/>
     <col min="4360" max="4360" width="8" customWidth="1"/>
     <col min="4361" max="4361" width="10" customWidth="1"/>
-    <col min="4362" max="4362" width="9.28515625" customWidth="1"/>
-    <col min="4363" max="4363" width="10.140625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.33203125" customWidth="1"/>
+    <col min="4363" max="4363" width="10.1640625" customWidth="1"/>
     <col min="4364" max="4364" width="8" customWidth="1"/>
-    <col min="4599" max="4599" width="30.42578125" customWidth="1"/>
-    <col min="4600" max="4600" width="11.42578125" customWidth="1"/>
+    <col min="4599" max="4599" width="30.5" customWidth="1"/>
+    <col min="4600" max="4600" width="11.5" customWidth="1"/>
     <col min="4601" max="4601" width="8" customWidth="1"/>
-    <col min="4602" max="4602" width="10.28515625" customWidth="1"/>
-    <col min="4603" max="4603" width="8.28515625" customWidth="1"/>
+    <col min="4602" max="4602" width="10.33203125" customWidth="1"/>
+    <col min="4603" max="4603" width="8.33203125" customWidth="1"/>
     <col min="4604" max="4604" width="10" customWidth="1"/>
     <col min="4605" max="4609" width="8" customWidth="1"/>
-    <col min="4610" max="4610" width="8.28515625" customWidth="1"/>
+    <col min="4610" max="4610" width="8.33203125" customWidth="1"/>
     <col min="4611" max="4611" width="9" customWidth="1"/>
-    <col min="4612" max="4612" width="28.140625" customWidth="1"/>
-    <col min="4613" max="4613" width="10.140625" customWidth="1"/>
-    <col min="4615" max="4615" width="11.42578125" customWidth="1"/>
+    <col min="4612" max="4612" width="28.1640625" customWidth="1"/>
+    <col min="4613" max="4613" width="10.1640625" customWidth="1"/>
+    <col min="4615" max="4615" width="11.5" customWidth="1"/>
     <col min="4616" max="4616" width="8" customWidth="1"/>
     <col min="4617" max="4617" width="10" customWidth="1"/>
-    <col min="4618" max="4618" width="9.28515625" customWidth="1"/>
-    <col min="4619" max="4619" width="10.140625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.33203125" customWidth="1"/>
+    <col min="4619" max="4619" width="10.1640625" customWidth="1"/>
     <col min="4620" max="4620" width="8" customWidth="1"/>
-    <col min="4855" max="4855" width="30.42578125" customWidth="1"/>
-    <col min="4856" max="4856" width="11.42578125" customWidth="1"/>
+    <col min="4855" max="4855" width="30.5" customWidth="1"/>
+    <col min="4856" max="4856" width="11.5" customWidth="1"/>
     <col min="4857" max="4857" width="8" customWidth="1"/>
-    <col min="4858" max="4858" width="10.28515625" customWidth="1"/>
-    <col min="4859" max="4859" width="8.28515625" customWidth="1"/>
+    <col min="4858" max="4858" width="10.33203125" customWidth="1"/>
+    <col min="4859" max="4859" width="8.33203125" customWidth="1"/>
     <col min="4860" max="4860" width="10" customWidth="1"/>
     <col min="4861" max="4865" width="8" customWidth="1"/>
-    <col min="4866" max="4866" width="8.28515625" customWidth="1"/>
+    <col min="4866" max="4866" width="8.33203125" customWidth="1"/>
     <col min="4867" max="4867" width="9" customWidth="1"/>
-    <col min="4868" max="4868" width="28.140625" customWidth="1"/>
-    <col min="4869" max="4869" width="10.140625" customWidth="1"/>
-    <col min="4871" max="4871" width="11.42578125" customWidth="1"/>
+    <col min="4868" max="4868" width="28.1640625" customWidth="1"/>
+    <col min="4869" max="4869" width="10.1640625" customWidth="1"/>
+    <col min="4871" max="4871" width="11.5" customWidth="1"/>
     <col min="4872" max="4872" width="8" customWidth="1"/>
     <col min="4873" max="4873" width="10" customWidth="1"/>
-    <col min="4874" max="4874" width="9.28515625" customWidth="1"/>
-    <col min="4875" max="4875" width="10.140625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.33203125" customWidth="1"/>
+    <col min="4875" max="4875" width="10.1640625" customWidth="1"/>
     <col min="4876" max="4876" width="8" customWidth="1"/>
-    <col min="5111" max="5111" width="30.42578125" customWidth="1"/>
-    <col min="5112" max="5112" width="11.42578125" customWidth="1"/>
+    <col min="5111" max="5111" width="30.5" customWidth="1"/>
+    <col min="5112" max="5112" width="11.5" customWidth="1"/>
     <col min="5113" max="5113" width="8" customWidth="1"/>
-    <col min="5114" max="5114" width="10.28515625" customWidth="1"/>
-    <col min="5115" max="5115" width="8.28515625" customWidth="1"/>
+    <col min="5114" max="5114" width="10.33203125" customWidth="1"/>
+    <col min="5115" max="5115" width="8.33203125" customWidth="1"/>
     <col min="5116" max="5116" width="10" customWidth="1"/>
     <col min="5117" max="5121" width="8" customWidth="1"/>
-    <col min="5122" max="5122" width="8.28515625" customWidth="1"/>
+    <col min="5122" max="5122" width="8.33203125" customWidth="1"/>
     <col min="5123" max="5123" width="9" customWidth="1"/>
-    <col min="5124" max="5124" width="28.140625" customWidth="1"/>
-    <col min="5125" max="5125" width="10.140625" customWidth="1"/>
-    <col min="5127" max="5127" width="11.42578125" customWidth="1"/>
+    <col min="5124" max="5124" width="28.1640625" customWidth="1"/>
+    <col min="5125" max="5125" width="10.1640625" customWidth="1"/>
+    <col min="5127" max="5127" width="11.5" customWidth="1"/>
     <col min="5128" max="5128" width="8" customWidth="1"/>
     <col min="5129" max="5129" width="10" customWidth="1"/>
-    <col min="5130" max="5130" width="9.28515625" customWidth="1"/>
-    <col min="5131" max="5131" width="10.140625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.33203125" customWidth="1"/>
+    <col min="5131" max="5131" width="10.1640625" customWidth="1"/>
     <col min="5132" max="5132" width="8" customWidth="1"/>
-    <col min="5367" max="5367" width="30.42578125" customWidth="1"/>
-    <col min="5368" max="5368" width="11.42578125" customWidth="1"/>
+    <col min="5367" max="5367" width="30.5" customWidth="1"/>
+    <col min="5368" max="5368" width="11.5" customWidth="1"/>
     <col min="5369" max="5369" width="8" customWidth="1"/>
-    <col min="5370" max="5370" width="10.28515625" customWidth="1"/>
-    <col min="5371" max="5371" width="8.28515625" customWidth="1"/>
+    <col min="5370" max="5370" width="10.33203125" customWidth="1"/>
+    <col min="5371" max="5371" width="8.33203125" customWidth="1"/>
     <col min="5372" max="5372" width="10" customWidth="1"/>
     <col min="5373" max="5377" width="8" customWidth="1"/>
-    <col min="5378" max="5378" width="8.28515625" customWidth="1"/>
+    <col min="5378" max="5378" width="8.33203125" customWidth="1"/>
     <col min="5379" max="5379" width="9" customWidth="1"/>
-    <col min="5380" max="5380" width="28.140625" customWidth="1"/>
-    <col min="5381" max="5381" width="10.140625" customWidth="1"/>
-    <col min="5383" max="5383" width="11.42578125" customWidth="1"/>
+    <col min="5380" max="5380" width="28.1640625" customWidth="1"/>
+    <col min="5381" max="5381" width="10.1640625" customWidth="1"/>
+    <col min="5383" max="5383" width="11.5" customWidth="1"/>
     <col min="5384" max="5384" width="8" customWidth="1"/>
     <col min="5385" max="5385" width="10" customWidth="1"/>
-    <col min="5386" max="5386" width="9.28515625" customWidth="1"/>
-    <col min="5387" max="5387" width="10.140625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.33203125" customWidth="1"/>
+    <col min="5387" max="5387" width="10.1640625" customWidth="1"/>
     <col min="5388" max="5388" width="8" customWidth="1"/>
-    <col min="5623" max="5623" width="30.42578125" customWidth="1"/>
-    <col min="5624" max="5624" width="11.42578125" customWidth="1"/>
+    <col min="5623" max="5623" width="30.5" customWidth="1"/>
+    <col min="5624" max="5624" width="11.5" customWidth="1"/>
     <col min="5625" max="5625" width="8" customWidth="1"/>
-    <col min="5626" max="5626" width="10.28515625" customWidth="1"/>
-    <col min="5627" max="5627" width="8.28515625" customWidth="1"/>
+    <col min="5626" max="5626" width="10.33203125" customWidth="1"/>
+    <col min="5627" max="5627" width="8.33203125" customWidth="1"/>
     <col min="5628" max="5628" width="10" customWidth="1"/>
     <col min="5629" max="5633" width="8" customWidth="1"/>
-    <col min="5634" max="5634" width="8.28515625" customWidth="1"/>
+    <col min="5634" max="5634" width="8.33203125" customWidth="1"/>
     <col min="5635" max="5635" width="9" customWidth="1"/>
-    <col min="5636" max="5636" width="28.140625" customWidth="1"/>
-    <col min="5637" max="5637" width="10.140625" customWidth="1"/>
-    <col min="5639" max="5639" width="11.42578125" customWidth="1"/>
+    <col min="5636" max="5636" width="28.1640625" customWidth="1"/>
+    <col min="5637" max="5637" width="10.1640625" customWidth="1"/>
+    <col min="5639" max="5639" width="11.5" customWidth="1"/>
     <col min="5640" max="5640" width="8" customWidth="1"/>
     <col min="5641" max="5641" width="10" customWidth="1"/>
-    <col min="5642" max="5642" width="9.28515625" customWidth="1"/>
-    <col min="5643" max="5643" width="10.140625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.33203125" customWidth="1"/>
+    <col min="5643" max="5643" width="10.1640625" customWidth="1"/>
     <col min="5644" max="5644" width="8" customWidth="1"/>
-    <col min="5879" max="5879" width="30.42578125" customWidth="1"/>
-    <col min="5880" max="5880" width="11.42578125" customWidth="1"/>
+    <col min="5879" max="5879" width="30.5" customWidth="1"/>
+    <col min="5880" max="5880" width="11.5" customWidth="1"/>
     <col min="5881" max="5881" width="8" customWidth="1"/>
-    <col min="5882" max="5882" width="10.28515625" customWidth="1"/>
-    <col min="5883" max="5883" width="8.28515625" customWidth="1"/>
+    <col min="5882" max="5882" width="10.33203125" customWidth="1"/>
+    <col min="5883" max="5883" width="8.33203125" customWidth="1"/>
     <col min="5884" max="5884" width="10" customWidth="1"/>
     <col min="5885" max="5889" width="8" customWidth="1"/>
-    <col min="5890" max="5890" width="8.28515625" customWidth="1"/>
+    <col min="5890" max="5890" width="8.33203125" customWidth="1"/>
     <col min="5891" max="5891" width="9" customWidth="1"/>
-    <col min="5892" max="5892" width="28.140625" customWidth="1"/>
-    <col min="5893" max="5893" width="10.140625" customWidth="1"/>
-    <col min="5895" max="5895" width="11.42578125" customWidth="1"/>
+    <col min="5892" max="5892" width="28.1640625" customWidth="1"/>
+    <col min="5893" max="5893" width="10.1640625" customWidth="1"/>
+    <col min="5895" max="5895" width="11.5" customWidth="1"/>
     <col min="5896" max="5896" width="8" customWidth="1"/>
     <col min="5897" max="5897" width="10" customWidth="1"/>
-    <col min="5898" max="5898" width="9.28515625" customWidth="1"/>
-    <col min="5899" max="5899" width="10.140625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.33203125" customWidth="1"/>
+    <col min="5899" max="5899" width="10.1640625" customWidth="1"/>
     <col min="5900" max="5900" width="8" customWidth="1"/>
-    <col min="6135" max="6135" width="30.42578125" customWidth="1"/>
-    <col min="6136" max="6136" width="11.42578125" customWidth="1"/>
+    <col min="6135" max="6135" width="30.5" customWidth="1"/>
+    <col min="6136" max="6136" width="11.5" customWidth="1"/>
     <col min="6137" max="6137" width="8" customWidth="1"/>
-    <col min="6138" max="6138" width="10.28515625" customWidth="1"/>
-    <col min="6139" max="6139" width="8.28515625" customWidth="1"/>
+    <col min="6138" max="6138" width="10.33203125" customWidth="1"/>
+    <col min="6139" max="6139" width="8.33203125" customWidth="1"/>
     <col min="6140" max="6140" width="10" customWidth="1"/>
     <col min="6141" max="6145" width="8" customWidth="1"/>
-    <col min="6146" max="6146" width="8.28515625" customWidth="1"/>
+    <col min="6146" max="6146" width="8.33203125" customWidth="1"/>
     <col min="6147" max="6147" width="9" customWidth="1"/>
-    <col min="6148" max="6148" width="28.140625" customWidth="1"/>
-    <col min="6149" max="6149" width="10.140625" customWidth="1"/>
-    <col min="6151" max="6151" width="11.42578125" customWidth="1"/>
+    <col min="6148" max="6148" width="28.1640625" customWidth="1"/>
+    <col min="6149" max="6149" width="10.1640625" customWidth="1"/>
+    <col min="6151" max="6151" width="11.5" customWidth="1"/>
     <col min="6152" max="6152" width="8" customWidth="1"/>
     <col min="6153" max="6153" width="10" customWidth="1"/>
-    <col min="6154" max="6154" width="9.28515625" customWidth="1"/>
-    <col min="6155" max="6155" width="10.140625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.33203125" customWidth="1"/>
+    <col min="6155" max="6155" width="10.1640625" customWidth="1"/>
     <col min="6156" max="6156" width="8" customWidth="1"/>
-    <col min="6391" max="6391" width="30.42578125" customWidth="1"/>
-    <col min="6392" max="6392" width="11.42578125" customWidth="1"/>
+    <col min="6391" max="6391" width="30.5" customWidth="1"/>
+    <col min="6392" max="6392" width="11.5" customWidth="1"/>
     <col min="6393" max="6393" width="8" customWidth="1"/>
-    <col min="6394" max="6394" width="10.28515625" customWidth="1"/>
-    <col min="6395" max="6395" width="8.28515625" customWidth="1"/>
+    <col min="6394" max="6394" width="10.33203125" customWidth="1"/>
+    <col min="6395" max="6395" width="8.33203125" customWidth="1"/>
     <col min="6396" max="6396" width="10" customWidth="1"/>
     <col min="6397" max="6401" width="8" customWidth="1"/>
-    <col min="6402" max="6402" width="8.28515625" customWidth="1"/>
+    <col min="6402" max="6402" width="8.33203125" customWidth="1"/>
     <col min="6403" max="6403" width="9" customWidth="1"/>
-    <col min="6404" max="6404" width="28.140625" customWidth="1"/>
-    <col min="6405" max="6405" width="10.140625" customWidth="1"/>
-    <col min="6407" max="6407" width="11.42578125" customWidth="1"/>
+    <col min="6404" max="6404" width="28.1640625" customWidth="1"/>
+    <col min="6405" max="6405" width="10.1640625" customWidth="1"/>
+    <col min="6407" max="6407" width="11.5" customWidth="1"/>
     <col min="6408" max="6408" width="8" customWidth="1"/>
     <col min="6409" max="6409" width="10" customWidth="1"/>
-    <col min="6410" max="6410" width="9.28515625" customWidth="1"/>
-    <col min="6411" max="6411" width="10.140625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.33203125" customWidth="1"/>
+    <col min="6411" max="6411" width="10.1640625" customWidth="1"/>
     <col min="6412" max="6412" width="8" customWidth="1"/>
-    <col min="6647" max="6647" width="30.42578125" customWidth="1"/>
-    <col min="6648" max="6648" width="11.42578125" customWidth="1"/>
+    <col min="6647" max="6647" width="30.5" customWidth="1"/>
+    <col min="6648" max="6648" width="11.5" customWidth="1"/>
     <col min="6649" max="6649" width="8" customWidth="1"/>
-    <col min="6650" max="6650" width="10.28515625" customWidth="1"/>
-    <col min="6651" max="6651" width="8.28515625" customWidth="1"/>
+    <col min="6650" max="6650" width="10.33203125" customWidth="1"/>
+    <col min="6651" max="6651" width="8.33203125" customWidth="1"/>
     <col min="6652" max="6652" width="10" customWidth="1"/>
     <col min="6653" max="6657" width="8" customWidth="1"/>
-    <col min="6658" max="6658" width="8.28515625" customWidth="1"/>
+    <col min="6658" max="6658" width="8.33203125" customWidth="1"/>
     <col min="6659" max="6659" width="9" customWidth="1"/>
-    <col min="6660" max="6660" width="28.140625" customWidth="1"/>
-    <col min="6661" max="6661" width="10.140625" customWidth="1"/>
-    <col min="6663" max="6663" width="11.42578125" customWidth="1"/>
+    <col min="6660" max="6660" width="28.1640625" customWidth="1"/>
+    <col min="6661" max="6661" width="10.1640625" customWidth="1"/>
+    <col min="6663" max="6663" width="11.5" customWidth="1"/>
     <col min="6664" max="6664" width="8" customWidth="1"/>
     <col min="6665" max="6665" width="10" customWidth="1"/>
-    <col min="6666" max="6666" width="9.28515625" customWidth="1"/>
-    <col min="6667" max="6667" width="10.140625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.33203125" customWidth="1"/>
+    <col min="6667" max="6667" width="10.1640625" customWidth="1"/>
     <col min="6668" max="6668" width="8" customWidth="1"/>
-    <col min="6903" max="6903" width="30.42578125" customWidth="1"/>
-    <col min="6904" max="6904" width="11.42578125" customWidth="1"/>
+    <col min="6903" max="6903" width="30.5" customWidth="1"/>
+    <col min="6904" max="6904" width="11.5" customWidth="1"/>
     <col min="6905" max="6905" width="8" customWidth="1"/>
-    <col min="6906" max="6906" width="10.28515625" customWidth="1"/>
-    <col min="6907" max="6907" width="8.28515625" customWidth="1"/>
+    <col min="6906" max="6906" width="10.33203125" customWidth="1"/>
+    <col min="6907" max="6907" width="8.33203125" customWidth="1"/>
     <col min="6908" max="6908" width="10" customWidth="1"/>
     <col min="6909" max="6913" width="8" customWidth="1"/>
-    <col min="6914" max="6914" width="8.28515625" customWidth="1"/>
+    <col min="6914" max="6914" width="8.33203125" customWidth="1"/>
     <col min="6915" max="6915" width="9" customWidth="1"/>
-    <col min="6916" max="6916" width="28.140625" customWidth="1"/>
-    <col min="6917" max="6917" width="10.140625" customWidth="1"/>
-    <col min="6919" max="6919" width="11.42578125" customWidth="1"/>
+    <col min="6916" max="6916" width="28.1640625" customWidth="1"/>
+    <col min="6917" max="6917" width="10.1640625" customWidth="1"/>
+    <col min="6919" max="6919" width="11.5" customWidth="1"/>
     <col min="6920" max="6920" width="8" customWidth="1"/>
     <col min="6921" max="6921" width="10" customWidth="1"/>
-    <col min="6922" max="6922" width="9.28515625" customWidth="1"/>
-    <col min="6923" max="6923" width="10.140625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.33203125" customWidth="1"/>
+    <col min="6923" max="6923" width="10.1640625" customWidth="1"/>
     <col min="6924" max="6924" width="8" customWidth="1"/>
-    <col min="7159" max="7159" width="30.42578125" customWidth="1"/>
-    <col min="7160" max="7160" width="11.42578125" customWidth="1"/>
+    <col min="7159" max="7159" width="30.5" customWidth="1"/>
+    <col min="7160" max="7160" width="11.5" customWidth="1"/>
     <col min="7161" max="7161" width="8" customWidth="1"/>
-    <col min="7162" max="7162" width="10.28515625" customWidth="1"/>
-    <col min="7163" max="7163" width="8.28515625" customWidth="1"/>
+    <col min="7162" max="7162" width="10.33203125" customWidth="1"/>
+    <col min="7163" max="7163" width="8.33203125" customWidth="1"/>
     <col min="7164" max="7164" width="10" customWidth="1"/>
     <col min="7165" max="7169" width="8" customWidth="1"/>
-    <col min="7170" max="7170" width="8.28515625" customWidth="1"/>
+    <col min="7170" max="7170" width="8.33203125" customWidth="1"/>
     <col min="7171" max="7171" width="9" customWidth="1"/>
-    <col min="7172" max="7172" width="28.140625" customWidth="1"/>
-    <col min="7173" max="7173" width="10.140625" customWidth="1"/>
-    <col min="7175" max="7175" width="11.42578125" customWidth="1"/>
+    <col min="7172" max="7172" width="28.1640625" customWidth="1"/>
+    <col min="7173" max="7173" width="10.1640625" customWidth="1"/>
+    <col min="7175" max="7175" width="11.5" customWidth="1"/>
     <col min="7176" max="7176" width="8" customWidth="1"/>
     <col min="7177" max="7177" width="10" customWidth="1"/>
-    <col min="7178" max="7178" width="9.28515625" customWidth="1"/>
-    <col min="7179" max="7179" width="10.140625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.33203125" customWidth="1"/>
+    <col min="7179" max="7179" width="10.1640625" customWidth="1"/>
     <col min="7180" max="7180" width="8" customWidth="1"/>
-    <col min="7415" max="7415" width="30.42578125" customWidth="1"/>
-    <col min="7416" max="7416" width="11.42578125" customWidth="1"/>
+    <col min="7415" max="7415" width="30.5" customWidth="1"/>
+    <col min="7416" max="7416" width="11.5" customWidth="1"/>
     <col min="7417" max="7417" width="8" customWidth="1"/>
-    <col min="7418" max="7418" width="10.28515625" customWidth="1"/>
-    <col min="7419" max="7419" width="8.28515625" customWidth="1"/>
+    <col min="7418" max="7418" width="10.33203125" customWidth="1"/>
+    <col min="7419" max="7419" width="8.33203125" customWidth="1"/>
     <col min="7420" max="7420" width="10" customWidth="1"/>
     <col min="7421" max="7425" width="8" customWidth="1"/>
-    <col min="7426" max="7426" width="8.28515625" customWidth="1"/>
+    <col min="7426" max="7426" width="8.33203125" customWidth="1"/>
     <col min="7427" max="7427" width="9" customWidth="1"/>
-    <col min="7428" max="7428" width="28.140625" customWidth="1"/>
-    <col min="7429" max="7429" width="10.140625" customWidth="1"/>
-    <col min="7431" max="7431" width="11.42578125" customWidth="1"/>
+    <col min="7428" max="7428" width="28.1640625" customWidth="1"/>
+    <col min="7429" max="7429" width="10.1640625" customWidth="1"/>
+    <col min="7431" max="7431" width="11.5" customWidth="1"/>
     <col min="7432" max="7432" width="8" customWidth="1"/>
     <col min="7433" max="7433" width="10" customWidth="1"/>
-    <col min="7434" max="7434" width="9.28515625" customWidth="1"/>
-    <col min="7435" max="7435" width="10.140625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.33203125" customWidth="1"/>
+    <col min="7435" max="7435" width="10.1640625" customWidth="1"/>
     <col min="7436" max="7436" width="8" customWidth="1"/>
-    <col min="7671" max="7671" width="30.42578125" customWidth="1"/>
-    <col min="7672" max="7672" width="11.42578125" customWidth="1"/>
+    <col min="7671" max="7671" width="30.5" customWidth="1"/>
+    <col min="7672" max="7672" width="11.5" customWidth="1"/>
     <col min="7673" max="7673" width="8" customWidth="1"/>
-    <col min="7674" max="7674" width="10.28515625" customWidth="1"/>
-    <col min="7675" max="7675" width="8.28515625" customWidth="1"/>
+    <col min="7674" max="7674" width="10.33203125" customWidth="1"/>
+    <col min="7675" max="7675" width="8.33203125" customWidth="1"/>
     <col min="7676" max="7676" width="10" customWidth="1"/>
     <col min="7677" max="7681" width="8" customWidth="1"/>
-    <col min="7682" max="7682" width="8.28515625" customWidth="1"/>
+    <col min="7682" max="7682" width="8.33203125" customWidth="1"/>
     <col min="7683" max="7683" width="9" customWidth="1"/>
-    <col min="7684" max="7684" width="28.140625" customWidth="1"/>
-    <col min="7685" max="7685" width="10.140625" customWidth="1"/>
-    <col min="7687" max="7687" width="11.42578125" customWidth="1"/>
+    <col min="7684" max="7684" width="28.1640625" customWidth="1"/>
+    <col min="7685" max="7685" width="10.1640625" customWidth="1"/>
+    <col min="7687" max="7687" width="11.5" customWidth="1"/>
     <col min="7688" max="7688" width="8" customWidth="1"/>
     <col min="7689" max="7689" width="10" customWidth="1"/>
-    <col min="7690" max="7690" width="9.28515625" customWidth="1"/>
-    <col min="7691" max="7691" width="10.140625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.33203125" customWidth="1"/>
+    <col min="7691" max="7691" width="10.1640625" customWidth="1"/>
     <col min="7692" max="7692" width="8" customWidth="1"/>
-    <col min="7927" max="7927" width="30.42578125" customWidth="1"/>
-    <col min="7928" max="7928" width="11.42578125" customWidth="1"/>
+    <col min="7927" max="7927" width="30.5" customWidth="1"/>
+    <col min="7928" max="7928" width="11.5" customWidth="1"/>
     <col min="7929" max="7929" width="8" customWidth="1"/>
-    <col min="7930" max="7930" width="10.28515625" customWidth="1"/>
-    <col min="7931" max="7931" width="8.28515625" customWidth="1"/>
+    <col min="7930" max="7930" width="10.33203125" customWidth="1"/>
+    <col min="7931" max="7931" width="8.33203125" customWidth="1"/>
     <col min="7932" max="7932" width="10" customWidth="1"/>
     <col min="7933" max="7937" width="8" customWidth="1"/>
-    <col min="7938" max="7938" width="8.28515625" customWidth="1"/>
+    <col min="7938" max="7938" width="8.33203125" customWidth="1"/>
     <col min="7939" max="7939" width="9" customWidth="1"/>
-    <col min="7940" max="7940" width="28.140625" customWidth="1"/>
-    <col min="7941" max="7941" width="10.140625" customWidth="1"/>
-    <col min="7943" max="7943" width="11.42578125" customWidth="1"/>
+    <col min="7940" max="7940" width="28.1640625" customWidth="1"/>
+    <col min="7941" max="7941" width="10.1640625" customWidth="1"/>
+    <col min="7943" max="7943" width="11.5" customWidth="1"/>
     <col min="7944" max="7944" width="8" customWidth="1"/>
     <col min="7945" max="7945" width="10" customWidth="1"/>
-    <col min="7946" max="7946" width="9.28515625" customWidth="1"/>
-    <col min="7947" max="7947" width="10.140625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.33203125" customWidth="1"/>
+    <col min="7947" max="7947" width="10.1640625" customWidth="1"/>
     <col min="7948" max="7948" width="8" customWidth="1"/>
-    <col min="8183" max="8183" width="30.42578125" customWidth="1"/>
-    <col min="8184" max="8184" width="11.42578125" customWidth="1"/>
+    <col min="8183" max="8183" width="30.5" customWidth="1"/>
+    <col min="8184" max="8184" width="11.5" customWidth="1"/>
     <col min="8185" max="8185" width="8" customWidth="1"/>
-    <col min="8186" max="8186" width="10.28515625" customWidth="1"/>
-    <col min="8187" max="8187" width="8.28515625" customWidth="1"/>
+    <col min="8186" max="8186" width="10.33203125" customWidth="1"/>
+    <col min="8187" max="8187" width="8.33203125" customWidth="1"/>
     <col min="8188" max="8188" width="10" customWidth="1"/>
     <col min="8189" max="8193" width="8" customWidth="1"/>
-    <col min="8194" max="8194" width="8.28515625" customWidth="1"/>
+    <col min="8194" max="8194" width="8.33203125" customWidth="1"/>
     <col min="8195" max="8195" width="9" customWidth="1"/>
-    <col min="8196" max="8196" width="28.140625" customWidth="1"/>
-    <col min="8197" max="8197" width="10.140625" customWidth="1"/>
-    <col min="8199" max="8199" width="11.42578125" customWidth="1"/>
+    <col min="8196" max="8196" width="28.1640625" customWidth="1"/>
+    <col min="8197" max="8197" width="10.1640625" customWidth="1"/>
+    <col min="8199" max="8199" width="11.5" customWidth="1"/>
     <col min="8200" max="8200" width="8" customWidth="1"/>
     <col min="8201" max="8201" width="10" customWidth="1"/>
-    <col min="8202" max="8202" width="9.28515625" customWidth="1"/>
-    <col min="8203" max="8203" width="10.140625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.33203125" customWidth="1"/>
+    <col min="8203" max="8203" width="10.1640625" customWidth="1"/>
     <col min="8204" max="8204" width="8" customWidth="1"/>
-    <col min="8439" max="8439" width="30.42578125" customWidth="1"/>
-    <col min="8440" max="8440" width="11.42578125" customWidth="1"/>
+    <col min="8439" max="8439" width="30.5" customWidth="1"/>
+    <col min="8440" max="8440" width="11.5" customWidth="1"/>
     <col min="8441" max="8441" width="8" customWidth="1"/>
-    <col min="8442" max="8442" width="10.28515625" customWidth="1"/>
-    <col min="8443" max="8443" width="8.28515625" customWidth="1"/>
+    <col min="8442" max="8442" width="10.33203125" customWidth="1"/>
+    <col min="8443" max="8443" width="8.33203125" customWidth="1"/>
     <col min="8444" max="8444" width="10" customWidth="1"/>
     <col min="8445" max="8449" width="8" customWidth="1"/>
-    <col min="8450" max="8450" width="8.28515625" customWidth="1"/>
+    <col min="8450" max="8450" width="8.33203125" customWidth="1"/>
     <col min="8451" max="8451" width="9" customWidth="1"/>
-    <col min="8452" max="8452" width="28.140625" customWidth="1"/>
-    <col min="8453" max="8453" width="10.140625" customWidth="1"/>
-    <col min="8455" max="8455" width="11.42578125" customWidth="1"/>
+    <col min="8452" max="8452" width="28.1640625" customWidth="1"/>
+    <col min="8453" max="8453" width="10.1640625" customWidth="1"/>
+    <col min="8455" max="8455" width="11.5" customWidth="1"/>
     <col min="8456" max="8456" width="8" customWidth="1"/>
     <col min="8457" max="8457" width="10" customWidth="1"/>
-    <col min="8458" max="8458" width="9.28515625" customWidth="1"/>
-    <col min="8459" max="8459" width="10.140625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.33203125" customWidth="1"/>
+    <col min="8459" max="8459" width="10.1640625" customWidth="1"/>
     <col min="8460" max="8460" width="8" customWidth="1"/>
-    <col min="8695" max="8695" width="30.42578125" customWidth="1"/>
-    <col min="8696" max="8696" width="11.42578125" customWidth="1"/>
+    <col min="8695" max="8695" width="30.5" customWidth="1"/>
+    <col min="8696" max="8696" width="11.5" customWidth="1"/>
     <col min="8697" max="8697" width="8" customWidth="1"/>
-    <col min="8698" max="8698" width="10.28515625" customWidth="1"/>
-    <col min="8699" max="8699" width="8.28515625" customWidth="1"/>
+    <col min="8698" max="8698" width="10.33203125" customWidth="1"/>
+    <col min="8699" max="8699" width="8.33203125" customWidth="1"/>
     <col min="8700" max="8700" width="10" customWidth="1"/>
     <col min="8701" max="8705" width="8" customWidth="1"/>
-    <col min="8706" max="8706" width="8.28515625" customWidth="1"/>
+    <col min="8706" max="8706" width="8.33203125" customWidth="1"/>
     <col min="8707" max="8707" width="9" customWidth="1"/>
-    <col min="8708" max="8708" width="28.140625" customWidth="1"/>
-    <col min="8709" max="8709" width="10.140625" customWidth="1"/>
-    <col min="8711" max="8711" width="11.42578125" customWidth="1"/>
+    <col min="8708" max="8708" width="28.1640625" customWidth="1"/>
+    <col min="8709" max="8709" width="10.1640625" customWidth="1"/>
+    <col min="8711" max="8711" width="11.5" customWidth="1"/>
     <col min="8712" max="8712" width="8" customWidth="1"/>
     <col min="8713" max="8713" width="10" customWidth="1"/>
-    <col min="8714" max="8714" width="9.28515625" customWidth="1"/>
-    <col min="8715" max="8715" width="10.140625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.33203125" customWidth="1"/>
+    <col min="8715" max="8715" width="10.1640625" customWidth="1"/>
     <col min="8716" max="8716" width="8" customWidth="1"/>
-    <col min="8951" max="8951" width="30.42578125" customWidth="1"/>
-    <col min="8952" max="8952" width="11.42578125" customWidth="1"/>
+    <col min="8951" max="8951" width="30.5" customWidth="1"/>
+    <col min="8952" max="8952" width="11.5" customWidth="1"/>
     <col min="8953" max="8953" width="8" customWidth="1"/>
-    <col min="8954" max="8954" width="10.28515625" customWidth="1"/>
-    <col min="8955" max="8955" width="8.28515625" customWidth="1"/>
+    <col min="8954" max="8954" width="10.33203125" customWidth="1"/>
+    <col min="8955" max="8955" width="8.33203125" customWidth="1"/>
     <col min="8956" max="8956" width="10" customWidth="1"/>
     <col min="8957" max="8961" width="8" customWidth="1"/>
-    <col min="8962" max="8962" width="8.28515625" customWidth="1"/>
+    <col min="8962" max="8962" width="8.33203125" customWidth="1"/>
     <col min="8963" max="8963" width="9" customWidth="1"/>
-    <col min="8964" max="8964" width="28.140625" customWidth="1"/>
-    <col min="8965" max="8965" width="10.140625" customWidth="1"/>
-    <col min="8967" max="8967" width="11.42578125" customWidth="1"/>
+    <col min="8964" max="8964" width="28.1640625" customWidth="1"/>
+    <col min="8965" max="8965" width="10.1640625" customWidth="1"/>
+    <col min="8967" max="8967" width="11.5" customWidth="1"/>
     <col min="8968" max="8968" width="8" customWidth="1"/>
     <col min="8969" max="8969" width="10" customWidth="1"/>
-    <col min="8970" max="8970" width="9.28515625" customWidth="1"/>
-    <col min="8971" max="8971" width="10.140625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.33203125" customWidth="1"/>
+    <col min="8971" max="8971" width="10.1640625" customWidth="1"/>
     <col min="8972" max="8972" width="8" customWidth="1"/>
-    <col min="9207" max="9207" width="30.42578125" customWidth="1"/>
-    <col min="9208" max="9208" width="11.42578125" customWidth="1"/>
+    <col min="9207" max="9207" width="30.5" customWidth="1"/>
+    <col min="9208" max="9208" width="11.5" customWidth="1"/>
     <col min="9209" max="9209" width="8" customWidth="1"/>
-    <col min="9210" max="9210" width="10.28515625" customWidth="1"/>
-    <col min="9211" max="9211" width="8.28515625" customWidth="1"/>
+    <col min="9210" max="9210" width="10.33203125" customWidth="1"/>
+    <col min="9211" max="9211" width="8.33203125" customWidth="1"/>
     <col min="9212" max="9212" width="10" customWidth="1"/>
     <col min="9213" max="9217" width="8" customWidth="1"/>
-    <col min="9218" max="9218" width="8.28515625" customWidth="1"/>
+    <col min="9218" max="9218" width="8.33203125" customWidth="1"/>
     <col min="9219" max="9219" width="9" customWidth="1"/>
-    <col min="9220" max="9220" width="28.140625" customWidth="1"/>
-    <col min="9221" max="9221" width="10.140625" customWidth="1"/>
-    <col min="9223" max="9223" width="11.42578125" customWidth="1"/>
+    <col min="9220" max="9220" width="28.1640625" customWidth="1"/>
+    <col min="9221" max="9221" width="10.1640625" customWidth="1"/>
+    <col min="9223" max="9223" width="11.5" customWidth="1"/>
     <col min="9224" max="9224" width="8" customWidth="1"/>
     <col min="9225" max="9225" width="10" customWidth="1"/>
-    <col min="9226" max="9226" width="9.28515625" customWidth="1"/>
-    <col min="9227" max="9227" width="10.140625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.33203125" customWidth="1"/>
+    <col min="9227" max="9227" width="10.1640625" customWidth="1"/>
     <col min="9228" max="9228" width="8" customWidth="1"/>
-    <col min="9463" max="9463" width="30.42578125" customWidth="1"/>
-    <col min="9464" max="9464" width="11.42578125" customWidth="1"/>
+    <col min="9463" max="9463" width="30.5" customWidth="1"/>
+    <col min="9464" max="9464" width="11.5" customWidth="1"/>
     <col min="9465" max="9465" width="8" customWidth="1"/>
-    <col min="9466" max="9466" width="10.28515625" customWidth="1"/>
-    <col min="9467" max="9467" width="8.28515625" customWidth="1"/>
+    <col min="9466" max="9466" width="10.33203125" customWidth="1"/>
+    <col min="9467" max="9467" width="8.33203125" customWidth="1"/>
     <col min="9468" max="9468" width="10" customWidth="1"/>
     <col min="9469" max="9473" width="8" customWidth="1"/>
-    <col min="9474" max="9474" width="8.28515625" customWidth="1"/>
+    <col min="9474" max="9474" width="8.33203125" customWidth="1"/>
     <col min="9475" max="9475" width="9" customWidth="1"/>
-    <col min="9476" max="9476" width="28.140625" customWidth="1"/>
-    <col min="9477" max="9477" width="10.140625" customWidth="1"/>
-    <col min="9479" max="9479" width="11.42578125" customWidth="1"/>
+    <col min="9476" max="9476" width="28.1640625" customWidth="1"/>
+    <col min="9477" max="9477" width="10.1640625" customWidth="1"/>
+    <col min="9479" max="9479" width="11.5" customWidth="1"/>
     <col min="9480" max="9480" width="8" customWidth="1"/>
     <col min="9481" max="9481" width="10" customWidth="1"/>
-    <col min="9482" max="9482" width="9.28515625" customWidth="1"/>
-    <col min="9483" max="9483" width="10.140625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.33203125" customWidth="1"/>
+    <col min="9483" max="9483" width="10.1640625" customWidth="1"/>
     <col min="9484" max="9484" width="8" customWidth="1"/>
-    <col min="9719" max="9719" width="30.42578125" customWidth="1"/>
-    <col min="9720" max="9720" width="11.42578125" customWidth="1"/>
+    <col min="9719" max="9719" width="30.5" customWidth="1"/>
+    <col min="9720" max="9720" width="11.5" customWidth="1"/>
     <col min="9721" max="9721" width="8" customWidth="1"/>
-    <col min="9722" max="9722" width="10.28515625" customWidth="1"/>
-    <col min="9723" max="9723" width="8.28515625" customWidth="1"/>
+    <col min="9722" max="9722" width="10.33203125" customWidth="1"/>
+    <col min="9723" max="9723" width="8.33203125" customWidth="1"/>
     <col min="9724" max="9724" width="10" customWidth="1"/>
     <col min="9725" max="9729" width="8" customWidth="1"/>
-    <col min="9730" max="9730" width="8.28515625" customWidth="1"/>
+    <col min="9730" max="9730" width="8.33203125" customWidth="1"/>
     <col min="9731" max="9731" width="9" customWidth="1"/>
-    <col min="9732" max="9732" width="28.140625" customWidth="1"/>
-    <col min="9733" max="9733" width="10.140625" customWidth="1"/>
-    <col min="9735" max="9735" width="11.42578125" customWidth="1"/>
+    <col min="9732" max="9732" width="28.1640625" customWidth="1"/>
+    <col min="9733" max="9733" width="10.1640625" customWidth="1"/>
+    <col min="9735" max="9735" width="11.5" customWidth="1"/>
     <col min="9736" max="9736" width="8" customWidth="1"/>
     <col min="9737" max="9737" width="10" customWidth="1"/>
-    <col min="9738" max="9738" width="9.28515625" customWidth="1"/>
-    <col min="9739" max="9739" width="10.140625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.33203125" customWidth="1"/>
+    <col min="9739" max="9739" width="10.1640625" customWidth="1"/>
     <col min="9740" max="9740" width="8" customWidth="1"/>
-    <col min="9975" max="9975" width="30.42578125" customWidth="1"/>
-    <col min="9976" max="9976" width="11.42578125" customWidth="1"/>
+    <col min="9975" max="9975" width="30.5" customWidth="1"/>
+    <col min="9976" max="9976" width="11.5" customWidth="1"/>
     <col min="9977" max="9977" width="8" customWidth="1"/>
-    <col min="9978" max="9978" width="10.28515625" customWidth="1"/>
-    <col min="9979" max="9979" width="8.28515625" customWidth="1"/>
+    <col min="9978" max="9978" width="10.33203125" customWidth="1"/>
+    <col min="9979" max="9979" width="8.33203125" customWidth="1"/>
     <col min="9980" max="9980" width="10" customWidth="1"/>
     <col min="9981" max="9985" width="8" customWidth="1"/>
-    <col min="9986" max="9986" width="8.28515625" customWidth="1"/>
+    <col min="9986" max="9986" width="8.33203125" customWidth="1"/>
     <col min="9987" max="9987" width="9" customWidth="1"/>
-    <col min="9988" max="9988" width="28.140625" customWidth="1"/>
-    <col min="9989" max="9989" width="10.140625" customWidth="1"/>
-    <col min="9991" max="9991" width="11.42578125" customWidth="1"/>
+    <col min="9988" max="9988" width="28.1640625" customWidth="1"/>
+    <col min="9989" max="9989" width="10.1640625" customWidth="1"/>
+    <col min="9991" max="9991" width="11.5" customWidth="1"/>
     <col min="9992" max="9992" width="8" customWidth="1"/>
     <col min="9993" max="9993" width="10" customWidth="1"/>
-    <col min="9994" max="9994" width="9.28515625" customWidth="1"/>
-    <col min="9995" max="9995" width="10.140625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.33203125" customWidth="1"/>
+    <col min="9995" max="9995" width="10.1640625" customWidth="1"/>
     <col min="9996" max="9996" width="8" customWidth="1"/>
-    <col min="10231" max="10231" width="30.42578125" customWidth="1"/>
-    <col min="10232" max="10232" width="11.42578125" customWidth="1"/>
+    <col min="10231" max="10231" width="30.5" customWidth="1"/>
+    <col min="10232" max="10232" width="11.5" customWidth="1"/>
     <col min="10233" max="10233" width="8" customWidth="1"/>
-    <col min="10234" max="10234" width="10.28515625" customWidth="1"/>
-    <col min="10235" max="10235" width="8.28515625" customWidth="1"/>
+    <col min="10234" max="10234" width="10.33203125" customWidth="1"/>
+    <col min="10235" max="10235" width="8.33203125" customWidth="1"/>
     <col min="10236" max="10236" width="10" customWidth="1"/>
     <col min="10237" max="10241" width="8" customWidth="1"/>
-    <col min="10242" max="10242" width="8.28515625" customWidth="1"/>
+    <col min="10242" max="10242" width="8.33203125" customWidth="1"/>
     <col min="10243" max="10243" width="9" customWidth="1"/>
-    <col min="10244" max="10244" width="28.140625" customWidth="1"/>
-    <col min="10245" max="10245" width="10.140625" customWidth="1"/>
-    <col min="10247" max="10247" width="11.42578125" customWidth="1"/>
+    <col min="10244" max="10244" width="28.1640625" customWidth="1"/>
+    <col min="10245" max="10245" width="10.1640625" customWidth="1"/>
+    <col min="10247" max="10247" width="11.5" customWidth="1"/>
     <col min="10248" max="10248" width="8" customWidth="1"/>
     <col min="10249" max="10249" width="10" customWidth="1"/>
-    <col min="10250" max="10250" width="9.28515625" customWidth="1"/>
-    <col min="10251" max="10251" width="10.140625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.33203125" customWidth="1"/>
+    <col min="10251" max="10251" width="10.1640625" customWidth="1"/>
     <col min="10252" max="10252" width="8" customWidth="1"/>
-    <col min="10487" max="10487" width="30.42578125" customWidth="1"/>
-    <col min="10488" max="10488" width="11.42578125" customWidth="1"/>
+    <col min="10487" max="10487" width="30.5" customWidth="1"/>
+    <col min="10488" max="10488" width="11.5" customWidth="1"/>
     <col min="10489" max="10489" width="8" customWidth="1"/>
-    <col min="10490" max="10490" width="10.28515625" customWidth="1"/>
-    <col min="10491" max="10491" width="8.28515625" customWidth="1"/>
+    <col min="10490" max="10490" width="10.33203125" customWidth="1"/>
+    <col min="10491" max="10491" width="8.33203125" customWidth="1"/>
     <col min="10492" max="10492" width="10" customWidth="1"/>
     <col min="10493" max="10497" width="8" customWidth="1"/>
-    <col min="10498" max="10498" width="8.28515625" customWidth="1"/>
+    <col min="10498" max="10498" width="8.33203125" customWidth="1"/>
     <col min="10499" max="10499" width="9" customWidth="1"/>
-    <col min="10500" max="10500" width="28.140625" customWidth="1"/>
-    <col min="10501" max="10501" width="10.140625" customWidth="1"/>
-    <col min="10503" max="10503" width="11.42578125" customWidth="1"/>
+    <col min="10500" max="10500" width="28.1640625" customWidth="1"/>
+    <col min="10501" max="10501" width="10.1640625" customWidth="1"/>
+    <col min="10503" max="10503" width="11.5" customWidth="1"/>
     <col min="10504" max="10504" width="8" customWidth="1"/>
     <col min="10505" max="10505" width="10" customWidth="1"/>
-    <col min="10506" max="10506" width="9.28515625" customWidth="1"/>
-    <col min="10507" max="10507" width="10.140625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.33203125" customWidth="1"/>
+    <col min="10507" max="10507" width="10.1640625" customWidth="1"/>
     <col min="10508" max="10508" width="8" customWidth="1"/>
-    <col min="10743" max="10743" width="30.42578125" customWidth="1"/>
-    <col min="10744" max="10744" width="11.42578125" customWidth="1"/>
+    <col min="10743" max="10743" width="30.5" customWidth="1"/>
+    <col min="10744" max="10744" width="11.5" customWidth="1"/>
     <col min="10745" max="10745" width="8" customWidth="1"/>
-    <col min="10746" max="10746" width="10.28515625" customWidth="1"/>
-    <col min="10747" max="10747" width="8.28515625" customWidth="1"/>
+    <col min="10746" max="10746" width="10.33203125" customWidth="1"/>
+    <col min="10747" max="10747" width="8.33203125" customWidth="1"/>
     <col min="10748" max="10748" width="10" customWidth="1"/>
     <col min="10749" max="10753" width="8" customWidth="1"/>
-    <col min="10754" max="10754" width="8.28515625" customWidth="1"/>
+    <col min="10754" max="10754" width="8.33203125" customWidth="1"/>
     <col min="10755" max="10755" width="9" customWidth="1"/>
-    <col min="10756" max="10756" width="28.140625" customWidth="1"/>
-    <col min="10757" max="10757" width="10.140625" customWidth="1"/>
-    <col min="10759" max="10759" width="11.42578125" customWidth="1"/>
+    <col min="10756" max="10756" width="28.1640625" customWidth="1"/>
+    <col min="10757" max="10757" width="10.1640625" customWidth="1"/>
+    <col min="10759" max="10759" width="11.5" customWidth="1"/>
     <col min="10760" max="10760" width="8" customWidth="1"/>
     <col min="10761" max="10761" width="10" customWidth="1"/>
-    <col min="10762" max="10762" width="9.28515625" customWidth="1"/>
-    <col min="10763" max="10763" width="10.140625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.33203125" customWidth="1"/>
+    <col min="10763" max="10763" width="10.1640625" customWidth="1"/>
     <col min="10764" max="10764" width="8" customWidth="1"/>
-    <col min="10999" max="10999" width="30.42578125" customWidth="1"/>
-    <col min="11000" max="11000" width="11.42578125" customWidth="1"/>
+    <col min="10999" max="10999" width="30.5" customWidth="1"/>
+    <col min="11000" max="11000" width="11.5" customWidth="1"/>
     <col min="11001" max="11001" width="8" customWidth="1"/>
-    <col min="11002" max="11002" width="10.28515625" customWidth="1"/>
-    <col min="11003" max="11003" width="8.28515625" customWidth="1"/>
+    <col min="11002" max="11002" width="10.33203125" customWidth="1"/>
+    <col min="11003" max="11003" width="8.33203125" customWidth="1"/>
     <col min="11004" max="11004" width="10" customWidth="1"/>
     <col min="11005" max="11009" width="8" customWidth="1"/>
-    <col min="11010" max="11010" width="8.28515625" customWidth="1"/>
+    <col min="11010" max="11010" width="8.33203125" customWidth="1"/>
     <col min="11011" max="11011" width="9" customWidth="1"/>
-    <col min="11012" max="11012" width="28.140625" customWidth="1"/>
-    <col min="11013" max="11013" width="10.140625" customWidth="1"/>
-    <col min="11015" max="11015" width="11.42578125" customWidth="1"/>
+    <col min="11012" max="11012" width="28.1640625" customWidth="1"/>
+    <col min="11013" max="11013" width="10.1640625" customWidth="1"/>
+    <col min="11015" max="11015" width="11.5" customWidth="1"/>
     <col min="11016" max="11016" width="8" customWidth="1"/>
     <col min="11017" max="11017" width="10" customWidth="1"/>
-    <col min="11018" max="11018" width="9.28515625" customWidth="1"/>
-    <col min="11019" max="11019" width="10.140625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.33203125" customWidth="1"/>
+    <col min="11019" max="11019" width="10.1640625" customWidth="1"/>
     <col min="11020" max="11020" width="8" customWidth="1"/>
-    <col min="11255" max="11255" width="30.42578125" customWidth="1"/>
-    <col min="11256" max="11256" width="11.42578125" customWidth="1"/>
+    <col min="11255" max="11255" width="30.5" customWidth="1"/>
+    <col min="11256" max="11256" width="11.5" customWidth="1"/>
     <col min="11257" max="11257" width="8" customWidth="1"/>
-    <col min="11258" max="11258" width="10.28515625" customWidth="1"/>
-    <col min="11259" max="11259" width="8.28515625" customWidth="1"/>
+    <col min="11258" max="11258" width="10.33203125" customWidth="1"/>
+    <col min="11259" max="11259" width="8.33203125" customWidth="1"/>
     <col min="11260" max="11260" width="10" customWidth="1"/>
     <col min="11261" max="11265" width="8" customWidth="1"/>
-    <col min="11266" max="11266" width="8.28515625" customWidth="1"/>
+    <col min="11266" max="11266" width="8.33203125" customWidth="1"/>
     <col min="11267" max="11267" width="9" customWidth="1"/>
-    <col min="11268" max="11268" width="28.140625" customWidth="1"/>
-    <col min="11269" max="11269" width="10.140625" customWidth="1"/>
-    <col min="11271" max="11271" width="11.42578125" customWidth="1"/>
+    <col min="11268" max="11268" width="28.1640625" customWidth="1"/>
+    <col min="11269" max="11269" width="10.1640625" customWidth="1"/>
+    <col min="11271" max="11271" width="11.5" customWidth="1"/>
     <col min="11272" max="11272" width="8" customWidth="1"/>
     <col min="11273" max="11273" width="10" customWidth="1"/>
-    <col min="11274" max="11274" width="9.28515625" customWidth="1"/>
-    <col min="11275" max="11275" width="10.140625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.33203125" customWidth="1"/>
+    <col min="11275" max="11275" width="10.1640625" customWidth="1"/>
     <col min="11276" max="11276" width="8" customWidth="1"/>
-    <col min="11511" max="11511" width="30.42578125" customWidth="1"/>
-    <col min="11512" max="11512" width="11.42578125" customWidth="1"/>
+    <col min="11511" max="11511" width="30.5" customWidth="1"/>
+    <col min="11512" max="11512" width="11.5" customWidth="1"/>
     <col min="11513" max="11513" width="8" customWidth="1"/>
-    <col min="11514" max="11514" width="10.28515625" customWidth="1"/>
-    <col min="11515" max="11515" width="8.28515625" customWidth="1"/>
+    <col min="11514" max="11514" width="10.33203125" customWidth="1"/>
+    <col min="11515" max="11515" width="8.33203125" customWidth="1"/>
     <col min="11516" max="11516" width="10" customWidth="1"/>
     <col min="11517" max="11521" width="8" customWidth="1"/>
-    <col min="11522" max="11522" width="8.28515625" customWidth="1"/>
+    <col min="11522" max="11522" width="8.33203125" customWidth="1"/>
     <col min="11523" max="11523" width="9" customWidth="1"/>
-    <col min="11524" max="11524" width="28.140625" customWidth="1"/>
-    <col min="11525" max="11525" width="10.140625" customWidth="1"/>
-    <col min="11527" max="11527" width="11.42578125" customWidth="1"/>
+    <col min="11524" max="11524" width="28.1640625" customWidth="1"/>
+    <col min="11525" max="11525" width="10.1640625" customWidth="1"/>
+    <col min="11527" max="11527" width="11.5" customWidth="1"/>
     <col min="11528" max="11528" width="8" customWidth="1"/>
     <col min="11529" max="11529" width="10" customWidth="1"/>
-    <col min="11530" max="11530" width="9.28515625" customWidth="1"/>
-    <col min="11531" max="11531" width="10.140625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.33203125" customWidth="1"/>
+    <col min="11531" max="11531" width="10.1640625" customWidth="1"/>
     <col min="11532" max="11532" width="8" customWidth="1"/>
-    <col min="11767" max="11767" width="30.42578125" customWidth="1"/>
-    <col min="11768" max="11768" width="11.42578125" customWidth="1"/>
+    <col min="11767" max="11767" width="30.5" customWidth="1"/>
+    <col min="11768" max="11768" width="11.5" customWidth="1"/>
     <col min="11769" max="11769" width="8" customWidth="1"/>
-    <col min="11770" max="11770" width="10.28515625" customWidth="1"/>
-    <col min="11771" max="11771" width="8.28515625" customWidth="1"/>
+    <col min="11770" max="11770" width="10.33203125" customWidth="1"/>
+    <col min="11771" max="11771" width="8.33203125" customWidth="1"/>
     <col min="11772" max="11772" width="10" customWidth="1"/>
     <col min="11773" max="11777" width="8" customWidth="1"/>
-    <col min="11778" max="11778" width="8.28515625" customWidth="1"/>
+    <col min="11778" max="11778" width="8.33203125" customWidth="1"/>
     <col min="11779" max="11779" width="9" customWidth="1"/>
-    <col min="11780" max="11780" width="28.140625" customWidth="1"/>
-    <col min="11781" max="11781" width="10.140625" customWidth="1"/>
-    <col min="11783" max="11783" width="11.42578125" customWidth="1"/>
+    <col min="11780" max="11780" width="28.1640625" customWidth="1"/>
+    <col min="11781" max="11781" width="10.1640625" customWidth="1"/>
+    <col min="11783" max="11783" width="11.5" customWidth="1"/>
     <col min="11784" max="11784" width="8" customWidth="1"/>
     <col min="11785" max="11785" width="10" customWidth="1"/>
-    <col min="11786" max="11786" width="9.28515625" customWidth="1"/>
-    <col min="11787" max="11787" width="10.140625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.33203125" customWidth="1"/>
+    <col min="11787" max="11787" width="10.1640625" customWidth="1"/>
     <col min="11788" max="11788" width="8" customWidth="1"/>
-    <col min="12023" max="12023" width="30.42578125" customWidth="1"/>
-    <col min="12024" max="12024" width="11.42578125" customWidth="1"/>
+    <col min="12023" max="12023" width="30.5" customWidth="1"/>
+    <col min="12024" max="12024" width="11.5" customWidth="1"/>
     <col min="12025" max="12025" width="8" customWidth="1"/>
-    <col min="12026" max="12026" width="10.28515625" customWidth="1"/>
-    <col min="12027" max="12027" width="8.28515625" customWidth="1"/>
+    <col min="12026" max="12026" width="10.33203125" customWidth="1"/>
+    <col min="12027" max="12027" width="8.33203125" customWidth="1"/>
     <col min="12028" max="12028" width="10" customWidth="1"/>
     <col min="12029" max="12033" width="8" customWidth="1"/>
-    <col min="12034" max="12034" width="8.28515625" customWidth="1"/>
+    <col min="12034" max="12034" width="8.33203125" customWidth="1"/>
     <col min="12035" max="12035" width="9" customWidth="1"/>
-    <col min="12036" max="12036" width="28.140625" customWidth="1"/>
-    <col min="12037" max="12037" width="10.140625" customWidth="1"/>
-    <col min="12039" max="12039" width="11.42578125" customWidth="1"/>
+    <col min="12036" max="12036" width="28.1640625" customWidth="1"/>
+    <col min="12037" max="12037" width="10.1640625" customWidth="1"/>
+    <col min="12039" max="12039" width="11.5" customWidth="1"/>
     <col min="12040" max="12040" width="8" customWidth="1"/>
     <col min="12041" max="12041" width="10" customWidth="1"/>
-    <col min="12042" max="12042" width="9.28515625" customWidth="1"/>
-    <col min="12043" max="12043" width="10.140625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.33203125" customWidth="1"/>
+    <col min="12043" max="12043" width="10.1640625" customWidth="1"/>
     <col min="12044" max="12044" width="8" customWidth="1"/>
-    <col min="12279" max="12279" width="30.42578125" customWidth="1"/>
-    <col min="12280" max="12280" width="11.42578125" customWidth="1"/>
+    <col min="12279" max="12279" width="30.5" customWidth="1"/>
+    <col min="12280" max="12280" width="11.5" customWidth="1"/>
     <col min="12281" max="12281" width="8" customWidth="1"/>
-    <col min="12282" max="12282" width="10.28515625" customWidth="1"/>
-    <col min="12283" max="12283" width="8.28515625" customWidth="1"/>
+    <col min="12282" max="12282" width="10.33203125" customWidth="1"/>
+    <col min="12283" max="12283" width="8.33203125" customWidth="1"/>
     <col min="12284" max="12284" width="10" customWidth="1"/>
     <col min="12285" max="12289" width="8" customWidth="1"/>
-    <col min="12290" max="12290" width="8.28515625" customWidth="1"/>
+    <col min="12290" max="12290" width="8.33203125" customWidth="1"/>
     <col min="12291" max="12291" width="9" customWidth="1"/>
-    <col min="12292" max="12292" width="28.140625" customWidth="1"/>
-    <col min="12293" max="12293" width="10.140625" customWidth="1"/>
-    <col min="12295" max="12295" width="11.42578125" customWidth="1"/>
+    <col min="12292" max="12292" width="28.1640625" customWidth="1"/>
+    <col min="12293" max="12293" width="10.1640625" customWidth="1"/>
+    <col min="12295" max="12295" width="11.5" customWidth="1"/>
     <col min="12296" max="12296" width="8" customWidth="1"/>
     <col min="12297" max="12297" width="10" customWidth="1"/>
-    <col min="12298" max="12298" width="9.28515625" customWidth="1"/>
-    <col min="12299" max="12299" width="10.140625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.33203125" customWidth="1"/>
+    <col min="12299" max="12299" width="10.1640625" customWidth="1"/>
     <col min="12300" max="12300" width="8" customWidth="1"/>
-    <col min="12535" max="12535" width="30.42578125" customWidth="1"/>
-    <col min="12536" max="12536" width="11.42578125" customWidth="1"/>
+    <col min="12535" max="12535" width="30.5" customWidth="1"/>
+    <col min="12536" max="12536" width="11.5" customWidth="1"/>
     <col min="12537" max="12537" width="8" customWidth="1"/>
-    <col min="12538" max="12538" width="10.28515625" customWidth="1"/>
-    <col min="12539" max="12539" width="8.28515625" customWidth="1"/>
+    <col min="12538" max="12538" width="10.33203125" customWidth="1"/>
+    <col min="12539" max="12539" width="8.33203125" customWidth="1"/>
     <col min="12540" max="12540" width="10" customWidth="1"/>
     <col min="12541" max="12545" width="8" customWidth="1"/>
-    <col min="12546" max="12546" width="8.28515625" customWidth="1"/>
+    <col min="12546" max="12546" width="8.33203125" customWidth="1"/>
     <col min="12547" max="12547" width="9" customWidth="1"/>
-    <col min="12548" max="12548" width="28.140625" customWidth="1"/>
-    <col min="12549" max="12549" width="10.140625" customWidth="1"/>
-    <col min="12551" max="12551" width="11.42578125" customWidth="1"/>
+    <col min="12548" max="12548" width="28.1640625" customWidth="1"/>
+    <col min="12549" max="12549" width="10.1640625" customWidth="1"/>
+    <col min="12551" max="12551" width="11.5" customWidth="1"/>
     <col min="12552" max="12552" width="8" customWidth="1"/>
     <col min="12553" max="12553" width="10" customWidth="1"/>
-    <col min="12554" max="12554" width="9.28515625" customWidth="1"/>
-    <col min="12555" max="12555" width="10.140625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.33203125" customWidth="1"/>
+    <col min="12555" max="12555" width="10.1640625" customWidth="1"/>
     <col min="12556" max="12556" width="8" customWidth="1"/>
-    <col min="12791" max="12791" width="30.42578125" customWidth="1"/>
-    <col min="12792" max="12792" width="11.42578125" customWidth="1"/>
+    <col min="12791" max="12791" width="30.5" customWidth="1"/>
+    <col min="12792" max="12792" width="11.5" customWidth="1"/>
     <col min="12793" max="12793" width="8" customWidth="1"/>
-    <col min="12794" max="12794" width="10.28515625" customWidth="1"/>
-    <col min="12795" max="12795" width="8.28515625" customWidth="1"/>
+    <col min="12794" max="12794" width="10.33203125" customWidth="1"/>
+    <col min="12795" max="12795" width="8.33203125" customWidth="1"/>
     <col min="12796" max="12796" width="10" customWidth="1"/>
     <col min="12797" max="12801" width="8" customWidth="1"/>
-    <col min="12802" max="12802" width="8.28515625" customWidth="1"/>
+    <col min="12802" max="12802" width="8.33203125" customWidth="1"/>
     <col min="12803" max="12803" width="9" customWidth="1"/>
-    <col min="12804" max="12804" width="28.140625" customWidth="1"/>
-    <col min="12805" max="12805" width="10.140625" customWidth="1"/>
-    <col min="12807" max="12807" width="11.42578125" customWidth="1"/>
+    <col min="12804" max="12804" width="28.1640625" customWidth="1"/>
+    <col min="12805" max="12805" width="10.1640625" customWidth="1"/>
+    <col min="12807" max="12807" width="11.5" customWidth="1"/>
     <col min="12808" max="12808" width="8" customWidth="1"/>
     <col min="12809" max="12809" width="10" customWidth="1"/>
-    <col min="12810" max="12810" width="9.28515625" customWidth="1"/>
-    <col min="12811" max="12811" width="10.140625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.33203125" customWidth="1"/>
+    <col min="12811" max="12811" width="10.1640625" customWidth="1"/>
     <col min="12812" max="12812" width="8" customWidth="1"/>
-    <col min="13047" max="13047" width="30.42578125" customWidth="1"/>
-    <col min="13048" max="13048" width="11.42578125" customWidth="1"/>
+    <col min="13047" max="13047" width="30.5" customWidth="1"/>
+    <col min="13048" max="13048" width="11.5" customWidth="1"/>
     <col min="13049" max="13049" width="8" customWidth="1"/>
-    <col min="13050" max="13050" width="10.28515625" customWidth="1"/>
-    <col min="13051" max="13051" width="8.28515625" customWidth="1"/>
+    <col min="13050" max="13050" width="10.33203125" customWidth="1"/>
+    <col min="13051" max="13051" width="8.33203125" customWidth="1"/>
     <col min="13052" max="13052" width="10" customWidth="1"/>
     <col min="13053" max="13057" width="8" customWidth="1"/>
-    <col min="13058" max="13058" width="8.28515625" customWidth="1"/>
+    <col min="13058" max="13058" width="8.33203125" customWidth="1"/>
     <col min="13059" max="13059" width="9" customWidth="1"/>
-    <col min="13060" max="13060" width="28.140625" customWidth="1"/>
-    <col min="13061" max="13061" width="10.140625" customWidth="1"/>
-    <col min="13063" max="13063" width="11.42578125" customWidth="1"/>
+    <col min="13060" max="13060" width="28.1640625" customWidth="1"/>
+    <col min="13061" max="13061" width="10.1640625" customWidth="1"/>
+    <col min="13063" max="13063" width="11.5" customWidth="1"/>
     <col min="13064" max="13064" width="8" customWidth="1"/>
     <col min="13065" max="13065" width="10" customWidth="1"/>
-    <col min="13066" max="13066" width="9.28515625" customWidth="1"/>
-    <col min="13067" max="13067" width="10.140625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.33203125" customWidth="1"/>
+    <col min="13067" max="13067" width="10.1640625" customWidth="1"/>
     <col min="13068" max="13068" width="8" customWidth="1"/>
-    <col min="13303" max="13303" width="30.42578125" customWidth="1"/>
-    <col min="13304" max="13304" width="11.42578125" customWidth="1"/>
+    <col min="13303" max="13303" width="30.5" customWidth="1"/>
+    <col min="13304" max="13304" width="11.5" customWidth="1"/>
     <col min="13305" max="13305" width="8" customWidth="1"/>
-    <col min="13306" max="13306" width="10.28515625" customWidth="1"/>
-    <col min="13307" max="13307" width="8.28515625" customWidth="1"/>
+    <col min="13306" max="13306" width="10.33203125" customWidth="1"/>
+    <col min="13307" max="13307" width="8.33203125" customWidth="1"/>
     <col min="13308" max="13308" width="10" customWidth="1"/>
     <col min="13309" max="13313" width="8" customWidth="1"/>
-    <col min="13314" max="13314" width="8.28515625" customWidth="1"/>
+    <col min="13314" max="13314" width="8.33203125" customWidth="1"/>
     <col min="13315" max="13315" width="9" customWidth="1"/>
-    <col min="13316" max="13316" width="28.140625" customWidth="1"/>
-    <col min="13317" max="13317" width="10.140625" customWidth="1"/>
-    <col min="13319" max="13319" width="11.42578125" customWidth="1"/>
+    <col min="13316" max="13316" width="28.1640625" customWidth="1"/>
+    <col min="13317" max="13317" width="10.1640625" customWidth="1"/>
+    <col min="13319" max="13319" width="11.5" customWidth="1"/>
     <col min="13320" max="13320" width="8" customWidth="1"/>
     <col min="13321" max="13321" width="10" customWidth="1"/>
-    <col min="13322" max="13322" width="9.28515625" customWidth="1"/>
-    <col min="13323" max="13323" width="10.140625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.33203125" customWidth="1"/>
+    <col min="13323" max="13323" width="10.1640625" customWidth="1"/>
     <col min="13324" max="13324" width="8" customWidth="1"/>
-    <col min="13559" max="13559" width="30.42578125" customWidth="1"/>
-    <col min="13560" max="13560" width="11.42578125" customWidth="1"/>
+    <col min="13559" max="13559" width="30.5" customWidth="1"/>
+    <col min="13560" max="13560" width="11.5" customWidth="1"/>
     <col min="13561" max="13561" width="8" customWidth="1"/>
-    <col min="13562" max="13562" width="10.28515625" customWidth="1"/>
-    <col min="13563" max="13563" width="8.28515625" customWidth="1"/>
+    <col min="13562" max="13562" width="10.33203125" customWidth="1"/>
+    <col min="13563" max="13563" width="8.33203125" customWidth="1"/>
     <col min="13564" max="13564" width="10" customWidth="1"/>
     <col min="13565" max="13569" width="8" customWidth="1"/>
-    <col min="13570" max="13570" width="8.28515625" customWidth="1"/>
+    <col min="13570" max="13570" width="8.33203125" customWidth="1"/>
     <col min="13571" max="13571" width="9" customWidth="1"/>
-    <col min="13572" max="13572" width="28.140625" customWidth="1"/>
-    <col min="13573" max="13573" width="10.140625" customWidth="1"/>
-    <col min="13575" max="13575" width="11.42578125" customWidth="1"/>
+    <col min="13572" max="13572" width="28.1640625" customWidth="1"/>
+    <col min="13573" max="13573" width="10.1640625" customWidth="1"/>
+    <col min="13575" max="13575" width="11.5" customWidth="1"/>
     <col min="13576" max="13576" width="8" customWidth="1"/>
     <col min="13577" max="13577" width="10" customWidth="1"/>
-    <col min="13578" max="13578" width="9.28515625" customWidth="1"/>
-    <col min="13579" max="13579" width="10.140625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.33203125" customWidth="1"/>
+    <col min="13579" max="13579" width="10.1640625" customWidth="1"/>
     <col min="13580" max="13580" width="8" customWidth="1"/>
-    <col min="13815" max="13815" width="30.42578125" customWidth="1"/>
-    <col min="13816" max="13816" width="11.42578125" customWidth="1"/>
+    <col min="13815" max="13815" width="30.5" customWidth="1"/>
+    <col min="13816" max="13816" width="11.5" customWidth="1"/>
     <col min="13817" max="13817" width="8" customWidth="1"/>
-    <col min="13818" max="13818" width="10.28515625" customWidth="1"/>
-    <col min="13819" max="13819" width="8.28515625" customWidth="1"/>
+    <col min="13818" max="13818" width="10.33203125" customWidth="1"/>
+    <col min="13819" max="13819" width="8.33203125" customWidth="1"/>
     <col min="13820" max="13820" width="10" customWidth="1"/>
     <col min="13821" max="13825" width="8" customWidth="1"/>
-    <col min="13826" max="13826" width="8.28515625" customWidth="1"/>
+    <col min="13826" max="13826" width="8.33203125" customWidth="1"/>
     <col min="13827" max="13827" width="9" customWidth="1"/>
-    <col min="13828" max="13828" width="28.140625" customWidth="1"/>
-    <col min="13829" max="13829" width="10.140625" customWidth="1"/>
-    <col min="13831" max="13831" width="11.42578125" customWidth="1"/>
+    <col min="13828" max="13828" width="28.1640625" customWidth="1"/>
+    <col min="13829" max="13829" width="10.1640625" customWidth="1"/>
+    <col min="13831" max="13831" width="11.5" customWidth="1"/>
     <col min="13832" max="13832" width="8" customWidth="1"/>
     <col min="13833" max="13833" width="10" customWidth="1"/>
-    <col min="13834" max="13834" width="9.28515625" customWidth="1"/>
-    <col min="13835" max="13835" width="10.140625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.33203125" customWidth="1"/>
+    <col min="13835" max="13835" width="10.1640625" customWidth="1"/>
     <col min="13836" max="13836" width="8" customWidth="1"/>
-    <col min="14071" max="14071" width="30.42578125" customWidth="1"/>
-    <col min="14072" max="14072" width="11.42578125" customWidth="1"/>
+    <col min="14071" max="14071" width="30.5" customWidth="1"/>
+    <col min="14072" max="14072" width="11.5" customWidth="1"/>
     <col min="14073" max="14073" width="8" customWidth="1"/>
-    <col min="14074" max="14074" width="10.28515625" customWidth="1"/>
-    <col min="14075" max="14075" width="8.28515625" customWidth="1"/>
+    <col min="14074" max="14074" width="10.33203125" customWidth="1"/>
+    <col min="14075" max="14075" width="8.33203125" customWidth="1"/>
     <col min="14076" max="14076" width="10" customWidth="1"/>
     <col min="14077" max="14081" width="8" customWidth="1"/>
-    <col min="14082" max="14082" width="8.28515625" customWidth="1"/>
+    <col min="14082" max="14082" width="8.33203125" customWidth="1"/>
     <col min="14083" max="14083" width="9" customWidth="1"/>
-    <col min="14084" max="14084" width="28.140625" customWidth="1"/>
-    <col min="14085" max="14085" width="10.140625" customWidth="1"/>
-    <col min="14087" max="14087" width="11.42578125" customWidth="1"/>
+    <col min="14084" max="14084" width="28.1640625" customWidth="1"/>
+    <col min="14085" max="14085" width="10.1640625" customWidth="1"/>
+    <col min="14087" max="14087" width="11.5" customWidth="1"/>
     <col min="14088" max="14088" width="8" customWidth="1"/>
     <col min="14089" max="14089" width="10" customWidth="1"/>
-    <col min="14090" max="14090" width="9.28515625" customWidth="1"/>
-    <col min="14091" max="14091" width="10.140625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.33203125" customWidth="1"/>
+    <col min="14091" max="14091" width="10.1640625" customWidth="1"/>
     <col min="14092" max="14092" width="8" customWidth="1"/>
-    <col min="14327" max="14327" width="30.42578125" customWidth="1"/>
-    <col min="14328" max="14328" width="11.42578125" customWidth="1"/>
+    <col min="14327" max="14327" width="30.5" customWidth="1"/>
+    <col min="14328" max="14328" width="11.5" customWidth="1"/>
     <col min="14329" max="14329" width="8" customWidth="1"/>
-    <col min="14330" max="14330" width="10.28515625" customWidth="1"/>
-    <col min="14331" max="14331" width="8.28515625" customWidth="1"/>
+    <col min="14330" max="14330" width="10.33203125" customWidth="1"/>
+    <col min="14331" max="14331" width="8.33203125" customWidth="1"/>
     <col min="14332" max="14332" width="10" customWidth="1"/>
     <col min="14333" max="14337" width="8" customWidth="1"/>
-    <col min="14338" max="14338" width="8.28515625" customWidth="1"/>
+    <col min="14338" max="14338" width="8.33203125" customWidth="1"/>
     <col min="14339" max="14339" width="9" customWidth="1"/>
-    <col min="14340" max="14340" width="28.140625" customWidth="1"/>
-    <col min="14341" max="14341" width="10.140625" customWidth="1"/>
-    <col min="14343" max="14343" width="11.42578125" customWidth="1"/>
+    <col min="14340" max="14340" width="28.1640625" customWidth="1"/>
+    <col min="14341" max="14341" width="10.1640625" customWidth="1"/>
+    <col min="14343" max="14343" width="11.5" customWidth="1"/>
     <col min="14344" max="14344" width="8" customWidth="1"/>
     <col min="14345" max="14345" width="10" customWidth="1"/>
-    <col min="14346" max="14346" width="9.28515625" customWidth="1"/>
-    <col min="14347" max="14347" width="10.140625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.33203125" customWidth="1"/>
+    <col min="14347" max="14347" width="10.1640625" customWidth="1"/>
     <col min="14348" max="14348" width="8" customWidth="1"/>
-    <col min="14583" max="14583" width="30.42578125" customWidth="1"/>
-    <col min="14584" max="14584" width="11.42578125" customWidth="1"/>
+    <col min="14583" max="14583" width="30.5" customWidth="1"/>
+    <col min="14584" max="14584" width="11.5" customWidth="1"/>
     <col min="14585" max="14585" width="8" customWidth="1"/>
-    <col min="14586" max="14586" width="10.28515625" customWidth="1"/>
-    <col min="14587" max="14587" width="8.28515625" customWidth="1"/>
+    <col min="14586" max="14586" width="10.33203125" customWidth="1"/>
+    <col min="14587" max="14587" width="8.33203125" customWidth="1"/>
     <col min="14588" max="14588" width="10" customWidth="1"/>
     <col min="14589" max="14593" width="8" customWidth="1"/>
-    <col min="14594" max="14594" width="8.28515625" customWidth="1"/>
+    <col min="14594" max="14594" width="8.33203125" customWidth="1"/>
     <col min="14595" max="14595" width="9" customWidth="1"/>
-    <col min="14596" max="14596" width="28.140625" customWidth="1"/>
-    <col min="14597" max="14597" width="10.140625" customWidth="1"/>
-    <col min="14599" max="14599" width="11.42578125" customWidth="1"/>
+    <col min="14596" max="14596" width="28.1640625" customWidth="1"/>
+    <col min="14597" max="14597" width="10.1640625" customWidth="1"/>
+    <col min="14599" max="14599" width="11.5" customWidth="1"/>
     <col min="14600" max="14600" width="8" customWidth="1"/>
     <col min="14601" max="14601" width="10" customWidth="1"/>
-    <col min="14602" max="14602" width="9.28515625" customWidth="1"/>
-    <col min="14603" max="14603" width="10.140625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.33203125" customWidth="1"/>
+    <col min="14603" max="14603" width="10.1640625" customWidth="1"/>
     <col min="14604" max="14604" width="8" customWidth="1"/>
-    <col min="14839" max="14839" width="30.42578125" customWidth="1"/>
-    <col min="14840" max="14840" width="11.42578125" customWidth="1"/>
+    <col min="14839" max="14839" width="30.5" customWidth="1"/>
+    <col min="14840" max="14840" width="11.5" customWidth="1"/>
     <col min="14841" max="14841" width="8" customWidth="1"/>
-    <col min="14842" max="14842" width="10.28515625" customWidth="1"/>
-    <col min="14843" max="14843" width="8.28515625" customWidth="1"/>
+    <col min="14842" max="14842" width="10.33203125" customWidth="1"/>
+    <col min="14843" max="14843" width="8.33203125" customWidth="1"/>
     <col min="14844" max="14844" width="10" customWidth="1"/>
     <col min="14845" max="14849" width="8" customWidth="1"/>
-    <col min="14850" max="14850" width="8.28515625" customWidth="1"/>
+    <col min="14850" max="14850" width="8.33203125" customWidth="1"/>
     <col min="14851" max="14851" width="9" customWidth="1"/>
-    <col min="14852" max="14852" width="28.140625" customWidth="1"/>
-    <col min="14853" max="14853" width="10.140625" customWidth="1"/>
-    <col min="14855" max="14855" width="11.42578125" customWidth="1"/>
+    <col min="14852" max="14852" width="28.1640625" customWidth="1"/>
+    <col min="14853" max="14853" width="10.1640625" customWidth="1"/>
+    <col min="14855" max="14855" width="11.5" customWidth="1"/>
     <col min="14856" max="14856" width="8" customWidth="1"/>
     <col min="14857" max="14857" width="10" customWidth="1"/>
-    <col min="14858" max="14858" width="9.28515625" customWidth="1"/>
-    <col min="14859" max="14859" width="10.140625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.33203125" customWidth="1"/>
+    <col min="14859" max="14859" width="10.1640625" customWidth="1"/>
     <col min="14860" max="14860" width="8" customWidth="1"/>
-    <col min="15095" max="15095" width="30.42578125" customWidth="1"/>
-    <col min="15096" max="15096" width="11.42578125" customWidth="1"/>
+    <col min="15095" max="15095" width="30.5" customWidth="1"/>
+    <col min="15096" max="15096" width="11.5" customWidth="1"/>
     <col min="15097" max="15097" width="8" customWidth="1"/>
-    <col min="15098" max="15098" width="10.28515625" customWidth="1"/>
-    <col min="15099" max="15099" width="8.28515625" customWidth="1"/>
+    <col min="15098" max="15098" width="10.33203125" customWidth="1"/>
+    <col min="15099" max="15099" width="8.33203125" customWidth="1"/>
     <col min="15100" max="15100" width="10" customWidth="1"/>
     <col min="15101" max="15105" width="8" customWidth="1"/>
-    <col min="15106" max="15106" width="8.28515625" customWidth="1"/>
+    <col min="15106" max="15106" width="8.33203125" customWidth="1"/>
     <col min="15107" max="15107" width="9" customWidth="1"/>
-    <col min="15108" max="15108" width="28.140625" customWidth="1"/>
-    <col min="15109" max="15109" width="10.140625" customWidth="1"/>
-    <col min="15111" max="15111" width="11.42578125" customWidth="1"/>
+    <col min="15108" max="15108" width="28.1640625" customWidth="1"/>
+    <col min="15109" max="15109" width="10.1640625" customWidth="1"/>
+    <col min="15111" max="15111" width="11.5" customWidth="1"/>
     <col min="15112" max="15112" width="8" customWidth="1"/>
     <col min="15113" max="15113" width="10" customWidth="1"/>
-    <col min="15114" max="15114" width="9.28515625" customWidth="1"/>
-    <col min="15115" max="15115" width="10.140625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.33203125" customWidth="1"/>
+    <col min="15115" max="15115" width="10.1640625" customWidth="1"/>
     <col min="15116" max="15116" width="8" customWidth="1"/>
-    <col min="15351" max="15351" width="30.42578125" customWidth="1"/>
-    <col min="15352" max="15352" width="11.42578125" customWidth="1"/>
+    <col min="15351" max="15351" width="30.5" customWidth="1"/>
+    <col min="15352" max="15352" width="11.5" customWidth="1"/>
     <col min="15353" max="15353" width="8" customWidth="1"/>
-    <col min="15354" max="15354" width="10.28515625" customWidth="1"/>
-    <col min="15355" max="15355" width="8.28515625" customWidth="1"/>
+    <col min="15354" max="15354" width="10.33203125" customWidth="1"/>
+    <col min="15355" max="15355" width="8.33203125" customWidth="1"/>
     <col min="15356" max="15356" width="10" customWidth="1"/>
     <col min="15357" max="15361" width="8" customWidth="1"/>
-    <col min="15362" max="15362" width="8.28515625" customWidth="1"/>
+    <col min="15362" max="15362" width="8.33203125" customWidth="1"/>
     <col min="15363" max="15363" width="9" customWidth="1"/>
-    <col min="15364" max="15364" width="28.140625" customWidth="1"/>
-    <col min="15365" max="15365" width="10.140625" customWidth="1"/>
-    <col min="15367" max="15367" width="11.42578125" customWidth="1"/>
+    <col min="15364" max="15364" width="28.1640625" customWidth="1"/>
+    <col min="15365" max="15365" width="10.1640625" customWidth="1"/>
+    <col min="15367" max="15367" width="11.5" customWidth="1"/>
     <col min="15368" max="15368" width="8" customWidth="1"/>
     <col min="15369" max="15369" width="10" customWidth="1"/>
-    <col min="15370" max="15370" width="9.28515625" customWidth="1"/>
-    <col min="15371" max="15371" width="10.140625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.33203125" customWidth="1"/>
+    <col min="15371" max="15371" width="10.1640625" customWidth="1"/>
     <col min="15372" max="15372" width="8" customWidth="1"/>
-    <col min="15607" max="15607" width="30.42578125" customWidth="1"/>
-    <col min="15608" max="15608" width="11.42578125" customWidth="1"/>
+    <col min="15607" max="15607" width="30.5" customWidth="1"/>
+    <col min="15608" max="15608" width="11.5" customWidth="1"/>
     <col min="15609" max="15609" width="8" customWidth="1"/>
-    <col min="15610" max="15610" width="10.28515625" customWidth="1"/>
-    <col min="15611" max="15611" width="8.28515625" customWidth="1"/>
+    <col min="15610" max="15610" width="10.33203125" customWidth="1"/>
+    <col min="15611" max="15611" width="8.33203125" customWidth="1"/>
     <col min="15612" max="15612" width="10" customWidth="1"/>
     <col min="15613" max="15617" width="8" customWidth="1"/>
-    <col min="15618" max="15618" width="8.28515625" customWidth="1"/>
+    <col min="15618" max="15618" width="8.33203125" customWidth="1"/>
     <col min="15619" max="15619" width="9" customWidth="1"/>
-    <col min="15620" max="15620" width="28.140625" customWidth="1"/>
-    <col min="15621" max="15621" width="10.140625" customWidth="1"/>
-    <col min="15623" max="15623" width="11.42578125" customWidth="1"/>
+    <col min="15620" max="15620" width="28.1640625" customWidth="1"/>
+    <col min="15621" max="15621" width="10.1640625" customWidth="1"/>
+    <col min="15623" max="15623" width="11.5" customWidth="1"/>
     <col min="15624" max="15624" width="8" customWidth="1"/>
     <col min="15625" max="15625" width="10" customWidth="1"/>
-    <col min="15626" max="15626" width="9.28515625" customWidth="1"/>
-    <col min="15627" max="15627" width="10.140625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.33203125" customWidth="1"/>
+    <col min="15627" max="15627" width="10.1640625" customWidth="1"/>
     <col min="15628" max="15628" width="8" customWidth="1"/>
-    <col min="15863" max="15863" width="30.42578125" customWidth="1"/>
-    <col min="15864" max="15864" width="11.42578125" customWidth="1"/>
+    <col min="15863" max="15863" width="30.5" customWidth="1"/>
+    <col min="15864" max="15864" width="11.5" customWidth="1"/>
     <col min="15865" max="15865" width="8" customWidth="1"/>
-    <col min="15866" max="15866" width="10.28515625" customWidth="1"/>
-    <col min="15867" max="15867" width="8.28515625" customWidth="1"/>
+    <col min="15866" max="15866" width="10.33203125" customWidth="1"/>
+    <col min="15867" max="15867" width="8.33203125" customWidth="1"/>
     <col min="15868" max="15868" width="10" customWidth="1"/>
     <col min="15869" max="15873" width="8" customWidth="1"/>
-    <col min="15874" max="15874" width="8.28515625" customWidth="1"/>
+    <col min="15874" max="15874" width="8.33203125" customWidth="1"/>
     <col min="15875" max="15875" width="9" customWidth="1"/>
-    <col min="15876" max="15876" width="28.140625" customWidth="1"/>
-    <col min="15877" max="15877" width="10.140625" customWidth="1"/>
-    <col min="15879" max="15879" width="11.42578125" customWidth="1"/>
+    <col min="15876" max="15876" width="28.1640625" customWidth="1"/>
+    <col min="15877" max="15877" width="10.1640625" customWidth="1"/>
+    <col min="15879" max="15879" width="11.5" customWidth="1"/>
     <col min="15880" max="15880" width="8" customWidth="1"/>
     <col min="15881" max="15881" width="10" customWidth="1"/>
-    <col min="15882" max="15882" width="9.28515625" customWidth="1"/>
-    <col min="15883" max="15883" width="10.140625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.33203125" customWidth="1"/>
+    <col min="15883" max="15883" width="10.1640625" customWidth="1"/>
     <col min="15884" max="15884" width="8" customWidth="1"/>
-    <col min="16119" max="16119" width="30.42578125" customWidth="1"/>
-    <col min="16120" max="16120" width="11.42578125" customWidth="1"/>
+    <col min="16119" max="16119" width="30.5" customWidth="1"/>
+    <col min="16120" max="16120" width="11.5" customWidth="1"/>
     <col min="16121" max="16121" width="8" customWidth="1"/>
-    <col min="16122" max="16122" width="10.28515625" customWidth="1"/>
-    <col min="16123" max="16123" width="8.28515625" customWidth="1"/>
+    <col min="16122" max="16122" width="10.33203125" customWidth="1"/>
+    <col min="16123" max="16123" width="8.33203125" customWidth="1"/>
     <col min="16124" max="16124" width="10" customWidth="1"/>
     <col min="16125" max="16129" width="8" customWidth="1"/>
-    <col min="16130" max="16130" width="8.28515625" customWidth="1"/>
+    <col min="16130" max="16130" width="8.33203125" customWidth="1"/>
     <col min="16131" max="16131" width="9" customWidth="1"/>
-    <col min="16132" max="16132" width="28.140625" customWidth="1"/>
-    <col min="16133" max="16133" width="10.140625" customWidth="1"/>
-    <col min="16135" max="16135" width="11.42578125" customWidth="1"/>
+    <col min="16132" max="16132" width="28.1640625" customWidth="1"/>
+    <col min="16133" max="16133" width="10.1640625" customWidth="1"/>
+    <col min="16135" max="16135" width="11.5" customWidth="1"/>
     <col min="16136" max="16136" width="8" customWidth="1"/>
     <col min="16137" max="16137" width="10" customWidth="1"/>
-    <col min="16138" max="16138" width="9.28515625" customWidth="1"/>
-    <col min="16139" max="16139" width="10.140625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.33203125" customWidth="1"/>
+    <col min="16139" max="16139" width="10.1640625" customWidth="1"/>
     <col min="16140" max="16140" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -40054,7 +40027,7 @@
       <c r="IH1" s="36"/>
       <c r="II1" s="36"/>
     </row>
-    <row r="2" spans="1:243" ht="17.399999999999999" customHeight="1">
+    <row r="2" spans="1:243" ht="17.45" customHeight="1">
       <c r="A2" s="63" t="str">
         <f>'Övergripande statistik'!A2</f>
         <v>Avlidna i covid-19 enligt dödsorsaksintyg inkomna fram till den 14 mars 2021</v>
@@ -40302,7 +40275,7 @@
       <c r="IH2"/>
       <c r="II2"/>
     </row>
-    <row r="3" spans="1:243" ht="35.4" customHeight="1">
+    <row r="3" spans="1:243" ht="35.450000000000003" customHeight="1">
       <c r="A3" s="307" t="s">
         <v>191</v>
       </c>
@@ -40549,7 +40522,7 @@
       <c r="IH3"/>
       <c r="II3"/>
     </row>
-    <row r="4" spans="1:243" ht="12">
+    <row r="4" spans="1:243">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -40794,7 +40767,7 @@
       <c r="IH4"/>
       <c r="II4"/>
     </row>
-    <row r="5" spans="1:243" ht="11.4" thickBot="1">
+    <row r="5" spans="1:243" ht="14.25" thickBot="1">
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -40823,7 +40796,7 @@
       <c r="IH5"/>
       <c r="II5"/>
     </row>
-    <row r="6" spans="1:243" ht="11.4" thickTop="1">
+    <row r="6" spans="1:243" ht="14.25" thickTop="1">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="321" t="s">
@@ -42761,7 +42734,7 @@
       </c>
       <c r="Q36" s="83"/>
     </row>
-    <row r="37" spans="1:255" ht="11.4" thickBot="1">
+    <row r="37" spans="1:255" ht="14.25" thickBot="1">
       <c r="A37" s="316"/>
       <c r="B37" s="57" t="s">
         <v>147</v>
@@ -42810,12 +42783,12 @@
       </c>
       <c r="Q37" s="83"/>
     </row>
-    <row r="38" spans="1:255" ht="12" thickTop="1">
+    <row r="38" spans="1:255" ht="14.25" thickTop="1">
       <c r="A38" s="128" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:255" ht="11.4">
+    <row r="39" spans="1:255">
       <c r="A39" s="129" t="s">
         <v>148</v>
       </c>
@@ -43788,1084 +43761,1084 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="37" customWidth="1"/>
     <col min="2" max="2" width="39" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="7.140625" style="37" customWidth="1"/>
-    <col min="8" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="16" width="7.140625" style="37" customWidth="1"/>
+    <col min="3" max="7" width="7.1640625" style="37" customWidth="1"/>
+    <col min="8" max="11" width="7.1640625" customWidth="1"/>
+    <col min="12" max="16" width="7.1640625" style="37" customWidth="1"/>
     <col min="17" max="243" width="9" style="37"/>
-    <col min="247" max="247" width="30.42578125" customWidth="1"/>
-    <col min="248" max="248" width="11.42578125" customWidth="1"/>
+    <col min="247" max="247" width="30.5" customWidth="1"/>
+    <col min="248" max="248" width="11.5" customWidth="1"/>
     <col min="249" max="249" width="8" customWidth="1"/>
-    <col min="250" max="250" width="10.28515625" customWidth="1"/>
-    <col min="251" max="251" width="8.28515625" customWidth="1"/>
+    <col min="250" max="250" width="10.33203125" customWidth="1"/>
+    <col min="251" max="251" width="8.33203125" customWidth="1"/>
     <col min="252" max="252" width="10" customWidth="1"/>
     <col min="253" max="257" width="8" customWidth="1"/>
-    <col min="258" max="258" width="8.28515625" customWidth="1"/>
+    <col min="258" max="258" width="8.33203125" customWidth="1"/>
     <col min="259" max="259" width="9" customWidth="1"/>
-    <col min="260" max="260" width="28.140625" customWidth="1"/>
-    <col min="261" max="261" width="10.140625" customWidth="1"/>
-    <col min="263" max="263" width="11.42578125" customWidth="1"/>
+    <col min="260" max="260" width="28.1640625" customWidth="1"/>
+    <col min="261" max="261" width="10.1640625" customWidth="1"/>
+    <col min="263" max="263" width="11.5" customWidth="1"/>
     <col min="264" max="264" width="8" customWidth="1"/>
     <col min="265" max="265" width="10" customWidth="1"/>
-    <col min="266" max="266" width="9.28515625" customWidth="1"/>
-    <col min="267" max="267" width="10.140625" customWidth="1"/>
+    <col min="266" max="266" width="9.33203125" customWidth="1"/>
+    <col min="267" max="267" width="10.1640625" customWidth="1"/>
     <col min="268" max="268" width="8" customWidth="1"/>
-    <col min="503" max="503" width="30.42578125" customWidth="1"/>
-    <col min="504" max="504" width="11.42578125" customWidth="1"/>
+    <col min="503" max="503" width="30.5" customWidth="1"/>
+    <col min="504" max="504" width="11.5" customWidth="1"/>
     <col min="505" max="505" width="8" customWidth="1"/>
-    <col min="506" max="506" width="10.28515625" customWidth="1"/>
-    <col min="507" max="507" width="8.28515625" customWidth="1"/>
+    <col min="506" max="506" width="10.33203125" customWidth="1"/>
+    <col min="507" max="507" width="8.33203125" customWidth="1"/>
     <col min="508" max="508" width="10" customWidth="1"/>
     <col min="509" max="513" width="8" customWidth="1"/>
-    <col min="514" max="514" width="8.28515625" customWidth="1"/>
+    <col min="514" max="514" width="8.33203125" customWidth="1"/>
     <col min="515" max="515" width="9" customWidth="1"/>
-    <col min="516" max="516" width="28.140625" customWidth="1"/>
-    <col min="517" max="517" width="10.140625" customWidth="1"/>
-    <col min="519" max="519" width="11.42578125" customWidth="1"/>
+    <col min="516" max="516" width="28.1640625" customWidth="1"/>
+    <col min="517" max="517" width="10.1640625" customWidth="1"/>
+    <col min="519" max="519" width="11.5" customWidth="1"/>
     <col min="520" max="520" width="8" customWidth="1"/>
     <col min="521" max="521" width="10" customWidth="1"/>
-    <col min="522" max="522" width="9.28515625" customWidth="1"/>
-    <col min="523" max="523" width="10.140625" customWidth="1"/>
+    <col min="522" max="522" width="9.33203125" customWidth="1"/>
+    <col min="523" max="523" width="10.1640625" customWidth="1"/>
     <col min="524" max="524" width="8" customWidth="1"/>
-    <col min="759" max="759" width="30.42578125" customWidth="1"/>
-    <col min="760" max="760" width="11.42578125" customWidth="1"/>
+    <col min="759" max="759" width="30.5" customWidth="1"/>
+    <col min="760" max="760" width="11.5" customWidth="1"/>
     <col min="761" max="761" width="8" customWidth="1"/>
-    <col min="762" max="762" width="10.28515625" customWidth="1"/>
-    <col min="763" max="763" width="8.28515625" customWidth="1"/>
+    <col min="762" max="762" width="10.33203125" customWidth="1"/>
+    <col min="763" max="763" width="8.33203125" customWidth="1"/>
     <col min="764" max="764" width="10" customWidth="1"/>
     <col min="765" max="769" width="8" customWidth="1"/>
-    <col min="770" max="770" width="8.28515625" customWidth="1"/>
+    <col min="770" max="770" width="8.33203125" customWidth="1"/>
     <col min="771" max="771" width="9" customWidth="1"/>
-    <col min="772" max="772" width="28.140625" customWidth="1"/>
-    <col min="773" max="773" width="10.140625" customWidth="1"/>
-    <col min="775" max="775" width="11.42578125" customWidth="1"/>
+    <col min="772" max="772" width="28.1640625" customWidth="1"/>
+    <col min="773" max="773" width="10.1640625" customWidth="1"/>
+    <col min="775" max="775" width="11.5" customWidth="1"/>
     <col min="776" max="776" width="8" customWidth="1"/>
     <col min="777" max="777" width="10" customWidth="1"/>
-    <col min="778" max="778" width="9.28515625" customWidth="1"/>
-    <col min="779" max="779" width="10.140625" customWidth="1"/>
+    <col min="778" max="778" width="9.33203125" customWidth="1"/>
+    <col min="779" max="779" width="10.1640625" customWidth="1"/>
     <col min="780" max="780" width="8" customWidth="1"/>
-    <col min="1015" max="1015" width="30.42578125" customWidth="1"/>
-    <col min="1016" max="1016" width="11.42578125" customWidth="1"/>
+    <col min="1015" max="1015" width="30.5" customWidth="1"/>
+    <col min="1016" max="1016" width="11.5" customWidth="1"/>
     <col min="1017" max="1017" width="8" customWidth="1"/>
-    <col min="1018" max="1018" width="10.28515625" customWidth="1"/>
-    <col min="1019" max="1019" width="8.28515625" customWidth="1"/>
+    <col min="1018" max="1018" width="10.33203125" customWidth="1"/>
+    <col min="1019" max="1019" width="8.33203125" customWidth="1"/>
     <col min="1020" max="1020" width="10" customWidth="1"/>
     <col min="1021" max="1025" width="8" customWidth="1"/>
-    <col min="1026" max="1026" width="8.28515625" customWidth="1"/>
+    <col min="1026" max="1026" width="8.33203125" customWidth="1"/>
     <col min="1027" max="1027" width="9" customWidth="1"/>
-    <col min="1028" max="1028" width="28.140625" customWidth="1"/>
-    <col min="1029" max="1029" width="10.140625" customWidth="1"/>
-    <col min="1031" max="1031" width="11.42578125" customWidth="1"/>
+    <col min="1028" max="1028" width="28.1640625" customWidth="1"/>
+    <col min="1029" max="1029" width="10.1640625" customWidth="1"/>
+    <col min="1031" max="1031" width="11.5" customWidth="1"/>
     <col min="1032" max="1032" width="8" customWidth="1"/>
     <col min="1033" max="1033" width="10" customWidth="1"/>
-    <col min="1034" max="1034" width="9.28515625" customWidth="1"/>
-    <col min="1035" max="1035" width="10.140625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.33203125" customWidth="1"/>
+    <col min="1035" max="1035" width="10.1640625" customWidth="1"/>
     <col min="1036" max="1036" width="8" customWidth="1"/>
-    <col min="1271" max="1271" width="30.42578125" customWidth="1"/>
-    <col min="1272" max="1272" width="11.42578125" customWidth="1"/>
+    <col min="1271" max="1271" width="30.5" customWidth="1"/>
+    <col min="1272" max="1272" width="11.5" customWidth="1"/>
     <col min="1273" max="1273" width="8" customWidth="1"/>
-    <col min="1274" max="1274" width="10.28515625" customWidth="1"/>
-    <col min="1275" max="1275" width="8.28515625" customWidth="1"/>
+    <col min="1274" max="1274" width="10.33203125" customWidth="1"/>
+    <col min="1275" max="1275" width="8.33203125" customWidth="1"/>
     <col min="1276" max="1276" width="10" customWidth="1"/>
     <col min="1277" max="1281" width="8" customWidth="1"/>
-    <col min="1282" max="1282" width="8.28515625" customWidth="1"/>
+    <col min="1282" max="1282" width="8.33203125" customWidth="1"/>
     <col min="1283" max="1283" width="9" customWidth="1"/>
-    <col min="1284" max="1284" width="28.140625" customWidth="1"/>
-    <col min="1285" max="1285" width="10.140625" customWidth="1"/>
-    <col min="1287" max="1287" width="11.42578125" customWidth="1"/>
+    <col min="1284" max="1284" width="28.1640625" customWidth="1"/>
+    <col min="1285" max="1285" width="10.1640625" customWidth="1"/>
+    <col min="1287" max="1287" width="11.5" customWidth="1"/>
     <col min="1288" max="1288" width="8" customWidth="1"/>
     <col min="1289" max="1289" width="10" customWidth="1"/>
-    <col min="1290" max="1290" width="9.28515625" customWidth="1"/>
-    <col min="1291" max="1291" width="10.140625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.33203125" customWidth="1"/>
+    <col min="1291" max="1291" width="10.1640625" customWidth="1"/>
     <col min="1292" max="1292" width="8" customWidth="1"/>
-    <col min="1527" max="1527" width="30.42578125" customWidth="1"/>
-    <col min="1528" max="1528" width="11.42578125" customWidth="1"/>
+    <col min="1527" max="1527" width="30.5" customWidth="1"/>
+    <col min="1528" max="1528" width="11.5" customWidth="1"/>
     <col min="1529" max="1529" width="8" customWidth="1"/>
-    <col min="1530" max="1530" width="10.28515625" customWidth="1"/>
-    <col min="1531" max="1531" width="8.28515625" customWidth="1"/>
+    <col min="1530" max="1530" width="10.33203125" customWidth="1"/>
+    <col min="1531" max="1531" width="8.33203125" customWidth="1"/>
     <col min="1532" max="1532" width="10" customWidth="1"/>
     <col min="1533" max="1537" width="8" customWidth="1"/>
-    <col min="1538" max="1538" width="8.28515625" customWidth="1"/>
+    <col min="1538" max="1538" width="8.33203125" customWidth="1"/>
     <col min="1539" max="1539" width="9" customWidth="1"/>
-    <col min="1540" max="1540" width="28.140625" customWidth="1"/>
-    <col min="1541" max="1541" width="10.140625" customWidth="1"/>
-    <col min="1543" max="1543" width="11.42578125" customWidth="1"/>
+    <col min="1540" max="1540" width="28.1640625" customWidth="1"/>
+    <col min="1541" max="1541" width="10.1640625" customWidth="1"/>
+    <col min="1543" max="1543" width="11.5" customWidth="1"/>
     <col min="1544" max="1544" width="8" customWidth="1"/>
     <col min="1545" max="1545" width="10" customWidth="1"/>
-    <col min="1546" max="1546" width="9.28515625" customWidth="1"/>
-    <col min="1547" max="1547" width="10.140625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.33203125" customWidth="1"/>
+    <col min="1547" max="1547" width="10.1640625" customWidth="1"/>
     <col min="1548" max="1548" width="8" customWidth="1"/>
-    <col min="1783" max="1783" width="30.42578125" customWidth="1"/>
-    <col min="1784" max="1784" width="11.42578125" customWidth="1"/>
+    <col min="1783" max="1783" width="30.5" customWidth="1"/>
+    <col min="1784" max="1784" width="11.5" customWidth="1"/>
     <col min="1785" max="1785" width="8" customWidth="1"/>
-    <col min="1786" max="1786" width="10.28515625" customWidth="1"/>
-    <col min="1787" max="1787" width="8.28515625" customWidth="1"/>
+    <col min="1786" max="1786" width="10.33203125" customWidth="1"/>
+    <col min="1787" max="1787" width="8.33203125" customWidth="1"/>
     <col min="1788" max="1788" width="10" customWidth="1"/>
     <col min="1789" max="1793" width="8" customWidth="1"/>
-    <col min="1794" max="1794" width="8.28515625" customWidth="1"/>
+    <col min="1794" max="1794" width="8.33203125" customWidth="1"/>
     <col min="1795" max="1795" width="9" customWidth="1"/>
-    <col min="1796" max="1796" width="28.140625" customWidth="1"/>
-    <col min="1797" max="1797" width="10.140625" customWidth="1"/>
-    <col min="1799" max="1799" width="11.42578125" customWidth="1"/>
+    <col min="1796" max="1796" width="28.1640625" customWidth="1"/>
+    <col min="1797" max="1797" width="10.1640625" customWidth="1"/>
+    <col min="1799" max="1799" width="11.5" customWidth="1"/>
     <col min="1800" max="1800" width="8" customWidth="1"/>
     <col min="1801" max="1801" width="10" customWidth="1"/>
-    <col min="1802" max="1802" width="9.28515625" customWidth="1"/>
-    <col min="1803" max="1803" width="10.140625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.33203125" customWidth="1"/>
+    <col min="1803" max="1803" width="10.1640625" customWidth="1"/>
     <col min="1804" max="1804" width="8" customWidth="1"/>
-    <col min="2039" max="2039" width="30.42578125" customWidth="1"/>
-    <col min="2040" max="2040" width="11.42578125" customWidth="1"/>
+    <col min="2039" max="2039" width="30.5" customWidth="1"/>
+    <col min="2040" max="2040" width="11.5" customWidth="1"/>
     <col min="2041" max="2041" width="8" customWidth="1"/>
-    <col min="2042" max="2042" width="10.28515625" customWidth="1"/>
-    <col min="2043" max="2043" width="8.28515625" customWidth="1"/>
+    <col min="2042" max="2042" width="10.33203125" customWidth="1"/>
+    <col min="2043" max="2043" width="8.33203125" customWidth="1"/>
     <col min="2044" max="2044" width="10" customWidth="1"/>
     <col min="2045" max="2049" width="8" customWidth="1"/>
-    <col min="2050" max="2050" width="8.28515625" customWidth="1"/>
+    <col min="2050" max="2050" width="8.33203125" customWidth="1"/>
     <col min="2051" max="2051" width="9" customWidth="1"/>
-    <col min="2052" max="2052" width="28.140625" customWidth="1"/>
-    <col min="2053" max="2053" width="10.140625" customWidth="1"/>
-    <col min="2055" max="2055" width="11.42578125" customWidth="1"/>
+    <col min="2052" max="2052" width="28.1640625" customWidth="1"/>
+    <col min="2053" max="2053" width="10.1640625" customWidth="1"/>
+    <col min="2055" max="2055" width="11.5" customWidth="1"/>
     <col min="2056" max="2056" width="8" customWidth="1"/>
     <col min="2057" max="2057" width="10" customWidth="1"/>
-    <col min="2058" max="2058" width="9.28515625" customWidth="1"/>
-    <col min="2059" max="2059" width="10.140625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.33203125" customWidth="1"/>
+    <col min="2059" max="2059" width="10.1640625" customWidth="1"/>
     <col min="2060" max="2060" width="8" customWidth="1"/>
-    <col min="2295" max="2295" width="30.42578125" customWidth="1"/>
-    <col min="2296" max="2296" width="11.42578125" customWidth="1"/>
+    <col min="2295" max="2295" width="30.5" customWidth="1"/>
+    <col min="2296" max="2296" width="11.5" customWidth="1"/>
     <col min="2297" max="2297" width="8" customWidth="1"/>
-    <col min="2298" max="2298" width="10.28515625" customWidth="1"/>
-    <col min="2299" max="2299" width="8.28515625" customWidth="1"/>
+    <col min="2298" max="2298" width="10.33203125" customWidth="1"/>
+    <col min="2299" max="2299" width="8.33203125" customWidth="1"/>
     <col min="2300" max="2300" width="10" customWidth="1"/>
     <col min="2301" max="2305" width="8" customWidth="1"/>
-    <col min="2306" max="2306" width="8.28515625" customWidth="1"/>
+    <col min="2306" max="2306" width="8.33203125" customWidth="1"/>
     <col min="2307" max="2307" width="9" customWidth="1"/>
-    <col min="2308" max="2308" width="28.140625" customWidth="1"/>
-    <col min="2309" max="2309" width="10.140625" customWidth="1"/>
-    <col min="2311" max="2311" width="11.42578125" customWidth="1"/>
+    <col min="2308" max="2308" width="28.1640625" customWidth="1"/>
+    <col min="2309" max="2309" width="10.1640625" customWidth="1"/>
+    <col min="2311" max="2311" width="11.5" customWidth="1"/>
     <col min="2312" max="2312" width="8" customWidth="1"/>
     <col min="2313" max="2313" width="10" customWidth="1"/>
-    <col min="2314" max="2314" width="9.28515625" customWidth="1"/>
-    <col min="2315" max="2315" width="10.140625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.33203125" customWidth="1"/>
+    <col min="2315" max="2315" width="10.1640625" customWidth="1"/>
     <col min="2316" max="2316" width="8" customWidth="1"/>
-    <col min="2551" max="2551" width="30.42578125" customWidth="1"/>
-    <col min="2552" max="2552" width="11.42578125" customWidth="1"/>
+    <col min="2551" max="2551" width="30.5" customWidth="1"/>
+    <col min="2552" max="2552" width="11.5" customWidth="1"/>
     <col min="2553" max="2553" width="8" customWidth="1"/>
-    <col min="2554" max="2554" width="10.28515625" customWidth="1"/>
-    <col min="2555" max="2555" width="8.28515625" customWidth="1"/>
+    <col min="2554" max="2554" width="10.33203125" customWidth="1"/>
+    <col min="2555" max="2555" width="8.33203125" customWidth="1"/>
     <col min="2556" max="2556" width="10" customWidth="1"/>
     <col min="2557" max="2561" width="8" customWidth="1"/>
-    <col min="2562" max="2562" width="8.28515625" customWidth="1"/>
+    <col min="2562" max="2562" width="8.33203125" customWidth="1"/>
     <col min="2563" max="2563" width="9" customWidth="1"/>
-    <col min="2564" max="2564" width="28.140625" customWidth="1"/>
-    <col min="2565" max="2565" width="10.140625" customWidth="1"/>
-    <col min="2567" max="2567" width="11.42578125" customWidth="1"/>
+    <col min="2564" max="2564" width="28.1640625" customWidth="1"/>
+    <col min="2565" max="2565" width="10.1640625" customWidth="1"/>
+    <col min="2567" max="2567" width="11.5" customWidth="1"/>
     <col min="2568" max="2568" width="8" customWidth="1"/>
     <col min="2569" max="2569" width="10" customWidth="1"/>
-    <col min="2570" max="2570" width="9.28515625" customWidth="1"/>
-    <col min="2571" max="2571" width="10.140625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.33203125" customWidth="1"/>
+    <col min="2571" max="2571" width="10.1640625" customWidth="1"/>
     <col min="2572" max="2572" width="8" customWidth="1"/>
-    <col min="2807" max="2807" width="30.42578125" customWidth="1"/>
-    <col min="2808" max="2808" width="11.42578125" customWidth="1"/>
+    <col min="2807" max="2807" width="30.5" customWidth="1"/>
+    <col min="2808" max="2808" width="11.5" customWidth="1"/>
     <col min="2809" max="2809" width="8" customWidth="1"/>
-    <col min="2810" max="2810" width="10.28515625" customWidth="1"/>
-    <col min="2811" max="2811" width="8.28515625" customWidth="1"/>
+    <col min="2810" max="2810" width="10.33203125" customWidth="1"/>
+    <col min="2811" max="2811" width="8.33203125" customWidth="1"/>
     <col min="2812" max="2812" width="10" customWidth="1"/>
     <col min="2813" max="2817" width="8" customWidth="1"/>
-    <col min="2818" max="2818" width="8.28515625" customWidth="1"/>
+    <col min="2818" max="2818" width="8.33203125" customWidth="1"/>
     <col min="2819" max="2819" width="9" customWidth="1"/>
-    <col min="2820" max="2820" width="28.140625" customWidth="1"/>
-    <col min="2821" max="2821" width="10.140625" customWidth="1"/>
-    <col min="2823" max="2823" width="11.42578125" customWidth="1"/>
+    <col min="2820" max="2820" width="28.1640625" customWidth="1"/>
+    <col min="2821" max="2821" width="10.1640625" customWidth="1"/>
+    <col min="2823" max="2823" width="11.5" customWidth="1"/>
     <col min="2824" max="2824" width="8" customWidth="1"/>
     <col min="2825" max="2825" width="10" customWidth="1"/>
-    <col min="2826" max="2826" width="9.28515625" customWidth="1"/>
-    <col min="2827" max="2827" width="10.140625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.33203125" customWidth="1"/>
+    <col min="2827" max="2827" width="10.1640625" customWidth="1"/>
     <col min="2828" max="2828" width="8" customWidth="1"/>
-    <col min="3063" max="3063" width="30.42578125" customWidth="1"/>
-    <col min="3064" max="3064" width="11.42578125" customWidth="1"/>
+    <col min="3063" max="3063" width="30.5" customWidth="1"/>
+    <col min="3064" max="3064" width="11.5" customWidth="1"/>
     <col min="3065" max="3065" width="8" customWidth="1"/>
-    <col min="3066" max="3066" width="10.28515625" customWidth="1"/>
-    <col min="3067" max="3067" width="8.28515625" customWidth="1"/>
+    <col min="3066" max="3066" width="10.33203125" customWidth="1"/>
+    <col min="3067" max="3067" width="8.33203125" customWidth="1"/>
     <col min="3068" max="3068" width="10" customWidth="1"/>
     <col min="3069" max="3073" width="8" customWidth="1"/>
-    <col min="3074" max="3074" width="8.28515625" customWidth="1"/>
+    <col min="3074" max="3074" width="8.33203125" customWidth="1"/>
     <col min="3075" max="3075" width="9" customWidth="1"/>
-    <col min="3076" max="3076" width="28.140625" customWidth="1"/>
-    <col min="3077" max="3077" width="10.140625" customWidth="1"/>
-    <col min="3079" max="3079" width="11.42578125" customWidth="1"/>
+    <col min="3076" max="3076" width="28.1640625" customWidth="1"/>
+    <col min="3077" max="3077" width="10.1640625" customWidth="1"/>
+    <col min="3079" max="3079" width="11.5" customWidth="1"/>
     <col min="3080" max="3080" width="8" customWidth="1"/>
     <col min="3081" max="3081" width="10" customWidth="1"/>
-    <col min="3082" max="3082" width="9.28515625" customWidth="1"/>
-    <col min="3083" max="3083" width="10.140625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.33203125" customWidth="1"/>
+    <col min="3083" max="3083" width="10.1640625" customWidth="1"/>
     <col min="3084" max="3084" width="8" customWidth="1"/>
-    <col min="3319" max="3319" width="30.42578125" customWidth="1"/>
-    <col min="3320" max="3320" width="11.42578125" customWidth="1"/>
+    <col min="3319" max="3319" width="30.5" customWidth="1"/>
+    <col min="3320" max="3320" width="11.5" customWidth="1"/>
     <col min="3321" max="3321" width="8" customWidth="1"/>
-    <col min="3322" max="3322" width="10.28515625" customWidth="1"/>
-    <col min="3323" max="3323" width="8.28515625" customWidth="1"/>
+    <col min="3322" max="3322" width="10.33203125" customWidth="1"/>
+    <col min="3323" max="3323" width="8.33203125" customWidth="1"/>
     <col min="3324" max="3324" width="10" customWidth="1"/>
     <col min="3325" max="3329" width="8" customWidth="1"/>
-    <col min="3330" max="3330" width="8.28515625" customWidth="1"/>
+    <col min="3330" max="3330" width="8.33203125" customWidth="1"/>
     <col min="3331" max="3331" width="9" customWidth="1"/>
-    <col min="3332" max="3332" width="28.140625" customWidth="1"/>
-    <col min="3333" max="3333" width="10.140625" customWidth="1"/>
-    <col min="3335" max="3335" width="11.42578125" customWidth="1"/>
+    <col min="3332" max="3332" width="28.1640625" customWidth="1"/>
+    <col min="3333" max="3333" width="10.1640625" customWidth="1"/>
+    <col min="3335" max="3335" width="11.5" customWidth="1"/>
     <col min="3336" max="3336" width="8" customWidth="1"/>
     <col min="3337" max="3337" width="10" customWidth="1"/>
-    <col min="3338" max="3338" width="9.28515625" customWidth="1"/>
-    <col min="3339" max="3339" width="10.140625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.33203125" customWidth="1"/>
+    <col min="3339" max="3339" width="10.1640625" customWidth="1"/>
     <col min="3340" max="3340" width="8" customWidth="1"/>
-    <col min="3575" max="3575" width="30.42578125" customWidth="1"/>
-    <col min="3576" max="3576" width="11.42578125" customWidth="1"/>
+    <col min="3575" max="3575" width="30.5" customWidth="1"/>
+    <col min="3576" max="3576" width="11.5" customWidth="1"/>
     <col min="3577" max="3577" width="8" customWidth="1"/>
-    <col min="3578" max="3578" width="10.28515625" customWidth="1"/>
-    <col min="3579" max="3579" width="8.28515625" customWidth="1"/>
+    <col min="3578" max="3578" width="10.33203125" customWidth="1"/>
+    <col min="3579" max="3579" width="8.33203125" customWidth="1"/>
     <col min="3580" max="3580" width="10" customWidth="1"/>
     <col min="3581" max="3585" width="8" customWidth="1"/>
-    <col min="3586" max="3586" width="8.28515625" customWidth="1"/>
+    <col min="3586" max="3586" width="8.33203125" customWidth="1"/>
     <col min="3587" max="3587" width="9" customWidth="1"/>
-    <col min="3588" max="3588" width="28.140625" customWidth="1"/>
-    <col min="3589" max="3589" width="10.140625" customWidth="1"/>
-    <col min="3591" max="3591" width="11.42578125" customWidth="1"/>
+    <col min="3588" max="3588" width="28.1640625" customWidth="1"/>
+    <col min="3589" max="3589" width="10.1640625" customWidth="1"/>
+    <col min="3591" max="3591" width="11.5" customWidth="1"/>
     <col min="3592" max="3592" width="8" customWidth="1"/>
     <col min="3593" max="3593" width="10" customWidth="1"/>
-    <col min="3594" max="3594" width="9.28515625" customWidth="1"/>
-    <col min="3595" max="3595" width="10.140625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.33203125" customWidth="1"/>
+    <col min="3595" max="3595" width="10.1640625" customWidth="1"/>
     <col min="3596" max="3596" width="8" customWidth="1"/>
-    <col min="3831" max="3831" width="30.42578125" customWidth="1"/>
-    <col min="3832" max="3832" width="11.42578125" customWidth="1"/>
+    <col min="3831" max="3831" width="30.5" customWidth="1"/>
+    <col min="3832" max="3832" width="11.5" customWidth="1"/>
     <col min="3833" max="3833" width="8" customWidth="1"/>
-    <col min="3834" max="3834" width="10.28515625" customWidth="1"/>
-    <col min="3835" max="3835" width="8.28515625" customWidth="1"/>
+    <col min="3834" max="3834" width="10.33203125" customWidth="1"/>
+    <col min="3835" max="3835" width="8.33203125" customWidth="1"/>
     <col min="3836" max="3836" width="10" customWidth="1"/>
     <col min="3837" max="3841" width="8" customWidth="1"/>
-    <col min="3842" max="3842" width="8.28515625" customWidth="1"/>
+    <col min="3842" max="3842" width="8.33203125" customWidth="1"/>
     <col min="3843" max="3843" width="9" customWidth="1"/>
-    <col min="3844" max="3844" width="28.140625" customWidth="1"/>
-    <col min="3845" max="3845" width="10.140625" customWidth="1"/>
-    <col min="3847" max="3847" width="11.42578125" customWidth="1"/>
+    <col min="3844" max="3844" width="28.1640625" customWidth="1"/>
+    <col min="3845" max="3845" width="10.1640625" customWidth="1"/>
+    <col min="3847" max="3847" width="11.5" customWidth="1"/>
     <col min="3848" max="3848" width="8" customWidth="1"/>
     <col min="3849" max="3849" width="10" customWidth="1"/>
-    <col min="3850" max="3850" width="9.28515625" customWidth="1"/>
-    <col min="3851" max="3851" width="10.140625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.33203125" customWidth="1"/>
+    <col min="3851" max="3851" width="10.1640625" customWidth="1"/>
     <col min="3852" max="3852" width="8" customWidth="1"/>
-    <col min="4087" max="4087" width="30.42578125" customWidth="1"/>
-    <col min="4088" max="4088" width="11.42578125" customWidth="1"/>
+    <col min="4087" max="4087" width="30.5" customWidth="1"/>
+    <col min="4088" max="4088" width="11.5" customWidth="1"/>
     <col min="4089" max="4089" width="8" customWidth="1"/>
-    <col min="4090" max="4090" width="10.28515625" customWidth="1"/>
-    <col min="4091" max="4091" width="8.28515625" customWidth="1"/>
+    <col min="4090" max="4090" width="10.33203125" customWidth="1"/>
+    <col min="4091" max="4091" width="8.33203125" customWidth="1"/>
     <col min="4092" max="4092" width="10" customWidth="1"/>
     <col min="4093" max="4097" width="8" customWidth="1"/>
-    <col min="4098" max="4098" width="8.28515625" customWidth="1"/>
+    <col min="4098" max="4098" width="8.33203125" customWidth="1"/>
     <col min="4099" max="4099" width="9" customWidth="1"/>
-    <col min="4100" max="4100" width="28.140625" customWidth="1"/>
-    <col min="4101" max="4101" width="10.140625" customWidth="1"/>
-    <col min="4103" max="4103" width="11.42578125" customWidth="1"/>
+    <col min="4100" max="4100" width="28.1640625" customWidth="1"/>
+    <col min="4101" max="4101" width="10.1640625" customWidth="1"/>
+    <col min="4103" max="4103" width="11.5" customWidth="1"/>
     <col min="4104" max="4104" width="8" customWidth="1"/>
     <col min="4105" max="4105" width="10" customWidth="1"/>
-    <col min="4106" max="4106" width="9.28515625" customWidth="1"/>
-    <col min="4107" max="4107" width="10.140625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.33203125" customWidth="1"/>
+    <col min="4107" max="4107" width="10.1640625" customWidth="1"/>
     <col min="4108" max="4108" width="8" customWidth="1"/>
-    <col min="4343" max="4343" width="30.42578125" customWidth="1"/>
-    <col min="4344" max="4344" width="11.42578125" customWidth="1"/>
+    <col min="4343" max="4343" width="30.5" customWidth="1"/>
+    <col min="4344" max="4344" width="11.5" customWidth="1"/>
     <col min="4345" max="4345" width="8" customWidth="1"/>
-    <col min="4346" max="4346" width="10.28515625" customWidth="1"/>
-    <col min="4347" max="4347" width="8.28515625" customWidth="1"/>
+    <col min="4346" max="4346" width="10.33203125" customWidth="1"/>
+    <col min="4347" max="4347" width="8.33203125" customWidth="1"/>
     <col min="4348" max="4348" width="10" customWidth="1"/>
     <col min="4349" max="4353" width="8" customWidth="1"/>
-    <col min="4354" max="4354" width="8.28515625" customWidth="1"/>
+    <col min="4354" max="4354" width="8.33203125" customWidth="1"/>
     <col min="4355" max="4355" width="9" customWidth="1"/>
-    <col min="4356" max="4356" width="28.140625" customWidth="1"/>
-    <col min="4357" max="4357" width="10.140625" customWidth="1"/>
-    <col min="4359" max="4359" width="11.42578125" customWidth="1"/>
+    <col min="4356" max="4356" width="28.1640625" customWidth="1"/>
+    <col min="4357" max="4357" width="10.1640625" customWidth="1"/>
+    <col min="4359" max="4359" width="11.5" customWidth="1"/>
     <col min="4360" max="4360" width="8" customWidth="1"/>
     <col min="4361" max="4361" width="10" customWidth="1"/>
-    <col min="4362" max="4362" width="9.28515625" customWidth="1"/>
-    <col min="4363" max="4363" width="10.140625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.33203125" customWidth="1"/>
+    <col min="4363" max="4363" width="10.1640625" customWidth="1"/>
     <col min="4364" max="4364" width="8" customWidth="1"/>
-    <col min="4599" max="4599" width="30.42578125" customWidth="1"/>
-    <col min="4600" max="4600" width="11.42578125" customWidth="1"/>
+    <col min="4599" max="4599" width="30.5" customWidth="1"/>
+    <col min="4600" max="4600" width="11.5" customWidth="1"/>
     <col min="4601" max="4601" width="8" customWidth="1"/>
-    <col min="4602" max="4602" width="10.28515625" customWidth="1"/>
-    <col min="4603" max="4603" width="8.28515625" customWidth="1"/>
+    <col min="4602" max="4602" width="10.33203125" customWidth="1"/>
+    <col min="4603" max="4603" width="8.33203125" customWidth="1"/>
     <col min="4604" max="4604" width="10" customWidth="1"/>
     <col min="4605" max="4609" width="8" customWidth="1"/>
-    <col min="4610" max="4610" width="8.28515625" customWidth="1"/>
+    <col min="4610" max="4610" width="8.33203125" customWidth="1"/>
     <col min="4611" max="4611" width="9" customWidth="1"/>
-    <col min="4612" max="4612" width="28.140625" customWidth="1"/>
-    <col min="4613" max="4613" width="10.140625" customWidth="1"/>
-    <col min="4615" max="4615" width="11.42578125" customWidth="1"/>
+    <col min="4612" max="4612" width="28.1640625" customWidth="1"/>
+    <col min="4613" max="4613" width="10.1640625" customWidth="1"/>
+    <col min="4615" max="4615" width="11.5" customWidth="1"/>
     <col min="4616" max="4616" width="8" customWidth="1"/>
     <col min="4617" max="4617" width="10" customWidth="1"/>
-    <col min="4618" max="4618" width="9.28515625" customWidth="1"/>
-    <col min="4619" max="4619" width="10.140625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.33203125" customWidth="1"/>
+    <col min="4619" max="4619" width="10.1640625" customWidth="1"/>
     <col min="4620" max="4620" width="8" customWidth="1"/>
-    <col min="4855" max="4855" width="30.42578125" customWidth="1"/>
-    <col min="4856" max="4856" width="11.42578125" customWidth="1"/>
+    <col min="4855" max="4855" width="30.5" customWidth="1"/>
+    <col min="4856" max="4856" width="11.5" customWidth="1"/>
     <col min="4857" max="4857" width="8" customWidth="1"/>
-    <col min="4858" max="4858" width="10.28515625" customWidth="1"/>
-    <col min="4859" max="4859" width="8.28515625" customWidth="1"/>
+    <col min="4858" max="4858" width="10.33203125" customWidth="1"/>
+    <col min="4859" max="4859" width="8.33203125" customWidth="1"/>
     <col min="4860" max="4860" width="10" customWidth="1"/>
     <col min="4861" max="4865" width="8" customWidth="1"/>
-    <col min="4866" max="4866" width="8.28515625" customWidth="1"/>
+    <col min="4866" max="4866" width="8.33203125" customWidth="1"/>
     <col min="4867" max="4867" width="9" customWidth="1"/>
-    <col min="4868" max="4868" width="28.140625" customWidth="1"/>
-    <col min="4869" max="4869" width="10.140625" customWidth="1"/>
-    <col min="4871" max="4871" width="11.42578125" customWidth="1"/>
+    <col min="4868" max="4868" width="28.1640625" customWidth="1"/>
+    <col min="4869" max="4869" width="10.1640625" customWidth="1"/>
+    <col min="4871" max="4871" width="11.5" customWidth="1"/>
     <col min="4872" max="4872" width="8" customWidth="1"/>
     <col min="4873" max="4873" width="10" customWidth="1"/>
-    <col min="4874" max="4874" width="9.28515625" customWidth="1"/>
-    <col min="4875" max="4875" width="10.140625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.33203125" customWidth="1"/>
+    <col min="4875" max="4875" width="10.1640625" customWidth="1"/>
     <col min="4876" max="4876" width="8" customWidth="1"/>
-    <col min="5111" max="5111" width="30.42578125" customWidth="1"/>
-    <col min="5112" max="5112" width="11.42578125" customWidth="1"/>
+    <col min="5111" max="5111" width="30.5" customWidth="1"/>
+    <col min="5112" max="5112" width="11.5" customWidth="1"/>
     <col min="5113" max="5113" width="8" customWidth="1"/>
-    <col min="5114" max="5114" width="10.28515625" customWidth="1"/>
-    <col min="5115" max="5115" width="8.28515625" customWidth="1"/>
+    <col min="5114" max="5114" width="10.33203125" customWidth="1"/>
+    <col min="5115" max="5115" width="8.33203125" customWidth="1"/>
     <col min="5116" max="5116" width="10" customWidth="1"/>
     <col min="5117" max="5121" width="8" customWidth="1"/>
-    <col min="5122" max="5122" width="8.28515625" customWidth="1"/>
+    <col min="5122" max="5122" width="8.33203125" customWidth="1"/>
     <col min="5123" max="5123" width="9" customWidth="1"/>
-    <col min="5124" max="5124" width="28.140625" customWidth="1"/>
-    <col min="5125" max="5125" width="10.140625" customWidth="1"/>
-    <col min="5127" max="5127" width="11.42578125" customWidth="1"/>
+    <col min="5124" max="5124" width="28.1640625" customWidth="1"/>
+    <col min="5125" max="5125" width="10.1640625" customWidth="1"/>
+    <col min="5127" max="5127" width="11.5" customWidth="1"/>
     <col min="5128" max="5128" width="8" customWidth="1"/>
     <col min="5129" max="5129" width="10" customWidth="1"/>
-    <col min="5130" max="5130" width="9.28515625" customWidth="1"/>
-    <col min="5131" max="5131" width="10.140625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.33203125" customWidth="1"/>
+    <col min="5131" max="5131" width="10.1640625" customWidth="1"/>
     <col min="5132" max="5132" width="8" customWidth="1"/>
-    <col min="5367" max="5367" width="30.42578125" customWidth="1"/>
-    <col min="5368" max="5368" width="11.42578125" customWidth="1"/>
+    <col min="5367" max="5367" width="30.5" customWidth="1"/>
+    <col min="5368" max="5368" width="11.5" customWidth="1"/>
     <col min="5369" max="5369" width="8" customWidth="1"/>
-    <col min="5370" max="5370" width="10.28515625" customWidth="1"/>
-    <col min="5371" max="5371" width="8.28515625" customWidth="1"/>
+    <col min="5370" max="5370" width="10.33203125" customWidth="1"/>
+    <col min="5371" max="5371" width="8.33203125" customWidth="1"/>
     <col min="5372" max="5372" width="10" customWidth="1"/>
     <col min="5373" max="5377" width="8" customWidth="1"/>
-    <col min="5378" max="5378" width="8.28515625" customWidth="1"/>
+    <col min="5378" max="5378" width="8.33203125" customWidth="1"/>
     <col min="5379" max="5379" width="9" customWidth="1"/>
-    <col min="5380" max="5380" width="28.140625" customWidth="1"/>
-    <col min="5381" max="5381" width="10.140625" customWidth="1"/>
-    <col min="5383" max="5383" width="11.42578125" customWidth="1"/>
+    <col min="5380" max="5380" width="28.1640625" customWidth="1"/>
+    <col min="5381" max="5381" width="10.1640625" customWidth="1"/>
+    <col min="5383" max="5383" width="11.5" customWidth="1"/>
     <col min="5384" max="5384" width="8" customWidth="1"/>
     <col min="5385" max="5385" width="10" customWidth="1"/>
-    <col min="5386" max="5386" width="9.28515625" customWidth="1"/>
-    <col min="5387" max="5387" width="10.140625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.33203125" customWidth="1"/>
+    <col min="5387" max="5387" width="10.1640625" customWidth="1"/>
     <col min="5388" max="5388" width="8" customWidth="1"/>
-    <col min="5623" max="5623" width="30.42578125" customWidth="1"/>
-    <col min="5624" max="5624" width="11.42578125" customWidth="1"/>
+    <col min="5623" max="5623" width="30.5" customWidth="1"/>
+    <col min="5624" max="5624" width="11.5" customWidth="1"/>
     <col min="5625" max="5625" width="8" customWidth="1"/>
-    <col min="5626" max="5626" width="10.28515625" customWidth="1"/>
-    <col min="5627" max="5627" width="8.28515625" customWidth="1"/>
+    <col min="5626" max="5626" width="10.33203125" customWidth="1"/>
+    <col min="5627" max="5627" width="8.33203125" customWidth="1"/>
     <col min="5628" max="5628" width="10" customWidth="1"/>
     <col min="5629" max="5633" width="8" customWidth="1"/>
-    <col min="5634" max="5634" width="8.28515625" customWidth="1"/>
+    <col min="5634" max="5634" width="8.33203125" customWidth="1"/>
     <col min="5635" max="5635" width="9" customWidth="1"/>
-    <col min="5636" max="5636" width="28.140625" customWidth="1"/>
-    <col min="5637" max="5637" width="10.140625" customWidth="1"/>
-    <col min="5639" max="5639" width="11.42578125" customWidth="1"/>
+    <col min="5636" max="5636" width="28.1640625" customWidth="1"/>
+    <col min="5637" max="5637" width="10.1640625" customWidth="1"/>
+    <col min="5639" max="5639" width="11.5" customWidth="1"/>
     <col min="5640" max="5640" width="8" customWidth="1"/>
     <col min="5641" max="5641" width="10" customWidth="1"/>
-    <col min="5642" max="5642" width="9.28515625" customWidth="1"/>
-    <col min="5643" max="5643" width="10.140625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.33203125" customWidth="1"/>
+    <col min="5643" max="5643" width="10.1640625" customWidth="1"/>
     <col min="5644" max="5644" width="8" customWidth="1"/>
-    <col min="5879" max="5879" width="30.42578125" customWidth="1"/>
-    <col min="5880" max="5880" width="11.42578125" customWidth="1"/>
+    <col min="5879" max="5879" width="30.5" customWidth="1"/>
+    <col min="5880" max="5880" width="11.5" customWidth="1"/>
     <col min="5881" max="5881" width="8" customWidth="1"/>
-    <col min="5882" max="5882" width="10.28515625" customWidth="1"/>
-    <col min="5883" max="5883" width="8.28515625" customWidth="1"/>
+    <col min="5882" max="5882" width="10.33203125" customWidth="1"/>
+    <col min="5883" max="5883" width="8.33203125" customWidth="1"/>
     <col min="5884" max="5884" width="10" customWidth="1"/>
     <col min="5885" max="5889" width="8" customWidth="1"/>
-    <col min="5890" max="5890" width="8.28515625" customWidth="1"/>
+    <col min="5890" max="5890" width="8.33203125" customWidth="1"/>
     <col min="5891" max="5891" width="9" customWidth="1"/>
-    <col min="5892" max="5892" width="28.140625" customWidth="1"/>
-    <col min="5893" max="5893" width="10.140625" customWidth="1"/>
-    <col min="5895" max="5895" width="11.42578125" customWidth="1"/>
+    <col min="5892" max="5892" width="28.1640625" customWidth="1"/>
+    <col min="5893" max="5893" width="10.1640625" customWidth="1"/>
+    <col min="5895" max="5895" width="11.5" customWidth="1"/>
     <col min="5896" max="5896" width="8" customWidth="1"/>
     <col min="5897" max="5897" width="10" customWidth="1"/>
-    <col min="5898" max="5898" width="9.28515625" customWidth="1"/>
-    <col min="5899" max="5899" width="10.140625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.33203125" customWidth="1"/>
+    <col min="5899" max="5899" width="10.1640625" customWidth="1"/>
     <col min="5900" max="5900" width="8" customWidth="1"/>
-    <col min="6135" max="6135" width="30.42578125" customWidth="1"/>
-    <col min="6136" max="6136" width="11.42578125" customWidth="1"/>
+    <col min="6135" max="6135" width="30.5" customWidth="1"/>
+    <col min="6136" max="6136" width="11.5" customWidth="1"/>
     <col min="6137" max="6137" width="8" customWidth="1"/>
-    <col min="6138" max="6138" width="10.28515625" customWidth="1"/>
-    <col min="6139" max="6139" width="8.28515625" customWidth="1"/>
+    <col min="6138" max="6138" width="10.33203125" customWidth="1"/>
+    <col min="6139" max="6139" width="8.33203125" customWidth="1"/>
     <col min="6140" max="6140" width="10" customWidth="1"/>
     <col min="6141" max="6145" width="8" customWidth="1"/>
-    <col min="6146" max="6146" width="8.28515625" customWidth="1"/>
+    <col min="6146" max="6146" width="8.33203125" customWidth="1"/>
     <col min="6147" max="6147" width="9" customWidth="1"/>
-    <col min="6148" max="6148" width="28.140625" customWidth="1"/>
-    <col min="6149" max="6149" width="10.140625" customWidth="1"/>
-    <col min="6151" max="6151" width="11.42578125" customWidth="1"/>
+    <col min="6148" max="6148" width="28.1640625" customWidth="1"/>
+    <col min="6149" max="6149" width="10.1640625" customWidth="1"/>
+    <col min="6151" max="6151" width="11.5" customWidth="1"/>
     <col min="6152" max="6152" width="8" customWidth="1"/>
     <col min="6153" max="6153" width="10" customWidth="1"/>
-    <col min="6154" max="6154" width="9.28515625" customWidth="1"/>
-    <col min="6155" max="6155" width="10.140625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.33203125" customWidth="1"/>
+    <col min="6155" max="6155" width="10.1640625" customWidth="1"/>
     <col min="6156" max="6156" width="8" customWidth="1"/>
-    <col min="6391" max="6391" width="30.42578125" customWidth="1"/>
-    <col min="6392" max="6392" width="11.42578125" customWidth="1"/>
+    <col min="6391" max="6391" width="30.5" customWidth="1"/>
+    <col min="6392" max="6392" width="11.5" customWidth="1"/>
     <col min="6393" max="6393" width="8" customWidth="1"/>
-    <col min="6394" max="6394" width="10.28515625" customWidth="1"/>
-    <col min="6395" max="6395" width="8.28515625" customWidth="1"/>
+    <col min="6394" max="6394" width="10.33203125" customWidth="1"/>
+    <col min="6395" max="6395" width="8.33203125" customWidth="1"/>
     <col min="6396" max="6396" width="10" customWidth="1"/>
     <col min="6397" max="6401" width="8" customWidth="1"/>
-    <col min="6402" max="6402" width="8.28515625" customWidth="1"/>
+    <col min="6402" max="6402" width="8.33203125" customWidth="1"/>
     <col min="6403" max="6403" width="9" customWidth="1"/>
-    <col min="6404" max="6404" width="28.140625" customWidth="1"/>
-    <col min="6405" max="6405" width="10.140625" customWidth="1"/>
-    <col min="6407" max="6407" width="11.42578125" customWidth="1"/>
+    <col min="6404" max="6404" width="28.1640625" customWidth="1"/>
+    <col min="6405" max="6405" width="10.1640625" customWidth="1"/>
+    <col min="6407" max="6407" width="11.5" customWidth="1"/>
     <col min="6408" max="6408" width="8" customWidth="1"/>
     <col min="6409" max="6409" width="10" customWidth="1"/>
-    <col min="6410" max="6410" width="9.28515625" customWidth="1"/>
-    <col min="6411" max="6411" width="10.140625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.33203125" customWidth="1"/>
+    <col min="6411" max="6411" width="10.1640625" customWidth="1"/>
     <col min="6412" max="6412" width="8" customWidth="1"/>
-    <col min="6647" max="6647" width="30.42578125" customWidth="1"/>
-    <col min="6648" max="6648" width="11.42578125" customWidth="1"/>
+    <col min="6647" max="6647" width="30.5" customWidth="1"/>
+    <col min="6648" max="6648" width="11.5" customWidth="1"/>
     <col min="6649" max="6649" width="8" customWidth="1"/>
-    <col min="6650" max="6650" width="10.28515625" customWidth="1"/>
-    <col min="6651" max="6651" width="8.28515625" customWidth="1"/>
+    <col min="6650" max="6650" width="10.33203125" customWidth="1"/>
+    <col min="6651" max="6651" width="8.33203125" customWidth="1"/>
     <col min="6652" max="6652" width="10" customWidth="1"/>
     <col min="6653" max="6657" width="8" customWidth="1"/>
-    <col min="6658" max="6658" width="8.28515625" customWidth="1"/>
+    <col min="6658" max="6658" width="8.33203125" customWidth="1"/>
     <col min="6659" max="6659" width="9" customWidth="1"/>
-    <col min="6660" max="6660" width="28.140625" customWidth="1"/>
-    <col min="6661" max="6661" width="10.140625" customWidth="1"/>
-    <col min="6663" max="6663" width="11.42578125" customWidth="1"/>
+    <col min="6660" max="6660" width="28.1640625" customWidth="1"/>
+    <col min="6661" max="6661" width="10.1640625" customWidth="1"/>
+    <col min="6663" max="6663" width="11.5" customWidth="1"/>
     <col min="6664" max="6664" width="8" customWidth="1"/>
     <col min="6665" max="6665" width="10" customWidth="1"/>
-    <col min="6666" max="6666" width="9.28515625" customWidth="1"/>
-    <col min="6667" max="6667" width="10.140625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.33203125" customWidth="1"/>
+    <col min="6667" max="6667" width="10.1640625" customWidth="1"/>
     <col min="6668" max="6668" width="8" customWidth="1"/>
-    <col min="6903" max="6903" width="30.42578125" customWidth="1"/>
-    <col min="6904" max="6904" width="11.42578125" customWidth="1"/>
+    <col min="6903" max="6903" width="30.5" customWidth="1"/>
+    <col min="6904" max="6904" width="11.5" customWidth="1"/>
     <col min="6905" max="6905" width="8" customWidth="1"/>
-    <col min="6906" max="6906" width="10.28515625" customWidth="1"/>
-    <col min="6907" max="6907" width="8.28515625" customWidth="1"/>
+    <col min="6906" max="6906" width="10.33203125" customWidth="1"/>
+    <col min="6907" max="6907" width="8.33203125" customWidth="1"/>
     <col min="6908" max="6908" width="10" customWidth="1"/>
     <col min="6909" max="6913" width="8" customWidth="1"/>
-    <col min="6914" max="6914" width="8.28515625" customWidth="1"/>
+    <col min="6914" max="6914" width="8.33203125" customWidth="1"/>
     <col min="6915" max="6915" width="9" customWidth="1"/>
-    <col min="6916" max="6916" width="28.140625" customWidth="1"/>
-    <col min="6917" max="6917" width="10.140625" customWidth="1"/>
-    <col min="6919" max="6919" width="11.42578125" customWidth="1"/>
+    <col min="6916" max="6916" width="28.1640625" customWidth="1"/>
+    <col min="6917" max="6917" width="10.1640625" customWidth="1"/>
+    <col min="6919" max="6919" width="11.5" customWidth="1"/>
     <col min="6920" max="6920" width="8" customWidth="1"/>
     <col min="6921" max="6921" width="10" customWidth="1"/>
-    <col min="6922" max="6922" width="9.28515625" customWidth="1"/>
-    <col min="6923" max="6923" width="10.140625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.33203125" customWidth="1"/>
+    <col min="6923" max="6923" width="10.1640625" customWidth="1"/>
     <col min="6924" max="6924" width="8" customWidth="1"/>
-    <col min="7159" max="7159" width="30.42578125" customWidth="1"/>
-    <col min="7160" max="7160" width="11.42578125" customWidth="1"/>
+    <col min="7159" max="7159" width="30.5" customWidth="1"/>
+    <col min="7160" max="7160" width="11.5" customWidth="1"/>
     <col min="7161" max="7161" width="8" customWidth="1"/>
-    <col min="7162" max="7162" width="10.28515625" customWidth="1"/>
-    <col min="7163" max="7163" width="8.28515625" customWidth="1"/>
+    <col min="7162" max="7162" width="10.33203125" customWidth="1"/>
+    <col min="7163" max="7163" width="8.33203125" customWidth="1"/>
     <col min="7164" max="7164" width="10" customWidth="1"/>
     <col min="7165" max="7169" width="8" customWidth="1"/>
-    <col min="7170" max="7170" width="8.28515625" customWidth="1"/>
+    <col min="7170" max="7170" width="8.33203125" customWidth="1"/>
     <col min="7171" max="7171" width="9" customWidth="1"/>
-    <col min="7172" max="7172" width="28.140625" customWidth="1"/>
-    <col min="7173" max="7173" width="10.140625" customWidth="1"/>
-    <col min="7175" max="7175" width="11.42578125" customWidth="1"/>
+    <col min="7172" max="7172" width="28.1640625" customWidth="1"/>
+    <col min="7173" max="7173" width="10.1640625" customWidth="1"/>
+    <col min="7175" max="7175" width="11.5" customWidth="1"/>
     <col min="7176" max="7176" width="8" customWidth="1"/>
     <col min="7177" max="7177" width="10" customWidth="1"/>
-    <col min="7178" max="7178" width="9.28515625" customWidth="1"/>
-    <col min="7179" max="7179" width="10.140625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.33203125" customWidth="1"/>
+    <col min="7179" max="7179" width="10.1640625" customWidth="1"/>
     <col min="7180" max="7180" width="8" customWidth="1"/>
-    <col min="7415" max="7415" width="30.42578125" customWidth="1"/>
-    <col min="7416" max="7416" width="11.42578125" customWidth="1"/>
+    <col min="7415" max="7415" width="30.5" customWidth="1"/>
+    <col min="7416" max="7416" width="11.5" customWidth="1"/>
     <col min="7417" max="7417" width="8" customWidth="1"/>
-    <col min="7418" max="7418" width="10.28515625" customWidth="1"/>
-    <col min="7419" max="7419" width="8.28515625" customWidth="1"/>
+    <col min="7418" max="7418" width="10.33203125" customWidth="1"/>
+    <col min="7419" max="7419" width="8.33203125" customWidth="1"/>
     <col min="7420" max="7420" width="10" customWidth="1"/>
     <col min="7421" max="7425" width="8" customWidth="1"/>
-    <col min="7426" max="7426" width="8.28515625" customWidth="1"/>
+    <col min="7426" max="7426" width="8.33203125" customWidth="1"/>
     <col min="7427" max="7427" width="9" customWidth="1"/>
-    <col min="7428" max="7428" width="28.140625" customWidth="1"/>
-    <col min="7429" max="7429" width="10.140625" customWidth="1"/>
-    <col min="7431" max="7431" width="11.42578125" customWidth="1"/>
+    <col min="7428" max="7428" width="28.1640625" customWidth="1"/>
+    <col min="7429" max="7429" width="10.1640625" customWidth="1"/>
+    <col min="7431" max="7431" width="11.5" customWidth="1"/>
     <col min="7432" max="7432" width="8" customWidth="1"/>
     <col min="7433" max="7433" width="10" customWidth="1"/>
-    <col min="7434" max="7434" width="9.28515625" customWidth="1"/>
-    <col min="7435" max="7435" width="10.140625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.33203125" customWidth="1"/>
+    <col min="7435" max="7435" width="10.1640625" customWidth="1"/>
     <col min="7436" max="7436" width="8" customWidth="1"/>
-    <col min="7671" max="7671" width="30.42578125" customWidth="1"/>
-    <col min="7672" max="7672" width="11.42578125" customWidth="1"/>
+    <col min="7671" max="7671" width="30.5" customWidth="1"/>
+    <col min="7672" max="7672" width="11.5" customWidth="1"/>
     <col min="7673" max="7673" width="8" customWidth="1"/>
-    <col min="7674" max="7674" width="10.28515625" customWidth="1"/>
-    <col min="7675" max="7675" width="8.28515625" customWidth="1"/>
+    <col min="7674" max="7674" width="10.33203125" customWidth="1"/>
+    <col min="7675" max="7675" width="8.33203125" customWidth="1"/>
     <col min="7676" max="7676" width="10" customWidth="1"/>
     <col min="7677" max="7681" width="8" customWidth="1"/>
-    <col min="7682" max="7682" width="8.28515625" customWidth="1"/>
+    <col min="7682" max="7682" width="8.33203125" customWidth="1"/>
     <col min="7683" max="7683" width="9" customWidth="1"/>
-    <col min="7684" max="7684" width="28.140625" customWidth="1"/>
-    <col min="7685" max="7685" width="10.140625" customWidth="1"/>
-    <col min="7687" max="7687" width="11.42578125" customWidth="1"/>
+    <col min="7684" max="7684" width="28.1640625" customWidth="1"/>
+    <col min="7685" max="7685" width="10.1640625" customWidth="1"/>
+    <col min="7687" max="7687" width="11.5" customWidth="1"/>
     <col min="7688" max="7688" width="8" customWidth="1"/>
     <col min="7689" max="7689" width="10" customWidth="1"/>
-    <col min="7690" max="7690" width="9.28515625" customWidth="1"/>
-    <col min="7691" max="7691" width="10.140625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.33203125" customWidth="1"/>
+    <col min="7691" max="7691" width="10.1640625" customWidth="1"/>
     <col min="7692" max="7692" width="8" customWidth="1"/>
-    <col min="7927" max="7927" width="30.42578125" customWidth="1"/>
-    <col min="7928" max="7928" width="11.42578125" customWidth="1"/>
+    <col min="7927" max="7927" width="30.5" customWidth="1"/>
+    <col min="7928" max="7928" width="11.5" customWidth="1"/>
     <col min="7929" max="7929" width="8" customWidth="1"/>
-    <col min="7930" max="7930" width="10.28515625" customWidth="1"/>
-    <col min="7931" max="7931" width="8.28515625" customWidth="1"/>
+    <col min="7930" max="7930" width="10.33203125" customWidth="1"/>
+    <col min="7931" max="7931" width="8.33203125" customWidth="1"/>
     <col min="7932" max="7932" width="10" customWidth="1"/>
     <col min="7933" max="7937" width="8" customWidth="1"/>
-    <col min="7938" max="7938" width="8.28515625" customWidth="1"/>
+    <col min="7938" max="7938" width="8.33203125" customWidth="1"/>
     <col min="7939" max="7939" width="9" customWidth="1"/>
-    <col min="7940" max="7940" width="28.140625" customWidth="1"/>
-    <col min="7941" max="7941" width="10.140625" customWidth="1"/>
-    <col min="7943" max="7943" width="11.42578125" customWidth="1"/>
+    <col min="7940" max="7940" width="28.1640625" customWidth="1"/>
+    <col min="7941" max="7941" width="10.1640625" customWidth="1"/>
+    <col min="7943" max="7943" width="11.5" customWidth="1"/>
     <col min="7944" max="7944" width="8" customWidth="1"/>
     <col min="7945" max="7945" width="10" customWidth="1"/>
-    <col min="7946" max="7946" width="9.28515625" customWidth="1"/>
-    <col min="7947" max="7947" width="10.140625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.33203125" customWidth="1"/>
+    <col min="7947" max="7947" width="10.1640625" customWidth="1"/>
     <col min="7948" max="7948" width="8" customWidth="1"/>
-    <col min="8183" max="8183" width="30.42578125" customWidth="1"/>
-    <col min="8184" max="8184" width="11.42578125" customWidth="1"/>
+    <col min="8183" max="8183" width="30.5" customWidth="1"/>
+    <col min="8184" max="8184" width="11.5" customWidth="1"/>
     <col min="8185" max="8185" width="8" customWidth="1"/>
-    <col min="8186" max="8186" width="10.28515625" customWidth="1"/>
-    <col min="8187" max="8187" width="8.28515625" customWidth="1"/>
+    <col min="8186" max="8186" width="10.33203125" customWidth="1"/>
+    <col min="8187" max="8187" width="8.33203125" customWidth="1"/>
     <col min="8188" max="8188" width="10" customWidth="1"/>
     <col min="8189" max="8193" width="8" customWidth="1"/>
-    <col min="8194" max="8194" width="8.28515625" customWidth="1"/>
+    <col min="8194" max="8194" width="8.33203125" customWidth="1"/>
     <col min="8195" max="8195" width="9" customWidth="1"/>
-    <col min="8196" max="8196" width="28.140625" customWidth="1"/>
-    <col min="8197" max="8197" width="10.140625" customWidth="1"/>
-    <col min="8199" max="8199" width="11.42578125" customWidth="1"/>
+    <col min="8196" max="8196" width="28.1640625" customWidth="1"/>
+    <col min="8197" max="8197" width="10.1640625" customWidth="1"/>
+    <col min="8199" max="8199" width="11.5" customWidth="1"/>
     <col min="8200" max="8200" width="8" customWidth="1"/>
     <col min="8201" max="8201" width="10" customWidth="1"/>
-    <col min="8202" max="8202" width="9.28515625" customWidth="1"/>
-    <col min="8203" max="8203" width="10.140625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.33203125" customWidth="1"/>
+    <col min="8203" max="8203" width="10.1640625" customWidth="1"/>
     <col min="8204" max="8204" width="8" customWidth="1"/>
-    <col min="8439" max="8439" width="30.42578125" customWidth="1"/>
-    <col min="8440" max="8440" width="11.42578125" customWidth="1"/>
+    <col min="8439" max="8439" width="30.5" customWidth="1"/>
+    <col min="8440" max="8440" width="11.5" customWidth="1"/>
     <col min="8441" max="8441" width="8" customWidth="1"/>
-    <col min="8442" max="8442" width="10.28515625" customWidth="1"/>
-    <col min="8443" max="8443" width="8.28515625" customWidth="1"/>
+    <col min="8442" max="8442" width="10.33203125" customWidth="1"/>
+    <col min="8443" max="8443" width="8.33203125" customWidth="1"/>
     <col min="8444" max="8444" width="10" customWidth="1"/>
     <col min="8445" max="8449" width="8" customWidth="1"/>
-    <col min="8450" max="8450" width="8.28515625" customWidth="1"/>
+    <col min="8450" max="8450" width="8.33203125" customWidth="1"/>
     <col min="8451" max="8451" width="9" customWidth="1"/>
-    <col min="8452" max="8452" width="28.140625" customWidth="1"/>
-    <col min="8453" max="8453" width="10.140625" customWidth="1"/>
-    <col min="8455" max="8455" width="11.42578125" customWidth="1"/>
+    <col min="8452" max="8452" width="28.1640625" customWidth="1"/>
+    <col min="8453" max="8453" width="10.1640625" customWidth="1"/>
+    <col min="8455" max="8455" width="11.5" customWidth="1"/>
     <col min="8456" max="8456" width="8" customWidth="1"/>
     <col min="8457" max="8457" width="10" customWidth="1"/>
-    <col min="8458" max="8458" width="9.28515625" customWidth="1"/>
-    <col min="8459" max="8459" width="10.140625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.33203125" customWidth="1"/>
+    <col min="8459" max="8459" width="10.1640625" customWidth="1"/>
     <col min="8460" max="8460" width="8" customWidth="1"/>
-    <col min="8695" max="8695" width="30.42578125" customWidth="1"/>
-    <col min="8696" max="8696" width="11.42578125" customWidth="1"/>
+    <col min="8695" max="8695" width="30.5" customWidth="1"/>
+    <col min="8696" max="8696" width="11.5" customWidth="1"/>
     <col min="8697" max="8697" width="8" customWidth="1"/>
-    <col min="8698" max="8698" width="10.28515625" customWidth="1"/>
-    <col min="8699" max="8699" width="8.28515625" customWidth="1"/>
+    <col min="8698" max="8698" width="10.33203125" customWidth="1"/>
+    <col min="8699" max="8699" width="8.33203125" customWidth="1"/>
     <col min="8700" max="8700" width="10" customWidth="1"/>
     <col min="8701" max="8705" width="8" customWidth="1"/>
-    <col min="8706" max="8706" width="8.28515625" customWidth="1"/>
+    <col min="8706" max="8706" width="8.33203125" customWidth="1"/>
     <col min="8707" max="8707" width="9" customWidth="1"/>
-    <col min="8708" max="8708" width="28.140625" customWidth="1"/>
-    <col min="8709" max="8709" width="10.140625" customWidth="1"/>
-    <col min="8711" max="8711" width="11.42578125" customWidth="1"/>
+    <col min="8708" max="8708" width="28.1640625" customWidth="1"/>
+    <col min="8709" max="8709" width="10.1640625" customWidth="1"/>
+    <col min="8711" max="8711" width="11.5" customWidth="1"/>
     <col min="8712" max="8712" width="8" customWidth="1"/>
     <col min="8713" max="8713" width="10" customWidth="1"/>
-    <col min="8714" max="8714" width="9.28515625" customWidth="1"/>
-    <col min="8715" max="8715" width="10.140625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.33203125" customWidth="1"/>
+    <col min="8715" max="8715" width="10.1640625" customWidth="1"/>
     <col min="8716" max="8716" width="8" customWidth="1"/>
-    <col min="8951" max="8951" width="30.42578125" customWidth="1"/>
-    <col min="8952" max="8952" width="11.42578125" customWidth="1"/>
+    <col min="8951" max="8951" width="30.5" customWidth="1"/>
+    <col min="8952" max="8952" width="11.5" customWidth="1"/>
     <col min="8953" max="8953" width="8" customWidth="1"/>
-    <col min="8954" max="8954" width="10.28515625" customWidth="1"/>
-    <col min="8955" max="8955" width="8.28515625" customWidth="1"/>
+    <col min="8954" max="8954" width="10.33203125" customWidth="1"/>
+    <col min="8955" max="8955" width="8.33203125" customWidth="1"/>
     <col min="8956" max="8956" width="10" customWidth="1"/>
     <col min="8957" max="8961" width="8" customWidth="1"/>
-    <col min="8962" max="8962" width="8.28515625" customWidth="1"/>
+    <col min="8962" max="8962" width="8.33203125" customWidth="1"/>
     <col min="8963" max="8963" width="9" customWidth="1"/>
-    <col min="8964" max="8964" width="28.140625" customWidth="1"/>
-    <col min="8965" max="8965" width="10.140625" customWidth="1"/>
-    <col min="8967" max="8967" width="11.42578125" customWidth="1"/>
+    <col min="8964" max="8964" width="28.1640625" customWidth="1"/>
+    <col min="8965" max="8965" width="10.1640625" customWidth="1"/>
+    <col min="8967" max="8967" width="11.5" customWidth="1"/>
     <col min="8968" max="8968" width="8" customWidth="1"/>
     <col min="8969" max="8969" width="10" customWidth="1"/>
-    <col min="8970" max="8970" width="9.28515625" customWidth="1"/>
-    <col min="8971" max="8971" width="10.140625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.33203125" customWidth="1"/>
+    <col min="8971" max="8971" width="10.1640625" customWidth="1"/>
     <col min="8972" max="8972" width="8" customWidth="1"/>
-    <col min="9207" max="9207" width="30.42578125" customWidth="1"/>
-    <col min="9208" max="9208" width="11.42578125" customWidth="1"/>
+    <col min="9207" max="9207" width="30.5" customWidth="1"/>
+    <col min="9208" max="9208" width="11.5" customWidth="1"/>
     <col min="9209" max="9209" width="8" customWidth="1"/>
-    <col min="9210" max="9210" width="10.28515625" customWidth="1"/>
-    <col min="9211" max="9211" width="8.28515625" customWidth="1"/>
+    <col min="9210" max="9210" width="10.33203125" customWidth="1"/>
+    <col min="9211" max="9211" width="8.33203125" customWidth="1"/>
     <col min="9212" max="9212" width="10" customWidth="1"/>
     <col min="9213" max="9217" width="8" customWidth="1"/>
-    <col min="9218" max="9218" width="8.28515625" customWidth="1"/>
+    <col min="9218" max="9218" width="8.33203125" customWidth="1"/>
     <col min="9219" max="9219" width="9" customWidth="1"/>
-    <col min="9220" max="9220" width="28.140625" customWidth="1"/>
-    <col min="9221" max="9221" width="10.140625" customWidth="1"/>
-    <col min="9223" max="9223" width="11.42578125" customWidth="1"/>
+    <col min="9220" max="9220" width="28.1640625" customWidth="1"/>
+    <col min="9221" max="9221" width="10.1640625" customWidth="1"/>
+    <col min="9223" max="9223" width="11.5" customWidth="1"/>
     <col min="9224" max="9224" width="8" customWidth="1"/>
     <col min="9225" max="9225" width="10" customWidth="1"/>
-    <col min="9226" max="9226" width="9.28515625" customWidth="1"/>
-    <col min="9227" max="9227" width="10.140625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.33203125" customWidth="1"/>
+    <col min="9227" max="9227" width="10.1640625" customWidth="1"/>
     <col min="9228" max="9228" width="8" customWidth="1"/>
-    <col min="9463" max="9463" width="30.42578125" customWidth="1"/>
-    <col min="9464" max="9464" width="11.42578125" customWidth="1"/>
+    <col min="9463" max="9463" width="30.5" customWidth="1"/>
+    <col min="9464" max="9464" width="11.5" customWidth="1"/>
     <col min="9465" max="9465" width="8" customWidth="1"/>
-    <col min="9466" max="9466" width="10.28515625" customWidth="1"/>
-    <col min="9467" max="9467" width="8.28515625" customWidth="1"/>
+    <col min="9466" max="9466" width="10.33203125" customWidth="1"/>
+    <col min="9467" max="9467" width="8.33203125" customWidth="1"/>
     <col min="9468" max="9468" width="10" customWidth="1"/>
     <col min="9469" max="9473" width="8" customWidth="1"/>
-    <col min="9474" max="9474" width="8.28515625" customWidth="1"/>
+    <col min="9474" max="9474" width="8.33203125" customWidth="1"/>
     <col min="9475" max="9475" width="9" customWidth="1"/>
-    <col min="9476" max="9476" width="28.140625" customWidth="1"/>
-    <col min="9477" max="9477" width="10.140625" customWidth="1"/>
-    <col min="9479" max="9479" width="11.42578125" customWidth="1"/>
+    <col min="9476" max="9476" width="28.1640625" customWidth="1"/>
+    <col min="9477" max="9477" width="10.1640625" customWidth="1"/>
+    <col min="9479" max="9479" width="11.5" customWidth="1"/>
     <col min="9480" max="9480" width="8" customWidth="1"/>
     <col min="9481" max="9481" width="10" customWidth="1"/>
-    <col min="9482" max="9482" width="9.28515625" customWidth="1"/>
-    <col min="9483" max="9483" width="10.140625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.33203125" customWidth="1"/>
+    <col min="9483" max="9483" width="10.1640625" customWidth="1"/>
     <col min="9484" max="9484" width="8" customWidth="1"/>
-    <col min="9719" max="9719" width="30.42578125" customWidth="1"/>
-    <col min="9720" max="9720" width="11.42578125" customWidth="1"/>
+    <col min="9719" max="9719" width="30.5" customWidth="1"/>
+    <col min="9720" max="9720" width="11.5" customWidth="1"/>
     <col min="9721" max="9721" width="8" customWidth="1"/>
-    <col min="9722" max="9722" width="10.28515625" customWidth="1"/>
-    <col min="9723" max="9723" width="8.28515625" customWidth="1"/>
+    <col min="9722" max="9722" width="10.33203125" customWidth="1"/>
+    <col min="9723" max="9723" width="8.33203125" customWidth="1"/>
     <col min="9724" max="9724" width="10" customWidth="1"/>
     <col min="9725" max="9729" width="8" customWidth="1"/>
-    <col min="9730" max="9730" width="8.28515625" customWidth="1"/>
+    <col min="9730" max="9730" width="8.33203125" customWidth="1"/>
     <col min="9731" max="9731" width="9" customWidth="1"/>
-    <col min="9732" max="9732" width="28.140625" customWidth="1"/>
-    <col min="9733" max="9733" width="10.140625" customWidth="1"/>
-    <col min="9735" max="9735" width="11.42578125" customWidth="1"/>
+    <col min="9732" max="9732" width="28.1640625" customWidth="1"/>
+    <col min="9733" max="9733" width="10.1640625" customWidth="1"/>
+    <col min="9735" max="9735" width="11.5" customWidth="1"/>
     <col min="9736" max="9736" width="8" customWidth="1"/>
     <col min="9737" max="9737" width="10" customWidth="1"/>
-    <col min="9738" max="9738" width="9.28515625" customWidth="1"/>
-    <col min="9739" max="9739" width="10.140625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.33203125" customWidth="1"/>
+    <col min="9739" max="9739" width="10.1640625" customWidth="1"/>
     <col min="9740" max="9740" width="8" customWidth="1"/>
-    <col min="9975" max="9975" width="30.42578125" customWidth="1"/>
-    <col min="9976" max="9976" width="11.42578125" customWidth="1"/>
+    <col min="9975" max="9975" width="30.5" customWidth="1"/>
+    <col min="9976" max="9976" width="11.5" customWidth="1"/>
     <col min="9977" max="9977" width="8" customWidth="1"/>
-    <col min="9978" max="9978" width="10.28515625" customWidth="1"/>
-    <col min="9979" max="9979" width="8.28515625" customWidth="1"/>
+    <col min="9978" max="9978" width="10.33203125" customWidth="1"/>
+    <col min="9979" max="9979" width="8.33203125" customWidth="1"/>
     <col min="9980" max="9980" width="10" customWidth="1"/>
     <col min="9981" max="9985" width="8" customWidth="1"/>
-    <col min="9986" max="9986" width="8.28515625" customWidth="1"/>
+    <col min="9986" max="9986" width="8.33203125" customWidth="1"/>
     <col min="9987" max="9987" width="9" customWidth="1"/>
-    <col min="9988" max="9988" width="28.140625" customWidth="1"/>
-    <col min="9989" max="9989" width="10.140625" customWidth="1"/>
-    <col min="9991" max="9991" width="11.42578125" customWidth="1"/>
+    <col min="9988" max="9988" width="28.1640625" customWidth="1"/>
+    <col min="9989" max="9989" width="10.1640625" customWidth="1"/>
+    <col min="9991" max="9991" width="11.5" customWidth="1"/>
     <col min="9992" max="9992" width="8" customWidth="1"/>
     <col min="9993" max="9993" width="10" customWidth="1"/>
-    <col min="9994" max="9994" width="9.28515625" customWidth="1"/>
-    <col min="9995" max="9995" width="10.140625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.33203125" customWidth="1"/>
+    <col min="9995" max="9995" width="10.1640625" customWidth="1"/>
     <col min="9996" max="9996" width="8" customWidth="1"/>
-    <col min="10231" max="10231" width="30.42578125" customWidth="1"/>
-    <col min="10232" max="10232" width="11.42578125" customWidth="1"/>
+    <col min="10231" max="10231" width="30.5" customWidth="1"/>
+    <col min="10232" max="10232" width="11.5" customWidth="1"/>
     <col min="10233" max="10233" width="8" customWidth="1"/>
-    <col min="10234" max="10234" width="10.28515625" customWidth="1"/>
-    <col min="10235" max="10235" width="8.28515625" customWidth="1"/>
+    <col min="10234" max="10234" width="10.33203125" customWidth="1"/>
+    <col min="10235" max="10235" width="8.33203125" customWidth="1"/>
     <col min="10236" max="10236" width="10" customWidth="1"/>
     <col min="10237" max="10241" width="8" customWidth="1"/>
-    <col min="10242" max="10242" width="8.28515625" customWidth="1"/>
+    <col min="10242" max="10242" width="8.33203125" customWidth="1"/>
     <col min="10243" max="10243" width="9" customWidth="1"/>
-    <col min="10244" max="10244" width="28.140625" customWidth="1"/>
-    <col min="10245" max="10245" width="10.140625" customWidth="1"/>
-    <col min="10247" max="10247" width="11.42578125" customWidth="1"/>
+    <col min="10244" max="10244" width="28.1640625" customWidth="1"/>
+    <col min="10245" max="10245" width="10.1640625" customWidth="1"/>
+    <col min="10247" max="10247" width="11.5" customWidth="1"/>
     <col min="10248" max="10248" width="8" customWidth="1"/>
     <col min="10249" max="10249" width="10" customWidth="1"/>
-    <col min="10250" max="10250" width="9.28515625" customWidth="1"/>
-    <col min="10251" max="10251" width="10.140625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.33203125" customWidth="1"/>
+    <col min="10251" max="10251" width="10.1640625" customWidth="1"/>
     <col min="10252" max="10252" width="8" customWidth="1"/>
-    <col min="10487" max="10487" width="30.42578125" customWidth="1"/>
-    <col min="10488" max="10488" width="11.42578125" customWidth="1"/>
+    <col min="10487" max="10487" width="30.5" customWidth="1"/>
+    <col min="10488" max="10488" width="11.5" customWidth="1"/>
     <col min="10489" max="10489" width="8" customWidth="1"/>
-    <col min="10490" max="10490" width="10.28515625" customWidth="1"/>
-    <col min="10491" max="10491" width="8.28515625" customWidth="1"/>
+    <col min="10490" max="10490" width="10.33203125" customWidth="1"/>
+    <col min="10491" max="10491" width="8.33203125" customWidth="1"/>
     <col min="10492" max="10492" width="10" customWidth="1"/>
     <col min="10493" max="10497" width="8" customWidth="1"/>
-    <col min="10498" max="10498" width="8.28515625" customWidth="1"/>
+    <col min="10498" max="10498" width="8.33203125" customWidth="1"/>
     <col min="10499" max="10499" width="9" customWidth="1"/>
-    <col min="10500" max="10500" width="28.140625" customWidth="1"/>
-    <col min="10501" max="10501" width="10.140625" customWidth="1"/>
-    <col min="10503" max="10503" width="11.42578125" customWidth="1"/>
+    <col min="10500" max="10500" width="28.1640625" customWidth="1"/>
+    <col min="10501" max="10501" width="10.1640625" customWidth="1"/>
+    <col min="10503" max="10503" width="11.5" customWidth="1"/>
     <col min="10504" max="10504" width="8" customWidth="1"/>
     <col min="10505" max="10505" width="10" customWidth="1"/>
-    <col min="10506" max="10506" width="9.28515625" customWidth="1"/>
-    <col min="10507" max="10507" width="10.140625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.33203125" customWidth="1"/>
+    <col min="10507" max="10507" width="10.1640625" customWidth="1"/>
     <col min="10508" max="10508" width="8" customWidth="1"/>
-    <col min="10743" max="10743" width="30.42578125" customWidth="1"/>
-    <col min="10744" max="10744" width="11.42578125" customWidth="1"/>
+    <col min="10743" max="10743" width="30.5" customWidth="1"/>
+    <col min="10744" max="10744" width="11.5" customWidth="1"/>
     <col min="10745" max="10745" width="8" customWidth="1"/>
-    <col min="10746" max="10746" width="10.28515625" customWidth="1"/>
-    <col min="10747" max="10747" width="8.28515625" customWidth="1"/>
+    <col min="10746" max="10746" width="10.33203125" customWidth="1"/>
+    <col min="10747" max="10747" width="8.33203125" customWidth="1"/>
     <col min="10748" max="10748" width="10" customWidth="1"/>
     <col min="10749" max="10753" width="8" customWidth="1"/>
-    <col min="10754" max="10754" width="8.28515625" customWidth="1"/>
+    <col min="10754" max="10754" width="8.33203125" customWidth="1"/>
     <col min="10755" max="10755" width="9" customWidth="1"/>
-    <col min="10756" max="10756" width="28.140625" customWidth="1"/>
-    <col min="10757" max="10757" width="10.140625" customWidth="1"/>
-    <col min="10759" max="10759" width="11.42578125" customWidth="1"/>
+    <col min="10756" max="10756" width="28.1640625" customWidth="1"/>
+    <col min="10757" max="10757" width="10.1640625" customWidth="1"/>
+    <col min="10759" max="10759" width="11.5" customWidth="1"/>
     <col min="10760" max="10760" width="8" customWidth="1"/>
     <col min="10761" max="10761" width="10" customWidth="1"/>
-    <col min="10762" max="10762" width="9.28515625" customWidth="1"/>
-    <col min="10763" max="10763" width="10.140625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.33203125" customWidth="1"/>
+    <col min="10763" max="10763" width="10.1640625" customWidth="1"/>
     <col min="10764" max="10764" width="8" customWidth="1"/>
-    <col min="10999" max="10999" width="30.42578125" customWidth="1"/>
-    <col min="11000" max="11000" width="11.42578125" customWidth="1"/>
+    <col min="10999" max="10999" width="30.5" customWidth="1"/>
+    <col min="11000" max="11000" width="11.5" customWidth="1"/>
     <col min="11001" max="11001" width="8" customWidth="1"/>
-    <col min="11002" max="11002" width="10.28515625" customWidth="1"/>
-    <col min="11003" max="11003" width="8.28515625" customWidth="1"/>
+    <col min="11002" max="11002" width="10.33203125" customWidth="1"/>
+    <col min="11003" max="11003" width="8.33203125" customWidth="1"/>
     <col min="11004" max="11004" width="10" customWidth="1"/>
     <col min="11005" max="11009" width="8" customWidth="1"/>
-    <col min="11010" max="11010" width="8.28515625" customWidth="1"/>
+    <col min="11010" max="11010" width="8.33203125" customWidth="1"/>
     <col min="11011" max="11011" width="9" customWidth="1"/>
-    <col min="11012" max="11012" width="28.140625" customWidth="1"/>
-    <col min="11013" max="11013" width="10.140625" customWidth="1"/>
-    <col min="11015" max="11015" width="11.42578125" customWidth="1"/>
+    <col min="11012" max="11012" width="28.1640625" customWidth="1"/>
+    <col min="11013" max="11013" width="10.1640625" customWidth="1"/>
+    <col min="11015" max="11015" width="11.5" customWidth="1"/>
     <col min="11016" max="11016" width="8" customWidth="1"/>
     <col min="11017" max="11017" width="10" customWidth="1"/>
-    <col min="11018" max="11018" width="9.28515625" customWidth="1"/>
-    <col min="11019" max="11019" width="10.140625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.33203125" customWidth="1"/>
+    <col min="11019" max="11019" width="10.1640625" customWidth="1"/>
     <col min="11020" max="11020" width="8" customWidth="1"/>
-    <col min="11255" max="11255" width="30.42578125" customWidth="1"/>
-    <col min="11256" max="11256" width="11.42578125" customWidth="1"/>
+    <col min="11255" max="11255" width="30.5" customWidth="1"/>
+    <col min="11256" max="11256" width="11.5" customWidth="1"/>
     <col min="11257" max="11257" width="8" customWidth="1"/>
-    <col min="11258" max="11258" width="10.28515625" customWidth="1"/>
-    <col min="11259" max="11259" width="8.28515625" customWidth="1"/>
+    <col min="11258" max="11258" width="10.33203125" customWidth="1"/>
+    <col min="11259" max="11259" width="8.33203125" customWidth="1"/>
     <col min="11260" max="11260" width="10" customWidth="1"/>
     <col min="11261" max="11265" width="8" customWidth="1"/>
-    <col min="11266" max="11266" width="8.28515625" customWidth="1"/>
+    <col min="11266" max="11266" width="8.33203125" customWidth="1"/>
     <col min="11267" max="11267" width="9" customWidth="1"/>
-    <col min="11268" max="11268" width="28.140625" customWidth="1"/>
-    <col min="11269" max="11269" width="10.140625" customWidth="1"/>
-    <col min="11271" max="11271" width="11.42578125" customWidth="1"/>
+    <col min="11268" max="11268" width="28.1640625" customWidth="1"/>
+    <col min="11269" max="11269" width="10.1640625" customWidth="1"/>
+    <col min="11271" max="11271" width="11.5" customWidth="1"/>
     <col min="11272" max="11272" width="8" customWidth="1"/>
     <col min="11273" max="11273" width="10" customWidth="1"/>
-    <col min="11274" max="11274" width="9.28515625" customWidth="1"/>
-    <col min="11275" max="11275" width="10.140625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.33203125" customWidth="1"/>
+    <col min="11275" max="11275" width="10.1640625" customWidth="1"/>
     <col min="11276" max="11276" width="8" customWidth="1"/>
-    <col min="11511" max="11511" width="30.42578125" customWidth="1"/>
-    <col min="11512" max="11512" width="11.42578125" customWidth="1"/>
+    <col min="11511" max="11511" width="30.5" customWidth="1"/>
+    <col min="11512" max="11512" width="11.5" customWidth="1"/>
     <col min="11513" max="11513" width="8" customWidth="1"/>
-    <col min="11514" max="11514" width="10.28515625" customWidth="1"/>
-    <col min="11515" max="11515" width="8.28515625" customWidth="1"/>
+    <col min="11514" max="11514" width="10.33203125" customWidth="1"/>
+    <col min="11515" max="11515" width="8.33203125" customWidth="1"/>
     <col min="11516" max="11516" width="10" customWidth="1"/>
     <col min="11517" max="11521" width="8" customWidth="1"/>
-    <col min="11522" max="11522" width="8.28515625" customWidth="1"/>
+    <col min="11522" max="11522" width="8.33203125" customWidth="1"/>
     <col min="11523" max="11523" width="9" customWidth="1"/>
-    <col min="11524" max="11524" width="28.140625" customWidth="1"/>
-    <col min="11525" max="11525" width="10.140625" customWidth="1"/>
-    <col min="11527" max="11527" width="11.42578125" customWidth="1"/>
+    <col min="11524" max="11524" width="28.1640625" customWidth="1"/>
+    <col min="11525" max="11525" width="10.1640625" customWidth="1"/>
+    <col min="11527" max="11527" width="11.5" customWidth="1"/>
     <col min="11528" max="11528" width="8" customWidth="1"/>
     <col min="11529" max="11529" width="10" customWidth="1"/>
-    <col min="11530" max="11530" width="9.28515625" customWidth="1"/>
-    <col min="11531" max="11531" width="10.140625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.33203125" customWidth="1"/>
+    <col min="11531" max="11531" width="10.1640625" customWidth="1"/>
     <col min="11532" max="11532" width="8" customWidth="1"/>
-    <col min="11767" max="11767" width="30.42578125" customWidth="1"/>
-    <col min="11768" max="11768" width="11.42578125" customWidth="1"/>
+    <col min="11767" max="11767" width="30.5" customWidth="1"/>
+    <col min="11768" max="11768" width="11.5" customWidth="1"/>
     <col min="11769" max="11769" width="8" customWidth="1"/>
-    <col min="11770" max="11770" width="10.28515625" customWidth="1"/>
-    <col min="11771" max="11771" width="8.28515625" customWidth="1"/>
+    <col min="11770" max="11770" width="10.33203125" customWidth="1"/>
+    <col min="11771" max="11771" width="8.33203125" customWidth="1"/>
     <col min="11772" max="11772" width="10" customWidth="1"/>
     <col min="11773" max="11777" width="8" customWidth="1"/>
-    <col min="11778" max="11778" width="8.28515625" customWidth="1"/>
+    <col min="11778" max="11778" width="8.33203125" customWidth="1"/>
     <col min="11779" max="11779" width="9" customWidth="1"/>
-    <col min="11780" max="11780" width="28.140625" customWidth="1"/>
-    <col min="11781" max="11781" width="10.140625" customWidth="1"/>
-    <col min="11783" max="11783" width="11.42578125" customWidth="1"/>
+    <col min="11780" max="11780" width="28.1640625" customWidth="1"/>
+    <col min="11781" max="11781" width="10.1640625" customWidth="1"/>
+    <col min="11783" max="11783" width="11.5" customWidth="1"/>
     <col min="11784" max="11784" width="8" customWidth="1"/>
     <col min="11785" max="11785" width="10" customWidth="1"/>
-    <col min="11786" max="11786" width="9.28515625" customWidth="1"/>
-    <col min="11787" max="11787" width="10.140625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.33203125" customWidth="1"/>
+    <col min="11787" max="11787" width="10.1640625" customWidth="1"/>
     <col min="11788" max="11788" width="8" customWidth="1"/>
-    <col min="12023" max="12023" width="30.42578125" customWidth="1"/>
-    <col min="12024" max="12024" width="11.42578125" customWidth="1"/>
+    <col min="12023" max="12023" width="30.5" customWidth="1"/>
+    <col min="12024" max="12024" width="11.5" customWidth="1"/>
     <col min="12025" max="12025" width="8" customWidth="1"/>
-    <col min="12026" max="12026" width="10.28515625" customWidth="1"/>
-    <col min="12027" max="12027" width="8.28515625" customWidth="1"/>
+    <col min="12026" max="12026" width="10.33203125" customWidth="1"/>
+    <col min="12027" max="12027" width="8.33203125" customWidth="1"/>
     <col min="12028" max="12028" width="10" customWidth="1"/>
     <col min="12029" max="12033" width="8" customWidth="1"/>
-    <col min="12034" max="12034" width="8.28515625" customWidth="1"/>
+    <col min="12034" max="12034" width="8.33203125" customWidth="1"/>
     <col min="12035" max="12035" width="9" customWidth="1"/>
-    <col min="12036" max="12036" width="28.140625" customWidth="1"/>
-    <col min="12037" max="12037" width="10.140625" customWidth="1"/>
-    <col min="12039" max="12039" width="11.42578125" customWidth="1"/>
+    <col min="12036" max="12036" width="28.1640625" customWidth="1"/>
+    <col min="12037" max="12037" width="10.1640625" customWidth="1"/>
+    <col min="12039" max="12039" width="11.5" customWidth="1"/>
     <col min="12040" max="12040" width="8" customWidth="1"/>
     <col min="12041" max="12041" width="10" customWidth="1"/>
-    <col min="12042" max="12042" width="9.28515625" customWidth="1"/>
-    <col min="12043" max="12043" width="10.140625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.33203125" customWidth="1"/>
+    <col min="12043" max="12043" width="10.1640625" customWidth="1"/>
     <col min="12044" max="12044" width="8" customWidth="1"/>
-    <col min="12279" max="12279" width="30.42578125" customWidth="1"/>
-    <col min="12280" max="12280" width="11.42578125" customWidth="1"/>
+    <col min="12279" max="12279" width="30.5" customWidth="1"/>
+    <col min="12280" max="12280" width="11.5" customWidth="1"/>
     <col min="12281" max="12281" width="8" customWidth="1"/>
-    <col min="12282" max="12282" width="10.28515625" customWidth="1"/>
-    <col min="12283" max="12283" width="8.28515625" customWidth="1"/>
+    <col min="12282" max="12282" width="10.33203125" customWidth="1"/>
+    <col min="12283" max="12283" width="8.33203125" customWidth="1"/>
     <col min="12284" max="12284" width="10" customWidth="1"/>
     <col min="12285" max="12289" width="8" customWidth="1"/>
-    <col min="12290" max="12290" width="8.28515625" customWidth="1"/>
+    <col min="12290" max="12290" width="8.33203125" customWidth="1"/>
     <col min="12291" max="12291" width="9" customWidth="1"/>
-    <col min="12292" max="12292" width="28.140625" customWidth="1"/>
-    <col min="12293" max="12293" width="10.140625" customWidth="1"/>
-    <col min="12295" max="12295" width="11.42578125" customWidth="1"/>
+    <col min="12292" max="12292" width="28.1640625" customWidth="1"/>
+    <col min="12293" max="12293" width="10.1640625" customWidth="1"/>
+    <col min="12295" max="12295" width="11.5" customWidth="1"/>
     <col min="12296" max="12296" width="8" customWidth="1"/>
     <col min="12297" max="12297" width="10" customWidth="1"/>
-    <col min="12298" max="12298" width="9.28515625" customWidth="1"/>
-    <col min="12299" max="12299" width="10.140625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.33203125" customWidth="1"/>
+    <col min="12299" max="12299" width="10.1640625" customWidth="1"/>
     <col min="12300" max="12300" width="8" customWidth="1"/>
-    <col min="12535" max="12535" width="30.42578125" customWidth="1"/>
-    <col min="12536" max="12536" width="11.42578125" customWidth="1"/>
+    <col min="12535" max="12535" width="30.5" customWidth="1"/>
+    <col min="12536" max="12536" width="11.5" customWidth="1"/>
     <col min="12537" max="12537" width="8" customWidth="1"/>
-    <col min="12538" max="12538" width="10.28515625" customWidth="1"/>
-    <col min="12539" max="12539" width="8.28515625" customWidth="1"/>
+    <col min="12538" max="12538" width="10.33203125" customWidth="1"/>
+    <col min="12539" max="12539" width="8.33203125" customWidth="1"/>
     <col min="12540" max="12540" width="10" customWidth="1"/>
     <col min="12541" max="12545" width="8" customWidth="1"/>
-    <col min="12546" max="12546" width="8.28515625" customWidth="1"/>
+    <col min="12546" max="12546" width="8.33203125" customWidth="1"/>
     <col min="12547" max="12547" width="9" customWidth="1"/>
-    <col min="12548" max="12548" width="28.140625" customWidth="1"/>
-    <col min="12549" max="12549" width="10.140625" customWidth="1"/>
-    <col min="12551" max="12551" width="11.42578125" customWidth="1"/>
+    <col min="12548" max="12548" width="28.1640625" customWidth="1"/>
+    <col min="12549" max="12549" width="10.1640625" customWidth="1"/>
+    <col min="12551" max="12551" width="11.5" customWidth="1"/>
     <col min="12552" max="12552" width="8" customWidth="1"/>
     <col min="12553" max="12553" width="10" customWidth="1"/>
-    <col min="12554" max="12554" width="9.28515625" customWidth="1"/>
-    <col min="12555" max="12555" width="10.140625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.33203125" customWidth="1"/>
+    <col min="12555" max="12555" width="10.1640625" customWidth="1"/>
     <col min="12556" max="12556" width="8" customWidth="1"/>
-    <col min="12791" max="12791" width="30.42578125" customWidth="1"/>
-    <col min="12792" max="12792" width="11.42578125" customWidth="1"/>
+    <col min="12791" max="12791" width="30.5" customWidth="1"/>
+    <col min="12792" max="12792" width="11.5" customWidth="1"/>
     <col min="12793" max="12793" width="8" customWidth="1"/>
-    <col min="12794" max="12794" width="10.28515625" customWidth="1"/>
-    <col min="12795" max="12795" width="8.28515625" customWidth="1"/>
+    <col min="12794" max="12794" width="10.33203125" customWidth="1"/>
+    <col min="12795" max="12795" width="8.33203125" customWidth="1"/>
     <col min="12796" max="12796" width="10" customWidth="1"/>
     <col min="12797" max="12801" width="8" customWidth="1"/>
-    <col min="12802" max="12802" width="8.28515625" customWidth="1"/>
+    <col min="12802" max="12802" width="8.33203125" customWidth="1"/>
     <col min="12803" max="12803" width="9" customWidth="1"/>
-    <col min="12804" max="12804" width="28.140625" customWidth="1"/>
-    <col min="12805" max="12805" width="10.140625" customWidth="1"/>
-    <col min="12807" max="12807" width="11.42578125" customWidth="1"/>
+    <col min="12804" max="12804" width="28.1640625" customWidth="1"/>
+    <col min="12805" max="12805" width="10.1640625" customWidth="1"/>
+    <col min="12807" max="12807" width="11.5" customWidth="1"/>
     <col min="12808" max="12808" width="8" customWidth="1"/>
     <col min="12809" max="12809" width="10" customWidth="1"/>
-    <col min="12810" max="12810" width="9.28515625" customWidth="1"/>
-    <col min="12811" max="12811" width="10.140625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.33203125" customWidth="1"/>
+    <col min="12811" max="12811" width="10.1640625" customWidth="1"/>
     <col min="12812" max="12812" width="8" customWidth="1"/>
-    <col min="13047" max="13047" width="30.42578125" customWidth="1"/>
-    <col min="13048" max="13048" width="11.42578125" customWidth="1"/>
+    <col min="13047" max="13047" width="30.5" customWidth="1"/>
+    <col min="13048" max="13048" width="11.5" customWidth="1"/>
     <col min="13049" max="13049" width="8" customWidth="1"/>
-    <col min="13050" max="13050" width="10.28515625" customWidth="1"/>
-    <col min="13051" max="13051" width="8.28515625" customWidth="1"/>
+    <col min="13050" max="13050" width="10.33203125" customWidth="1"/>
+    <col min="13051" max="13051" width="8.33203125" customWidth="1"/>
     <col min="13052" max="13052" width="10" customWidth="1"/>
     <col min="13053" max="13057" width="8" customWidth="1"/>
-    <col min="13058" max="13058" width="8.28515625" customWidth="1"/>
+    <col min="13058" max="13058" width="8.33203125" customWidth="1"/>
     <col min="13059" max="13059" width="9" customWidth="1"/>
-    <col min="13060" max="13060" width="28.140625" customWidth="1"/>
-    <col min="13061" max="13061" width="10.140625" customWidth="1"/>
-    <col min="13063" max="13063" width="11.42578125" customWidth="1"/>
+    <col min="13060" max="13060" width="28.1640625" customWidth="1"/>
+    <col min="13061" max="13061" width="10.1640625" customWidth="1"/>
+    <col min="13063" max="13063" width="11.5" customWidth="1"/>
     <col min="13064" max="13064" width="8" customWidth="1"/>
     <col min="13065" max="13065" width="10" customWidth="1"/>
-    <col min="13066" max="13066" width="9.28515625" customWidth="1"/>
-    <col min="13067" max="13067" width="10.140625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.33203125" customWidth="1"/>
+    <col min="13067" max="13067" width="10.1640625" customWidth="1"/>
     <col min="13068" max="13068" width="8" customWidth="1"/>
-    <col min="13303" max="13303" width="30.42578125" customWidth="1"/>
-    <col min="13304" max="13304" width="11.42578125" customWidth="1"/>
+    <col min="13303" max="13303" width="30.5" customWidth="1"/>
+    <col min="13304" max="13304" width="11.5" customWidth="1"/>
     <col min="13305" max="13305" width="8" customWidth="1"/>
-    <col min="13306" max="13306" width="10.28515625" customWidth="1"/>
-    <col min="13307" max="13307" width="8.28515625" customWidth="1"/>
+    <col min="13306" max="13306" width="10.33203125" customWidth="1"/>
+    <col min="13307" max="13307" width="8.33203125" customWidth="1"/>
     <col min="13308" max="13308" width="10" customWidth="1"/>
     <col min="13309" max="13313" width="8" customWidth="1"/>
-    <col min="13314" max="13314" width="8.28515625" customWidth="1"/>
+    <col min="13314" max="13314" width="8.33203125" customWidth="1"/>
     <col min="13315" max="13315" width="9" customWidth="1"/>
-    <col min="13316" max="13316" width="28.140625" customWidth="1"/>
-    <col min="13317" max="13317" width="10.140625" customWidth="1"/>
-    <col min="13319" max="13319" width="11.42578125" customWidth="1"/>
+    <col min="13316" max="13316" width="28.1640625" customWidth="1"/>
+    <col min="13317" max="13317" width="10.1640625" customWidth="1"/>
+    <col min="13319" max="13319" width="11.5" customWidth="1"/>
     <col min="13320" max="13320" width="8" customWidth="1"/>
     <col min="13321" max="13321" width="10" customWidth="1"/>
-    <col min="13322" max="13322" width="9.28515625" customWidth="1"/>
-    <col min="13323" max="13323" width="10.140625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.33203125" customWidth="1"/>
+    <col min="13323" max="13323" width="10.1640625" customWidth="1"/>
     <col min="13324" max="13324" width="8" customWidth="1"/>
-    <col min="13559" max="13559" width="30.42578125" customWidth="1"/>
-    <col min="13560" max="13560" width="11.42578125" customWidth="1"/>
+    <col min="13559" max="13559" width="30.5" customWidth="1"/>
+    <col min="13560" max="13560" width="11.5" customWidth="1"/>
     <col min="13561" max="13561" width="8" customWidth="1"/>
-    <col min="13562" max="13562" width="10.28515625" customWidth="1"/>
-    <col min="13563" max="13563" width="8.28515625" customWidth="1"/>
+    <col min="13562" max="13562" width="10.33203125" customWidth="1"/>
+    <col min="13563" max="13563" width="8.33203125" customWidth="1"/>
     <col min="13564" max="13564" width="10" customWidth="1"/>
     <col min="13565" max="13569" width="8" customWidth="1"/>
-    <col min="13570" max="13570" width="8.28515625" customWidth="1"/>
+    <col min="13570" max="13570" width="8.33203125" customWidth="1"/>
     <col min="13571" max="13571" width="9" customWidth="1"/>
-    <col min="13572" max="13572" width="28.140625" customWidth="1"/>
-    <col min="13573" max="13573" width="10.140625" customWidth="1"/>
-    <col min="13575" max="13575" width="11.42578125" customWidth="1"/>
+    <col min="13572" max="13572" width="28.1640625" customWidth="1"/>
+    <col min="13573" max="13573" width="10.1640625" customWidth="1"/>
+    <col min="13575" max="13575" width="11.5" customWidth="1"/>
     <col min="13576" max="13576" width="8" customWidth="1"/>
     <col min="13577" max="13577" width="10" customWidth="1"/>
-    <col min="13578" max="13578" width="9.28515625" customWidth="1"/>
-    <col min="13579" max="13579" width="10.140625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.33203125" customWidth="1"/>
+    <col min="13579" max="13579" width="10.1640625" customWidth="1"/>
     <col min="13580" max="13580" width="8" customWidth="1"/>
-    <col min="13815" max="13815" width="30.42578125" customWidth="1"/>
-    <col min="13816" max="13816" width="11.42578125" customWidth="1"/>
+    <col min="13815" max="13815" width="30.5" customWidth="1"/>
+    <col min="13816" max="13816" width="11.5" customWidth="1"/>
     <col min="13817" max="13817" width="8" customWidth="1"/>
-    <col min="13818" max="13818" width="10.28515625" customWidth="1"/>
-    <col min="13819" max="13819" width="8.28515625" customWidth="1"/>
+    <col min="13818" max="13818" width="10.33203125" customWidth="1"/>
+    <col min="13819" max="13819" width="8.33203125" customWidth="1"/>
     <col min="13820" max="13820" width="10" customWidth="1"/>
     <col min="13821" max="13825" width="8" customWidth="1"/>
-    <col min="13826" max="13826" width="8.28515625" customWidth="1"/>
+    <col min="13826" max="13826" width="8.33203125" customWidth="1"/>
     <col min="13827" max="13827" width="9" customWidth="1"/>
-    <col min="13828" max="13828" width="28.140625" customWidth="1"/>
-    <col min="13829" max="13829" width="10.140625" customWidth="1"/>
-    <col min="13831" max="13831" width="11.42578125" customWidth="1"/>
+    <col min="13828" max="13828" width="28.1640625" customWidth="1"/>
+    <col min="13829" max="13829" width="10.1640625" customWidth="1"/>
+    <col min="13831" max="13831" width="11.5" customWidth="1"/>
     <col min="13832" max="13832" width="8" customWidth="1"/>
     <col min="13833" max="13833" width="10" customWidth="1"/>
-    <col min="13834" max="13834" width="9.28515625" customWidth="1"/>
-    <col min="13835" max="13835" width="10.140625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.33203125" customWidth="1"/>
+    <col min="13835" max="13835" width="10.1640625" customWidth="1"/>
     <col min="13836" max="13836" width="8" customWidth="1"/>
-    <col min="14071" max="14071" width="30.42578125" customWidth="1"/>
-    <col min="14072" max="14072" width="11.42578125" customWidth="1"/>
+    <col min="14071" max="14071" width="30.5" customWidth="1"/>
+    <col min="14072" max="14072" width="11.5" customWidth="1"/>
     <col min="14073" max="14073" width="8" customWidth="1"/>
-    <col min="14074" max="14074" width="10.28515625" customWidth="1"/>
-    <col min="14075" max="14075" width="8.28515625" customWidth="1"/>
+    <col min="14074" max="14074" width="10.33203125" customWidth="1"/>
+    <col min="14075" max="14075" width="8.33203125" customWidth="1"/>
     <col min="14076" max="14076" width="10" customWidth="1"/>
     <col min="14077" max="14081" width="8" customWidth="1"/>
-    <col min="14082" max="14082" width="8.28515625" customWidth="1"/>
+    <col min="14082" max="14082" width="8.33203125" customWidth="1"/>
     <col min="14083" max="14083" width="9" customWidth="1"/>
-    <col min="14084" max="14084" width="28.140625" customWidth="1"/>
-    <col min="14085" max="14085" width="10.140625" customWidth="1"/>
-    <col min="14087" max="14087" width="11.42578125" customWidth="1"/>
+    <col min="14084" max="14084" width="28.1640625" customWidth="1"/>
+    <col min="14085" max="14085" width="10.1640625" customWidth="1"/>
+    <col min="14087" max="14087" width="11.5" customWidth="1"/>
     <col min="14088" max="14088" width="8" customWidth="1"/>
     <col min="14089" max="14089" width="10" customWidth="1"/>
-    <col min="14090" max="14090" width="9.28515625" customWidth="1"/>
-    <col min="14091" max="14091" width="10.140625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.33203125" customWidth="1"/>
+    <col min="14091" max="14091" width="10.1640625" customWidth="1"/>
     <col min="14092" max="14092" width="8" customWidth="1"/>
-    <col min="14327" max="14327" width="30.42578125" customWidth="1"/>
-    <col min="14328" max="14328" width="11.42578125" customWidth="1"/>
+    <col min="14327" max="14327" width="30.5" customWidth="1"/>
+    <col min="14328" max="14328" width="11.5" customWidth="1"/>
     <col min="14329" max="14329" width="8" customWidth="1"/>
-    <col min="14330" max="14330" width="10.28515625" customWidth="1"/>
-    <col min="14331" max="14331" width="8.28515625" customWidth="1"/>
+    <col min="14330" max="14330" width="10.33203125" customWidth="1"/>
+    <col min="14331" max="14331" width="8.33203125" customWidth="1"/>
     <col min="14332" max="14332" width="10" customWidth="1"/>
     <col min="14333" max="14337" width="8" customWidth="1"/>
-    <col min="14338" max="14338" width="8.28515625" customWidth="1"/>
+    <col min="14338" max="14338" width="8.33203125" customWidth="1"/>
     <col min="14339" max="14339" width="9" customWidth="1"/>
-    <col min="14340" max="14340" width="28.140625" customWidth="1"/>
-    <col min="14341" max="14341" width="10.140625" customWidth="1"/>
-    <col min="14343" max="14343" width="11.42578125" customWidth="1"/>
+    <col min="14340" max="14340" width="28.1640625" customWidth="1"/>
+    <col min="14341" max="14341" width="10.1640625" customWidth="1"/>
+    <col min="14343" max="14343" width="11.5" customWidth="1"/>
     <col min="14344" max="14344" width="8" customWidth="1"/>
     <col min="14345" max="14345" width="10" customWidth="1"/>
-    <col min="14346" max="14346" width="9.28515625" customWidth="1"/>
-    <col min="14347" max="14347" width="10.140625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.33203125" customWidth="1"/>
+    <col min="14347" max="14347" width="10.1640625" customWidth="1"/>
     <col min="14348" max="14348" width="8" customWidth="1"/>
-    <col min="14583" max="14583" width="30.42578125" customWidth="1"/>
-    <col min="14584" max="14584" width="11.42578125" customWidth="1"/>
+    <col min="14583" max="14583" width="30.5" customWidth="1"/>
+    <col min="14584" max="14584" width="11.5" customWidth="1"/>
     <col min="14585" max="14585" width="8" customWidth="1"/>
-    <col min="14586" max="14586" width="10.28515625" customWidth="1"/>
-    <col min="14587" max="14587" width="8.28515625" customWidth="1"/>
+    <col min="14586" max="14586" width="10.33203125" customWidth="1"/>
+    <col min="14587" max="14587" width="8.33203125" customWidth="1"/>
     <col min="14588" max="14588" width="10" customWidth="1"/>
     <col min="14589" max="14593" width="8" customWidth="1"/>
-    <col min="14594" max="14594" width="8.28515625" customWidth="1"/>
+    <col min="14594" max="14594" width="8.33203125" customWidth="1"/>
     <col min="14595" max="14595" width="9" customWidth="1"/>
-    <col min="14596" max="14596" width="28.140625" customWidth="1"/>
-    <col min="14597" max="14597" width="10.140625" customWidth="1"/>
-    <col min="14599" max="14599" width="11.42578125" customWidth="1"/>
+    <col min="14596" max="14596" width="28.1640625" customWidth="1"/>
+    <col min="14597" max="14597" width="10.1640625" customWidth="1"/>
+    <col min="14599" max="14599" width="11.5" customWidth="1"/>
     <col min="14600" max="14600" width="8" customWidth="1"/>
     <col min="14601" max="14601" width="10" customWidth="1"/>
-    <col min="14602" max="14602" width="9.28515625" customWidth="1"/>
-    <col min="14603" max="14603" width="10.140625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.33203125" customWidth="1"/>
+    <col min="14603" max="14603" width="10.1640625" customWidth="1"/>
     <col min="14604" max="14604" width="8" customWidth="1"/>
-    <col min="14839" max="14839" width="30.42578125" customWidth="1"/>
-    <col min="14840" max="14840" width="11.42578125" customWidth="1"/>
+    <col min="14839" max="14839" width="30.5" customWidth="1"/>
+    <col min="14840" max="14840" width="11.5" customWidth="1"/>
     <col min="14841" max="14841" width="8" customWidth="1"/>
-    <col min="14842" max="14842" width="10.28515625" customWidth="1"/>
-    <col min="14843" max="14843" width="8.28515625" customWidth="1"/>
+    <col min="14842" max="14842" width="10.33203125" customWidth="1"/>
+    <col min="14843" max="14843" width="8.33203125" customWidth="1"/>
     <col min="14844" max="14844" width="10" customWidth="1"/>
     <col min="14845" max="14849" width="8" customWidth="1"/>
-    <col min="14850" max="14850" width="8.28515625" customWidth="1"/>
+    <col min="14850" max="14850" width="8.33203125" customWidth="1"/>
     <col min="14851" max="14851" width="9" customWidth="1"/>
-    <col min="14852" max="14852" width="28.140625" customWidth="1"/>
-    <col min="14853" max="14853" width="10.140625" customWidth="1"/>
-    <col min="14855" max="14855" width="11.42578125" customWidth="1"/>
+    <col min="14852" max="14852" width="28.1640625" customWidth="1"/>
+    <col min="14853" max="14853" width="10.1640625" customWidth="1"/>
+    <col min="14855" max="14855" width="11.5" customWidth="1"/>
     <col min="14856" max="14856" width="8" customWidth="1"/>
     <col min="14857" max="14857" width="10" customWidth="1"/>
-    <col min="14858" max="14858" width="9.28515625" customWidth="1"/>
-    <col min="14859" max="14859" width="10.140625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.33203125" customWidth="1"/>
+    <col min="14859" max="14859" width="10.1640625" customWidth="1"/>
     <col min="14860" max="14860" width="8" customWidth="1"/>
-    <col min="15095" max="15095" width="30.42578125" customWidth="1"/>
-    <col min="15096" max="15096" width="11.42578125" customWidth="1"/>
+    <col min="15095" max="15095" width="30.5" customWidth="1"/>
+    <col min="15096" max="15096" width="11.5" customWidth="1"/>
     <col min="15097" max="15097" width="8" customWidth="1"/>
-    <col min="15098" max="15098" width="10.28515625" customWidth="1"/>
-    <col min="15099" max="15099" width="8.28515625" customWidth="1"/>
+    <col min="15098" max="15098" width="10.33203125" customWidth="1"/>
+    <col min="15099" max="15099" width="8.33203125" customWidth="1"/>
     <col min="15100" max="15100" width="10" customWidth="1"/>
     <col min="15101" max="15105" width="8" customWidth="1"/>
-    <col min="15106" max="15106" width="8.28515625" customWidth="1"/>
+    <col min="15106" max="15106" width="8.33203125" customWidth="1"/>
     <col min="15107" max="15107" width="9" customWidth="1"/>
-    <col min="15108" max="15108" width="28.140625" customWidth="1"/>
-    <col min="15109" max="15109" width="10.140625" customWidth="1"/>
-    <col min="15111" max="15111" width="11.42578125" customWidth="1"/>
+    <col min="15108" max="15108" width="28.1640625" customWidth="1"/>
+    <col min="15109" max="15109" width="10.1640625" customWidth="1"/>
+    <col min="15111" max="15111" width="11.5" customWidth="1"/>
     <col min="15112" max="15112" width="8" customWidth="1"/>
     <col min="15113" max="15113" width="10" customWidth="1"/>
-    <col min="15114" max="15114" width="9.28515625" customWidth="1"/>
-    <col min="15115" max="15115" width="10.140625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.33203125" customWidth="1"/>
+    <col min="15115" max="15115" width="10.1640625" customWidth="1"/>
     <col min="15116" max="15116" width="8" customWidth="1"/>
-    <col min="15351" max="15351" width="30.42578125" customWidth="1"/>
-    <col min="15352" max="15352" width="11.42578125" customWidth="1"/>
+    <col min="15351" max="15351" width="30.5" customWidth="1"/>
+    <col min="15352" max="15352" width="11.5" customWidth="1"/>
     <col min="15353" max="15353" width="8" customWidth="1"/>
-    <col min="15354" max="15354" width="10.28515625" customWidth="1"/>
-    <col min="15355" max="15355" width="8.28515625" customWidth="1"/>
+    <col min="15354" max="15354" width="10.33203125" customWidth="1"/>
+    <col min="15355" max="15355" width="8.33203125" customWidth="1"/>
     <col min="15356" max="15356" width="10" customWidth="1"/>
     <col min="15357" max="15361" width="8" customWidth="1"/>
-    <col min="15362" max="15362" width="8.28515625" customWidth="1"/>
+    <col min="15362" max="15362" width="8.33203125" customWidth="1"/>
     <col min="15363" max="15363" width="9" customWidth="1"/>
-    <col min="15364" max="15364" width="28.140625" customWidth="1"/>
-    <col min="15365" max="15365" width="10.140625" customWidth="1"/>
-    <col min="15367" max="15367" width="11.42578125" customWidth="1"/>
+    <col min="15364" max="15364" width="28.1640625" customWidth="1"/>
+    <col min="15365" max="15365" width="10.1640625" customWidth="1"/>
+    <col min="15367" max="15367" width="11.5" customWidth="1"/>
     <col min="15368" max="15368" width="8" customWidth="1"/>
     <col min="15369" max="15369" width="10" customWidth="1"/>
-    <col min="15370" max="15370" width="9.28515625" customWidth="1"/>
-    <col min="15371" max="15371" width="10.140625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.33203125" customWidth="1"/>
+    <col min="15371" max="15371" width="10.1640625" customWidth="1"/>
     <col min="15372" max="15372" width="8" customWidth="1"/>
-    <col min="15607" max="15607" width="30.42578125" customWidth="1"/>
-    <col min="15608" max="15608" width="11.42578125" customWidth="1"/>
+    <col min="15607" max="15607" width="30.5" customWidth="1"/>
+    <col min="15608" max="15608" width="11.5" customWidth="1"/>
     <col min="15609" max="15609" width="8" customWidth="1"/>
-    <col min="15610" max="15610" width="10.28515625" customWidth="1"/>
-    <col min="15611" max="15611" width="8.28515625" customWidth="1"/>
+    <col min="15610" max="15610" width="10.33203125" customWidth="1"/>
+    <col min="15611" max="15611" width="8.33203125" customWidth="1"/>
     <col min="15612" max="15612" width="10" customWidth="1"/>
     <col min="15613" max="15617" width="8" customWidth="1"/>
-    <col min="15618" max="15618" width="8.28515625" customWidth="1"/>
+    <col min="15618" max="15618" width="8.33203125" customWidth="1"/>
     <col min="15619" max="15619" width="9" customWidth="1"/>
-    <col min="15620" max="15620" width="28.140625" customWidth="1"/>
-    <col min="15621" max="15621" width="10.140625" customWidth="1"/>
-    <col min="15623" max="15623" width="11.42578125" customWidth="1"/>
+    <col min="15620" max="15620" width="28.1640625" customWidth="1"/>
+    <col min="15621" max="15621" width="10.1640625" customWidth="1"/>
+    <col min="15623" max="15623" width="11.5" customWidth="1"/>
     <col min="15624" max="15624" width="8" customWidth="1"/>
     <col min="15625" max="15625" width="10" customWidth="1"/>
-    <col min="15626" max="15626" width="9.28515625" customWidth="1"/>
-    <col min="15627" max="15627" width="10.140625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.33203125" customWidth="1"/>
+    <col min="15627" max="15627" width="10.1640625" customWidth="1"/>
     <col min="15628" max="15628" width="8" customWidth="1"/>
-    <col min="15863" max="15863" width="30.42578125" customWidth="1"/>
-    <col min="15864" max="15864" width="11.42578125" customWidth="1"/>
+    <col min="15863" max="15863" width="30.5" customWidth="1"/>
+    <col min="15864" max="15864" width="11.5" customWidth="1"/>
     <col min="15865" max="15865" width="8" customWidth="1"/>
-    <col min="15866" max="15866" width="10.28515625" customWidth="1"/>
-    <col min="15867" max="15867" width="8.28515625" customWidth="1"/>
+    <col min="15866" max="15866" width="10.33203125" customWidth="1"/>
+    <col min="15867" max="15867" width="8.33203125" customWidth="1"/>
     <col min="15868" max="15868" width="10" customWidth="1"/>
     <col min="15869" max="15873" width="8" customWidth="1"/>
-    <col min="15874" max="15874" width="8.28515625" customWidth="1"/>
+    <col min="15874" max="15874" width="8.33203125" customWidth="1"/>
     <col min="15875" max="15875" width="9" customWidth="1"/>
-    <col min="15876" max="15876" width="28.140625" customWidth="1"/>
-    <col min="15877" max="15877" width="10.140625" customWidth="1"/>
-    <col min="15879" max="15879" width="11.42578125" customWidth="1"/>
+    <col min="15876" max="15876" width="28.1640625" customWidth="1"/>
+    <col min="15877" max="15877" width="10.1640625" customWidth="1"/>
+    <col min="15879" max="15879" width="11.5" customWidth="1"/>
     <col min="15880" max="15880" width="8" customWidth="1"/>
     <col min="15881" max="15881" width="10" customWidth="1"/>
-    <col min="15882" max="15882" width="9.28515625" customWidth="1"/>
-    <col min="15883" max="15883" width="10.140625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.33203125" customWidth="1"/>
+    <col min="15883" max="15883" width="10.1640625" customWidth="1"/>
     <col min="15884" max="15884" width="8" customWidth="1"/>
-    <col min="16119" max="16119" width="30.42578125" customWidth="1"/>
-    <col min="16120" max="16120" width="11.42578125" customWidth="1"/>
+    <col min="16119" max="16119" width="30.5" customWidth="1"/>
+    <col min="16120" max="16120" width="11.5" customWidth="1"/>
     <col min="16121" max="16121" width="8" customWidth="1"/>
-    <col min="16122" max="16122" width="10.28515625" customWidth="1"/>
-    <col min="16123" max="16123" width="8.28515625" customWidth="1"/>
+    <col min="16122" max="16122" width="10.33203125" customWidth="1"/>
+    <col min="16123" max="16123" width="8.33203125" customWidth="1"/>
     <col min="16124" max="16124" width="10" customWidth="1"/>
     <col min="16125" max="16129" width="8" customWidth="1"/>
-    <col min="16130" max="16130" width="8.28515625" customWidth="1"/>
+    <col min="16130" max="16130" width="8.33203125" customWidth="1"/>
     <col min="16131" max="16131" width="9" customWidth="1"/>
-    <col min="16132" max="16132" width="28.140625" customWidth="1"/>
-    <col min="16133" max="16133" width="10.140625" customWidth="1"/>
-    <col min="16135" max="16135" width="11.42578125" customWidth="1"/>
+    <col min="16132" max="16132" width="28.1640625" customWidth="1"/>
+    <col min="16133" max="16133" width="10.1640625" customWidth="1"/>
+    <col min="16135" max="16135" width="11.5" customWidth="1"/>
     <col min="16136" max="16136" width="8" customWidth="1"/>
     <col min="16137" max="16137" width="10" customWidth="1"/>
-    <col min="16138" max="16138" width="9.28515625" customWidth="1"/>
-    <col min="16139" max="16139" width="10.140625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.33203125" customWidth="1"/>
+    <col min="16139" max="16139" width="10.1640625" customWidth="1"/>
     <col min="16140" max="16140" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -45112,7 +45085,7 @@
       <c r="IH1" s="36"/>
       <c r="II1" s="36"/>
     </row>
-    <row r="2" spans="1:243" ht="12">
+    <row r="2" spans="1:243">
       <c r="A2" s="63" t="str">
         <f>'Övergripande statistik'!A2</f>
         <v>Avlidna i covid-19 enligt dödsorsaksintyg inkomna fram till den 14 mars 2021</v>
@@ -45360,7 +45333,7 @@
       <c r="IH2"/>
       <c r="II2"/>
     </row>
-    <row r="3" spans="1:243" ht="12">
+    <row r="3" spans="1:243">
       <c r="A3" s="309"/>
       <c r="B3" s="309"/>
       <c r="C3" s="309"/>
@@ -45605,7 +45578,7 @@
       <c r="IH3"/>
       <c r="II3"/>
     </row>
-    <row r="4" spans="1:243" ht="12">
+    <row r="4" spans="1:243">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -45850,7 +45823,7 @@
       <c r="IH4"/>
       <c r="II4"/>
     </row>
-    <row r="5" spans="1:243" ht="11.4" thickBot="1">
+    <row r="5" spans="1:243" ht="14.25" thickBot="1">
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -45879,7 +45852,7 @@
       <c r="IH5"/>
       <c r="II5"/>
     </row>
-    <row r="6" spans="1:243" ht="11.4" thickTop="1">
+    <row r="6" spans="1:243" ht="14.25" thickTop="1">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="321" t="s">
@@ -46685,7 +46658,7 @@
       <c r="IH18"/>
       <c r="II18"/>
     </row>
-    <row r="19" spans="1:255" ht="11.4" thickBot="1">
+    <row r="19" spans="1:255" ht="14.25" thickBot="1">
       <c r="A19" s="316"/>
       <c r="B19" s="85" t="s">
         <v>175</v>
@@ -46749,12 +46722,12 @@
       <c r="IH19"/>
       <c r="II19"/>
     </row>
-    <row r="20" spans="1:255" ht="12" thickTop="1">
+    <row r="20" spans="1:255" ht="14.25" thickTop="1">
       <c r="A20" s="128" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:255" ht="11.4">
+    <row r="21" spans="1:255">
       <c r="A21" s="129" t="s">
         <v>148</v>
       </c>
@@ -47732,12 +47705,12 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="39" style="81" customWidth="1"/>
-    <col min="2" max="6" width="8.85546875" style="2" customWidth="1"/>
-    <col min="7" max="11" width="8.85546875" style="81" customWidth="1"/>
-    <col min="12" max="16384" width="9.28515625" style="81"/>
+    <col min="2" max="6" width="8.83203125" style="2" customWidth="1"/>
+    <col min="7" max="11" width="8.83203125" style="81" customWidth="1"/>
+    <col min="12" max="16384" width="9.33203125" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36.75" customHeight="1">
@@ -47800,14 +47773,14 @@
       <c r="J4" s="307"/>
       <c r="K4" s="307"/>
     </row>
-    <row r="5" spans="1:12" ht="11.4" thickBot="1">
+    <row r="5" spans="1:12" ht="14.25" thickBot="1">
       <c r="B5" s="81"/>
       <c r="C5" s="81"/>
       <c r="D5" s="81"/>
       <c r="E5" s="81"/>
       <c r="F5" s="81"/>
     </row>
-    <row r="6" spans="1:12" ht="11.4" thickBot="1">
+    <row r="6" spans="1:12" ht="14.25" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="327" t="s">
         <v>212</v>
@@ -49551,27 +49524,27 @@
         <v>28.13</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="12" thickTop="1">
+    <row r="57" spans="1:12" ht="14.25" thickTop="1">
       <c r="A57" s="165" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="11.4">
+    <row r="58" spans="1:12">
       <c r="A58" s="165" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="11.4">
+    <row r="59" spans="1:12">
       <c r="A59" s="267" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="11.4">
+    <row r="60" spans="1:12">
       <c r="A60" s="165" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="11.4">
+    <row r="61" spans="1:12">
       <c r="A61" s="160"/>
       <c r="B61" s="160"/>
       <c r="C61" s="160"/>
@@ -49579,7 +49552,7 @@
       <c r="E61" s="160"/>
       <c r="F61" s="160"/>
     </row>
-    <row r="64" spans="1:12" ht="11.4">
+    <row r="64" spans="1:12">
       <c r="A64" s="267"/>
     </row>
   </sheetData>
@@ -49610,1084 +49583,1084 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="37" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="37" customWidth="1"/>
-    <col min="3" max="7" width="7.140625" style="37" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" customWidth="1"/>
-    <col min="9" max="16" width="7.140625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="37" customWidth="1"/>
+    <col min="3" max="7" width="7.1640625" style="37" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" customWidth="1"/>
+    <col min="9" max="16" width="7.1640625" style="37" customWidth="1"/>
     <col min="17" max="237" width="9" style="37"/>
-    <col min="241" max="241" width="30.42578125" customWidth="1"/>
-    <col min="242" max="242" width="11.42578125" customWidth="1"/>
+    <col min="241" max="241" width="30.5" customWidth="1"/>
+    <col min="242" max="242" width="11.5" customWidth="1"/>
     <col min="243" max="243" width="8" customWidth="1"/>
-    <col min="244" max="244" width="10.28515625" customWidth="1"/>
-    <col min="245" max="245" width="8.28515625" customWidth="1"/>
+    <col min="244" max="244" width="10.33203125" customWidth="1"/>
+    <col min="245" max="245" width="8.33203125" customWidth="1"/>
     <col min="246" max="246" width="10" customWidth="1"/>
     <col min="247" max="251" width="8" customWidth="1"/>
-    <col min="252" max="252" width="8.28515625" customWidth="1"/>
+    <col min="252" max="252" width="8.33203125" customWidth="1"/>
     <col min="253" max="253" width="9" customWidth="1"/>
-    <col min="254" max="254" width="28.140625" customWidth="1"/>
-    <col min="255" max="255" width="10.140625" customWidth="1"/>
-    <col min="257" max="257" width="11.42578125" customWidth="1"/>
+    <col min="254" max="254" width="28.1640625" customWidth="1"/>
+    <col min="255" max="255" width="10.1640625" customWidth="1"/>
+    <col min="257" max="257" width="11.5" customWidth="1"/>
     <col min="258" max="258" width="8" customWidth="1"/>
     <col min="259" max="259" width="10" customWidth="1"/>
-    <col min="260" max="260" width="9.28515625" customWidth="1"/>
-    <col min="261" max="261" width="10.140625" customWidth="1"/>
+    <col min="260" max="260" width="9.33203125" customWidth="1"/>
+    <col min="261" max="261" width="10.1640625" customWidth="1"/>
     <col min="262" max="262" width="8" customWidth="1"/>
-    <col min="497" max="497" width="30.42578125" customWidth="1"/>
-    <col min="498" max="498" width="11.42578125" customWidth="1"/>
+    <col min="497" max="497" width="30.5" customWidth="1"/>
+    <col min="498" max="498" width="11.5" customWidth="1"/>
     <col min="499" max="499" width="8" customWidth="1"/>
-    <col min="500" max="500" width="10.28515625" customWidth="1"/>
-    <col min="501" max="501" width="8.28515625" customWidth="1"/>
+    <col min="500" max="500" width="10.33203125" customWidth="1"/>
+    <col min="501" max="501" width="8.33203125" customWidth="1"/>
     <col min="502" max="502" width="10" customWidth="1"/>
     <col min="503" max="507" width="8" customWidth="1"/>
-    <col min="508" max="508" width="8.28515625" customWidth="1"/>
+    <col min="508" max="508" width="8.33203125" customWidth="1"/>
     <col min="509" max="509" width="9" customWidth="1"/>
-    <col min="510" max="510" width="28.140625" customWidth="1"/>
-    <col min="511" max="511" width="10.140625" customWidth="1"/>
-    <col min="513" max="513" width="11.42578125" customWidth="1"/>
+    <col min="510" max="510" width="28.1640625" customWidth="1"/>
+    <col min="511" max="511" width="10.1640625" customWidth="1"/>
+    <col min="513" max="513" width="11.5" customWidth="1"/>
     <col min="514" max="514" width="8" customWidth="1"/>
     <col min="515" max="515" width="10" customWidth="1"/>
-    <col min="516" max="516" width="9.28515625" customWidth="1"/>
-    <col min="517" max="517" width="10.140625" customWidth="1"/>
+    <col min="516" max="516" width="9.33203125" customWidth="1"/>
+    <col min="517" max="517" width="10.1640625" customWidth="1"/>
     <col min="518" max="518" width="8" customWidth="1"/>
-    <col min="753" max="753" width="30.42578125" customWidth="1"/>
-    <col min="754" max="754" width="11.42578125" customWidth="1"/>
+    <col min="753" max="753" width="30.5" customWidth="1"/>
+    <col min="754" max="754" width="11.5" customWidth="1"/>
     <col min="755" max="755" width="8" customWidth="1"/>
-    <col min="756" max="756" width="10.28515625" customWidth="1"/>
-    <col min="757" max="757" width="8.28515625" customWidth="1"/>
+    <col min="756" max="756" width="10.33203125" customWidth="1"/>
+    <col min="757" max="757" width="8.33203125" customWidth="1"/>
     <col min="758" max="758" width="10" customWidth="1"/>
     <col min="759" max="763" width="8" customWidth="1"/>
-    <col min="764" max="764" width="8.28515625" customWidth="1"/>
+    <col min="764" max="764" width="8.33203125" customWidth="1"/>
     <col min="765" max="765" width="9" customWidth="1"/>
-    <col min="766" max="766" width="28.140625" customWidth="1"/>
-    <col min="767" max="767" width="10.140625" customWidth="1"/>
-    <col min="769" max="769" width="11.42578125" customWidth="1"/>
+    <col min="766" max="766" width="28.1640625" customWidth="1"/>
+    <col min="767" max="767" width="10.1640625" customWidth="1"/>
+    <col min="769" max="769" width="11.5" customWidth="1"/>
     <col min="770" max="770" width="8" customWidth="1"/>
     <col min="771" max="771" width="10" customWidth="1"/>
-    <col min="772" max="772" width="9.28515625" customWidth="1"/>
-    <col min="773" max="773" width="10.140625" customWidth="1"/>
+    <col min="772" max="772" width="9.33203125" customWidth="1"/>
+    <col min="773" max="773" width="10.1640625" customWidth="1"/>
     <col min="774" max="774" width="8" customWidth="1"/>
-    <col min="1009" max="1009" width="30.42578125" customWidth="1"/>
-    <col min="1010" max="1010" width="11.42578125" customWidth="1"/>
+    <col min="1009" max="1009" width="30.5" customWidth="1"/>
+    <col min="1010" max="1010" width="11.5" customWidth="1"/>
     <col min="1011" max="1011" width="8" customWidth="1"/>
-    <col min="1012" max="1012" width="10.28515625" customWidth="1"/>
-    <col min="1013" max="1013" width="8.28515625" customWidth="1"/>
+    <col min="1012" max="1012" width="10.33203125" customWidth="1"/>
+    <col min="1013" max="1013" width="8.33203125" customWidth="1"/>
     <col min="1014" max="1014" width="10" customWidth="1"/>
     <col min="1015" max="1019" width="8" customWidth="1"/>
-    <col min="1020" max="1020" width="8.28515625" customWidth="1"/>
+    <col min="1020" max="1020" width="8.33203125" customWidth="1"/>
     <col min="1021" max="1021" width="9" customWidth="1"/>
-    <col min="1022" max="1022" width="28.140625" customWidth="1"/>
-    <col min="1023" max="1023" width="10.140625" customWidth="1"/>
-    <col min="1025" max="1025" width="11.42578125" customWidth="1"/>
+    <col min="1022" max="1022" width="28.1640625" customWidth="1"/>
+    <col min="1023" max="1023" width="10.1640625" customWidth="1"/>
+    <col min="1025" max="1025" width="11.5" customWidth="1"/>
     <col min="1026" max="1026" width="8" customWidth="1"/>
     <col min="1027" max="1027" width="10" customWidth="1"/>
-    <col min="1028" max="1028" width="9.28515625" customWidth="1"/>
-    <col min="1029" max="1029" width="10.140625" customWidth="1"/>
+    <col min="1028" max="1028" width="9.33203125" customWidth="1"/>
+    <col min="1029" max="1029" width="10.1640625" customWidth="1"/>
     <col min="1030" max="1030" width="8" customWidth="1"/>
-    <col min="1265" max="1265" width="30.42578125" customWidth="1"/>
-    <col min="1266" max="1266" width="11.42578125" customWidth="1"/>
+    <col min="1265" max="1265" width="30.5" customWidth="1"/>
+    <col min="1266" max="1266" width="11.5" customWidth="1"/>
     <col min="1267" max="1267" width="8" customWidth="1"/>
-    <col min="1268" max="1268" width="10.28515625" customWidth="1"/>
-    <col min="1269" max="1269" width="8.28515625" customWidth="1"/>
+    <col min="1268" max="1268" width="10.33203125" customWidth="1"/>
+    <col min="1269" max="1269" width="8.33203125" customWidth="1"/>
     <col min="1270" max="1270" width="10" customWidth="1"/>
     <col min="1271" max="1275" width="8" customWidth="1"/>
-    <col min="1276" max="1276" width="8.28515625" customWidth="1"/>
+    <col min="1276" max="1276" width="8.33203125" customWidth="1"/>
     <col min="1277" max="1277" width="9" customWidth="1"/>
-    <col min="1278" max="1278" width="28.140625" customWidth="1"/>
-    <col min="1279" max="1279" width="10.140625" customWidth="1"/>
-    <col min="1281" max="1281" width="11.42578125" customWidth="1"/>
+    <col min="1278" max="1278" width="28.1640625" customWidth="1"/>
+    <col min="1279" max="1279" width="10.1640625" customWidth="1"/>
+    <col min="1281" max="1281" width="11.5" customWidth="1"/>
     <col min="1282" max="1282" width="8" customWidth="1"/>
     <col min="1283" max="1283" width="10" customWidth="1"/>
-    <col min="1284" max="1284" width="9.28515625" customWidth="1"/>
-    <col min="1285" max="1285" width="10.140625" customWidth="1"/>
+    <col min="1284" max="1284" width="9.33203125" customWidth="1"/>
+    <col min="1285" max="1285" width="10.1640625" customWidth="1"/>
     <col min="1286" max="1286" width="8" customWidth="1"/>
-    <col min="1521" max="1521" width="30.42578125" customWidth="1"/>
-    <col min="1522" max="1522" width="11.42578125" customWidth="1"/>
+    <col min="1521" max="1521" width="30.5" customWidth="1"/>
+    <col min="1522" max="1522" width="11.5" customWidth="1"/>
     <col min="1523" max="1523" width="8" customWidth="1"/>
-    <col min="1524" max="1524" width="10.28515625" customWidth="1"/>
-    <col min="1525" max="1525" width="8.28515625" customWidth="1"/>
+    <col min="1524" max="1524" width="10.33203125" customWidth="1"/>
+    <col min="1525" max="1525" width="8.33203125" customWidth="1"/>
     <col min="1526" max="1526" width="10" customWidth="1"/>
     <col min="1527" max="1531" width="8" customWidth="1"/>
-    <col min="1532" max="1532" width="8.28515625" customWidth="1"/>
+    <col min="1532" max="1532" width="8.33203125" customWidth="1"/>
     <col min="1533" max="1533" width="9" customWidth="1"/>
-    <col min="1534" max="1534" width="28.140625" customWidth="1"/>
-    <col min="1535" max="1535" width="10.140625" customWidth="1"/>
-    <col min="1537" max="1537" width="11.42578125" customWidth="1"/>
+    <col min="1534" max="1534" width="28.1640625" customWidth="1"/>
+    <col min="1535" max="1535" width="10.1640625" customWidth="1"/>
+    <col min="1537" max="1537" width="11.5" customWidth="1"/>
     <col min="1538" max="1538" width="8" customWidth="1"/>
     <col min="1539" max="1539" width="10" customWidth="1"/>
-    <col min="1540" max="1540" width="9.28515625" customWidth="1"/>
-    <col min="1541" max="1541" width="10.140625" customWidth="1"/>
+    <col min="1540" max="1540" width="9.33203125" customWidth="1"/>
+    <col min="1541" max="1541" width="10.1640625" customWidth="1"/>
     <col min="1542" max="1542" width="8" customWidth="1"/>
-    <col min="1777" max="1777" width="30.42578125" customWidth="1"/>
-    <col min="1778" max="1778" width="11.42578125" customWidth="1"/>
+    <col min="1777" max="1777" width="30.5" customWidth="1"/>
+    <col min="1778" max="1778" width="11.5" customWidth="1"/>
     <col min="1779" max="1779" width="8" customWidth="1"/>
-    <col min="1780" max="1780" width="10.28515625" customWidth="1"/>
-    <col min="1781" max="1781" width="8.28515625" customWidth="1"/>
+    <col min="1780" max="1780" width="10.33203125" customWidth="1"/>
+    <col min="1781" max="1781" width="8.33203125" customWidth="1"/>
     <col min="1782" max="1782" width="10" customWidth="1"/>
     <col min="1783" max="1787" width="8" customWidth="1"/>
-    <col min="1788" max="1788" width="8.28515625" customWidth="1"/>
+    <col min="1788" max="1788" width="8.33203125" customWidth="1"/>
     <col min="1789" max="1789" width="9" customWidth="1"/>
-    <col min="1790" max="1790" width="28.140625" customWidth="1"/>
-    <col min="1791" max="1791" width="10.140625" customWidth="1"/>
-    <col min="1793" max="1793" width="11.42578125" customWidth="1"/>
+    <col min="1790" max="1790" width="28.1640625" customWidth="1"/>
+    <col min="1791" max="1791" width="10.1640625" customWidth="1"/>
+    <col min="1793" max="1793" width="11.5" customWidth="1"/>
     <col min="1794" max="1794" width="8" customWidth="1"/>
     <col min="1795" max="1795" width="10" customWidth="1"/>
-    <col min="1796" max="1796" width="9.28515625" customWidth="1"/>
-    <col min="1797" max="1797" width="10.140625" customWidth="1"/>
+    <col min="1796" max="1796" width="9.33203125" customWidth="1"/>
+    <col min="1797" max="1797" width="10.1640625" customWidth="1"/>
     <col min="1798" max="1798" width="8" customWidth="1"/>
-    <col min="2033" max="2033" width="30.42578125" customWidth="1"/>
-    <col min="2034" max="2034" width="11.42578125" customWidth="1"/>
+    <col min="2033" max="2033" width="30.5" customWidth="1"/>
+    <col min="2034" max="2034" width="11.5" customWidth="1"/>
     <col min="2035" max="2035" width="8" customWidth="1"/>
-    <col min="2036" max="2036" width="10.28515625" customWidth="1"/>
-    <col min="2037" max="2037" width="8.28515625" customWidth="1"/>
+    <col min="2036" max="2036" width="10.33203125" customWidth="1"/>
+    <col min="2037" max="2037" width="8.33203125" customWidth="1"/>
     <col min="2038" max="2038" width="10" customWidth="1"/>
     <col min="2039" max="2043" width="8" customWidth="1"/>
-    <col min="2044" max="2044" width="8.28515625" customWidth="1"/>
+    <col min="2044" max="2044" width="8.33203125" customWidth="1"/>
     <col min="2045" max="2045" width="9" customWidth="1"/>
-    <col min="2046" max="2046" width="28.140625" customWidth="1"/>
-    <col min="2047" max="2047" width="10.140625" customWidth="1"/>
-    <col min="2049" max="2049" width="11.42578125" customWidth="1"/>
+    <col min="2046" max="2046" width="28.1640625" customWidth="1"/>
+    <col min="2047" max="2047" width="10.1640625" customWidth="1"/>
+    <col min="2049" max="2049" width="11.5" customWidth="1"/>
     <col min="2050" max="2050" width="8" customWidth="1"/>
     <col min="2051" max="2051" width="10" customWidth="1"/>
-    <col min="2052" max="2052" width="9.28515625" customWidth="1"/>
-    <col min="2053" max="2053" width="10.140625" customWidth="1"/>
+    <col min="2052" max="2052" width="9.33203125" customWidth="1"/>
+    <col min="2053" max="2053" width="10.1640625" customWidth="1"/>
     <col min="2054" max="2054" width="8" customWidth="1"/>
-    <col min="2289" max="2289" width="30.42578125" customWidth="1"/>
-    <col min="2290" max="2290" width="11.42578125" customWidth="1"/>
+    <col min="2289" max="2289" width="30.5" customWidth="1"/>
+    <col min="2290" max="2290" width="11.5" customWidth="1"/>
     <col min="2291" max="2291" width="8" customWidth="1"/>
-    <col min="2292" max="2292" width="10.28515625" customWidth="1"/>
-    <col min="2293" max="2293" width="8.28515625" customWidth="1"/>
+    <col min="2292" max="2292" width="10.33203125" customWidth="1"/>
+    <col min="2293" max="2293" width="8.33203125" customWidth="1"/>
     <col min="2294" max="2294" width="10" customWidth="1"/>
     <col min="2295" max="2299" width="8" customWidth="1"/>
-    <col min="2300" max="2300" width="8.28515625" customWidth="1"/>
+    <col min="2300" max="2300" width="8.33203125" customWidth="1"/>
     <col min="2301" max="2301" width="9" customWidth="1"/>
-    <col min="2302" max="2302" width="28.140625" customWidth="1"/>
-    <col min="2303" max="2303" width="10.140625" customWidth="1"/>
-    <col min="2305" max="2305" width="11.42578125" customWidth="1"/>
+    <col min="2302" max="2302" width="28.1640625" customWidth="1"/>
+    <col min="2303" max="2303" width="10.1640625" customWidth="1"/>
+    <col min="2305" max="2305" width="11.5" customWidth="1"/>
     <col min="2306" max="2306" width="8" customWidth="1"/>
     <col min="2307" max="2307" width="10" customWidth="1"/>
-    <col min="2308" max="2308" width="9.28515625" customWidth="1"/>
-    <col min="2309" max="2309" width="10.140625" customWidth="1"/>
+    <col min="2308" max="2308" width="9.33203125" customWidth="1"/>
+    <col min="2309" max="2309" width="10.1640625" customWidth="1"/>
     <col min="2310" max="2310" width="8" customWidth="1"/>
-    <col min="2545" max="2545" width="30.42578125" customWidth="1"/>
-    <col min="2546" max="2546" width="11.42578125" customWidth="1"/>
+    <col min="2545" max="2545" width="30.5" customWidth="1"/>
+    <col min="2546" max="2546" width="11.5" customWidth="1"/>
     <col min="2547" max="2547" width="8" customWidth="1"/>
-    <col min="2548" max="2548" width="10.28515625" customWidth="1"/>
-    <col min="2549" max="2549" width="8.28515625" customWidth="1"/>
+    <col min="2548" max="2548" width="10.33203125" customWidth="1"/>
+    <col min="2549" max="2549" width="8.33203125" customWidth="1"/>
     <col min="2550" max="2550" width="10" customWidth="1"/>
     <col min="2551" max="2555" width="8" customWidth="1"/>
-    <col min="2556" max="2556" width="8.28515625" customWidth="1"/>
+    <col min="2556" max="2556" width="8.33203125" customWidth="1"/>
     <col min="2557" max="2557" width="9" customWidth="1"/>
-    <col min="2558" max="2558" width="28.140625" customWidth="1"/>
-    <col min="2559" max="2559" width="10.140625" customWidth="1"/>
-    <col min="2561" max="2561" width="11.42578125" customWidth="1"/>
+    <col min="2558" max="2558" width="28.1640625" customWidth="1"/>
+    <col min="2559" max="2559" width="10.1640625" customWidth="1"/>
+    <col min="2561" max="2561" width="11.5" customWidth="1"/>
     <col min="2562" max="2562" width="8" customWidth="1"/>
     <col min="2563" max="2563" width="10" customWidth="1"/>
-    <col min="2564" max="2564" width="9.28515625" customWidth="1"/>
-    <col min="2565" max="2565" width="10.140625" customWidth="1"/>
+    <col min="2564" max="2564" width="9.33203125" customWidth="1"/>
+    <col min="2565" max="2565" width="10.1640625" customWidth="1"/>
     <col min="2566" max="2566" width="8" customWidth="1"/>
-    <col min="2801" max="2801" width="30.42578125" customWidth="1"/>
-    <col min="2802" max="2802" width="11.42578125" customWidth="1"/>
+    <col min="2801" max="2801" width="30.5" customWidth="1"/>
+    <col min="2802" max="2802" width="11.5" customWidth="1"/>
     <col min="2803" max="2803" width="8" customWidth="1"/>
-    <col min="2804" max="2804" width="10.28515625" customWidth="1"/>
-    <col min="2805" max="2805" width="8.28515625" customWidth="1"/>
+    <col min="2804" max="2804" width="10.33203125" customWidth="1"/>
+    <col min="2805" max="2805" width="8.33203125" customWidth="1"/>
     <col min="2806" max="2806" width="10" customWidth="1"/>
     <col min="2807" max="2811" width="8" customWidth="1"/>
-    <col min="2812" max="2812" width="8.28515625" customWidth="1"/>
+    <col min="2812" max="2812" width="8.33203125" customWidth="1"/>
     <col min="2813" max="2813" width="9" customWidth="1"/>
-    <col min="2814" max="2814" width="28.140625" customWidth="1"/>
-    <col min="2815" max="2815" width="10.140625" customWidth="1"/>
-    <col min="2817" max="2817" width="11.42578125" customWidth="1"/>
+    <col min="2814" max="2814" width="28.1640625" customWidth="1"/>
+    <col min="2815" max="2815" width="10.1640625" customWidth="1"/>
+    <col min="2817" max="2817" width="11.5" customWidth="1"/>
     <col min="2818" max="2818" width="8" customWidth="1"/>
     <col min="2819" max="2819" width="10" customWidth="1"/>
-    <col min="2820" max="2820" width="9.28515625" customWidth="1"/>
-    <col min="2821" max="2821" width="10.140625" customWidth="1"/>
+    <col min="2820" max="2820" width="9.33203125" customWidth="1"/>
+    <col min="2821" max="2821" width="10.1640625" customWidth="1"/>
     <col min="2822" max="2822" width="8" customWidth="1"/>
-    <col min="3057" max="3057" width="30.42578125" customWidth="1"/>
-    <col min="3058" max="3058" width="11.42578125" customWidth="1"/>
+    <col min="3057" max="3057" width="30.5" customWidth="1"/>
+    <col min="3058" max="3058" width="11.5" customWidth="1"/>
     <col min="3059" max="3059" width="8" customWidth="1"/>
-    <col min="3060" max="3060" width="10.28515625" customWidth="1"/>
-    <col min="3061" max="3061" width="8.28515625" customWidth="1"/>
+    <col min="3060" max="3060" width="10.33203125" customWidth="1"/>
+    <col min="3061" max="3061" width="8.33203125" customWidth="1"/>
     <col min="3062" max="3062" width="10" customWidth="1"/>
     <col min="3063" max="3067" width="8" customWidth="1"/>
-    <col min="3068" max="3068" width="8.28515625" customWidth="1"/>
+    <col min="3068" max="3068" width="8.33203125" customWidth="1"/>
     <col min="3069" max="3069" width="9" customWidth="1"/>
-    <col min="3070" max="3070" width="28.140625" customWidth="1"/>
-    <col min="3071" max="3071" width="10.140625" customWidth="1"/>
-    <col min="3073" max="3073" width="11.42578125" customWidth="1"/>
+    <col min="3070" max="3070" width="28.1640625" customWidth="1"/>
+    <col min="3071" max="3071" width="10.1640625" customWidth="1"/>
+    <col min="3073" max="3073" width="11.5" customWidth="1"/>
     <col min="3074" max="3074" width="8" customWidth="1"/>
     <col min="3075" max="3075" width="10" customWidth="1"/>
-    <col min="3076" max="3076" width="9.28515625" customWidth="1"/>
-    <col min="3077" max="3077" width="10.140625" customWidth="1"/>
+    <col min="3076" max="3076" width="9.33203125" customWidth="1"/>
+    <col min="3077" max="3077" width="10.1640625" customWidth="1"/>
     <col min="3078" max="3078" width="8" customWidth="1"/>
-    <col min="3313" max="3313" width="30.42578125" customWidth="1"/>
-    <col min="3314" max="3314" width="11.42578125" customWidth="1"/>
+    <col min="3313" max="3313" width="30.5" customWidth="1"/>
+    <col min="3314" max="3314" width="11.5" customWidth="1"/>
     <col min="3315" max="3315" width="8" customWidth="1"/>
-    <col min="3316" max="3316" width="10.28515625" customWidth="1"/>
-    <col min="3317" max="3317" width="8.28515625" customWidth="1"/>
+    <col min="3316" max="3316" width="10.33203125" customWidth="1"/>
+    <col min="3317" max="3317" width="8.33203125" customWidth="1"/>
     <col min="3318" max="3318" width="10" customWidth="1"/>
     <col min="3319" max="3323" width="8" customWidth="1"/>
-    <col min="3324" max="3324" width="8.28515625" customWidth="1"/>
+    <col min="3324" max="3324" width="8.33203125" customWidth="1"/>
     <col min="3325" max="3325" width="9" customWidth="1"/>
-    <col min="3326" max="3326" width="28.140625" customWidth="1"/>
-    <col min="3327" max="3327" width="10.140625" customWidth="1"/>
-    <col min="3329" max="3329" width="11.42578125" customWidth="1"/>
+    <col min="3326" max="3326" width="28.1640625" customWidth="1"/>
+    <col min="3327" max="3327" width="10.1640625" customWidth="1"/>
+    <col min="3329" max="3329" width="11.5" customWidth="1"/>
     <col min="3330" max="3330" width="8" customWidth="1"/>
     <col min="3331" max="3331" width="10" customWidth="1"/>
-    <col min="3332" max="3332" width="9.28515625" customWidth="1"/>
-    <col min="3333" max="3333" width="10.140625" customWidth="1"/>
+    <col min="3332" max="3332" width="9.33203125" customWidth="1"/>
+    <col min="3333" max="3333" width="10.1640625" customWidth="1"/>
     <col min="3334" max="3334" width="8" customWidth="1"/>
-    <col min="3569" max="3569" width="30.42578125" customWidth="1"/>
-    <col min="3570" max="3570" width="11.42578125" customWidth="1"/>
+    <col min="3569" max="3569" width="30.5" customWidth="1"/>
+    <col min="3570" max="3570" width="11.5" customWidth="1"/>
     <col min="3571" max="3571" width="8" customWidth="1"/>
-    <col min="3572" max="3572" width="10.28515625" customWidth="1"/>
-    <col min="3573" max="3573" width="8.28515625" customWidth="1"/>
+    <col min="3572" max="3572" width="10.33203125" customWidth="1"/>
+    <col min="3573" max="3573" width="8.33203125" customWidth="1"/>
     <col min="3574" max="3574" width="10" customWidth="1"/>
     <col min="3575" max="3579" width="8" customWidth="1"/>
-    <col min="3580" max="3580" width="8.28515625" customWidth="1"/>
+    <col min="3580" max="3580" width="8.33203125" customWidth="1"/>
     <col min="3581" max="3581" width="9" customWidth="1"/>
-    <col min="3582" max="3582" width="28.140625" customWidth="1"/>
-    <col min="3583" max="3583" width="10.140625" customWidth="1"/>
-    <col min="3585" max="3585" width="11.42578125" customWidth="1"/>
+    <col min="3582" max="3582" width="28.1640625" customWidth="1"/>
+    <col min="3583" max="3583" width="10.1640625" customWidth="1"/>
+    <col min="3585" max="3585" width="11.5" customWidth="1"/>
     <col min="3586" max="3586" width="8" customWidth="1"/>
     <col min="3587" max="3587" width="10" customWidth="1"/>
-    <col min="3588" max="3588" width="9.28515625" customWidth="1"/>
-    <col min="3589" max="3589" width="10.140625" customWidth="1"/>
+    <col min="3588" max="3588" width="9.33203125" customWidth="1"/>
+    <col min="3589" max="3589" width="10.1640625" customWidth="1"/>
     <col min="3590" max="3590" width="8" customWidth="1"/>
-    <col min="3825" max="3825" width="30.42578125" customWidth="1"/>
-    <col min="3826" max="3826" width="11.42578125" customWidth="1"/>
+    <col min="3825" max="3825" width="30.5" customWidth="1"/>
+    <col min="3826" max="3826" width="11.5" customWidth="1"/>
     <col min="3827" max="3827" width="8" customWidth="1"/>
-    <col min="3828" max="3828" width="10.28515625" customWidth="1"/>
-    <col min="3829" max="3829" width="8.28515625" customWidth="1"/>
+    <col min="3828" max="3828" width="10.33203125" customWidth="1"/>
+    <col min="3829" max="3829" width="8.33203125" customWidth="1"/>
     <col min="3830" max="3830" width="10" customWidth="1"/>
     <col min="3831" max="3835" width="8" customWidth="1"/>
-    <col min="3836" max="3836" width="8.28515625" customWidth="1"/>
+    <col min="3836" max="3836" width="8.33203125" customWidth="1"/>
     <col min="3837" max="3837" width="9" customWidth="1"/>
-    <col min="3838" max="3838" width="28.140625" customWidth="1"/>
-    <col min="3839" max="3839" width="10.140625" customWidth="1"/>
-    <col min="3841" max="3841" width="11.42578125" customWidth="1"/>
+    <col min="3838" max="3838" width="28.1640625" customWidth="1"/>
+    <col min="3839" max="3839" width="10.1640625" customWidth="1"/>
+    <col min="3841" max="3841" width="11.5" customWidth="1"/>
     <col min="3842" max="3842" width="8" customWidth="1"/>
     <col min="3843" max="3843" width="10" customWidth="1"/>
-    <col min="3844" max="3844" width="9.28515625" customWidth="1"/>
-    <col min="3845" max="3845" width="10.140625" customWidth="1"/>
+    <col min="3844" max="3844" width="9.33203125" customWidth="1"/>
+    <col min="3845" max="3845" width="10.1640625" customWidth="1"/>
     <col min="3846" max="3846" width="8" customWidth="1"/>
-    <col min="4081" max="4081" width="30.42578125" customWidth="1"/>
-    <col min="4082" max="4082" width="11.42578125" customWidth="1"/>
+    <col min="4081" max="4081" width="30.5" customWidth="1"/>
+    <col min="4082" max="4082" width="11.5" customWidth="1"/>
     <col min="4083" max="4083" width="8" customWidth="1"/>
-    <col min="4084" max="4084" width="10.28515625" customWidth="1"/>
-    <col min="4085" max="4085" width="8.28515625" customWidth="1"/>
+    <col min="4084" max="4084" width="10.33203125" customWidth="1"/>
+    <col min="4085" max="4085" width="8.33203125" customWidth="1"/>
     <col min="4086" max="4086" width="10" customWidth="1"/>
     <col min="4087" max="4091" width="8" customWidth="1"/>
-    <col min="4092" max="4092" width="8.28515625" customWidth="1"/>
+    <col min="4092" max="4092" width="8.33203125" customWidth="1"/>
     <col min="4093" max="4093" width="9" customWidth="1"/>
-    <col min="4094" max="4094" width="28.140625" customWidth="1"/>
-    <col min="4095" max="4095" width="10.140625" customWidth="1"/>
-    <col min="4097" max="4097" width="11.42578125" customWidth="1"/>
+    <col min="4094" max="4094" width="28.1640625" customWidth="1"/>
+    <col min="4095" max="4095" width="10.1640625" customWidth="1"/>
+    <col min="4097" max="4097" width="11.5" customWidth="1"/>
     <col min="4098" max="4098" width="8" customWidth="1"/>
     <col min="4099" max="4099" width="10" customWidth="1"/>
-    <col min="4100" max="4100" width="9.28515625" customWidth="1"/>
-    <col min="4101" max="4101" width="10.140625" customWidth="1"/>
+    <col min="4100" max="4100" width="9.33203125" customWidth="1"/>
+    <col min="4101" max="4101" width="10.1640625" customWidth="1"/>
     <col min="4102" max="4102" width="8" customWidth="1"/>
-    <col min="4337" max="4337" width="30.42578125" customWidth="1"/>
-    <col min="4338" max="4338" width="11.42578125" customWidth="1"/>
+    <col min="4337" max="4337" width="30.5" customWidth="1"/>
+    <col min="4338" max="4338" width="11.5" customWidth="1"/>
     <col min="4339" max="4339" width="8" customWidth="1"/>
-    <col min="4340" max="4340" width="10.28515625" customWidth="1"/>
-    <col min="4341" max="4341" width="8.28515625" customWidth="1"/>
+    <col min="4340" max="4340" width="10.33203125" customWidth="1"/>
+    <col min="4341" max="4341" width="8.33203125" customWidth="1"/>
     <col min="4342" max="4342" width="10" customWidth="1"/>
     <col min="4343" max="4347" width="8" customWidth="1"/>
-    <col min="4348" max="4348" width="8.28515625" customWidth="1"/>
+    <col min="4348" max="4348" width="8.33203125" customWidth="1"/>
     <col min="4349" max="4349" width="9" customWidth="1"/>
-    <col min="4350" max="4350" width="28.140625" customWidth="1"/>
-    <col min="4351" max="4351" width="10.140625" customWidth="1"/>
-    <col min="4353" max="4353" width="11.42578125" customWidth="1"/>
+    <col min="4350" max="4350" width="28.1640625" customWidth="1"/>
+    <col min="4351" max="4351" width="10.1640625" customWidth="1"/>
+    <col min="4353" max="4353" width="11.5" customWidth="1"/>
     <col min="4354" max="4354" width="8" customWidth="1"/>
     <col min="4355" max="4355" width="10" customWidth="1"/>
-    <col min="4356" max="4356" width="9.28515625" customWidth="1"/>
-    <col min="4357" max="4357" width="10.140625" customWidth="1"/>
+    <col min="4356" max="4356" width="9.33203125" customWidth="1"/>
+    <col min="4357" max="4357" width="10.1640625" customWidth="1"/>
     <col min="4358" max="4358" width="8" customWidth="1"/>
-    <col min="4593" max="4593" width="30.42578125" customWidth="1"/>
-    <col min="4594" max="4594" width="11.42578125" customWidth="1"/>
+    <col min="4593" max="4593" width="30.5" customWidth="1"/>
+    <col min="4594" max="4594" width="11.5" customWidth="1"/>
     <col min="4595" max="4595" width="8" customWidth="1"/>
-    <col min="4596" max="4596" width="10.28515625" customWidth="1"/>
-    <col min="4597" max="4597" width="8.28515625" customWidth="1"/>
+    <col min="4596" max="4596" width="10.33203125" customWidth="1"/>
+    <col min="4597" max="4597" width="8.33203125" customWidth="1"/>
     <col min="4598" max="4598" width="10" customWidth="1"/>
     <col min="4599" max="4603" width="8" customWidth="1"/>
-    <col min="4604" max="4604" width="8.28515625" customWidth="1"/>
+    <col min="4604" max="4604" width="8.33203125" customWidth="1"/>
     <col min="4605" max="4605" width="9" customWidth="1"/>
-    <col min="4606" max="4606" width="28.140625" customWidth="1"/>
-    <col min="4607" max="4607" width="10.140625" customWidth="1"/>
-    <col min="4609" max="4609" width="11.42578125" customWidth="1"/>
+    <col min="4606" max="4606" width="28.1640625" customWidth="1"/>
+    <col min="4607" max="4607" width="10.1640625" customWidth="1"/>
+    <col min="4609" max="4609" width="11.5" customWidth="1"/>
     <col min="4610" max="4610" width="8" customWidth="1"/>
     <col min="4611" max="4611" width="10" customWidth="1"/>
-    <col min="4612" max="4612" width="9.28515625" customWidth="1"/>
-    <col min="4613" max="4613" width="10.140625" customWidth="1"/>
+    <col min="4612" max="4612" width="9.33203125" customWidth="1"/>
+    <col min="4613" max="4613" width="10.1640625" customWidth="1"/>
     <col min="4614" max="4614" width="8" customWidth="1"/>
-    <col min="4849" max="4849" width="30.42578125" customWidth="1"/>
-    <col min="4850" max="4850" width="11.42578125" customWidth="1"/>
+    <col min="4849" max="4849" width="30.5" customWidth="1"/>
+    <col min="4850" max="4850" width="11.5" customWidth="1"/>
     <col min="4851" max="4851" width="8" customWidth="1"/>
-    <col min="4852" max="4852" width="10.28515625" customWidth="1"/>
-    <col min="4853" max="4853" width="8.28515625" customWidth="1"/>
+    <col min="4852" max="4852" width="10.33203125" customWidth="1"/>
+    <col min="4853" max="4853" width="8.33203125" customWidth="1"/>
     <col min="4854" max="4854" width="10" customWidth="1"/>
     <col min="4855" max="4859" width="8" customWidth="1"/>
-    <col min="4860" max="4860" width="8.28515625" customWidth="1"/>
+    <col min="4860" max="4860" width="8.33203125" customWidth="1"/>
     <col min="4861" max="4861" width="9" customWidth="1"/>
-    <col min="4862" max="4862" width="28.140625" customWidth="1"/>
-    <col min="4863" max="4863" width="10.140625" customWidth="1"/>
-    <col min="4865" max="4865" width="11.42578125" customWidth="1"/>
+    <col min="4862" max="4862" width="28.1640625" customWidth="1"/>
+    <col min="4863" max="4863" width="10.1640625" customWidth="1"/>
+    <col min="4865" max="4865" width="11.5" customWidth="1"/>
     <col min="4866" max="4866" width="8" customWidth="1"/>
     <col min="4867" max="4867" width="10" customWidth="1"/>
-    <col min="4868" max="4868" width="9.28515625" customWidth="1"/>
-    <col min="4869" max="4869" width="10.140625" customWidth="1"/>
+    <col min="4868" max="4868" width="9.33203125" customWidth="1"/>
+    <col min="4869" max="4869" width="10.1640625" customWidth="1"/>
     <col min="4870" max="4870" width="8" customWidth="1"/>
-    <col min="5105" max="5105" width="30.42578125" customWidth="1"/>
-    <col min="5106" max="5106" width="11.42578125" customWidth="1"/>
+    <col min="5105" max="5105" width="30.5" customWidth="1"/>
+    <col min="5106" max="5106" width="11.5" customWidth="1"/>
     <col min="5107" max="5107" width="8" customWidth="1"/>
-    <col min="5108" max="5108" width="10.28515625" customWidth="1"/>
-    <col min="5109" max="5109" width="8.28515625" customWidth="1"/>
+    <col min="5108" max="5108" width="10.33203125" customWidth="1"/>
+    <col min="5109" max="5109" width="8.33203125" customWidth="1"/>
     <col min="5110" max="5110" width="10" customWidth="1"/>
     <col min="5111" max="5115" width="8" customWidth="1"/>
-    <col min="5116" max="5116" width="8.28515625" customWidth="1"/>
+    <col min="5116" max="5116" width="8.33203125" customWidth="1"/>
     <col min="5117" max="5117" width="9" customWidth="1"/>
-    <col min="5118" max="5118" width="28.140625" customWidth="1"/>
-    <col min="5119" max="5119" width="10.140625" customWidth="1"/>
-    <col min="5121" max="5121" width="11.42578125" customWidth="1"/>
+    <col min="5118" max="5118" width="28.1640625" customWidth="1"/>
+    <col min="5119" max="5119" width="10.1640625" customWidth="1"/>
+    <col min="5121" max="5121" width="11.5" customWidth="1"/>
     <col min="5122" max="5122" width="8" customWidth="1"/>
     <col min="5123" max="5123" width="10" customWidth="1"/>
-    <col min="5124" max="5124" width="9.28515625" customWidth="1"/>
-    <col min="5125" max="5125" width="10.140625" customWidth="1"/>
+    <col min="5124" max="5124" width="9.33203125" customWidth="1"/>
+    <col min="5125" max="5125" width="10.1640625" customWidth="1"/>
     <col min="5126" max="5126" width="8" customWidth="1"/>
-    <col min="5361" max="5361" width="30.42578125" customWidth="1"/>
-    <col min="5362" max="5362" width="11.42578125" customWidth="1"/>
+    <col min="5361" max="5361" width="30.5" customWidth="1"/>
+    <col min="5362" max="5362" width="11.5" customWidth="1"/>
     <col min="5363" max="5363" width="8" customWidth="1"/>
-    <col min="5364" max="5364" width="10.28515625" customWidth="1"/>
-    <col min="5365" max="5365" width="8.28515625" customWidth="1"/>
+    <col min="5364" max="5364" width="10.33203125" customWidth="1"/>
+    <col min="5365" max="5365" width="8.33203125" customWidth="1"/>
     <col min="5366" max="5366" width="10" customWidth="1"/>
     <col min="5367" max="5371" width="8" customWidth="1"/>
-    <col min="5372" max="5372" width="8.28515625" customWidth="1"/>
+    <col min="5372" max="5372" width="8.33203125" customWidth="1"/>
     <col min="5373" max="5373" width="9" customWidth="1"/>
-    <col min="5374" max="5374" width="28.140625" customWidth="1"/>
-    <col min="5375" max="5375" width="10.140625" customWidth="1"/>
-    <col min="5377" max="5377" width="11.42578125" customWidth="1"/>
+    <col min="5374" max="5374" width="28.1640625" customWidth="1"/>
+    <col min="5375" max="5375" width="10.1640625" customWidth="1"/>
+    <col min="5377" max="5377" width="11.5" customWidth="1"/>
     <col min="5378" max="5378" width="8" customWidth="1"/>
     <col min="5379" max="5379" width="10" customWidth="1"/>
-    <col min="5380" max="5380" width="9.28515625" customWidth="1"/>
-    <col min="5381" max="5381" width="10.140625" customWidth="1"/>
+    <col min="5380" max="5380" width="9.33203125" customWidth="1"/>
+    <col min="5381" max="5381" width="10.1640625" customWidth="1"/>
     <col min="5382" max="5382" width="8" customWidth="1"/>
-    <col min="5617" max="5617" width="30.42578125" customWidth="1"/>
-    <col min="5618" max="5618" width="11.42578125" customWidth="1"/>
+    <col min="5617" max="5617" width="30.5" customWidth="1"/>
+    <col min="5618" max="5618" width="11.5" customWidth="1"/>
     <col min="5619" max="5619" width="8" customWidth="1"/>
-    <col min="5620" max="5620" width="10.28515625" customWidth="1"/>
-    <col min="5621" max="5621" width="8.28515625" customWidth="1"/>
+    <col min="5620" max="5620" width="10.33203125" customWidth="1"/>
+    <col min="5621" max="5621" width="8.33203125" customWidth="1"/>
     <col min="5622" max="5622" width="10" customWidth="1"/>
     <col min="5623" max="5627" width="8" customWidth="1"/>
-    <col min="5628" max="5628" width="8.28515625" customWidth="1"/>
+    <col min="5628" max="5628" width="8.33203125" customWidth="1"/>
     <col min="5629" max="5629" width="9" customWidth="1"/>
-    <col min="5630" max="5630" width="28.140625" customWidth="1"/>
-    <col min="5631" max="5631" width="10.140625" customWidth="1"/>
-    <col min="5633" max="5633" width="11.42578125" customWidth="1"/>
+    <col min="5630" max="5630" width="28.1640625" customWidth="1"/>
+    <col min="5631" max="5631" width="10.1640625" customWidth="1"/>
+    <col min="5633" max="5633" width="11.5" customWidth="1"/>
     <col min="5634" max="5634" width="8" customWidth="1"/>
     <col min="5635" max="5635" width="10" customWidth="1"/>
-    <col min="5636" max="5636" width="9.28515625" customWidth="1"/>
-    <col min="5637" max="5637" width="10.140625" customWidth="1"/>
+    <col min="5636" max="5636" width="9.33203125" customWidth="1"/>
+    <col min="5637" max="5637" width="10.1640625" customWidth="1"/>
     <col min="5638" max="5638" width="8" customWidth="1"/>
-    <col min="5873" max="5873" width="30.42578125" customWidth="1"/>
-    <col min="5874" max="5874" width="11.42578125" customWidth="1"/>
+    <col min="5873" max="5873" width="30.5" customWidth="1"/>
+    <col min="5874" max="5874" width="11.5" customWidth="1"/>
     <col min="5875" max="5875" width="8" customWidth="1"/>
-    <col min="5876" max="5876" width="10.28515625" customWidth="1"/>
-    <col min="5877" max="5877" width="8.28515625" customWidth="1"/>
+    <col min="5876" max="5876" width="10.33203125" customWidth="1"/>
+    <col min="5877" max="5877" width="8.33203125" customWidth="1"/>
     <col min="5878" max="5878" width="10" customWidth="1"/>
     <col min="5879" max="5883" width="8" customWidth="1"/>
-    <col min="5884" max="5884" width="8.28515625" customWidth="1"/>
+    <col min="5884" max="5884" width="8.33203125" customWidth="1"/>
     <col min="5885" max="5885" width="9" customWidth="1"/>
-    <col min="5886" max="5886" width="28.140625" customWidth="1"/>
-    <col min="5887" max="5887" width="10.140625" customWidth="1"/>
-    <col min="5889" max="5889" width="11.42578125" customWidth="1"/>
+    <col min="5886" max="5886" width="28.1640625" customWidth="1"/>
+    <col min="5887" max="5887" width="10.1640625" customWidth="1"/>
+    <col min="5889" max="5889" width="11.5" customWidth="1"/>
     <col min="5890" max="5890" width="8" customWidth="1"/>
     <col min="5891" max="5891" width="10" customWidth="1"/>
-    <col min="5892" max="5892" width="9.28515625" customWidth="1"/>
-    <col min="5893" max="5893" width="10.140625" customWidth="1"/>
+    <col min="5892" max="5892" width="9.33203125" customWidth="1"/>
+    <col min="5893" max="5893" width="10.1640625" customWidth="1"/>
     <col min="5894" max="5894" width="8" customWidth="1"/>
-    <col min="6129" max="6129" width="30.42578125" customWidth="1"/>
-    <col min="6130" max="6130" width="11.42578125" customWidth="1"/>
+    <col min="6129" max="6129" width="30.5" customWidth="1"/>
+    <col min="6130" max="6130" width="11.5" customWidth="1"/>
     <col min="6131" max="6131" width="8" customWidth="1"/>
-    <col min="6132" max="6132" width="10.28515625" customWidth="1"/>
-    <col min="6133" max="6133" width="8.28515625" customWidth="1"/>
+    <col min="6132" max="6132" width="10.33203125" customWidth="1"/>
+    <col min="6133" max="6133" width="8.33203125" customWidth="1"/>
     <col min="6134" max="6134" width="10" customWidth="1"/>
     <col min="6135" max="6139" width="8" customWidth="1"/>
-    <col min="6140" max="6140" width="8.28515625" customWidth="1"/>
+    <col min="6140" max="6140" width="8.33203125" customWidth="1"/>
     <col min="6141" max="6141" width="9" customWidth="1"/>
-    <col min="6142" max="6142" width="28.140625" customWidth="1"/>
-    <col min="6143" max="6143" width="10.140625" customWidth="1"/>
-    <col min="6145" max="6145" width="11.42578125" customWidth="1"/>
+    <col min="6142" max="6142" width="28.1640625" customWidth="1"/>
+    <col min="6143" max="6143" width="10.1640625" customWidth="1"/>
+    <col min="6145" max="6145" width="11.5" customWidth="1"/>
     <col min="6146" max="6146" width="8" customWidth="1"/>
     <col min="6147" max="6147" width="10" customWidth="1"/>
-    <col min="6148" max="6148" width="9.28515625" customWidth="1"/>
-    <col min="6149" max="6149" width="10.140625" customWidth="1"/>
+    <col min="6148" max="6148" width="9.33203125" customWidth="1"/>
+    <col min="6149" max="6149" width="10.1640625" customWidth="1"/>
     <col min="6150" max="6150" width="8" customWidth="1"/>
-    <col min="6385" max="6385" width="30.42578125" customWidth="1"/>
-    <col min="6386" max="6386" width="11.42578125" customWidth="1"/>
+    <col min="6385" max="6385" width="30.5" customWidth="1"/>
+    <col min="6386" max="6386" width="11.5" customWidth="1"/>
     <col min="6387" max="6387" width="8" customWidth="1"/>
-    <col min="6388" max="6388" width="10.28515625" customWidth="1"/>
-    <col min="6389" max="6389" width="8.28515625" customWidth="1"/>
+    <col min="6388" max="6388" width="10.33203125" customWidth="1"/>
+    <col min="6389" max="6389" width="8.33203125" customWidth="1"/>
     <col min="6390" max="6390" width="10" customWidth="1"/>
     <col min="6391" max="6395" width="8" customWidth="1"/>
-    <col min="6396" max="6396" width="8.28515625" customWidth="1"/>
+    <col min="6396" max="6396" width="8.33203125" customWidth="1"/>
     <col min="6397" max="6397" width="9" customWidth="1"/>
-    <col min="6398" max="6398" width="28.140625" customWidth="1"/>
-    <col min="6399" max="6399" width="10.140625" customWidth="1"/>
-    <col min="6401" max="6401" width="11.42578125" customWidth="1"/>
+    <col min="6398" max="6398" width="28.1640625" customWidth="1"/>
+    <col min="6399" max="6399" width="10.1640625" customWidth="1"/>
+    <col min="6401" max="6401" width="11.5" customWidth="1"/>
     <col min="6402" max="6402" width="8" customWidth="1"/>
     <col min="6403" max="6403" width="10" customWidth="1"/>
-    <col min="6404" max="6404" width="9.28515625" customWidth="1"/>
-    <col min="6405" max="6405" width="10.140625" customWidth="1"/>
+    <col min="6404" max="6404" width="9.33203125" customWidth="1"/>
+    <col min="6405" max="6405" width="10.1640625" customWidth="1"/>
     <col min="6406" max="6406" width="8" customWidth="1"/>
-    <col min="6641" max="6641" width="30.42578125" customWidth="1"/>
-    <col min="6642" max="6642" width="11.42578125" customWidth="1"/>
+    <col min="6641" max="6641" width="30.5" customWidth="1"/>
+    <col min="6642" max="6642" width="11.5" customWidth="1"/>
     <col min="6643" max="6643" width="8" customWidth="1"/>
-    <col min="6644" max="6644" width="10.28515625" customWidth="1"/>
-    <col min="6645" max="6645" width="8.28515625" customWidth="1"/>
+    <col min="6644" max="6644" width="10.33203125" customWidth="1"/>
+    <col min="6645" max="6645" width="8.33203125" customWidth="1"/>
     <col min="6646" max="6646" width="10" customWidth="1"/>
     <col min="6647" max="6651" width="8" customWidth="1"/>
-    <col min="6652" max="6652" width="8.28515625" customWidth="1"/>
+    <col min="6652" max="6652" width="8.33203125" customWidth="1"/>
     <col min="6653" max="6653" width="9" customWidth="1"/>
-    <col min="6654" max="6654" width="28.140625" customWidth="1"/>
-    <col min="6655" max="6655" width="10.140625" customWidth="1"/>
-    <col min="6657" max="6657" width="11.42578125" customWidth="1"/>
+    <col min="6654" max="6654" width="28.1640625" customWidth="1"/>
+    <col min="6655" max="6655" width="10.1640625" customWidth="1"/>
+    <col min="6657" max="6657" width="11.5" customWidth="1"/>
     <col min="6658" max="6658" width="8" customWidth="1"/>
     <col min="6659" max="6659" width="10" customWidth="1"/>
-    <col min="6660" max="6660" width="9.28515625" customWidth="1"/>
-    <col min="6661" max="6661" width="10.140625" customWidth="1"/>
+    <col min="6660" max="6660" width="9.33203125" customWidth="1"/>
+    <col min="6661" max="6661" width="10.1640625" customWidth="1"/>
     <col min="6662" max="6662" width="8" customWidth="1"/>
-    <col min="6897" max="6897" width="30.42578125" customWidth="1"/>
-    <col min="6898" max="6898" width="11.42578125" customWidth="1"/>
+    <col min="6897" max="6897" width="30.5" customWidth="1"/>
+    <col min="6898" max="6898" width="11.5" customWidth="1"/>
     <col min="6899" max="6899" width="8" customWidth="1"/>
-    <col min="6900" max="6900" width="10.28515625" customWidth="1"/>
-    <col min="6901" max="6901" width="8.28515625" customWidth="1"/>
+    <col min="6900" max="6900" width="10.33203125" customWidth="1"/>
+    <col min="6901" max="6901" width="8.33203125" customWidth="1"/>
     <col min="6902" max="6902" width="10" customWidth="1"/>
     <col min="6903" max="6907" width="8" customWidth="1"/>
-    <col min="6908" max="6908" width="8.28515625" customWidth="1"/>
+    <col min="6908" max="6908" width="8.33203125" customWidth="1"/>
     <col min="6909" max="6909" width="9" customWidth="1"/>
-    <col min="6910" max="6910" width="28.140625" customWidth="1"/>
-    <col min="6911" max="6911" width="10.140625" customWidth="1"/>
-    <col min="6913" max="6913" width="11.42578125" customWidth="1"/>
+    <col min="6910" max="6910" width="28.1640625" customWidth="1"/>
+    <col min="6911" max="6911" width="10.1640625" customWidth="1"/>
+    <col min="6913" max="6913" width="11.5" customWidth="1"/>
     <col min="6914" max="6914" width="8" customWidth="1"/>
     <col min="6915" max="6915" width="10" customWidth="1"/>
-    <col min="6916" max="6916" width="9.28515625" customWidth="1"/>
-    <col min="6917" max="6917" width="10.140625" customWidth="1"/>
+    <col min="6916" max="6916" width="9.33203125" customWidth="1"/>
+    <col min="6917" max="6917" width="10.1640625" customWidth="1"/>
     <col min="6918" max="6918" width="8" customWidth="1"/>
-    <col min="7153" max="7153" width="30.42578125" customWidth="1"/>
-    <col min="7154" max="7154" width="11.42578125" customWidth="1"/>
+    <col min="7153" max="7153" width="30.5" customWidth="1"/>
+    <col min="7154" max="7154" width="11.5" customWidth="1"/>
     <col min="7155" max="7155" width="8" customWidth="1"/>
-    <col min="7156" max="7156" width="10.28515625" customWidth="1"/>
-    <col min="7157" max="7157" width="8.28515625" customWidth="1"/>
+    <col min="7156" max="7156" width="10.33203125" customWidth="1"/>
+    <col min="7157" max="7157" width="8.33203125" customWidth="1"/>
     <col min="7158" max="7158" width="10" customWidth="1"/>
     <col min="7159" max="7163" width="8" customWidth="1"/>
-    <col min="7164" max="7164" width="8.28515625" customWidth="1"/>
+    <col min="7164" max="7164" width="8.33203125" customWidth="1"/>
     <col min="7165" max="7165" width="9" customWidth="1"/>
-    <col min="7166" max="7166" width="28.140625" customWidth="1"/>
-    <col min="7167" max="7167" width="10.140625" customWidth="1"/>
-    <col min="7169" max="7169" width="11.42578125" customWidth="1"/>
+    <col min="7166" max="7166" width="28.1640625" customWidth="1"/>
+    <col min="7167" max="7167" width="10.1640625" customWidth="1"/>
+    <col min="7169" max="7169" width="11.5" customWidth="1"/>
     <col min="7170" max="7170" width="8" customWidth="1"/>
     <col min="7171" max="7171" width="10" customWidth="1"/>
-    <col min="7172" max="7172" width="9.28515625" customWidth="1"/>
-    <col min="7173" max="7173" width="10.140625" customWidth="1"/>
+    <col min="7172" max="7172" width="9.33203125" customWidth="1"/>
+    <col min="7173" max="7173" width="10.1640625" customWidth="1"/>
     <col min="7174" max="7174" width="8" customWidth="1"/>
-    <col min="7409" max="7409" width="30.42578125" customWidth="1"/>
-    <col min="7410" max="7410" width="11.42578125" customWidth="1"/>
+    <col min="7409" max="7409" width="30.5" customWidth="1"/>
+    <col min="7410" max="7410" width="11.5" customWidth="1"/>
     <col min="7411" max="7411" width="8" customWidth="1"/>
-    <col min="7412" max="7412" width="10.28515625" customWidth="1"/>
-    <col min="7413" max="7413" width="8.28515625" customWidth="1"/>
+    <col min="7412" max="7412" width="10.33203125" customWidth="1"/>
+    <col min="7413" max="7413" width="8.33203125" customWidth="1"/>
     <col min="7414" max="7414" width="10" customWidth="1"/>
     <col min="7415" max="7419" width="8" customWidth="1"/>
-    <col min="7420" max="7420" width="8.28515625" customWidth="1"/>
+    <col min="7420" max="7420" width="8.33203125" customWidth="1"/>
     <col min="7421" max="7421" width="9" customWidth="1"/>
-    <col min="7422" max="7422" width="28.140625" customWidth="1"/>
-    <col min="7423" max="7423" width="10.140625" customWidth="1"/>
-    <col min="7425" max="7425" width="11.42578125" customWidth="1"/>
+    <col min="7422" max="7422" width="28.1640625" customWidth="1"/>
+    <col min="7423" max="7423" width="10.1640625" customWidth="1"/>
+    <col min="7425" max="7425" width="11.5" customWidth="1"/>
     <col min="7426" max="7426" width="8" customWidth="1"/>
     <col min="7427" max="7427" width="10" customWidth="1"/>
-    <col min="7428" max="7428" width="9.28515625" customWidth="1"/>
-    <col min="7429" max="7429" width="10.140625" customWidth="1"/>
+    <col min="7428" max="7428" width="9.33203125" customWidth="1"/>
+    <col min="7429" max="7429" width="10.1640625" customWidth="1"/>
     <col min="7430" max="7430" width="8" customWidth="1"/>
-    <col min="7665" max="7665" width="30.42578125" customWidth="1"/>
-    <col min="7666" max="7666" width="11.42578125" customWidth="1"/>
+    <col min="7665" max="7665" width="30.5" customWidth="1"/>
+    <col min="7666" max="7666" width="11.5" customWidth="1"/>
     <col min="7667" max="7667" width="8" customWidth="1"/>
-    <col min="7668" max="7668" width="10.28515625" customWidth="1"/>
-    <col min="7669" max="7669" width="8.28515625" customWidth="1"/>
+    <col min="7668" max="7668" width="10.33203125" customWidth="1"/>
+    <col min="7669" max="7669" width="8.33203125" customWidth="1"/>
     <col min="7670" max="7670" width="10" customWidth="1"/>
     <col min="7671" max="7675" width="8" customWidth="1"/>
-    <col min="7676" max="7676" width="8.28515625" customWidth="1"/>
+    <col min="7676" max="7676" width="8.33203125" customWidth="1"/>
     <col min="7677" max="7677" width="9" customWidth="1"/>
-    <col min="7678" max="7678" width="28.140625" customWidth="1"/>
-    <col min="7679" max="7679" width="10.140625" customWidth="1"/>
-    <col min="7681" max="7681" width="11.42578125" customWidth="1"/>
+    <col min="7678" max="7678" width="28.1640625" customWidth="1"/>
+    <col min="7679" max="7679" width="10.1640625" customWidth="1"/>
+    <col min="7681" max="7681" width="11.5" customWidth="1"/>
     <col min="7682" max="7682" width="8" customWidth="1"/>
     <col min="7683" max="7683" width="10" customWidth="1"/>
-    <col min="7684" max="7684" width="9.28515625" customWidth="1"/>
-    <col min="7685" max="7685" width="10.140625" customWidth="1"/>
+    <col min="7684" max="7684" width="9.33203125" customWidth="1"/>
+    <col min="7685" max="7685" width="10.1640625" customWidth="1"/>
     <col min="7686" max="7686" width="8" customWidth="1"/>
-    <col min="7921" max="7921" width="30.42578125" customWidth="1"/>
-    <col min="7922" max="7922" width="11.42578125" customWidth="1"/>
+    <col min="7921" max="7921" width="30.5" customWidth="1"/>
+    <col min="7922" max="7922" width="11.5" customWidth="1"/>
     <col min="7923" max="7923" width="8" customWidth="1"/>
-    <col min="7924" max="7924" width="10.28515625" customWidth="1"/>
-    <col min="7925" max="7925" width="8.28515625" customWidth="1"/>
+    <col min="7924" max="7924" width="10.33203125" customWidth="1"/>
+    <col min="7925" max="7925" width="8.33203125" customWidth="1"/>
     <col min="7926" max="7926" width="10" customWidth="1"/>
     <col min="7927" max="7931" width="8" customWidth="1"/>
-    <col min="7932" max="7932" width="8.28515625" customWidth="1"/>
+    <col min="7932" max="7932" width="8.33203125" customWidth="1"/>
     <col min="7933" max="7933" width="9" customWidth="1"/>
-    <col min="7934" max="7934" width="28.140625" customWidth="1"/>
-    <col min="7935" max="7935" width="10.140625" customWidth="1"/>
-    <col min="7937" max="7937" width="11.42578125" customWidth="1"/>
+    <col min="7934" max="7934" width="28.1640625" customWidth="1"/>
+    <col min="7935" max="7935" width="10.1640625" customWidth="1"/>
+    <col min="7937" max="7937" width="11.5" customWidth="1"/>
     <col min="7938" max="7938" width="8" customWidth="1"/>
     <col min="7939" max="7939" width="10" customWidth="1"/>
-    <col min="7940" max="7940" width="9.28515625" customWidth="1"/>
-    <col min="7941" max="7941" width="10.140625" customWidth="1"/>
+    <col min="7940" max="7940" width="9.33203125" customWidth="1"/>
+    <col min="7941" max="7941" width="10.1640625" customWidth="1"/>
     <col min="7942" max="7942" width="8" customWidth="1"/>
-    <col min="8177" max="8177" width="30.42578125" customWidth="1"/>
-    <col min="8178" max="8178" width="11.42578125" customWidth="1"/>
+    <col min="8177" max="8177" width="30.5" customWidth="1"/>
+    <col min="8178" max="8178" width="11.5" customWidth="1"/>
     <col min="8179" max="8179" width="8" customWidth="1"/>
-    <col min="8180" max="8180" width="10.28515625" customWidth="1"/>
-    <col min="8181" max="8181" width="8.28515625" customWidth="1"/>
+    <col min="8180" max="8180" width="10.33203125" customWidth="1"/>
+    <col min="8181" max="8181" width="8.33203125" customWidth="1"/>
     <col min="8182" max="8182" width="10" customWidth="1"/>
     <col min="8183" max="8187" width="8" customWidth="1"/>
-    <col min="8188" max="8188" width="8.28515625" customWidth="1"/>
+    <col min="8188" max="8188" width="8.33203125" customWidth="1"/>
     <col min="8189" max="8189" width="9" customWidth="1"/>
-    <col min="8190" max="8190" width="28.140625" customWidth="1"/>
-    <col min="8191" max="8191" width="10.140625" customWidth="1"/>
-    <col min="8193" max="8193" width="11.42578125" customWidth="1"/>
+    <col min="8190" max="8190" width="28.1640625" customWidth="1"/>
+    <col min="8191" max="8191" width="10.1640625" customWidth="1"/>
+    <col min="8193" max="8193" width="11.5" customWidth="1"/>
     <col min="8194" max="8194" width="8" customWidth="1"/>
     <col min="8195" max="8195" width="10" customWidth="1"/>
-    <col min="8196" max="8196" width="9.28515625" customWidth="1"/>
-    <col min="8197" max="8197" width="10.140625" customWidth="1"/>
+    <col min="8196" max="8196" width="9.33203125" customWidth="1"/>
+    <col min="8197" max="8197" width="10.1640625" customWidth="1"/>
     <col min="8198" max="8198" width="8" customWidth="1"/>
-    <col min="8433" max="8433" width="30.42578125" customWidth="1"/>
-    <col min="8434" max="8434" width="11.42578125" customWidth="1"/>
+    <col min="8433" max="8433" width="30.5" customWidth="1"/>
+    <col min="8434" max="8434" width="11.5" customWidth="1"/>
     <col min="8435" max="8435" width="8" customWidth="1"/>
-    <col min="8436" max="8436" width="10.28515625" customWidth="1"/>
-    <col min="8437" max="8437" width="8.28515625" customWidth="1"/>
+    <col min="8436" max="8436" width="10.33203125" customWidth="1"/>
+    <col min="8437" max="8437" width="8.33203125" customWidth="1"/>
     <col min="8438" max="8438" width="10" customWidth="1"/>
     <col min="8439" max="8443" width="8" customWidth="1"/>
-    <col min="8444" max="8444" width="8.28515625" customWidth="1"/>
+    <col min="8444" max="8444" width="8.33203125" customWidth="1"/>
     <col min="8445" max="8445" width="9" customWidth="1"/>
-    <col min="8446" max="8446" width="28.140625" customWidth="1"/>
-    <col min="8447" max="8447" width="10.140625" customWidth="1"/>
-    <col min="8449" max="8449" width="11.42578125" customWidth="1"/>
+    <col min="8446" max="8446" width="28.1640625" customWidth="1"/>
+    <col min="8447" max="8447" width="10.1640625" customWidth="1"/>
+    <col min="8449" max="8449" width="11.5" customWidth="1"/>
     <col min="8450" max="8450" width="8" customWidth="1"/>
     <col min="8451" max="8451" width="10" customWidth="1"/>
-    <col min="8452" max="8452" width="9.28515625" customWidth="1"/>
-    <col min="8453" max="8453" width="10.140625" customWidth="1"/>
+    <col min="8452" max="8452" width="9.33203125" customWidth="1"/>
+    <col min="8453" max="8453" width="10.1640625" customWidth="1"/>
     <col min="8454" max="8454" width="8" customWidth="1"/>
-    <col min="8689" max="8689" width="30.42578125" customWidth="1"/>
-    <col min="8690" max="8690" width="11.42578125" customWidth="1"/>
+    <col min="8689" max="8689" width="30.5" customWidth="1"/>
+    <col min="8690" max="8690" width="11.5" customWidth="1"/>
     <col min="8691" max="8691" width="8" customWidth="1"/>
-    <col min="8692" max="8692" width="10.28515625" customWidth="1"/>
-    <col min="8693" max="8693" width="8.28515625" customWidth="1"/>
+    <col min="8692" max="8692" width="10.33203125" customWidth="1"/>
+    <col min="8693" max="8693" width="8.33203125" customWidth="1"/>
     <col min="8694" max="8694" width="10" customWidth="1"/>
     <col min="8695" max="8699" width="8" customWidth="1"/>
-    <col min="8700" max="8700" width="8.28515625" customWidth="1"/>
+    <col min="8700" max="8700" width="8.33203125" customWidth="1"/>
     <col min="8701" max="8701" width="9" customWidth="1"/>
-    <col min="8702" max="8702" width="28.140625" customWidth="1"/>
-    <col min="8703" max="8703" width="10.140625" customWidth="1"/>
-    <col min="8705" max="8705" width="11.42578125" customWidth="1"/>
+    <col min="8702" max="8702" width="28.1640625" customWidth="1"/>
+    <col min="8703" max="8703" width="10.1640625" customWidth="1"/>
+    <col min="8705" max="8705" width="11.5" customWidth="1"/>
     <col min="8706" max="8706" width="8" customWidth="1"/>
     <col min="8707" max="8707" width="10" customWidth="1"/>
-    <col min="8708" max="8708" width="9.28515625" customWidth="1"/>
-    <col min="8709" max="8709" width="10.140625" customWidth="1"/>
+    <col min="8708" max="8708" width="9.33203125" customWidth="1"/>
+    <col min="8709" max="8709" width="10.1640625" customWidth="1"/>
     <col min="8710" max="8710" width="8" customWidth="1"/>
-    <col min="8945" max="8945" width="30.42578125" customWidth="1"/>
-    <col min="8946" max="8946" width="11.42578125" customWidth="1"/>
+    <col min="8945" max="8945" width="30.5" customWidth="1"/>
+    <col min="8946" max="8946" width="11.5" customWidth="1"/>
     <col min="8947" max="8947" width="8" customWidth="1"/>
-    <col min="8948" max="8948" width="10.28515625" customWidth="1"/>
-    <col min="8949" max="8949" width="8.28515625" customWidth="1"/>
+    <col min="8948" max="8948" width="10.33203125" customWidth="1"/>
+    <col min="8949" max="8949" width="8.33203125" customWidth="1"/>
     <col min="8950" max="8950" width="10" customWidth="1"/>
     <col min="8951" max="8955" width="8" customWidth="1"/>
-    <col min="8956" max="8956" width="8.28515625" customWidth="1"/>
+    <col min="8956" max="8956" width="8.33203125" customWidth="1"/>
     <col min="8957" max="8957" width="9" customWidth="1"/>
-    <col min="8958" max="8958" width="28.140625" customWidth="1"/>
-    <col min="8959" max="8959" width="10.140625" customWidth="1"/>
-    <col min="8961" max="8961" width="11.42578125" customWidth="1"/>
+    <col min="8958" max="8958" width="28.1640625" customWidth="1"/>
+    <col min="8959" max="8959" width="10.1640625" customWidth="1"/>
+    <col min="8961" max="8961" width="11.5" customWidth="1"/>
     <col min="8962" max="8962" width="8" customWidth="1"/>
     <col min="8963" max="8963" width="10" customWidth="1"/>
-    <col min="8964" max="8964" width="9.28515625" customWidth="1"/>
-    <col min="8965" max="8965" width="10.140625" customWidth="1"/>
+    <col min="8964" max="8964" width="9.33203125" customWidth="1"/>
+    <col min="8965" max="8965" width="10.1640625" customWidth="1"/>
     <col min="8966" max="8966" width="8" customWidth="1"/>
-    <col min="9201" max="9201" width="30.42578125" customWidth="1"/>
-    <col min="9202" max="9202" width="11.42578125" customWidth="1"/>
+    <col min="9201" max="9201" width="30.5" customWidth="1"/>
+    <col min="9202" max="9202" width="11.5" customWidth="1"/>
     <col min="9203" max="9203" width="8" customWidth="1"/>
-    <col min="9204" max="9204" width="10.28515625" customWidth="1"/>
-    <col min="9205" max="9205" width="8.28515625" customWidth="1"/>
+    <col min="9204" max="9204" width="10.33203125" customWidth="1"/>
+    <col min="9205" max="9205" width="8.33203125" customWidth="1"/>
     <col min="9206" max="9206" width="10" customWidth="1"/>
     <col min="9207" max="9211" width="8" customWidth="1"/>
-    <col min="9212" max="9212" width="8.28515625" customWidth="1"/>
+    <col min="9212" max="9212" width="8.33203125" customWidth="1"/>
     <col min="9213" max="9213" width="9" customWidth="1"/>
-    <col min="9214" max="9214" width="28.140625" customWidth="1"/>
-    <col min="9215" max="9215" width="10.140625" customWidth="1"/>
-    <col min="9217" max="9217" width="11.42578125" customWidth="1"/>
+    <col min="9214" max="9214" width="28.1640625" customWidth="1"/>
+    <col min="9215" max="9215" width="10.1640625" customWidth="1"/>
+    <col min="9217" max="9217" width="11.5" customWidth="1"/>
     <col min="9218" max="9218" width="8" customWidth="1"/>
     <col min="9219" max="9219" width="10" customWidth="1"/>
-    <col min="9220" max="9220" width="9.28515625" customWidth="1"/>
-    <col min="9221" max="9221" width="10.140625" customWidth="1"/>
+    <col min="9220" max="9220" width="9.33203125" customWidth="1"/>
+    <col min="9221" max="9221" width="10.1640625" customWidth="1"/>
     <col min="9222" max="9222" width="8" customWidth="1"/>
-    <col min="9457" max="9457" width="30.42578125" customWidth="1"/>
-    <col min="9458" max="9458" width="11.42578125" customWidth="1"/>
+    <col min="9457" max="9457" width="30.5" customWidth="1"/>
+    <col min="9458" max="9458" width="11.5" customWidth="1"/>
     <col min="9459" max="9459" width="8" customWidth="1"/>
-    <col min="9460" max="9460" width="10.28515625" customWidth="1"/>
-    <col min="9461" max="9461" width="8.28515625" customWidth="1"/>
+    <col min="9460" max="9460" width="10.33203125" customWidth="1"/>
+    <col min="9461" max="9461" width="8.33203125" customWidth="1"/>
     <col min="9462" max="9462" width="10" customWidth="1"/>
     <col min="9463" max="9467" width="8" customWidth="1"/>
-    <col min="9468" max="9468" width="8.28515625" customWidth="1"/>
+    <col min="9468" max="9468" width="8.33203125" customWidth="1"/>
     <col min="9469" max="9469" width="9" customWidth="1"/>
-    <col min="9470" max="9470" width="28.140625" customWidth="1"/>
-    <col min="9471" max="9471" width="10.140625" customWidth="1"/>
-    <col min="9473" max="9473" width="11.42578125" customWidth="1"/>
+    <col min="9470" max="9470" width="28.1640625" customWidth="1"/>
+    <col min="9471" max="9471" width="10.1640625" customWidth="1"/>
+    <col min="9473" max="9473" width="11.5" customWidth="1"/>
     <col min="9474" max="9474" width="8" customWidth="1"/>
     <col min="9475" max="9475" width="10" customWidth="1"/>
-    <col min="9476" max="9476" width="9.28515625" customWidth="1"/>
-    <col min="9477" max="9477" width="10.140625" customWidth="1"/>
+    <col min="9476" max="9476" width="9.33203125" customWidth="1"/>
+    <col min="9477" max="9477" width="10.1640625" customWidth="1"/>
     <col min="9478" max="9478" width="8" customWidth="1"/>
-    <col min="9713" max="9713" width="30.42578125" customWidth="1"/>
-    <col min="9714" max="9714" width="11.42578125" customWidth="1"/>
+    <col min="9713" max="9713" width="30.5" customWidth="1"/>
+    <col min="9714" max="9714" width="11.5" customWidth="1"/>
     <col min="9715" max="9715" width="8" customWidth="1"/>
-    <col min="9716" max="9716" width="10.28515625" customWidth="1"/>
-    <col min="9717" max="9717" width="8.28515625" customWidth="1"/>
+    <col min="9716" max="9716" width="10.33203125" customWidth="1"/>
+    <col min="9717" max="9717" width="8.33203125" customWidth="1"/>
     <col min="9718" max="9718" width="10" customWidth="1"/>
     <col min="9719" max="9723" width="8" customWidth="1"/>
-    <col min="9724" max="9724" width="8.28515625" customWidth="1"/>
+    <col min="9724" max="9724" width="8.33203125" customWidth="1"/>
     <col min="9725" max="9725" width="9" customWidth="1"/>
-    <col min="9726" max="9726" width="28.140625" customWidth="1"/>
-    <col min="9727" max="9727" width="10.140625" customWidth="1"/>
-    <col min="9729" max="9729" width="11.42578125" customWidth="1"/>
+    <col min="9726" max="9726" width="28.1640625" customWidth="1"/>
+    <col min="9727" max="9727" width="10.1640625" customWidth="1"/>
+    <col min="9729" max="9729" width="11.5" customWidth="1"/>
     <col min="9730" max="9730" width="8" customWidth="1"/>
     <col min="9731" max="9731" width="10" customWidth="1"/>
-    <col min="9732" max="9732" width="9.28515625" customWidth="1"/>
-    <col min="9733" max="9733" width="10.140625" customWidth="1"/>
+    <col min="9732" max="9732" width="9.33203125" customWidth="1"/>
+    <col min="9733" max="9733" width="10.1640625" customWidth="1"/>
     <col min="9734" max="9734" width="8" customWidth="1"/>
-    <col min="9969" max="9969" width="30.42578125" customWidth="1"/>
-    <col min="9970" max="9970" width="11.42578125" customWidth="1"/>
+    <col min="9969" max="9969" width="30.5" customWidth="1"/>
+    <col min="9970" max="9970" width="11.5" customWidth="1"/>
     <col min="9971" max="9971" width="8" customWidth="1"/>
-    <col min="9972" max="9972" width="10.28515625" customWidth="1"/>
-    <col min="9973" max="9973" width="8.28515625" customWidth="1"/>
+    <col min="9972" max="9972" width="10.33203125" customWidth="1"/>
+    <col min="9973" max="9973" width="8.33203125" customWidth="1"/>
     <col min="9974" max="9974" width="10" customWidth="1"/>
     <col min="9975" max="9979" width="8" customWidth="1"/>
-    <col min="9980" max="9980" width="8.28515625" customWidth="1"/>
+    <col min="9980" max="9980" width="8.33203125" customWidth="1"/>
     <col min="9981" max="9981" width="9" customWidth="1"/>
-    <col min="9982" max="9982" width="28.140625" customWidth="1"/>
-    <col min="9983" max="9983" width="10.140625" customWidth="1"/>
-    <col min="9985" max="9985" width="11.42578125" customWidth="1"/>
+    <col min="9982" max="9982" width="28.1640625" customWidth="1"/>
+    <col min="9983" max="9983" width="10.1640625" customWidth="1"/>
+    <col min="9985" max="9985" width="11.5" customWidth="1"/>
     <col min="9986" max="9986" width="8" customWidth="1"/>
     <col min="9987" max="9987" width="10" customWidth="1"/>
-    <col min="9988" max="9988" width="9.28515625" customWidth="1"/>
-    <col min="9989" max="9989" width="10.140625" customWidth="1"/>
+    <col min="9988" max="9988" width="9.33203125" customWidth="1"/>
+    <col min="9989" max="9989" width="10.1640625" customWidth="1"/>
     <col min="9990" max="9990" width="8" customWidth="1"/>
-    <col min="10225" max="10225" width="30.42578125" customWidth="1"/>
-    <col min="10226" max="10226" width="11.42578125" customWidth="1"/>
+    <col min="10225" max="10225" width="30.5" customWidth="1"/>
+    <col min="10226" max="10226" width="11.5" customWidth="1"/>
     <col min="10227" max="10227" width="8" customWidth="1"/>
-    <col min="10228" max="10228" width="10.28515625" customWidth="1"/>
-    <col min="10229" max="10229" width="8.28515625" customWidth="1"/>
+    <col min="10228" max="10228" width="10.33203125" customWidth="1"/>
+    <col min="10229" max="10229" width="8.33203125" customWidth="1"/>
     <col min="10230" max="10230" width="10" customWidth="1"/>
     <col min="10231" max="10235" width="8" customWidth="1"/>
-    <col min="10236" max="10236" width="8.28515625" customWidth="1"/>
+    <col min="10236" max="10236" width="8.33203125" customWidth="1"/>
     <col min="10237" max="10237" width="9" customWidth="1"/>
-    <col min="10238" max="10238" width="28.140625" customWidth="1"/>
-    <col min="10239" max="10239" width="10.140625" customWidth="1"/>
-    <col min="10241" max="10241" width="11.42578125" customWidth="1"/>
+    <col min="10238" max="10238" width="28.1640625" customWidth="1"/>
+    <col min="10239" max="10239" width="10.1640625" customWidth="1"/>
+    <col min="10241" max="10241" width="11.5" customWidth="1"/>
     <col min="10242" max="10242" width="8" customWidth="1"/>
     <col min="10243" max="10243" width="10" customWidth="1"/>
-    <col min="10244" max="10244" width="9.28515625" customWidth="1"/>
-    <col min="10245" max="10245" width="10.140625" customWidth="1"/>
+    <col min="10244" max="10244" width="9.33203125" customWidth="1"/>
+    <col min="10245" max="10245" width="10.1640625" customWidth="1"/>
     <col min="10246" max="10246" width="8" customWidth="1"/>
-    <col min="10481" max="10481" width="30.42578125" customWidth="1"/>
-    <col min="10482" max="10482" width="11.42578125" customWidth="1"/>
+    <col min="10481" max="10481" width="30.5" customWidth="1"/>
+    <col min="10482" max="10482" width="11.5" customWidth="1"/>
     <col min="10483" max="10483" width="8" customWidth="1"/>
-    <col min="10484" max="10484" width="10.28515625" customWidth="1"/>
-    <col min="10485" max="10485" width="8.28515625" customWidth="1"/>
+    <col min="10484" max="10484" width="10.33203125" customWidth="1"/>
+    <col min="10485" max="10485" width="8.33203125" customWidth="1"/>
     <col min="10486" max="10486" width="10" customWidth="1"/>
     <col min="10487" max="10491" width="8" customWidth="1"/>
-    <col min="10492" max="10492" width="8.28515625" customWidth="1"/>
+    <col min="10492" max="10492" width="8.33203125" customWidth="1"/>
     <col min="10493" max="10493" width="9" customWidth="1"/>
-    <col min="10494" max="10494" width="28.140625" customWidth="1"/>
-    <col min="10495" max="10495" width="10.140625" customWidth="1"/>
-    <col min="10497" max="10497" width="11.42578125" customWidth="1"/>
+    <col min="10494" max="10494" width="28.1640625" customWidth="1"/>
+    <col min="10495" max="10495" width="10.1640625" customWidth="1"/>
+    <col min="10497" max="10497" width="11.5" customWidth="1"/>
     <col min="10498" max="10498" width="8" customWidth="1"/>
     <col min="10499" max="10499" width="10" customWidth="1"/>
-    <col min="10500" max="10500" width="9.28515625" customWidth="1"/>
-    <col min="10501" max="10501" width="10.140625" customWidth="1"/>
+    <col min="10500" max="10500" width="9.33203125" customWidth="1"/>
+    <col min="10501" max="10501" width="10.1640625" customWidth="1"/>
     <col min="10502" max="10502" width="8" customWidth="1"/>
-    <col min="10737" max="10737" width="30.42578125" customWidth="1"/>
-    <col min="10738" max="10738" width="11.42578125" customWidth="1"/>
+    <col min="10737" max="10737" width="30.5" customWidth="1"/>
+    <col min="10738" max="10738" width="11.5" customWidth="1"/>
     <col min="10739" max="10739" width="8" customWidth="1"/>
-    <col min="10740" max="10740" width="10.28515625" customWidth="1"/>
-    <col min="10741" max="10741" width="8.28515625" customWidth="1"/>
+    <col min="10740" max="10740" width="10.33203125" customWidth="1"/>
+    <col min="10741" max="10741" width="8.33203125" customWidth="1"/>
     <col min="10742" max="10742" width="10" customWidth="1"/>
     <col min="10743" max="10747" width="8" customWidth="1"/>
-    <col min="10748" max="10748" width="8.28515625" customWidth="1"/>
+    <col min="10748" max="10748" width="8.33203125" customWidth="1"/>
     <col min="10749" max="10749" width="9" customWidth="1"/>
-    <col min="10750" max="10750" width="28.140625" customWidth="1"/>
-    <col min="10751" max="10751" width="10.140625" customWidth="1"/>
-    <col min="10753" max="10753" width="11.42578125" customWidth="1"/>
+    <col min="10750" max="10750" width="28.1640625" customWidth="1"/>
+    <col min="10751" max="10751" width="10.1640625" customWidth="1"/>
+    <col min="10753" max="10753" width="11.5" customWidth="1"/>
     <col min="10754" max="10754" width="8" customWidth="1"/>
     <col min="10755" max="10755" width="10" customWidth="1"/>
-    <col min="10756" max="10756" width="9.28515625" customWidth="1"/>
-    <col min="10757" max="10757" width="10.140625" customWidth="1"/>
+    <col min="10756" max="10756" width="9.33203125" customWidth="1"/>
+    <col min="10757" max="10757" width="10.1640625" customWidth="1"/>
     <col min="10758" max="10758" width="8" customWidth="1"/>
-    <col min="10993" max="10993" width="30.42578125" customWidth="1"/>
-    <col min="10994" max="10994" width="11.42578125" customWidth="1"/>
+    <col min="10993" max="10993" width="30.5" customWidth="1"/>
+    <col min="10994" max="10994" width="11.5" customWidth="1"/>
     <col min="10995" max="10995" width="8" customWidth="1"/>
-    <col min="10996" max="10996" width="10.28515625" customWidth="1"/>
-    <col min="10997" max="10997" width="8.28515625" customWidth="1"/>
+    <col min="10996" max="10996" width="10.33203125" customWidth="1"/>
+    <col min="10997" max="10997" width="8.33203125" customWidth="1"/>
     <col min="10998" max="10998" width="10" customWidth="1"/>
     <col min="10999" max="11003" width="8" customWidth="1"/>
-    <col min="11004" max="11004" width="8.28515625" customWidth="1"/>
+    <col min="11004" max="11004" width="8.33203125" customWidth="1"/>
     <col min="11005" max="11005" width="9" customWidth="1"/>
-    <col min="11006" max="11006" width="28.140625" customWidth="1"/>
-    <col min="11007" max="11007" width="10.140625" customWidth="1"/>
-    <col min="11009" max="11009" width="11.42578125" customWidth="1"/>
+    <col min="11006" max="11006" width="28.1640625" customWidth="1"/>
+    <col min="11007" max="11007" width="10.1640625" customWidth="1"/>
+    <col min="11009" max="11009" width="11.5" customWidth="1"/>
     <col min="11010" max="11010" width="8" customWidth="1"/>
     <col min="11011" max="11011" width="10" customWidth="1"/>
-    <col min="11012" max="11012" width="9.28515625" customWidth="1"/>
-    <col min="11013" max="11013" width="10.140625" customWidth="1"/>
+    <col min="11012" max="11012" width="9.33203125" customWidth="1"/>
+    <col min="11013" max="11013" width="10.1640625" customWidth="1"/>
     <col min="11014" max="11014" width="8" customWidth="1"/>
-    <col min="11249" max="11249" width="30.42578125" customWidth="1"/>
-    <col min="11250" max="11250" width="11.42578125" customWidth="1"/>
+    <col min="11249" max="11249" width="30.5" customWidth="1"/>
+    <col min="11250" max="11250" width="11.5" customWidth="1"/>
     <col min="11251" max="11251" width="8" customWidth="1"/>
-    <col min="11252" max="11252" width="10.28515625" customWidth="1"/>
-    <col min="11253" max="11253" width="8.28515625" customWidth="1"/>
+    <col min="11252" max="11252" width="10.33203125" customWidth="1"/>
+    <col min="11253" max="11253" width="8.33203125" customWidth="1"/>
     <col min="11254" max="11254" width="10" customWidth="1"/>
     <col min="11255" max="11259" width="8" customWidth="1"/>
-    <col min="11260" max="11260" width="8.28515625" customWidth="1"/>
+    <col min="11260" max="11260" width="8.33203125" customWidth="1"/>
     <col min="11261" max="11261" width="9" customWidth="1"/>
-    <col min="11262" max="11262" width="28.140625" customWidth="1"/>
-    <col min="11263" max="11263" width="10.140625" customWidth="1"/>
-    <col min="11265" max="11265" width="11.42578125" customWidth="1"/>
+    <col min="11262" max="11262" width="28.1640625" customWidth="1"/>
+    <col min="11263" max="11263" width="10.1640625" customWidth="1"/>
+    <col min="11265" max="11265" width="11.5" customWidth="1"/>
     <col min="11266" max="11266" width="8" customWidth="1"/>
     <col min="11267" max="11267" width="10" customWidth="1"/>
-    <col min="11268" max="11268" width="9.28515625" customWidth="1"/>
-    <col min="11269" max="11269" width="10.140625" customWidth="1"/>
+    <col min="11268" max="11268" width="9.33203125" customWidth="1"/>
+    <col min="11269" max="11269" width="10.1640625" customWidth="1"/>
     <col min="11270" max="11270" width="8" customWidth="1"/>
-    <col min="11505" max="11505" width="30.42578125" customWidth="1"/>
-    <col min="11506" max="11506" width="11.42578125" customWidth="1"/>
+    <col min="11505" max="11505" width="30.5" customWidth="1"/>
+    <col min="11506" max="11506" width="11.5" customWidth="1"/>
     <col min="11507" max="11507" width="8" customWidth="1"/>
-    <col min="11508" max="11508" width="10.28515625" customWidth="1"/>
-    <col min="11509" max="11509" width="8.28515625" customWidth="1"/>
+    <col min="11508" max="11508" width="10.33203125" customWidth="1"/>
+    <col min="11509" max="11509" width="8.33203125" customWidth="1"/>
     <col min="11510" max="11510" width="10" customWidth="1"/>
     <col min="11511" max="11515" width="8" customWidth="1"/>
-    <col min="11516" max="11516" width="8.28515625" customWidth="1"/>
+    <col min="11516" max="11516" width="8.33203125" customWidth="1"/>
     <col min="11517" max="11517" width="9" customWidth="1"/>
-    <col min="11518" max="11518" width="28.140625" customWidth="1"/>
-    <col min="11519" max="11519" width="10.140625" customWidth="1"/>
-    <col min="11521" max="11521" width="11.42578125" customWidth="1"/>
+    <col min="11518" max="11518" width="28.1640625" customWidth="1"/>
+    <col min="11519" max="11519" width="10.1640625" customWidth="1"/>
+    <col min="11521" max="11521" width="11.5" customWidth="1"/>
     <col min="11522" max="11522" width="8" customWidth="1"/>
     <col min="11523" max="11523" width="10" customWidth="1"/>
-    <col min="11524" max="11524" width="9.28515625" customWidth="1"/>
-    <col min="11525" max="11525" width="10.140625" customWidth="1"/>
+    <col min="11524" max="11524" width="9.33203125" customWidth="1"/>
+    <col min="11525" max="11525" width="10.1640625" customWidth="1"/>
     <col min="11526" max="11526" width="8" customWidth="1"/>
-    <col min="11761" max="11761" width="30.42578125" customWidth="1"/>
-    <col min="11762" max="11762" width="11.42578125" customWidth="1"/>
+    <col min="11761" max="11761" width="30.5" customWidth="1"/>
+    <col min="11762" max="11762" width="11.5" customWidth="1"/>
     <col min="11763" max="11763" width="8" customWidth="1"/>
-    <col min="11764" max="11764" width="10.28515625" customWidth="1"/>
-    <col min="11765" max="11765" width="8.28515625" customWidth="1"/>
+    <col min="11764" max="11764" width="10.33203125" customWidth="1"/>
+    <col min="11765" max="11765" width="8.33203125" customWidth="1"/>
     <col min="11766" max="11766" width="10" customWidth="1"/>
     <col min="11767" max="11771" width="8" customWidth="1"/>
-    <col min="11772" max="11772" width="8.28515625" customWidth="1"/>
+    <col min="11772" max="11772" width="8.33203125" customWidth="1"/>
     <col min="11773" max="11773" width="9" customWidth="1"/>
-    <col min="11774" max="11774" width="28.140625" customWidth="1"/>
-    <col min="11775" max="11775" width="10.140625" customWidth="1"/>
-    <col min="11777" max="11777" width="11.42578125" customWidth="1"/>
+    <col min="11774" max="11774" width="28.1640625" customWidth="1"/>
+    <col min="11775" max="11775" width="10.1640625" customWidth="1"/>
+    <col min="11777" max="11777" width="11.5" customWidth="1"/>
     <col min="11778" max="11778" width="8" customWidth="1"/>
     <col min="11779" max="11779" width="10" customWidth="1"/>
-    <col min="11780" max="11780" width="9.28515625" customWidth="1"/>
-    <col min="11781" max="11781" width="10.140625" customWidth="1"/>
+    <col min="11780" max="11780" width="9.33203125" customWidth="1"/>
+    <col min="11781" max="11781" width="10.1640625" customWidth="1"/>
     <col min="11782" max="11782" width="8" customWidth="1"/>
-    <col min="12017" max="12017" width="30.42578125" customWidth="1"/>
-    <col min="12018" max="12018" width="11.42578125" customWidth="1"/>
+    <col min="12017" max="12017" width="30.5" customWidth="1"/>
+    <col min="12018" max="12018" width="11.5" customWidth="1"/>
     <col min="12019" max="12019" width="8" customWidth="1"/>
-    <col min="12020" max="12020" width="10.28515625" customWidth="1"/>
-    <col min="12021" max="12021" width="8.28515625" customWidth="1"/>
+    <col min="12020" max="12020" width="10.33203125" customWidth="1"/>
+    <col min="12021" max="12021" width="8.33203125" customWidth="1"/>
     <col min="12022" max="12022" width="10" customWidth="1"/>
     <col min="12023" max="12027" width="8" customWidth="1"/>
-    <col min="12028" max="12028" width="8.28515625" customWidth="1"/>
+    <col min="12028" max="12028" width="8.33203125" customWidth="1"/>
     <col min="12029" max="12029" width="9" customWidth="1"/>
-    <col min="12030" max="12030" width="28.140625" customWidth="1"/>
-    <col min="12031" max="12031" width="10.140625" customWidth="1"/>
-    <col min="12033" max="12033" width="11.42578125" customWidth="1"/>
+    <col min="12030" max="12030" width="28.1640625" customWidth="1"/>
+    <col min="12031" max="12031" width="10.1640625" customWidth="1"/>
+    <col min="12033" max="12033" width="11.5" customWidth="1"/>
     <col min="12034" max="12034" width="8" customWidth="1"/>
     <col min="12035" max="12035" width="10" customWidth="1"/>
-    <col min="12036" max="12036" width="9.28515625" customWidth="1"/>
-    <col min="12037" max="12037" width="10.140625" customWidth="1"/>
+    <col min="12036" max="12036" width="9.33203125" customWidth="1"/>
+    <col min="12037" max="12037" width="10.1640625" customWidth="1"/>
     <col min="12038" max="12038" width="8" customWidth="1"/>
-    <col min="12273" max="12273" width="30.42578125" customWidth="1"/>
-    <col min="12274" max="12274" width="11.42578125" customWidth="1"/>
+    <col min="12273" max="12273" width="30.5" customWidth="1"/>
+    <col min="12274" max="12274" width="11.5" customWidth="1"/>
     <col min="12275" max="12275" width="8" customWidth="1"/>
-    <col min="12276" max="12276" width="10.28515625" customWidth="1"/>
-    <col min="12277" max="12277" width="8.28515625" customWidth="1"/>
+    <col min="12276" max="12276" width="10.33203125" customWidth="1"/>
+    <col min="12277" max="12277" width="8.33203125" customWidth="1"/>
     <col min="12278" max="12278" width="10" customWidth="1"/>
     <col min="12279" max="12283" width="8" customWidth="1"/>
-    <col min="12284" max="12284" width="8.28515625" customWidth="1"/>
+    <col min="12284" max="12284" width="8.33203125" customWidth="1"/>
     <col min="12285" max="12285" width="9" customWidth="1"/>
-    <col min="12286" max="12286" width="28.140625" customWidth="1"/>
-    <col min="12287" max="12287" width="10.140625" customWidth="1"/>
-    <col min="12289" max="12289" width="11.42578125" customWidth="1"/>
+    <col min="12286" max="12286" width="28.1640625" customWidth="1"/>
+    <col min="12287" max="12287" width="10.1640625" customWidth="1"/>
+    <col min="12289" max="12289" width="11.5" customWidth="1"/>
     <col min="12290" max="12290" width="8" customWidth="1"/>
     <col min="12291" max="12291" width="10" customWidth="1"/>
-    <col min="12292" max="12292" width="9.28515625" customWidth="1"/>
-    <col min="12293" max="12293" width="10.140625" customWidth="1"/>
+    <col min="12292" max="12292" width="9.33203125" customWidth="1"/>
+    <col min="12293" max="12293" width="10.1640625" customWidth="1"/>
     <col min="12294" max="12294" width="8" customWidth="1"/>
-    <col min="12529" max="12529" width="30.42578125" customWidth="1"/>
-    <col min="12530" max="12530" width="11.42578125" customWidth="1"/>
+    <col min="12529" max="12529" width="30.5" customWidth="1"/>
+    <col min="12530" max="12530" width="11.5" customWidth="1"/>
     <col min="12531" max="12531" width="8" customWidth="1"/>
-    <col min="12532" max="12532" width="10.28515625" customWidth="1"/>
-    <col min="12533" max="12533" width="8.28515625" customWidth="1"/>
+    <col min="12532" max="12532" width="10.33203125" customWidth="1"/>
+    <col min="12533" max="12533" width="8.33203125" customWidth="1"/>
     <col min="12534" max="12534" width="10" customWidth="1"/>
     <col min="12535" max="12539" width="8" customWidth="1"/>
-    <col min="12540" max="12540" width="8.28515625" customWidth="1"/>
+    <col min="12540" max="12540" width="8.33203125" customWidth="1"/>
     <col min="12541" max="12541" width="9" customWidth="1"/>
-    <col min="12542" max="12542" width="28.140625" customWidth="1"/>
-    <col min="12543" max="12543" width="10.140625" customWidth="1"/>
-    <col min="12545" max="12545" width="11.42578125" customWidth="1"/>
+    <col min="12542" max="12542" width="28.1640625" customWidth="1"/>
+    <col min="12543" max="12543" width="10.1640625" customWidth="1"/>
+    <col min="12545" max="12545" width="11.5" customWidth="1"/>
     <col min="12546" max="12546" width="8" customWidth="1"/>
     <col min="12547" max="12547" width="10" customWidth="1"/>
-    <col min="12548" max="12548" width="9.28515625" customWidth="1"/>
-    <col min="12549" max="12549" width="10.140625" customWidth="1"/>
+    <col min="12548" max="12548" width="9.33203125" customWidth="1"/>
+    <col min="12549" max="12549" width="10.1640625" customWidth="1"/>
     <col min="12550" max="12550" width="8" customWidth="1"/>
-    <col min="12785" max="12785" width="30.42578125" customWidth="1"/>
-    <col min="12786" max="12786" width="11.42578125" customWidth="1"/>
+    <col min="12785" max="12785" width="30.5" customWidth="1"/>
+    <col min="12786" max="12786" width="11.5" customWidth="1"/>
     <col min="12787" max="12787" width="8" customWidth="1"/>
-    <col min="12788" max="12788" width="10.28515625" customWidth="1"/>
-    <col min="12789" max="12789" width="8.28515625" customWidth="1"/>
+    <col min="12788" max="12788" width="10.33203125" customWidth="1"/>
+    <col min="12789" max="12789" width="8.33203125" customWidth="1"/>
     <col min="12790" max="12790" width="10" customWidth="1"/>
     <col min="12791" max="12795" width="8" customWidth="1"/>
-    <col min="12796" max="12796" width="8.28515625" customWidth="1"/>
+    <col min="12796" max="12796" width="8.33203125" customWidth="1"/>
     <col min="12797" max="12797" width="9" customWidth="1"/>
-    <col min="12798" max="12798" width="28.140625" customWidth="1"/>
-    <col min="12799" max="12799" width="10.140625" customWidth="1"/>
-    <col min="12801" max="12801" width="11.42578125" customWidth="1"/>
+    <col min="12798" max="12798" width="28.1640625" customWidth="1"/>
+    <col min="12799" max="12799" width="10.1640625" customWidth="1"/>
+    <col min="12801" max="12801" width="11.5" customWidth="1"/>
     <col min="12802" max="12802" width="8" customWidth="1"/>
     <col min="12803" max="12803" width="10" customWidth="1"/>
-    <col min="12804" max="12804" width="9.28515625" customWidth="1"/>
-    <col min="12805" max="12805" width="10.140625" customWidth="1"/>
+    <col min="12804" max="12804" width="9.33203125" customWidth="1"/>
+    <col min="12805" max="12805" width="10.1640625" customWidth="1"/>
     <col min="12806" max="12806" width="8" customWidth="1"/>
-    <col min="13041" max="13041" width="30.42578125" customWidth="1"/>
-    <col min="13042" max="13042" width="11.42578125" customWidth="1"/>
+    <col min="13041" max="13041" width="30.5" customWidth="1"/>
+    <col min="13042" max="13042" width="11.5" customWidth="1"/>
     <col min="13043" max="13043" width="8" customWidth="1"/>
-    <col min="13044" max="13044" width="10.28515625" customWidth="1"/>
-    <col min="13045" max="13045" width="8.28515625" customWidth="1"/>
+    <col min="13044" max="13044" width="10.33203125" customWidth="1"/>
+    <col min="13045" max="13045" width="8.33203125" customWidth="1"/>
     <col min="13046" max="13046" width="10" customWidth="1"/>
     <col min="13047" max="13051" width="8" customWidth="1"/>
-    <col min="13052" max="13052" width="8.28515625" customWidth="1"/>
+    <col min="13052" max="13052" width="8.33203125" customWidth="1"/>
     <col min="13053" max="13053" width="9" customWidth="1"/>
-    <col min="13054" max="13054" width="28.140625" customWidth="1"/>
-    <col min="13055" max="13055" width="10.140625" customWidth="1"/>
-    <col min="13057" max="13057" width="11.42578125" customWidth="1"/>
+    <col min="13054" max="13054" width="28.1640625" customWidth="1"/>
+    <col min="13055" max="13055" width="10.1640625" customWidth="1"/>
+    <col min="13057" max="13057" width="11.5" customWidth="1"/>
     <col min="13058" max="13058" width="8" customWidth="1"/>
     <col min="13059" max="13059" width="10" customWidth="1"/>
-    <col min="13060" max="13060" width="9.28515625" customWidth="1"/>
-    <col min="13061" max="13061" width="10.140625" customWidth="1"/>
+    <col min="13060" max="13060" width="9.33203125" customWidth="1"/>
+    <col min="13061" max="13061" width="10.1640625" customWidth="1"/>
     <col min="13062" max="13062" width="8" customWidth="1"/>
-    <col min="13297" max="13297" width="30.42578125" customWidth="1"/>
-    <col min="13298" max="13298" width="11.42578125" customWidth="1"/>
+    <col min="13297" max="13297" width="30.5" customWidth="1"/>
+    <col min="13298" max="13298" width="11.5" customWidth="1"/>
     <col min="13299" max="13299" width="8" customWidth="1"/>
-    <col min="13300" max="13300" width="10.28515625" customWidth="1"/>
-    <col min="13301" max="13301" width="8.28515625" customWidth="1"/>
+    <col min="13300" max="13300" width="10.33203125" customWidth="1"/>
+    <col min="13301" max="13301" width="8.33203125" customWidth="1"/>
     <col min="13302" max="13302" width="10" customWidth="1"/>
     <col min="13303" max="13307" width="8" customWidth="1"/>
-    <col min="13308" max="13308" width="8.28515625" customWidth="1"/>
+    <col min="13308" max="13308" width="8.33203125" customWidth="1"/>
     <col min="13309" max="13309" width="9" customWidth="1"/>
-    <col min="13310" max="13310" width="28.140625" customWidth="1"/>
-    <col min="13311" max="13311" width="10.140625" customWidth="1"/>
-    <col min="13313" max="13313" width="11.42578125" customWidth="1"/>
+    <col min="13310" max="13310" width="28.1640625" customWidth="1"/>
+    <col min="13311" max="13311" width="10.1640625" customWidth="1"/>
+    <col min="13313" max="13313" width="11.5" customWidth="1"/>
     <col min="13314" max="13314" width="8" customWidth="1"/>
     <col min="13315" max="13315" width="10" customWidth="1"/>
-    <col min="13316" max="13316" width="9.28515625" customWidth="1"/>
-    <col min="13317" max="13317" width="10.140625" customWidth="1"/>
+    <col min="13316" max="13316" width="9.33203125" customWidth="1"/>
+    <col min="13317" max="13317" width="10.1640625" customWidth="1"/>
     <col min="13318" max="13318" width="8" customWidth="1"/>
-    <col min="13553" max="13553" width="30.42578125" customWidth="1"/>
-    <col min="13554" max="13554" width="11.42578125" customWidth="1"/>
+    <col min="13553" max="13553" width="30.5" customWidth="1"/>
+    <col min="13554" max="13554" width="11.5" customWidth="1"/>
     <col min="13555" max="13555" width="8" customWidth="1"/>
-    <col min="13556" max="13556" width="10.28515625" customWidth="1"/>
-    <col min="13557" max="13557" width="8.28515625" customWidth="1"/>
+    <col min="13556" max="13556" width="10.33203125" customWidth="1"/>
+    <col min="13557" max="13557" width="8.33203125" customWidth="1"/>
     <col min="13558" max="13558" width="10" customWidth="1"/>
     <col min="13559" max="13563" width="8" customWidth="1"/>
-    <col min="13564" max="13564" width="8.28515625" customWidth="1"/>
+    <col min="13564" max="13564" width="8.33203125" customWidth="1"/>
     <col min="13565" max="13565" width="9" customWidth="1"/>
-    <col min="13566" max="13566" width="28.140625" customWidth="1"/>
-    <col min="13567" max="13567" width="10.140625" customWidth="1"/>
-    <col min="13569" max="13569" width="11.42578125" customWidth="1"/>
+    <col min="13566" max="13566" width="28.1640625" customWidth="1"/>
+    <col min="13567" max="13567" width="10.1640625" customWidth="1"/>
+    <col min="13569" max="13569" width="11.5" customWidth="1"/>
     <col min="13570" max="13570" width="8" customWidth="1"/>
     <col min="13571" max="13571" width="10" customWidth="1"/>
-    <col min="13572" max="13572" width="9.28515625" customWidth="1"/>
-    <col min="13573" max="13573" width="10.140625" customWidth="1"/>
+    <col min="13572" max="13572" width="9.33203125" customWidth="1"/>
+    <col min="13573" max="13573" width="10.1640625" customWidth="1"/>
     <col min="13574" max="13574" width="8" customWidth="1"/>
-    <col min="13809" max="13809" width="30.42578125" customWidth="1"/>
-    <col min="13810" max="13810" width="11.42578125" customWidth="1"/>
+    <col min="13809" max="13809" width="30.5" customWidth="1"/>
+    <col min="13810" max="13810" width="11.5" customWidth="1"/>
     <col min="13811" max="13811" width="8" customWidth="1"/>
-    <col min="13812" max="13812" width="10.28515625" customWidth="1"/>
-    <col min="13813" max="13813" width="8.28515625" customWidth="1"/>
+    <col min="13812" max="13812" width="10.33203125" customWidth="1"/>
+    <col min="13813" max="13813" width="8.33203125" customWidth="1"/>
     <col min="13814" max="13814" width="10" customWidth="1"/>
     <col min="13815" max="13819" width="8" customWidth="1"/>
-    <col min="13820" max="13820" width="8.28515625" customWidth="1"/>
+    <col min="13820" max="13820" width="8.33203125" customWidth="1"/>
     <col min="13821" max="13821" width="9" customWidth="1"/>
-    <col min="13822" max="13822" width="28.140625" customWidth="1"/>
-    <col min="13823" max="13823" width="10.140625" customWidth="1"/>
-    <col min="13825" max="13825" width="11.42578125" customWidth="1"/>
+    <col min="13822" max="13822" width="28.1640625" customWidth="1"/>
+    <col min="13823" max="13823" width="10.1640625" customWidth="1"/>
+    <col min="13825" max="13825" width="11.5" customWidth="1"/>
     <col min="13826" max="13826" width="8" customWidth="1"/>
     <col min="13827" max="13827" width="10" customWidth="1"/>
-    <col min="13828" max="13828" width="9.28515625" customWidth="1"/>
-    <col min="13829" max="13829" width="10.140625" customWidth="1"/>
+    <col min="13828" max="13828" width="9.33203125" customWidth="1"/>
+    <col min="13829" max="13829" width="10.1640625" customWidth="1"/>
     <col min="13830" max="13830" width="8" customWidth="1"/>
-    <col min="14065" max="14065" width="30.42578125" customWidth="1"/>
-    <col min="14066" max="14066" width="11.42578125" customWidth="1"/>
+    <col min="14065" max="14065" width="30.5" customWidth="1"/>
+    <col min="14066" max="14066" width="11.5" customWidth="1"/>
     <col min="14067" max="14067" width="8" customWidth="1"/>
-    <col min="14068" max="14068" width="10.28515625" customWidth="1"/>
-    <col min="14069" max="14069" width="8.28515625" customWidth="1"/>
+    <col min="14068" max="14068" width="10.33203125" customWidth="1"/>
+    <col min="14069" max="14069" width="8.33203125" customWidth="1"/>
     <col min="14070" max="14070" width="10" customWidth="1"/>
     <col min="14071" max="14075" width="8" customWidth="1"/>
-    <col min="14076" max="14076" width="8.28515625" customWidth="1"/>
+    <col min="14076" max="14076" width="8.33203125" customWidth="1"/>
     <col min="14077" max="14077" width="9" customWidth="1"/>
-    <col min="14078" max="14078" width="28.140625" customWidth="1"/>
-    <col min="14079" max="14079" width="10.140625" customWidth="1"/>
-    <col min="14081" max="14081" width="11.42578125" customWidth="1"/>
+    <col min="14078" max="14078" width="28.1640625" customWidth="1"/>
+    <col min="14079" max="14079" width="10.1640625" customWidth="1"/>
+    <col min="14081" max="14081" width="11.5" customWidth="1"/>
     <col min="14082" max="14082" width="8" customWidth="1"/>
     <col min="14083" max="14083" width="10" customWidth="1"/>
-    <col min="14084" max="14084" width="9.28515625" customWidth="1"/>
-    <col min="14085" max="14085" width="10.140625" customWidth="1"/>
+    <col min="14084" max="14084" width="9.33203125" customWidth="1"/>
+    <col min="14085" max="14085" width="10.1640625" customWidth="1"/>
     <col min="14086" max="14086" width="8" customWidth="1"/>
-    <col min="14321" max="14321" width="30.42578125" customWidth="1"/>
-    <col min="14322" max="14322" width="11.42578125" customWidth="1"/>
+    <col min="14321" max="14321" width="30.5" customWidth="1"/>
+    <col min="14322" max="14322" width="11.5" customWidth="1"/>
     <col min="14323" max="14323" width="8" customWidth="1"/>
-    <col min="14324" max="14324" width="10.28515625" customWidth="1"/>
-    <col min="14325" max="14325" width="8.28515625" customWidth="1"/>
+    <col min="14324" max="14324" width="10.33203125" customWidth="1"/>
+    <col min="14325" max="14325" width="8.33203125" customWidth="1"/>
     <col min="14326" max="14326" width="10" customWidth="1"/>
     <col min="14327" max="14331" width="8" customWidth="1"/>
-    <col min="14332" max="14332" width="8.28515625" customWidth="1"/>
+    <col min="14332" max="14332" width="8.33203125" customWidth="1"/>
     <col min="14333" max="14333" width="9" customWidth="1"/>
-    <col min="14334" max="14334" width="28.140625" customWidth="1"/>
-    <col min="14335" max="14335" width="10.140625" customWidth="1"/>
-    <col min="14337" max="14337" width="11.42578125" customWidth="1"/>
+    <col min="14334" max="14334" width="28.1640625" customWidth="1"/>
+    <col min="14335" max="14335" width="10.1640625" customWidth="1"/>
+    <col min="14337" max="14337" width="11.5" customWidth="1"/>
     <col min="14338" max="14338" width="8" customWidth="1"/>
     <col min="14339" max="14339" width="10" customWidth="1"/>
-    <col min="14340" max="14340" width="9.28515625" customWidth="1"/>
-    <col min="14341" max="14341" width="10.140625" customWidth="1"/>
+    <col min="14340" max="14340" width="9.33203125" customWidth="1"/>
+    <col min="14341" max="14341" width="10.1640625" customWidth="1"/>
     <col min="14342" max="14342" width="8" customWidth="1"/>
-    <col min="14577" max="14577" width="30.42578125" customWidth="1"/>
-    <col min="14578" max="14578" width="11.42578125" customWidth="1"/>
+    <col min="14577" max="14577" width="30.5" customWidth="1"/>
+    <col min="14578" max="14578" width="11.5" customWidth="1"/>
     <col min="14579" max="14579" width="8" customWidth="1"/>
-    <col min="14580" max="14580" width="10.28515625" customWidth="1"/>
-    <col min="14581" max="14581" width="8.28515625" customWidth="1"/>
+    <col min="14580" max="14580" width="10.33203125" customWidth="1"/>
+    <col min="14581" max="14581" width="8.33203125" customWidth="1"/>
     <col min="14582" max="14582" width="10" customWidth="1"/>
     <col min="14583" max="14587" width="8" customWidth="1"/>
-    <col min="14588" max="14588" width="8.28515625" customWidth="1"/>
+    <col min="14588" max="14588" width="8.33203125" customWidth="1"/>
     <col min="14589" max="14589" width="9" customWidth="1"/>
-    <col min="14590" max="14590" width="28.140625" customWidth="1"/>
-    <col min="14591" max="14591" width="10.140625" customWidth="1"/>
-    <col min="14593" max="14593" width="11.42578125" customWidth="1"/>
+    <col min="14590" max="14590" width="28.1640625" customWidth="1"/>
+    <col min="14591" max="14591" width="10.1640625" customWidth="1"/>
+    <col min="14593" max="14593" width="11.5" customWidth="1"/>
     <col min="14594" max="14594" width="8" customWidth="1"/>
     <col min="14595" max="14595" width="10" customWidth="1"/>
-    <col min="14596" max="14596" width="9.28515625" customWidth="1"/>
-    <col min="14597" max="14597" width="10.140625" customWidth="1"/>
+    <col min="14596" max="14596" width="9.33203125" customWidth="1"/>
+    <col min="14597" max="14597" width="10.1640625" customWidth="1"/>
     <col min="14598" max="14598" width="8" customWidth="1"/>
-    <col min="14833" max="14833" width="30.42578125" customWidth="1"/>
-    <col min="14834" max="14834" width="11.42578125" customWidth="1"/>
+    <col min="14833" max="14833" width="30.5" customWidth="1"/>
+    <col min="14834" max="14834" width="11.5" customWidth="1"/>
     <col min="14835" max="14835" width="8" customWidth="1"/>
-    <col min="14836" max="14836" width="10.28515625" customWidth="1"/>
-    <col min="14837" max="14837" width="8.28515625" customWidth="1"/>
+    <col min="14836" max="14836" width="10.33203125" customWidth="1"/>
+    <col min="14837" max="14837" width="8.33203125" customWidth="1"/>
     <col min="14838" max="14838" width="10" customWidth="1"/>
     <col min="14839" max="14843" width="8" customWidth="1"/>
-    <col min="14844" max="14844" width="8.28515625" customWidth="1"/>
+    <col min="14844" max="14844" width="8.33203125" customWidth="1"/>
     <col min="14845" max="14845" width="9" customWidth="1"/>
-    <col min="14846" max="14846" width="28.140625" customWidth="1"/>
-    <col min="14847" max="14847" width="10.140625" customWidth="1"/>
-    <col min="14849" max="14849" width="11.42578125" customWidth="1"/>
+    <col min="14846" max="14846" width="28.1640625" customWidth="1"/>
+    <col min="14847" max="14847" width="10.1640625" customWidth="1"/>
+    <col min="14849" max="14849" width="11.5" customWidth="1"/>
     <col min="14850" max="14850" width="8" customWidth="1"/>
     <col min="14851" max="14851" width="10" customWidth="1"/>
-    <col min="14852" max="14852" width="9.28515625" customWidth="1"/>
-    <col min="14853" max="14853" width="10.140625" customWidth="1"/>
+    <col min="14852" max="14852" width="9.33203125" customWidth="1"/>
+    <col min="14853" max="14853" width="10.1640625" customWidth="1"/>
     <col min="14854" max="14854" width="8" customWidth="1"/>
-    <col min="15089" max="15089" width="30.42578125" customWidth="1"/>
-    <col min="15090" max="15090" width="11.42578125" customWidth="1"/>
+    <col min="15089" max="15089" width="30.5" customWidth="1"/>
+    <col min="15090" max="15090" width="11.5" customWidth="1"/>
     <col min="15091" max="15091" width="8" customWidth="1"/>
-    <col min="15092" max="15092" width="10.28515625" customWidth="1"/>
-    <col min="15093" max="15093" width="8.28515625" customWidth="1"/>
+    <col min="15092" max="15092" width="10.33203125" customWidth="1"/>
+    <col min="15093" max="15093" width="8.33203125" customWidth="1"/>
     <col min="15094" max="15094" width="10" customWidth="1"/>
     <col min="15095" max="15099" width="8" customWidth="1"/>
-    <col min="15100" max="15100" width="8.28515625" customWidth="1"/>
+    <col min="15100" max="15100" width="8.33203125" customWidth="1"/>
     <col min="15101" max="15101" width="9" customWidth="1"/>
-    <col min="15102" max="15102" width="28.140625" customWidth="1"/>
-    <col min="15103" max="15103" width="10.140625" customWidth="1"/>
-    <col min="15105" max="15105" width="11.42578125" customWidth="1"/>
+    <col min="15102" max="15102" width="28.1640625" customWidth="1"/>
+    <col min="15103" max="15103" width="10.1640625" customWidth="1"/>
+    <col min="15105" max="15105" width="11.5" customWidth="1"/>
     <col min="15106" max="15106" width="8" customWidth="1"/>
     <col min="15107" max="15107" width="10" customWidth="1"/>
-    <col min="15108" max="15108" width="9.28515625" customWidth="1"/>
-    <col min="15109" max="15109" width="10.140625" customWidth="1"/>
+    <col min="15108" max="15108" width="9.33203125" customWidth="1"/>
+    <col min="15109" max="15109" width="10.1640625" customWidth="1"/>
     <col min="15110" max="15110" width="8" customWidth="1"/>
-    <col min="15345" max="15345" width="30.42578125" customWidth="1"/>
-    <col min="15346" max="15346" width="11.42578125" customWidth="1"/>
+    <col min="15345" max="15345" width="30.5" customWidth="1"/>
+    <col min="15346" max="15346" width="11.5" customWidth="1"/>
     <col min="15347" max="15347" width="8" customWidth="1"/>
-    <col min="15348" max="15348" width="10.28515625" customWidth="1"/>
-    <col min="15349" max="15349" width="8.28515625" customWidth="1"/>
+    <col min="15348" max="15348" width="10.33203125" customWidth="1"/>
+    <col min="15349" max="15349" width="8.33203125" customWidth="1"/>
     <col min="15350" max="15350" width="10" customWidth="1"/>
     <col min="15351" max="15355" width="8" customWidth="1"/>
-    <col min="15356" max="15356" width="8.28515625" customWidth="1"/>
+    <col min="15356" max="15356" width="8.33203125" customWidth="1"/>
     <col min="15357" max="15357" width="9" customWidth="1"/>
-    <col min="15358" max="15358" width="28.140625" customWidth="1"/>
-    <col min="15359" max="15359" width="10.140625" customWidth="1"/>
-    <col min="15361" max="15361" width="11.42578125" customWidth="1"/>
+    <col min="15358" max="15358" width="28.1640625" customWidth="1"/>
+    <col min="15359" max="15359" width="10.1640625" customWidth="1"/>
+    <col min="15361" max="15361" width="11.5" customWidth="1"/>
     <col min="15362" max="15362" width="8" customWidth="1"/>
     <col min="15363" max="15363" width="10" customWidth="1"/>
-    <col min="15364" max="15364" width="9.28515625" customWidth="1"/>
-    <col min="15365" max="15365" width="10.140625" customWidth="1"/>
+    <col min="15364" max="15364" width="9.33203125" customWidth="1"/>
+    <col min="15365" max="15365" width="10.1640625" customWidth="1"/>
     <col min="15366" max="15366" width="8" customWidth="1"/>
-    <col min="15601" max="15601" width="30.42578125" customWidth="1"/>
-    <col min="15602" max="15602" width="11.42578125" customWidth="1"/>
+    <col min="15601" max="15601" width="30.5" customWidth="1"/>
+    <col min="15602" max="15602" width="11.5" customWidth="1"/>
     <col min="15603" max="15603" width="8" customWidth="1"/>
-    <col min="15604" max="15604" width="10.28515625" customWidth="1"/>
-    <col min="15605" max="15605" width="8.28515625" customWidth="1"/>
+    <col min="15604" max="15604" width="10.33203125" customWidth="1"/>
+    <col min="15605" max="15605" width="8.33203125" customWidth="1"/>
     <col min="15606" max="15606" width="10" customWidth="1"/>
     <col min="15607" max="15611" width="8" customWidth="1"/>
-    <col min="15612" max="15612" width="8.28515625" customWidth="1"/>
+    <col min="15612" max="15612" width="8.33203125" customWidth="1"/>
     <col min="15613" max="15613" width="9" customWidth="1"/>
-    <col min="15614" max="15614" width="28.140625" customWidth="1"/>
-    <col min="15615" max="15615" width="10.140625" customWidth="1"/>
-    <col min="15617" max="15617" width="11.42578125" customWidth="1"/>
+    <col min="15614" max="15614" width="28.1640625" customWidth="1"/>
+    <col min="15615" max="15615" width="10.1640625" customWidth="1"/>
+    <col min="15617" max="15617" width="11.5" customWidth="1"/>
     <col min="15618" max="15618" width="8" customWidth="1"/>
     <col min="15619" max="15619" width="10" customWidth="1"/>
-    <col min="15620" max="15620" width="9.28515625" customWidth="1"/>
-    <col min="15621" max="15621" width="10.140625" customWidth="1"/>
+    <col min="15620" max="15620" width="9.33203125" customWidth="1"/>
+    <col min="15621" max="15621" width="10.1640625" customWidth="1"/>
     <col min="15622" max="15622" width="8" customWidth="1"/>
-    <col min="15857" max="15857" width="30.42578125" customWidth="1"/>
-    <col min="15858" max="15858" width="11.42578125" customWidth="1"/>
+    <col min="15857" max="15857" width="30.5" customWidth="1"/>
+    <col min="15858" max="15858" width="11.5" customWidth="1"/>
     <col min="15859" max="15859" width="8" customWidth="1"/>
-    <col min="15860" max="15860" width="10.28515625" customWidth="1"/>
-    <col min="15861" max="15861" width="8.28515625" customWidth="1"/>
+    <col min="15860" max="15860" width="10.33203125" customWidth="1"/>
+    <col min="15861" max="15861" width="8.33203125" customWidth="1"/>
     <col min="15862" max="15862" width="10" customWidth="1"/>
     <col min="15863" max="15867" width="8" customWidth="1"/>
-    <col min="15868" max="15868" width="8.28515625" customWidth="1"/>
+    <col min="15868" max="15868" width="8.33203125" customWidth="1"/>
     <col min="15869" max="15869" width="9" customWidth="1"/>
-    <col min="15870" max="15870" width="28.140625" customWidth="1"/>
-    <col min="15871" max="15871" width="10.140625" customWidth="1"/>
-    <col min="15873" max="15873" width="11.42578125" customWidth="1"/>
+    <col min="15870" max="15870" width="28.1640625" customWidth="1"/>
+    <col min="15871" max="15871" width="10.1640625" customWidth="1"/>
+    <col min="15873" max="15873" width="11.5" customWidth="1"/>
     <col min="15874" max="15874" width="8" customWidth="1"/>
     <col min="15875" max="15875" width="10" customWidth="1"/>
-    <col min="15876" max="15876" width="9.28515625" customWidth="1"/>
-    <col min="15877" max="15877" width="10.140625" customWidth="1"/>
+    <col min="15876" max="15876" width="9.33203125" customWidth="1"/>
+    <col min="15877" max="15877" width="10.1640625" customWidth="1"/>
     <col min="15878" max="15878" width="8" customWidth="1"/>
-    <col min="16113" max="16113" width="30.42578125" customWidth="1"/>
-    <col min="16114" max="16114" width="11.42578125" customWidth="1"/>
+    <col min="16113" max="16113" width="30.5" customWidth="1"/>
+    <col min="16114" max="16114" width="11.5" customWidth="1"/>
     <col min="16115" max="16115" width="8" customWidth="1"/>
-    <col min="16116" max="16116" width="10.28515625" customWidth="1"/>
-    <col min="16117" max="16117" width="8.28515625" customWidth="1"/>
+    <col min="16116" max="16116" width="10.33203125" customWidth="1"/>
+    <col min="16117" max="16117" width="8.33203125" customWidth="1"/>
     <col min="16118" max="16118" width="10" customWidth="1"/>
     <col min="16119" max="16123" width="8" customWidth="1"/>
-    <col min="16124" max="16124" width="8.28515625" customWidth="1"/>
+    <col min="16124" max="16124" width="8.33203125" customWidth="1"/>
     <col min="16125" max="16125" width="9" customWidth="1"/>
-    <col min="16126" max="16126" width="28.140625" customWidth="1"/>
-    <col min="16127" max="16127" width="10.140625" customWidth="1"/>
-    <col min="16129" max="16129" width="11.42578125" customWidth="1"/>
+    <col min="16126" max="16126" width="28.1640625" customWidth="1"/>
+    <col min="16127" max="16127" width="10.1640625" customWidth="1"/>
+    <col min="16129" max="16129" width="11.5" customWidth="1"/>
     <col min="16130" max="16130" width="8" customWidth="1"/>
     <col min="16131" max="16131" width="10" customWidth="1"/>
-    <col min="16132" max="16132" width="9.28515625" customWidth="1"/>
-    <col min="16133" max="16133" width="10.140625" customWidth="1"/>
+    <col min="16132" max="16132" width="9.33203125" customWidth="1"/>
+    <col min="16133" max="16133" width="10.1640625" customWidth="1"/>
     <col min="16134" max="16134" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -50931,7 +50904,7 @@
       <c r="IB1" s="36"/>
       <c r="IC1" s="36"/>
     </row>
-    <row r="2" spans="1:237" ht="12">
+    <row r="2" spans="1:237">
       <c r="A2" s="63" t="str">
         <f>'Övergripande statistik'!A2</f>
         <v>Avlidna i covid-19 enligt dödsorsaksintyg inkomna fram till den 14 mars 2021</v>
@@ -51412,7 +51385,7 @@
       <c r="IB3"/>
       <c r="IC3"/>
     </row>
-    <row r="4" spans="1:237" ht="12">
+    <row r="4" spans="1:237">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -51651,7 +51624,7 @@
       <c r="IB4"/>
       <c r="IC4"/>
     </row>
-    <row r="5" spans="1:237" ht="11.4" thickBot="1">
+    <row r="5" spans="1:237" ht="14.25" thickBot="1">
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -51680,7 +51653,7 @@
       <c r="IB5"/>
       <c r="IC5"/>
     </row>
-    <row r="6" spans="1:237" ht="11.4" thickTop="1">
+    <row r="6" spans="1:237" ht="14.25" thickTop="1">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="321" t="s">
@@ -52500,7 +52473,7 @@
       <c r="IB18"/>
       <c r="IC18"/>
     </row>
-    <row r="19" spans="1:249" ht="11.4" thickBot="1">
+    <row r="19" spans="1:249" ht="14.25" thickBot="1">
       <c r="A19" s="316"/>
       <c r="B19" s="68" t="s">
         <v>158</v>
@@ -52564,19 +52537,19 @@
       <c r="IB19"/>
       <c r="IC19"/>
     </row>
-    <row r="20" spans="1:249" ht="12" thickTop="1">
+    <row r="20" spans="1:249" ht="14.25" thickTop="1">
       <c r="A20" s="128" t="s">
         <v>183</v>
       </c>
       <c r="IC20"/>
     </row>
-    <row r="21" spans="1:249" ht="11.4">
+    <row r="21" spans="1:249">
       <c r="A21" s="129" t="s">
         <v>148</v>
       </c>
       <c r="IC21"/>
     </row>
-    <row r="22" spans="1:249" ht="11.4">
+    <row r="22" spans="1:249">
       <c r="A22" s="30"/>
       <c r="H22" s="37"/>
     </row>
@@ -53362,16 +53335,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -53388,10 +53361,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1">
@@ -53409,7 +53382,7 @@
     <row r="3" spans="1:20">
       <c r="O3" s="81"/>
     </row>
-    <row r="5" spans="1:20" ht="11.4" thickBot="1"/>
+    <row r="5" spans="1:20" ht="14.25" thickBot="1"/>
     <row r="6" spans="1:20" ht="13.5" customHeight="1">
       <c r="A6" s="336" t="s">
         <v>187</v>
@@ -54068,7 +54041,7 @@
         <v>46.6666666666667</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="11.4" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1">
       <c r="A29" s="244" t="s">
         <v>275</v>
       </c>
@@ -54097,27 +54070,27 @@
         <v>32.4324324324324</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="12" thickTop="1">
+    <row r="30" spans="1:9" ht="14.25" thickTop="1">
       <c r="A30" s="126" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="11.4">
+    <row r="31" spans="1:9">
       <c r="A31" s="127" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="11.4">
+    <row r="32" spans="1:9">
       <c r="A32" s="127" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="81" customFormat="1" ht="11.4">
+    <row r="33" spans="1:8" s="81" customFormat="1">
       <c r="A33" s="127" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="11.4">
+    <row r="34" spans="1:8">
       <c r="A34" s="127" t="s">
         <v>149</v>
       </c>
@@ -54129,7 +54102,7 @@
       <c r="F36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" ht="11.4">
+    <row r="37" spans="1:8">
       <c r="B37" s="127"/>
     </row>
   </sheetData>
@@ -54188,6 +54161,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100361443839E954C488E1554F766430BDE" ma:contentTypeVersion="37" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="ec0867efc9d878e75742a5b73fddae48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd3acd59-a8d8-42b1-950d-eec6c247243c" xmlns:ns3="343f6c91-b5b3-4dff-89ad-5fc55ccc8930" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f4ea334ff345e29c5775f0a2fd1174f" ns2:_="" ns3:_="">
     <xsd:import namespace="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
@@ -54520,15 +54502,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
   <ds:schemaRefs>
@@ -54547,6 +54520,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BDD971-BADF-427E-9579-B824215A28B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -54563,12 +54544,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/socialstyrelsen/statistik-covid19-avlidna_latest.xlsx
+++ b/socialstyrelsen/statistik-covid19-avlidna_latest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\S\Delad\021-Statistik Covid\Excelfiler\Under bearbetning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Delad\510-Statistik covid19\2. Avlidna i covid-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="1235">
   <si>
     <t>Diabetes</t>
   </si>
@@ -6032,42 +6032,6 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6086,6 +6050,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6094,6 +6064,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6771,7 +6771,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7068,7 +7067,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7562,7 +7560,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7858,7 +7855,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -23144,7 +23140,9 @@
   </sheetPr>
   <dimension ref="B1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -39945,9 +39943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M84" sqref="M84"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -42656,16 +42652,16 @@
       <c r="F34" s="90"/>
     </row>
     <row r="35" spans="2:6" ht="27.75" thickTop="1">
-      <c r="B35" s="300" t="s">
+      <c r="B35" s="319" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="302" t="s">
+      <c r="D35" s="320" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="302" t="s">
+      <c r="E35" s="320" t="s">
         <v>58</v>
       </c>
       <c r="F35" s="11" t="s">
@@ -42673,45 +42669,45 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="301"/>
+      <c r="B36" s="314"/>
       <c r="C36" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="303"/>
-      <c r="E36" s="303"/>
+      <c r="D36" s="311"/>
+      <c r="E36" s="311"/>
       <c r="F36" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="301"/>
+      <c r="B37" s="314"/>
       <c r="C37" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="303"/>
-      <c r="E37" s="303"/>
+      <c r="D37" s="311"/>
+      <c r="E37" s="311"/>
       <c r="F37" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="301"/>
+      <c r="B38" s="314"/>
       <c r="C38" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D38" s="303"/>
-      <c r="E38" s="303"/>
+      <c r="D38" s="311"/>
+      <c r="E38" s="311"/>
       <c r="F38" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="27">
-      <c r="B39" s="301"/>
+      <c r="B39" s="314"/>
       <c r="C39" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D39" s="303"/>
-      <c r="E39" s="303"/>
+      <c r="D39" s="311"/>
+      <c r="E39" s="311"/>
       <c r="F39" s="12" t="s">
         <v>64</v>
       </c>
@@ -42741,22 +42737,22 @@
       <c r="F41" s="69"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="304"/>
-      <c r="C42" s="304"/>
-      <c r="D42" s="303" t="s">
+      <c r="B42" s="307"/>
+      <c r="C42" s="307"/>
+      <c r="D42" s="311" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="303" t="s">
+      <c r="E42" s="311" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="303"/>
+      <c r="F42" s="311"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="304"/>
-      <c r="C43" s="304"/>
-      <c r="D43" s="303"/>
-      <c r="E43" s="303"/>
-      <c r="F43" s="303"/>
+      <c r="B43" s="307"/>
+      <c r="C43" s="307"/>
+      <c r="D43" s="311"/>
+      <c r="E43" s="311"/>
+      <c r="F43" s="311"/>
     </row>
     <row r="44" spans="2:6" ht="14.25" thickBot="1">
       <c r="B44" s="90"/>
@@ -42770,16 +42766,16 @@
       <c r="F44" s="91"/>
     </row>
     <row r="45" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B45" s="306" t="s">
+      <c r="B45" s="313" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="307" t="s">
+      <c r="D45" s="315" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="307" t="s">
+      <c r="E45" s="315" t="s">
         <v>75</v>
       </c>
       <c r="F45" s="68" t="s">
@@ -42787,30 +42783,30 @@
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="301"/>
+      <c r="B46" s="314"/>
       <c r="C46" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="304"/>
-      <c r="E46" s="304"/>
+      <c r="D46" s="307"/>
+      <c r="E46" s="307"/>
       <c r="F46" s="68"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="301"/>
+      <c r="B47" s="314"/>
       <c r="C47" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="304"/>
-      <c r="E47" s="304"/>
+      <c r="D47" s="307"/>
+      <c r="E47" s="307"/>
       <c r="F47" s="68"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="301"/>
+      <c r="B48" s="314"/>
       <c r="C48" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D48" s="304"/>
-      <c r="E48" s="304"/>
+      <c r="D48" s="307"/>
+      <c r="E48" s="307"/>
       <c r="F48" s="68"/>
     </row>
     <row r="49" spans="2:6" ht="27">
@@ -42862,46 +42858,46 @@
       <c r="F52" s="90"/>
     </row>
     <row r="53" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B53" s="308" t="s">
+      <c r="B53" s="316" t="s">
         <v>85</v>
       </c>
       <c r="C53" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="310" t="s">
+      <c r="D53" s="317" t="s">
         <v>86</v>
       </c>
-      <c r="E53" s="310" t="s">
+      <c r="E53" s="317" t="s">
         <v>85</v>
       </c>
-      <c r="F53" s="311"/>
+      <c r="F53" s="318"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="309"/>
+      <c r="B54" s="306"/>
       <c r="C54" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="303"/>
-      <c r="E54" s="303"/>
-      <c r="F54" s="305"/>
+      <c r="D54" s="311"/>
+      <c r="E54" s="311"/>
+      <c r="F54" s="312"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="309"/>
+      <c r="B55" s="306"/>
       <c r="C55" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="303"/>
-      <c r="E55" s="303"/>
-      <c r="F55" s="305"/>
+      <c r="D55" s="311"/>
+      <c r="E55" s="311"/>
+      <c r="F55" s="312"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="309"/>
+      <c r="B56" s="306"/>
       <c r="C56" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D56" s="303"/>
-      <c r="E56" s="303"/>
-      <c r="F56" s="305"/>
+      <c r="D56" s="311"/>
+      <c r="E56" s="311"/>
+      <c r="F56" s="312"/>
     </row>
     <row r="57" spans="2:6" ht="27">
       <c r="B57" s="67"/>
@@ -42917,22 +42913,22 @@
       <c r="F57" s="66"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="309"/>
-      <c r="C58" s="304"/>
-      <c r="D58" s="303" t="s">
+      <c r="B58" s="306"/>
+      <c r="C58" s="307"/>
+      <c r="D58" s="311" t="s">
         <v>89</v>
       </c>
-      <c r="E58" s="303" t="s">
+      <c r="E58" s="311" t="s">
         <v>90</v>
       </c>
-      <c r="F58" s="305"/>
+      <c r="F58" s="312"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="309"/>
-      <c r="C59" s="304"/>
-      <c r="D59" s="303"/>
-      <c r="E59" s="303"/>
-      <c r="F59" s="305"/>
+      <c r="B59" s="306"/>
+      <c r="C59" s="307"/>
+      <c r="D59" s="311"/>
+      <c r="E59" s="311"/>
+      <c r="F59" s="312"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="67"/>
@@ -43076,10 +43072,10 @@
       <c r="E74" s="132"/>
     </row>
     <row r="75" spans="2:6" s="76" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
-      <c r="B75" s="317" t="s">
+      <c r="B75" s="305" t="s">
         <v>257</v>
       </c>
-      <c r="C75" s="317"/>
+      <c r="C75" s="305"/>
       <c r="D75" s="136"/>
       <c r="E75" s="71"/>
     </row>
@@ -43143,7 +43139,7 @@
       <c r="B84" s="153" t="s">
         <v>138</v>
       </c>
-      <c r="C84" s="318" t="s">
+      <c r="C84" s="308" t="s">
         <v>206</v>
       </c>
       <c r="D84" s="137"/>
@@ -43152,14 +43148,14 @@
       <c r="B85" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="C85" s="319"/>
+      <c r="C85" s="309"/>
       <c r="D85" s="137"/>
     </row>
     <row r="86" spans="2:5" ht="32.25" customHeight="1" thickBot="1">
       <c r="B86" s="154" t="s">
         <v>155</v>
       </c>
-      <c r="C86" s="320"/>
+      <c r="C86" s="310"/>
       <c r="D86" s="138"/>
     </row>
     <row r="87" spans="2:5" ht="14.25" thickTop="1"/>
@@ -43180,7 +43176,7 @@
       </c>
     </row>
     <row r="91" spans="2:5" ht="27">
-      <c r="B91" s="312" t="s">
+      <c r="B91" s="300" t="s">
         <v>215</v>
       </c>
       <c r="C91" s="152" t="s">
@@ -43188,14 +43184,14 @@
       </c>
     </row>
     <row r="92" spans="2:5" ht="27" customHeight="1">
-      <c r="B92" s="313"/>
-      <c r="C92" s="315" t="s">
+      <c r="B92" s="301"/>
+      <c r="C92" s="303" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="93" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B93" s="314"/>
-      <c r="C93" s="316"/>
+      <c r="B93" s="302"/>
+      <c r="C93" s="304"/>
     </row>
     <row r="94" spans="2:5" ht="14.25" thickTop="1">
       <c r="B94" s="76"/>
@@ -43203,12 +43199,13 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
     <mergeCell ref="D58:D59"/>
     <mergeCell ref="E58:E59"/>
     <mergeCell ref="F58:F59"/>
@@ -43220,13 +43217,12 @@
     <mergeCell ref="D53:D56"/>
     <mergeCell ref="E53:E56"/>
     <mergeCell ref="F53:F56"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C84:C86"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" location="Definitioner!B12" display="Dödsorsak covid-19"/>
@@ -55587,12 +55583,12 @@
       <c r="G36" s="74">
         <v>17</v>
       </c>
-      <c r="H36" s="74">
-        <v>15</v>
-      </c>
-      <c r="I36" s="7">
+      <c r="H36" s="74" t="s">
+        <v>297</v>
+      </c>
+      <c r="I36" s="7" t="str">
         <f>IF(OR(H36=0,H36="X"),"",100*H36/G36)</f>
-        <v>88.235294117647058</v>
+        <v/>
       </c>
       <c r="J36" s="74" t="s">
         <v>297</v>
@@ -55661,12 +55657,12 @@
       <c r="G38" s="74">
         <v>10</v>
       </c>
-      <c r="H38" s="74">
-        <v>8</v>
-      </c>
-      <c r="I38" s="7">
+      <c r="H38" s="74" t="s">
+        <v>297</v>
+      </c>
+      <c r="I38" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v/>
       </c>
       <c r="J38" s="74" t="s">
         <v>297</v>
@@ -60116,16 +60112,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -60902,6 +60898,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
@@ -60937,15 +60942,6 @@
     <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -61282,26 +61278,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
